--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>BRDCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8096700</v>
+        <v>6988300</v>
       </c>
       <c r="E8" s="3">
-        <v>8148000</v>
+        <v>8270000</v>
       </c>
       <c r="F8" s="3">
-        <v>7711000</v>
+        <v>8274900</v>
       </c>
       <c r="G8" s="3">
-        <v>8871100</v>
+        <v>8327300</v>
       </c>
       <c r="H8" s="3">
-        <v>8169900</v>
+        <v>7879800</v>
       </c>
       <c r="I8" s="3">
+        <v>9066300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8349700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8322400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7816100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8862300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8318900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8054200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7556300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7913900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5033200</v>
+        <v>4405200</v>
       </c>
       <c r="E9" s="3">
-        <v>5074600</v>
+        <v>5232900</v>
       </c>
       <c r="F9" s="3">
-        <v>4785200</v>
+        <v>5143900</v>
       </c>
       <c r="G9" s="3">
-        <v>5556200</v>
+        <v>5186300</v>
       </c>
       <c r="H9" s="3">
-        <v>5162100</v>
+        <v>4925000</v>
       </c>
       <c r="I9" s="3">
+        <v>5678400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5275700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5136800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4767700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5507100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5290700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4957100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4610500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4741000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3063500</v>
+        <v>2583100</v>
       </c>
       <c r="E10" s="3">
-        <v>3073400</v>
+        <v>3037100</v>
       </c>
       <c r="F10" s="3">
-        <v>2925800</v>
+        <v>3130900</v>
       </c>
       <c r="G10" s="3">
-        <v>3314900</v>
+        <v>3141000</v>
       </c>
       <c r="H10" s="3">
-        <v>3007800</v>
+        <v>2954800</v>
       </c>
       <c r="I10" s="3">
+        <v>3387800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3074000</v>
+      </c>
+      <c r="K10" s="3">
         <v>3185600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3048400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3355200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3028200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3097100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2945800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3172900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>238800</v>
+        <v>246100</v>
       </c>
       <c r="E12" s="3">
-        <v>245600</v>
+        <v>257100</v>
       </c>
       <c r="F12" s="3">
-        <v>221000</v>
+        <v>244100</v>
       </c>
       <c r="G12" s="3">
-        <v>259400</v>
+        <v>251000</v>
       </c>
       <c r="H12" s="3">
-        <v>233000</v>
+        <v>234900</v>
       </c>
       <c r="I12" s="3">
+        <v>265100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>238200</v>
+      </c>
+      <c r="K12" s="3">
         <v>228100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>220800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>241900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>216700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>232200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>207300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>215600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-245000</v>
+        <v>54600</v>
       </c>
       <c r="E14" s="3">
-        <v>48300</v>
+        <v>85500</v>
       </c>
       <c r="F14" s="3">
-        <v>-45300</v>
+        <v>-250400</v>
       </c>
       <c r="G14" s="3">
+        <v>49300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-100100</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2000</v>
       </c>
-      <c r="H14" s="3">
-        <v>-274300</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>-280400</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>99800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>9300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>58400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>39200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>97800</v>
+        <v>210500</v>
       </c>
       <c r="E15" s="3">
-        <v>92100</v>
+        <v>101100</v>
       </c>
       <c r="F15" s="3">
-        <v>97800</v>
+        <v>99900</v>
       </c>
       <c r="G15" s="3">
-        <v>81900</v>
+        <v>94100</v>
       </c>
       <c r="H15" s="3">
-        <v>82900</v>
+        <v>196700</v>
       </c>
       <c r="I15" s="3">
+        <v>83700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K15" s="3">
         <v>79500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>78600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>80500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>76300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>73000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>72800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>71300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7016000</v>
+        <v>6591000</v>
       </c>
       <c r="E17" s="3">
-        <v>7457500</v>
+        <v>7651800</v>
       </c>
       <c r="F17" s="3">
-        <v>6964500</v>
+        <v>7170400</v>
       </c>
       <c r="G17" s="3">
-        <v>7852200</v>
+        <v>7621600</v>
       </c>
       <c r="H17" s="3">
-        <v>7064500</v>
+        <v>7103600</v>
       </c>
       <c r="I17" s="3">
+        <v>8025000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7219900</v>
+      </c>
+      <c r="K17" s="3">
         <v>7417600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6908000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7883500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7444900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7166000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6700500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6887600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1080700</v>
+        <v>397300</v>
       </c>
       <c r="E18" s="3">
-        <v>690500</v>
+        <v>618200</v>
       </c>
       <c r="F18" s="3">
-        <v>746500</v>
+        <v>1104500</v>
       </c>
       <c r="G18" s="3">
-        <v>1018900</v>
+        <v>705700</v>
       </c>
       <c r="H18" s="3">
-        <v>1105400</v>
+        <v>776200</v>
       </c>
       <c r="I18" s="3">
+        <v>1041300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1129800</v>
+      </c>
+      <c r="K18" s="3">
         <v>904800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>908100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>978800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>874100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>888200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>855800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1026300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>72100</v>
+        <v>-23900</v>
       </c>
       <c r="E20" s="3">
-        <v>40000</v>
+        <v>534500</v>
       </c>
       <c r="F20" s="3">
-        <v>37900</v>
+        <v>73700</v>
       </c>
       <c r="G20" s="3">
-        <v>105100</v>
+        <v>40900</v>
       </c>
       <c r="H20" s="3">
-        <v>-24300</v>
+        <v>5800</v>
       </c>
       <c r="I20" s="3">
+        <v>107400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K20" s="3">
         <v>19900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-33000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>231400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>77600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>25400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-36800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>47400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1692800</v>
+        <v>994500</v>
       </c>
       <c r="E21" s="3">
-        <v>1238000</v>
+        <v>1702400</v>
       </c>
       <c r="F21" s="3">
-        <v>1289600</v>
+        <v>1730100</v>
       </c>
       <c r="G21" s="3">
-        <v>1585500</v>
+        <v>1169300</v>
       </c>
       <c r="H21" s="3">
-        <v>1573700</v>
+        <v>1394300</v>
       </c>
       <c r="I21" s="3">
+        <v>1620400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1608300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1369100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1340400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1700000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1425200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1353700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1259500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1502500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23200</v>
+        <v>34600</v>
       </c>
       <c r="E22" s="3">
-        <v>26200</v>
+        <v>22900</v>
       </c>
       <c r="F22" s="3">
-        <v>21900</v>
+        <v>23700</v>
       </c>
       <c r="G22" s="3">
-        <v>23700</v>
+        <v>26800</v>
       </c>
       <c r="H22" s="3">
-        <v>27100</v>
+        <v>57900</v>
       </c>
       <c r="I22" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K22" s="3">
         <v>34100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>31600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>38200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>24500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>28500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>17900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>19500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1129600</v>
+        <v>338800</v>
       </c>
       <c r="E23" s="3">
-        <v>704300</v>
+        <v>1129800</v>
       </c>
       <c r="F23" s="3">
-        <v>762500</v>
+        <v>1154500</v>
       </c>
       <c r="G23" s="3">
-        <v>1100300</v>
+        <v>719800</v>
       </c>
       <c r="H23" s="3">
-        <v>1054100</v>
+        <v>724200</v>
       </c>
       <c r="I23" s="3">
+        <v>1124500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1077300</v>
+      </c>
+      <c r="K23" s="3">
         <v>890600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>843500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1172000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>927100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>885100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>801000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1054200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>326400</v>
+        <v>134600</v>
       </c>
       <c r="E24" s="3">
-        <v>158600</v>
+        <v>312300</v>
       </c>
       <c r="F24" s="3">
-        <v>194000</v>
+        <v>333600</v>
       </c>
       <c r="G24" s="3">
-        <v>430700</v>
+        <v>162000</v>
       </c>
       <c r="H24" s="3">
-        <v>263200</v>
+        <v>185600</v>
       </c>
       <c r="I24" s="3">
+        <v>440200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>269000</v>
+      </c>
+      <c r="K24" s="3">
         <v>226900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>242800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>331900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>307100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>212300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>255800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>298900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>803200</v>
+        <v>204200</v>
       </c>
       <c r="E26" s="3">
-        <v>545700</v>
+        <v>817500</v>
       </c>
       <c r="F26" s="3">
-        <v>568600</v>
+        <v>820900</v>
       </c>
       <c r="G26" s="3">
-        <v>669600</v>
+        <v>557700</v>
       </c>
       <c r="H26" s="3">
-        <v>790900</v>
+        <v>538600</v>
       </c>
       <c r="I26" s="3">
+        <v>684300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>808300</v>
+      </c>
+      <c r="K26" s="3">
         <v>663700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>600600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>840100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>620100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>672800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>545200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>755300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>787400</v>
+        <v>180900</v>
       </c>
       <c r="E27" s="3">
-        <v>530900</v>
+        <v>810000</v>
       </c>
       <c r="F27" s="3">
-        <v>548800</v>
+        <v>804700</v>
       </c>
       <c r="G27" s="3">
-        <v>656100</v>
+        <v>542600</v>
       </c>
       <c r="H27" s="3">
-        <v>771300</v>
+        <v>518200</v>
       </c>
       <c r="I27" s="3">
+        <v>670500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>788200</v>
+      </c>
+      <c r="K27" s="3">
         <v>647300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>576300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>818200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>596000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>656300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>525400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>731700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-72100</v>
+        <v>23900</v>
       </c>
       <c r="E32" s="3">
-        <v>-40000</v>
+        <v>-534500</v>
       </c>
       <c r="F32" s="3">
-        <v>-37900</v>
+        <v>-73700</v>
       </c>
       <c r="G32" s="3">
-        <v>-105100</v>
+        <v>-40900</v>
       </c>
       <c r="H32" s="3">
-        <v>24300</v>
+        <v>-5800</v>
       </c>
       <c r="I32" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-19900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>33000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-231400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-77600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-25400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>36800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-47400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>787400</v>
+        <v>180900</v>
       </c>
       <c r="E33" s="3">
-        <v>530900</v>
+        <v>810000</v>
       </c>
       <c r="F33" s="3">
-        <v>548800</v>
+        <v>804700</v>
       </c>
       <c r="G33" s="3">
-        <v>656100</v>
+        <v>542600</v>
       </c>
       <c r="H33" s="3">
-        <v>771300</v>
+        <v>518200</v>
       </c>
       <c r="I33" s="3">
+        <v>670500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>788200</v>
+      </c>
+      <c r="K33" s="3">
         <v>647300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>576300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>818200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>596000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>656300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>525400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>731700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>787400</v>
+        <v>180900</v>
       </c>
       <c r="E35" s="3">
-        <v>530900</v>
+        <v>810000</v>
       </c>
       <c r="F35" s="3">
-        <v>548800</v>
+        <v>804700</v>
       </c>
       <c r="G35" s="3">
-        <v>656100</v>
+        <v>542600</v>
       </c>
       <c r="H35" s="3">
-        <v>771300</v>
+        <v>518200</v>
       </c>
       <c r="I35" s="3">
+        <v>670500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>788200</v>
+      </c>
+      <c r="K35" s="3">
         <v>647300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>576300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>818200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>596000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>656300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>525400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>731700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2710800</v>
+        <v>3294000</v>
       </c>
       <c r="E41" s="3">
-        <v>3952300</v>
+        <v>4021900</v>
       </c>
       <c r="F41" s="3">
-        <v>3439500</v>
+        <v>2770500</v>
       </c>
       <c r="G41" s="3">
-        <v>4003000</v>
+        <v>4039200</v>
       </c>
       <c r="H41" s="3">
-        <v>3540600</v>
+        <v>3515200</v>
       </c>
       <c r="I41" s="3">
+        <v>4091100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3618500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3839700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3842000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4627500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3814400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4267500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3099000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4284300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1341900</v>
+        <v>163800</v>
       </c>
       <c r="E42" s="3">
-        <v>1312900</v>
+        <v>1396800</v>
       </c>
       <c r="F42" s="3">
-        <v>1173700</v>
+        <v>1371400</v>
       </c>
       <c r="G42" s="3">
-        <v>1398500</v>
+        <v>1341800</v>
       </c>
       <c r="H42" s="3">
-        <v>1504900</v>
+        <v>1199500</v>
       </c>
       <c r="I42" s="3">
+        <v>1429300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1440600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1170800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2004000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1762800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1563400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1328400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1487500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5272100</v>
+        <v>6281700</v>
       </c>
       <c r="E43" s="3">
-        <v>5081000</v>
+        <v>12236700</v>
       </c>
       <c r="F43" s="3">
-        <v>5235700</v>
+        <v>5388100</v>
       </c>
       <c r="G43" s="3">
-        <v>5269400</v>
+        <v>5192800</v>
       </c>
       <c r="H43" s="3">
-        <v>5122600</v>
+        <v>5350900</v>
       </c>
       <c r="I43" s="3">
+        <v>5385300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5235300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4915100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4979300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4396600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4227700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3849600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3759800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3894300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5584900</v>
+        <v>5796200</v>
       </c>
       <c r="E44" s="3">
-        <v>5712300</v>
+        <v>11395000</v>
       </c>
       <c r="F44" s="3">
-        <v>5813000</v>
+        <v>5707800</v>
       </c>
       <c r="G44" s="3">
-        <v>5610600</v>
+        <v>5838000</v>
       </c>
       <c r="H44" s="3">
-        <v>5882600</v>
+        <v>5940900</v>
       </c>
       <c r="I44" s="3">
+        <v>5734100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6012000</v>
+      </c>
+      <c r="K44" s="3">
         <v>5542800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5444800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>5335200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5557500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>5631700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>5198100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4944200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1276400</v>
+        <v>678900</v>
       </c>
       <c r="E45" s="3">
-        <v>1224200</v>
+        <v>795900</v>
       </c>
       <c r="F45" s="3">
-        <v>1151100</v>
+        <v>1304500</v>
       </c>
       <c r="G45" s="3">
-        <v>1102500</v>
+        <v>1251100</v>
       </c>
       <c r="H45" s="3">
-        <v>1741900</v>
+        <v>1176500</v>
       </c>
       <c r="I45" s="3">
+        <v>1126800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1780200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1605900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1554400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1599400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1782100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1801500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1521500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1552300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16186200</v>
+        <v>16214600</v>
       </c>
       <c r="E46" s="3">
-        <v>17282800</v>
+        <v>17822000</v>
       </c>
       <c r="F46" s="3">
-        <v>16813000</v>
+        <v>16542300</v>
       </c>
       <c r="G46" s="3">
-        <v>17384100</v>
+        <v>17663100</v>
       </c>
       <c r="H46" s="3">
-        <v>17792500</v>
+        <v>17183000</v>
       </c>
       <c r="I46" s="3">
+        <v>17766600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>18184000</v>
+      </c>
+      <c r="K46" s="3">
         <v>17344100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16991400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17962800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>17144600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>17113800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>14906800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>16162500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1733400</v>
+        <v>1587300</v>
       </c>
       <c r="E47" s="3">
-        <v>1828600</v>
+        <v>3049100</v>
       </c>
       <c r="F47" s="3">
-        <v>2021400</v>
+        <v>1771500</v>
       </c>
       <c r="G47" s="3">
-        <v>1985700</v>
+        <v>1868800</v>
       </c>
       <c r="H47" s="3">
-        <v>2657000</v>
+        <v>2065900</v>
       </c>
       <c r="I47" s="3">
+        <v>2029400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2715400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2197500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2397300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2506000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2589900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2498300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2378500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2322300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13571700</v>
+        <v>16521500</v>
       </c>
       <c r="E48" s="3">
-        <v>13606700</v>
+        <v>31733700</v>
       </c>
       <c r="F48" s="3">
-        <v>13820300</v>
+        <v>13870300</v>
       </c>
       <c r="G48" s="3">
-        <v>13347500</v>
+        <v>13906100</v>
       </c>
       <c r="H48" s="3">
-        <v>13181800</v>
+        <v>14124400</v>
       </c>
       <c r="I48" s="3">
+        <v>13641200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13471900</v>
+      </c>
+      <c r="K48" s="3">
         <v>12947700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12817300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13316300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12869100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12797900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>12444100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12853700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1724200</v>
+        <v>1929000</v>
       </c>
       <c r="E49" s="3">
-        <v>1755200</v>
+        <v>3874500</v>
       </c>
       <c r="F49" s="3">
-        <v>814900</v>
+        <v>1762200</v>
       </c>
       <c r="G49" s="3">
-        <v>922200</v>
+        <v>1793800</v>
       </c>
       <c r="H49" s="3">
-        <v>933700</v>
+        <v>832900</v>
       </c>
       <c r="I49" s="3">
+        <v>942500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>954200</v>
+      </c>
+      <c r="K49" s="3">
         <v>903400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>891800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>949500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>992600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>988400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>656000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>657700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1338800</v>
+        <v>950900</v>
       </c>
       <c r="E52" s="3">
-        <v>1377900</v>
+        <v>1841200</v>
       </c>
       <c r="F52" s="3">
-        <v>1379500</v>
+        <v>1368200</v>
       </c>
       <c r="G52" s="3">
-        <v>1268600</v>
+        <v>1408200</v>
       </c>
       <c r="H52" s="3">
-        <v>1094000</v>
+        <v>1409800</v>
       </c>
       <c r="I52" s="3">
+        <v>1296500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1118100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1054100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1038900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1055100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1022800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>998600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>934800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>965000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34554300</v>
+        <v>37203200</v>
       </c>
       <c r="E54" s="3">
-        <v>35851100</v>
+        <v>39733500</v>
       </c>
       <c r="F54" s="3">
-        <v>34849100</v>
+        <v>35314600</v>
       </c>
       <c r="G54" s="3">
-        <v>34908000</v>
+        <v>36639900</v>
       </c>
       <c r="H54" s="3">
-        <v>35659000</v>
+        <v>35615900</v>
       </c>
       <c r="I54" s="3">
+        <v>35676100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>36443600</v>
+      </c>
+      <c r="K54" s="3">
         <v>34446800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>34136600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>35789700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>34619000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>34397000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>31320200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>32961200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1815100</v>
+        <v>3298700</v>
       </c>
       <c r="E57" s="3">
-        <v>2010800</v>
+        <v>6086000</v>
       </c>
       <c r="F57" s="3">
-        <v>2066900</v>
+        <v>1855100</v>
       </c>
       <c r="G57" s="3">
-        <v>2126800</v>
+        <v>2055100</v>
       </c>
       <c r="H57" s="3">
-        <v>2195100</v>
+        <v>2112300</v>
       </c>
       <c r="I57" s="3">
+        <v>2173600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2243400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2116200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1950300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2103600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2025600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2021500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1854200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1735000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1726500</v>
+        <v>1705100</v>
       </c>
       <c r="E58" s="3">
-        <v>2073300</v>
+        <v>3007300</v>
       </c>
       <c r="F58" s="3">
-        <v>2114700</v>
+        <v>1764500</v>
       </c>
       <c r="G58" s="3">
-        <v>2671500</v>
+        <v>2118900</v>
       </c>
       <c r="H58" s="3">
-        <v>2168700</v>
+        <v>2161200</v>
       </c>
       <c r="I58" s="3">
+        <v>2730300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2216500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1276800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1618000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1434900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1467800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1607300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1067600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3107800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3926400</v>
+        <v>2137700</v>
       </c>
       <c r="E59" s="3">
-        <v>4021700</v>
+        <v>6481600</v>
       </c>
       <c r="F59" s="3">
-        <v>4012400</v>
+        <v>4012700</v>
       </c>
       <c r="G59" s="3">
-        <v>4219700</v>
+        <v>4110200</v>
       </c>
       <c r="H59" s="3">
-        <v>3890700</v>
+        <v>4100700</v>
       </c>
       <c r="I59" s="3">
+        <v>4312500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3976300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3814200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3884900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4692900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4226900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3933500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3658000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4252700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7468000</v>
+        <v>7141400</v>
       </c>
       <c r="E60" s="3">
-        <v>8105800</v>
+        <v>8317700</v>
       </c>
       <c r="F60" s="3">
-        <v>8193900</v>
+        <v>7632300</v>
       </c>
       <c r="G60" s="3">
-        <v>8063900</v>
+        <v>8284200</v>
       </c>
       <c r="H60" s="3">
-        <v>8254500</v>
+        <v>8374200</v>
       </c>
       <c r="I60" s="3">
+        <v>8241300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8436100</v>
+      </c>
+      <c r="K60" s="3">
         <v>7207200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7453300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8231300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7720400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7562300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6579800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7538000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4088900</v>
+        <v>6102300</v>
       </c>
       <c r="E61" s="3">
-        <v>4105400</v>
+        <v>6096100</v>
       </c>
       <c r="F61" s="3">
-        <v>2310400</v>
+        <v>4178800</v>
       </c>
       <c r="G61" s="3">
-        <v>1956400</v>
+        <v>4195700</v>
       </c>
       <c r="H61" s="3">
-        <v>1946700</v>
+        <v>2361200</v>
       </c>
       <c r="I61" s="3">
+        <v>1999400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1989500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2684500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2665900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2714700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2646700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2640600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1438000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1481900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2565900</v>
+        <v>2905900</v>
       </c>
       <c r="E62" s="3">
-        <v>2630600</v>
+        <v>4871900</v>
       </c>
       <c r="F62" s="3">
-        <v>2760700</v>
+        <v>2622300</v>
       </c>
       <c r="G62" s="3">
-        <v>2743100</v>
+        <v>2688500</v>
       </c>
       <c r="H62" s="3">
-        <v>3016900</v>
+        <v>2821400</v>
       </c>
       <c r="I62" s="3">
+        <v>2803400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3083300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2898400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2955800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3122900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3026900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3025700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2934900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3133100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14583600</v>
+        <v>16603100</v>
       </c>
       <c r="E66" s="3">
-        <v>15321800</v>
+        <v>17907800</v>
       </c>
       <c r="F66" s="3">
-        <v>13754500</v>
+        <v>14904500</v>
       </c>
       <c r="G66" s="3">
-        <v>13256000</v>
+        <v>15658900</v>
       </c>
       <c r="H66" s="3">
-        <v>13698300</v>
+        <v>14057100</v>
       </c>
       <c r="I66" s="3">
+        <v>13547700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13999700</v>
+      </c>
+      <c r="K66" s="3">
         <v>13266900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13552900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14583900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13891000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13721500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11424400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12677000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22287600</v>
+        <v>19069400</v>
       </c>
       <c r="E72" s="3">
-        <v>22023400</v>
+        <v>44867800</v>
       </c>
       <c r="F72" s="3">
-        <v>21493000</v>
+        <v>22777900</v>
       </c>
       <c r="G72" s="3">
-        <v>21508600</v>
+        <v>22508000</v>
       </c>
       <c r="H72" s="3">
-        <v>20852900</v>
+        <v>21965900</v>
       </c>
       <c r="I72" s="3">
+        <v>21981900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>21311700</v>
+      </c>
+      <c r="K72" s="3">
         <v>20630000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>19983000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>21211900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>20394100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>20283300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>19252000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>19213200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19970700</v>
+        <v>20600100</v>
       </c>
       <c r="E76" s="3">
-        <v>20529300</v>
+        <v>21825700</v>
       </c>
       <c r="F76" s="3">
-        <v>21094600</v>
+        <v>20410100</v>
       </c>
       <c r="G76" s="3">
-        <v>21652100</v>
+        <v>20981000</v>
       </c>
       <c r="H76" s="3">
-        <v>21960600</v>
+        <v>21558800</v>
       </c>
       <c r="I76" s="3">
+        <v>22128400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>22443800</v>
+      </c>
+      <c r="K76" s="3">
         <v>21179900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20583800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>21205800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20728000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>20675500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>19895800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>20284200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>787400</v>
+        <v>180900</v>
       </c>
       <c r="E81" s="3">
-        <v>530900</v>
+        <v>810000</v>
       </c>
       <c r="F81" s="3">
-        <v>548800</v>
+        <v>804700</v>
       </c>
       <c r="G81" s="3">
-        <v>656100</v>
+        <v>542600</v>
       </c>
       <c r="H81" s="3">
-        <v>771300</v>
+        <v>518200</v>
       </c>
       <c r="I81" s="3">
+        <v>670500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>788200</v>
+      </c>
+      <c r="K81" s="3">
         <v>647300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>576300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>818200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>596000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>656300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>525400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>731700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>540000</v>
+        <v>621100</v>
       </c>
       <c r="E83" s="3">
-        <v>507500</v>
+        <v>549700</v>
       </c>
       <c r="F83" s="3">
-        <v>505200</v>
+        <v>551900</v>
       </c>
       <c r="G83" s="3">
-        <v>461600</v>
+        <v>411700</v>
       </c>
       <c r="H83" s="3">
-        <v>492500</v>
+        <v>623300</v>
       </c>
       <c r="I83" s="3">
+        <v>471700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>503300</v>
+      </c>
+      <c r="K83" s="3">
         <v>444400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>465300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>489800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>473600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>440100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>440600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>428800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4319,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+        <v>595400</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>699300</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>1133800</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4393,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+        <v>-597500</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-538100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-658100</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4539,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-550700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-1366500</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-670900</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,13 +4613,15 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-516700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4163,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-553100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,31 +4809,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+        <v>-599400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>1296500</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-1155000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4368,31 +4859,37 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+        <v>-173200</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-57100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>65600</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4412,31 +4909,37 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+        <v>-727900</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>572100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-626500</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6988300</v>
+        <v>5694500</v>
       </c>
       <c r="E8" s="3">
-        <v>8270000</v>
+        <v>7101100</v>
       </c>
       <c r="F8" s="3">
-        <v>8274900</v>
+        <v>8403600</v>
       </c>
       <c r="G8" s="3">
-        <v>8327300</v>
+        <v>8408500</v>
       </c>
       <c r="H8" s="3">
-        <v>7879800</v>
+        <v>8417800</v>
       </c>
       <c r="I8" s="3">
-        <v>9066300</v>
+        <v>8007100</v>
       </c>
       <c r="J8" s="3">
+        <v>9212700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8349700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8322400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7816100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8862300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8318900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8054200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7556300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7913900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4405200</v>
+        <v>3852200</v>
       </c>
       <c r="E9" s="3">
-        <v>5232900</v>
+        <v>4476300</v>
       </c>
       <c r="F9" s="3">
-        <v>5143900</v>
+        <v>5317400</v>
       </c>
       <c r="G9" s="3">
-        <v>5186300</v>
+        <v>5227000</v>
       </c>
       <c r="H9" s="3">
-        <v>4925000</v>
+        <v>5306500</v>
       </c>
       <c r="I9" s="3">
-        <v>5678400</v>
+        <v>5004600</v>
       </c>
       <c r="J9" s="3">
+        <v>5770100</v>
+      </c>
+      <c r="K9" s="3">
         <v>5275700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5136800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4767700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5507100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5290700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4957100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4610500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4741000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2583100</v>
+        <v>1842300</v>
       </c>
       <c r="E10" s="3">
-        <v>3037100</v>
+        <v>2624800</v>
       </c>
       <c r="F10" s="3">
-        <v>3130900</v>
+        <v>3086100</v>
       </c>
       <c r="G10" s="3">
-        <v>3141000</v>
+        <v>3181500</v>
       </c>
       <c r="H10" s="3">
-        <v>2954800</v>
+        <v>3111300</v>
       </c>
       <c r="I10" s="3">
-        <v>3387800</v>
+        <v>3002500</v>
       </c>
       <c r="J10" s="3">
+        <v>3442500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3074000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3185600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3048400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3355200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3028200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3097100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2945800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3172900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>246100</v>
+        <v>209500</v>
       </c>
       <c r="E12" s="3">
-        <v>257100</v>
+        <v>250000</v>
       </c>
       <c r="F12" s="3">
-        <v>244100</v>
+        <v>261200</v>
       </c>
       <c r="G12" s="3">
-        <v>251000</v>
+        <v>248000</v>
       </c>
       <c r="H12" s="3">
-        <v>234900</v>
+        <v>259900</v>
       </c>
       <c r="I12" s="3">
-        <v>265100</v>
+        <v>238700</v>
       </c>
       <c r="J12" s="3">
+        <v>269400</v>
+      </c>
+      <c r="K12" s="3">
         <v>238200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>228100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>220800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>241900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>216700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>232200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>207300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>215600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>54600</v>
+        <v>304400</v>
       </c>
       <c r="E14" s="3">
-        <v>85500</v>
+        <v>55500</v>
       </c>
       <c r="F14" s="3">
-        <v>-250400</v>
+        <v>86900</v>
       </c>
       <c r="G14" s="3">
-        <v>49300</v>
+        <v>21800</v>
       </c>
       <c r="H14" s="3">
-        <v>-100100</v>
+        <v>103400</v>
       </c>
       <c r="I14" s="3">
-        <v>-2000</v>
+        <v>-101700</v>
       </c>
       <c r="J14" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>99800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>58400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>39200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>210500</v>
+        <v>205600</v>
       </c>
       <c r="E15" s="3">
-        <v>101100</v>
+        <v>213900</v>
       </c>
       <c r="F15" s="3">
-        <v>99900</v>
+        <v>102700</v>
       </c>
       <c r="G15" s="3">
-        <v>94100</v>
+        <v>101600</v>
       </c>
       <c r="H15" s="3">
-        <v>196700</v>
+        <v>206100</v>
       </c>
       <c r="I15" s="3">
-        <v>83700</v>
+        <v>199900</v>
       </c>
       <c r="J15" s="3">
+        <v>85000</v>
+      </c>
+      <c r="K15" s="3">
         <v>84700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>79500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>78600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>80500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>76300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>73000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>72800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>71300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6591000</v>
+        <v>6085800</v>
       </c>
       <c r="E17" s="3">
-        <v>7651800</v>
+        <v>6697400</v>
       </c>
       <c r="F17" s="3">
-        <v>7170400</v>
+        <v>7775400</v>
       </c>
       <c r="G17" s="3">
-        <v>7621600</v>
+        <v>7562400</v>
       </c>
       <c r="H17" s="3">
-        <v>7103600</v>
+        <v>7805200</v>
       </c>
       <c r="I17" s="3">
-        <v>8025000</v>
+        <v>7218300</v>
       </c>
       <c r="J17" s="3">
+        <v>8154600</v>
+      </c>
+      <c r="K17" s="3">
         <v>7219900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7417600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6908000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7883500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7444900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7166000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6700500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6887600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>397300</v>
+        <v>-391200</v>
       </c>
       <c r="E18" s="3">
-        <v>618200</v>
+        <v>403700</v>
       </c>
       <c r="F18" s="3">
-        <v>1104500</v>
+        <v>628200</v>
       </c>
       <c r="G18" s="3">
-        <v>705700</v>
+        <v>846100</v>
       </c>
       <c r="H18" s="3">
-        <v>776200</v>
+        <v>612600</v>
       </c>
       <c r="I18" s="3">
-        <v>1041300</v>
+        <v>788800</v>
       </c>
       <c r="J18" s="3">
+        <v>1058100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1129800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>904800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>908100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>978800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>874100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>888200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>855800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1026300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23900</v>
+        <v>-23100</v>
       </c>
       <c r="E20" s="3">
-        <v>534500</v>
+        <v>-24300</v>
       </c>
       <c r="F20" s="3">
-        <v>73700</v>
+        <v>543100</v>
       </c>
       <c r="G20" s="3">
-        <v>40900</v>
+        <v>351100</v>
       </c>
       <c r="H20" s="3">
-        <v>5800</v>
+        <v>19300</v>
       </c>
       <c r="I20" s="3">
-        <v>107400</v>
+        <v>5900</v>
       </c>
       <c r="J20" s="3">
+        <v>109100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>231400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>77600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-36800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>47400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>994500</v>
+        <v>211200</v>
       </c>
       <c r="E21" s="3">
-        <v>1702400</v>
+        <v>1010500</v>
       </c>
       <c r="F21" s="3">
-        <v>1730100</v>
+        <v>1729900</v>
       </c>
       <c r="G21" s="3">
-        <v>1169300</v>
+        <v>1543400</v>
       </c>
       <c r="H21" s="3">
-        <v>1394300</v>
+        <v>1276100</v>
       </c>
       <c r="I21" s="3">
-        <v>1620400</v>
+        <v>1416800</v>
       </c>
       <c r="J21" s="3">
+        <v>1646500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1608300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1369100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1340400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1700000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1425200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1353700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1259500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1502500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34600</v>
+        <v>35200</v>
       </c>
       <c r="E22" s="3">
-        <v>22900</v>
+        <v>35200</v>
       </c>
       <c r="F22" s="3">
-        <v>23700</v>
+        <v>23300</v>
       </c>
       <c r="G22" s="3">
-        <v>26800</v>
+        <v>24100</v>
       </c>
       <c r="H22" s="3">
-        <v>57900</v>
+        <v>68700</v>
       </c>
       <c r="I22" s="3">
-        <v>24200</v>
+        <v>58800</v>
       </c>
       <c r="J22" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K22" s="3">
         <v>27700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>338800</v>
+        <v>-449500</v>
       </c>
       <c r="E23" s="3">
-        <v>1129800</v>
+        <v>344200</v>
       </c>
       <c r="F23" s="3">
-        <v>1154500</v>
+        <v>1148100</v>
       </c>
       <c r="G23" s="3">
-        <v>719800</v>
+        <v>1173100</v>
       </c>
       <c r="H23" s="3">
-        <v>724200</v>
+        <v>563200</v>
       </c>
       <c r="I23" s="3">
-        <v>1124500</v>
+        <v>735900</v>
       </c>
       <c r="J23" s="3">
+        <v>1142600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1077300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>890600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>843500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1172000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>927100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>885100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>801000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1054200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>134600</v>
+        <v>-43800</v>
       </c>
       <c r="E24" s="3">
-        <v>312300</v>
+        <v>136700</v>
       </c>
       <c r="F24" s="3">
-        <v>333600</v>
+        <v>317300</v>
       </c>
       <c r="G24" s="3">
-        <v>162000</v>
+        <v>339000</v>
       </c>
       <c r="H24" s="3">
-        <v>185600</v>
+        <v>142600</v>
       </c>
       <c r="I24" s="3">
-        <v>440200</v>
+        <v>188600</v>
       </c>
       <c r="J24" s="3">
+        <v>447300</v>
+      </c>
+      <c r="K24" s="3">
         <v>269000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>226900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>242800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>331900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>307100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>212300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>255800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>298900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>204200</v>
+        <v>-405700</v>
       </c>
       <c r="E26" s="3">
-        <v>817500</v>
+        <v>207500</v>
       </c>
       <c r="F26" s="3">
-        <v>820900</v>
+        <v>830700</v>
       </c>
       <c r="G26" s="3">
-        <v>557700</v>
+        <v>834100</v>
       </c>
       <c r="H26" s="3">
-        <v>538600</v>
+        <v>420600</v>
       </c>
       <c r="I26" s="3">
-        <v>684300</v>
+        <v>547300</v>
       </c>
       <c r="J26" s="3">
+        <v>695400</v>
+      </c>
+      <c r="K26" s="3">
         <v>808300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>663700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>840100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>620100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>672800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>545200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>755300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>180900</v>
+        <v>-391900</v>
       </c>
       <c r="E27" s="3">
-        <v>810000</v>
+        <v>183800</v>
       </c>
       <c r="F27" s="3">
-        <v>804700</v>
+        <v>823100</v>
       </c>
       <c r="G27" s="3">
-        <v>542600</v>
+        <v>817700</v>
       </c>
       <c r="H27" s="3">
-        <v>518200</v>
+        <v>405100</v>
       </c>
       <c r="I27" s="3">
-        <v>670500</v>
+        <v>526600</v>
       </c>
       <c r="J27" s="3">
+        <v>681400</v>
+      </c>
+      <c r="K27" s="3">
         <v>788200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>647300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>576300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>818200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>596000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>656300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>525400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>731700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="E32" s="3">
-        <v>-534500</v>
+        <v>24300</v>
       </c>
       <c r="F32" s="3">
-        <v>-73700</v>
+        <v>-543100</v>
       </c>
       <c r="G32" s="3">
-        <v>-40900</v>
+        <v>-351100</v>
       </c>
       <c r="H32" s="3">
-        <v>-5800</v>
+        <v>-19300</v>
       </c>
       <c r="I32" s="3">
-        <v>-107400</v>
+        <v>-5900</v>
       </c>
       <c r="J32" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="K32" s="3">
         <v>24800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-231400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-77600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>36800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-47400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>180900</v>
+        <v>-391900</v>
       </c>
       <c r="E33" s="3">
-        <v>810000</v>
+        <v>183800</v>
       </c>
       <c r="F33" s="3">
-        <v>804700</v>
+        <v>823100</v>
       </c>
       <c r="G33" s="3">
-        <v>542600</v>
+        <v>817700</v>
       </c>
       <c r="H33" s="3">
-        <v>518200</v>
+        <v>405100</v>
       </c>
       <c r="I33" s="3">
-        <v>670500</v>
+        <v>526600</v>
       </c>
       <c r="J33" s="3">
+        <v>681400</v>
+      </c>
+      <c r="K33" s="3">
         <v>788200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>647300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>576300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>818200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>596000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>656300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>525400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>731700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>180900</v>
+        <v>-391900</v>
       </c>
       <c r="E35" s="3">
-        <v>810000</v>
+        <v>183800</v>
       </c>
       <c r="F35" s="3">
-        <v>804700</v>
+        <v>823100</v>
       </c>
       <c r="G35" s="3">
-        <v>542600</v>
+        <v>817700</v>
       </c>
       <c r="H35" s="3">
-        <v>518200</v>
+        <v>405100</v>
       </c>
       <c r="I35" s="3">
-        <v>670500</v>
+        <v>526600</v>
       </c>
       <c r="J35" s="3">
+        <v>681400</v>
+      </c>
+      <c r="K35" s="3">
         <v>788200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>647300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>576300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>818200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>596000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>656300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>525400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>731700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3294000</v>
+        <v>5934900</v>
       </c>
       <c r="E41" s="3">
-        <v>4021900</v>
+        <v>3347200</v>
       </c>
       <c r="F41" s="3">
-        <v>2770500</v>
+        <v>4086800</v>
       </c>
       <c r="G41" s="3">
-        <v>4039200</v>
+        <v>2815200</v>
       </c>
       <c r="H41" s="3">
-        <v>3515200</v>
+        <v>4104400</v>
       </c>
       <c r="I41" s="3">
-        <v>4091100</v>
+        <v>3572000</v>
       </c>
       <c r="J41" s="3">
+        <v>4157200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3618500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3839700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3842000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4627500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3814400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4267500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3099000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4284300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>163800</v>
+        <v>95400</v>
       </c>
       <c r="E42" s="3">
-        <v>1396800</v>
+        <v>166400</v>
       </c>
       <c r="F42" s="3">
-        <v>1371400</v>
+        <v>1419400</v>
       </c>
       <c r="G42" s="3">
-        <v>1341800</v>
+        <v>1393600</v>
       </c>
       <c r="H42" s="3">
-        <v>1199500</v>
+        <v>1363500</v>
       </c>
       <c r="I42" s="3">
-        <v>1429300</v>
+        <v>1218900</v>
       </c>
       <c r="J42" s="3">
+        <v>1452400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1538000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1440600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1170800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2004000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1762800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1563400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1328400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1487500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6281700</v>
+        <v>5718000</v>
       </c>
       <c r="E43" s="3">
-        <v>12236700</v>
+        <v>6383100</v>
       </c>
       <c r="F43" s="3">
-        <v>5388100</v>
+        <v>12434300</v>
       </c>
       <c r="G43" s="3">
-        <v>5192800</v>
+        <v>5475100</v>
       </c>
       <c r="H43" s="3">
-        <v>5350900</v>
+        <v>5276700</v>
       </c>
       <c r="I43" s="3">
-        <v>5385300</v>
+        <v>5437300</v>
       </c>
       <c r="J43" s="3">
+        <v>5472300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5235300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4915100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4979300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4396600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4227700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3849600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3759800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3894300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5796200</v>
+        <v>5614700</v>
       </c>
       <c r="E44" s="3">
-        <v>11395000</v>
+        <v>5889800</v>
       </c>
       <c r="F44" s="3">
-        <v>5707800</v>
+        <v>11579000</v>
       </c>
       <c r="G44" s="3">
-        <v>5838000</v>
+        <v>5800000</v>
       </c>
       <c r="H44" s="3">
-        <v>5940900</v>
+        <v>5932300</v>
       </c>
       <c r="I44" s="3">
-        <v>5734100</v>
+        <v>6036800</v>
       </c>
       <c r="J44" s="3">
+        <v>5826700</v>
+      </c>
+      <c r="K44" s="3">
         <v>6012000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5542800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5444800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5335200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5557500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5631700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5198100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4944200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>678900</v>
+        <v>717500</v>
       </c>
       <c r="E45" s="3">
-        <v>795900</v>
+        <v>689900</v>
       </c>
       <c r="F45" s="3">
-        <v>1304500</v>
+        <v>808700</v>
       </c>
       <c r="G45" s="3">
-        <v>1251100</v>
+        <v>1325600</v>
       </c>
       <c r="H45" s="3">
-        <v>1176500</v>
+        <v>1271400</v>
       </c>
       <c r="I45" s="3">
-        <v>1126800</v>
+        <v>1195500</v>
       </c>
       <c r="J45" s="3">
+        <v>1145000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1780200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1605900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1554400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1599400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1782100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1801500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1521500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1552300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16214600</v>
+        <v>18080400</v>
       </c>
       <c r="E46" s="3">
-        <v>17822000</v>
+        <v>16476400</v>
       </c>
       <c r="F46" s="3">
-        <v>16542300</v>
+        <v>18109800</v>
       </c>
       <c r="G46" s="3">
-        <v>17663100</v>
+        <v>16809400</v>
       </c>
       <c r="H46" s="3">
-        <v>17183000</v>
+        <v>17948300</v>
       </c>
       <c r="I46" s="3">
-        <v>17766600</v>
+        <v>17460400</v>
       </c>
       <c r="J46" s="3">
+        <v>18053400</v>
+      </c>
+      <c r="K46" s="3">
         <v>18184000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17344100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16991400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17962800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17144600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17113800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14906800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16162500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1587300</v>
+        <v>1413000</v>
       </c>
       <c r="E47" s="3">
-        <v>3049100</v>
+        <v>1612900</v>
       </c>
       <c r="F47" s="3">
-        <v>1771500</v>
+        <v>3098300</v>
       </c>
       <c r="G47" s="3">
-        <v>1868800</v>
+        <v>1800100</v>
       </c>
       <c r="H47" s="3">
-        <v>2065900</v>
+        <v>1899000</v>
       </c>
       <c r="I47" s="3">
-        <v>2029400</v>
+        <v>2099200</v>
       </c>
       <c r="J47" s="3">
+        <v>2062100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2715400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2197500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2397300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2506000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2589900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2498300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2378500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2322300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16521500</v>
+        <v>16686600</v>
       </c>
       <c r="E48" s="3">
-        <v>31733700</v>
+        <v>16788200</v>
       </c>
       <c r="F48" s="3">
-        <v>13870300</v>
+        <v>32246100</v>
       </c>
       <c r="G48" s="3">
-        <v>13906100</v>
+        <v>14094300</v>
       </c>
       <c r="H48" s="3">
-        <v>14124400</v>
+        <v>14130600</v>
       </c>
       <c r="I48" s="3">
-        <v>13641200</v>
+        <v>14352400</v>
       </c>
       <c r="J48" s="3">
+        <v>13861400</v>
+      </c>
+      <c r="K48" s="3">
         <v>13471900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12947700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12817300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13316300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12869100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12797900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12444100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12853700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1929000</v>
+        <v>1978600</v>
       </c>
       <c r="E49" s="3">
-        <v>3874500</v>
+        <v>1960200</v>
       </c>
       <c r="F49" s="3">
-        <v>1762200</v>
+        <v>3937000</v>
       </c>
       <c r="G49" s="3">
-        <v>1793800</v>
+        <v>1790600</v>
       </c>
       <c r="H49" s="3">
-        <v>832900</v>
+        <v>1822800</v>
       </c>
       <c r="I49" s="3">
-        <v>942500</v>
+        <v>846300</v>
       </c>
       <c r="J49" s="3">
+        <v>957700</v>
+      </c>
+      <c r="K49" s="3">
         <v>954200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>903400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>891800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>949500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>992600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>988400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>656000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>657700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>950900</v>
+        <v>988700</v>
       </c>
       <c r="E52" s="3">
-        <v>1841200</v>
+        <v>966300</v>
       </c>
       <c r="F52" s="3">
-        <v>1368200</v>
+        <v>1870900</v>
       </c>
       <c r="G52" s="3">
-        <v>1408200</v>
+        <v>1390300</v>
       </c>
       <c r="H52" s="3">
-        <v>1409800</v>
+        <v>1430900</v>
       </c>
       <c r="I52" s="3">
-        <v>1296500</v>
+        <v>1432600</v>
       </c>
       <c r="J52" s="3">
+        <v>1317400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1118100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1054100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1038900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1055100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1022800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>998600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>934800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>965000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37203200</v>
+        <v>39147300</v>
       </c>
       <c r="E54" s="3">
-        <v>39733500</v>
+        <v>37803900</v>
       </c>
       <c r="F54" s="3">
-        <v>35314600</v>
+        <v>40375000</v>
       </c>
       <c r="G54" s="3">
-        <v>36639900</v>
+        <v>35884800</v>
       </c>
       <c r="H54" s="3">
-        <v>35615900</v>
+        <v>37231500</v>
       </c>
       <c r="I54" s="3">
-        <v>35676100</v>
+        <v>36190900</v>
       </c>
       <c r="J54" s="3">
+        <v>36252100</v>
+      </c>
+      <c r="K54" s="3">
         <v>36443600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34446800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34136600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35789700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34619000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34397000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31320200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32961200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3298700</v>
+        <v>2865900</v>
       </c>
       <c r="E57" s="3">
-        <v>6086000</v>
+        <v>3351900</v>
       </c>
       <c r="F57" s="3">
-        <v>1855100</v>
+        <v>6184300</v>
       </c>
       <c r="G57" s="3">
-        <v>2055100</v>
+        <v>1885000</v>
       </c>
       <c r="H57" s="3">
-        <v>2112300</v>
+        <v>2088300</v>
       </c>
       <c r="I57" s="3">
-        <v>2173600</v>
+        <v>2146400</v>
       </c>
       <c r="J57" s="3">
+        <v>2208700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2243400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2116200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1950300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2103600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2025600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2021500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1854200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1735000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1705100</v>
+        <v>4019800</v>
       </c>
       <c r="E58" s="3">
-        <v>3007300</v>
+        <v>1732600</v>
       </c>
       <c r="F58" s="3">
-        <v>1764500</v>
+        <v>3055800</v>
       </c>
       <c r="G58" s="3">
-        <v>2118900</v>
+        <v>1793000</v>
       </c>
       <c r="H58" s="3">
-        <v>2161200</v>
+        <v>2153100</v>
       </c>
       <c r="I58" s="3">
-        <v>2730300</v>
+        <v>2196100</v>
       </c>
       <c r="J58" s="3">
+        <v>2774400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2216500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1276800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1618000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1434900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1467800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1607300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1067600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3107800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2137700</v>
+        <v>2142800</v>
       </c>
       <c r="E59" s="3">
-        <v>6481600</v>
+        <v>2172200</v>
       </c>
       <c r="F59" s="3">
-        <v>4012700</v>
+        <v>6586300</v>
       </c>
       <c r="G59" s="3">
-        <v>4110200</v>
+        <v>4077500</v>
       </c>
       <c r="H59" s="3">
-        <v>4100700</v>
+        <v>4176500</v>
       </c>
       <c r="I59" s="3">
-        <v>4312500</v>
+        <v>4166900</v>
       </c>
       <c r="J59" s="3">
+        <v>4382200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3976300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3814200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3884900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4692900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4226900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3933500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3658000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4252700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7141400</v>
+        <v>9028500</v>
       </c>
       <c r="E60" s="3">
-        <v>8317700</v>
+        <v>7256700</v>
       </c>
       <c r="F60" s="3">
-        <v>7632300</v>
+        <v>8452000</v>
       </c>
       <c r="G60" s="3">
-        <v>8284200</v>
+        <v>7755500</v>
       </c>
       <c r="H60" s="3">
-        <v>8374200</v>
+        <v>8417900</v>
       </c>
       <c r="I60" s="3">
-        <v>8241300</v>
+        <v>8509400</v>
       </c>
       <c r="J60" s="3">
+        <v>8374400</v>
+      </c>
+      <c r="K60" s="3">
         <v>8436100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7207200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7453300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8231300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7720400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7562300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6579800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7538000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6102300</v>
+        <v>6227600</v>
       </c>
       <c r="E61" s="3">
-        <v>6096100</v>
+        <v>6200800</v>
       </c>
       <c r="F61" s="3">
-        <v>4178800</v>
+        <v>6194500</v>
       </c>
       <c r="G61" s="3">
-        <v>4195700</v>
+        <v>4246300</v>
       </c>
       <c r="H61" s="3">
-        <v>2361200</v>
+        <v>4263500</v>
       </c>
       <c r="I61" s="3">
-        <v>1999400</v>
+        <v>2399300</v>
       </c>
       <c r="J61" s="3">
+        <v>2031700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1989500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2684500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2665900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2714700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2646700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2640600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1438000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1481900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2905900</v>
+        <v>2845200</v>
       </c>
       <c r="E62" s="3">
-        <v>4871900</v>
+        <v>2952800</v>
       </c>
       <c r="F62" s="3">
-        <v>2622300</v>
+        <v>4950500</v>
       </c>
       <c r="G62" s="3">
-        <v>2688500</v>
+        <v>2664700</v>
       </c>
       <c r="H62" s="3">
-        <v>2821400</v>
+        <v>2731900</v>
       </c>
       <c r="I62" s="3">
-        <v>2803400</v>
+        <v>2866900</v>
       </c>
       <c r="J62" s="3">
+        <v>2848700</v>
+      </c>
+      <c r="K62" s="3">
         <v>3083300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2898400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2955800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3122900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3026900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3025700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2934900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3133100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16603100</v>
+        <v>18536000</v>
       </c>
       <c r="E66" s="3">
-        <v>17907800</v>
+        <v>16871200</v>
       </c>
       <c r="F66" s="3">
-        <v>14904500</v>
+        <v>18196900</v>
       </c>
       <c r="G66" s="3">
-        <v>15658900</v>
+        <v>15145100</v>
       </c>
       <c r="H66" s="3">
-        <v>14057100</v>
+        <v>15911700</v>
       </c>
       <c r="I66" s="3">
-        <v>13547700</v>
+        <v>14284100</v>
       </c>
       <c r="J66" s="3">
+        <v>13766400</v>
+      </c>
+      <c r="K66" s="3">
         <v>13999700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13266900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13552900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14583900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13891000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13721500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11424400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12677000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19069400</v>
+        <v>19010200</v>
       </c>
       <c r="E72" s="3">
-        <v>44867800</v>
+        <v>19407100</v>
       </c>
       <c r="F72" s="3">
-        <v>22777900</v>
+        <v>45623200</v>
       </c>
       <c r="G72" s="3">
-        <v>22508000</v>
+        <v>23145700</v>
       </c>
       <c r="H72" s="3">
-        <v>21965900</v>
+        <v>22871400</v>
       </c>
       <c r="I72" s="3">
-        <v>21981900</v>
+        <v>22320600</v>
       </c>
       <c r="J72" s="3">
+        <v>22336800</v>
+      </c>
+      <c r="K72" s="3">
         <v>21311700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20630000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19983000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21211900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20394100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20283300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19252000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19213200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20600100</v>
+        <v>20611200</v>
       </c>
       <c r="E76" s="3">
-        <v>21825700</v>
+        <v>20932700</v>
       </c>
       <c r="F76" s="3">
-        <v>20410100</v>
+        <v>22178100</v>
       </c>
       <c r="G76" s="3">
-        <v>20981000</v>
+        <v>20739600</v>
       </c>
       <c r="H76" s="3">
-        <v>21558800</v>
+        <v>21319800</v>
       </c>
       <c r="I76" s="3">
-        <v>22128400</v>
+        <v>21906900</v>
       </c>
       <c r="J76" s="3">
+        <v>22485700</v>
+      </c>
+      <c r="K76" s="3">
         <v>22443800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21179900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20583800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21205800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20728000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20675500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19895800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20284200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>180900</v>
+        <v>-391900</v>
       </c>
       <c r="E81" s="3">
-        <v>810000</v>
+        <v>183800</v>
       </c>
       <c r="F81" s="3">
-        <v>804700</v>
+        <v>823100</v>
       </c>
       <c r="G81" s="3">
-        <v>542600</v>
+        <v>817700</v>
       </c>
       <c r="H81" s="3">
-        <v>518200</v>
+        <v>405100</v>
       </c>
       <c r="I81" s="3">
-        <v>670500</v>
+        <v>526600</v>
       </c>
       <c r="J81" s="3">
+        <v>681400</v>
+      </c>
+      <c r="K81" s="3">
         <v>788200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>647300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>576300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>818200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>596000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>656300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>525400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>731700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>621100</v>
+        <v>625500</v>
       </c>
       <c r="E83" s="3">
-        <v>549700</v>
+        <v>631100</v>
       </c>
       <c r="F83" s="3">
-        <v>551900</v>
+        <v>558600</v>
       </c>
       <c r="G83" s="3">
-        <v>411700</v>
+        <v>310800</v>
       </c>
       <c r="H83" s="3">
-        <v>623300</v>
+        <v>668400</v>
       </c>
       <c r="I83" s="3">
-        <v>471700</v>
+        <v>633400</v>
       </c>
       <c r="J83" s="3">
+        <v>479300</v>
+      </c>
+      <c r="K83" s="3">
         <v>503300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>444400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>465300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>489800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>473600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>440100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>440600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>428800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,34 +4539,37 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>595400</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
+        <v>765500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>605000</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="3">
-        <v>699300</v>
+      <c r="G89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H89" s="3">
-        <v>1133800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>10</v>
+        <v>915200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1152200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,34 +4615,35 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-597500</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
+        <v>-360700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-607200</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>-538100</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H91" s="3">
-        <v>-658100</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+        <v>-539100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-668700</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,34 +4772,37 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-550700</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
+        <v>-423400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-559600</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="3">
-        <v>-1366500</v>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H94" s="3">
-        <v>-670900</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
+        <v>-1376700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-681700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,28 +4848,29 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-516700</v>
+        <v>-6500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-525000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-5500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-553100</v>
+        <v>-5600</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-562100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,34 +5058,37 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-599400</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
+        <v>2154700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-609000</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="3">
-        <v>1296500</v>
+      <c r="G100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H100" s="3">
-        <v>-1155000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
+        <v>1317400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1173700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4865,34 +5111,37 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-173200</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
+        <v>90900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-176000</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G101" s="3">
-        <v>-57100</v>
+      <c r="G101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H101" s="3">
-        <v>65600</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>10</v>
+        <v>-58000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>66600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4915,34 +5164,37 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-727900</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>10</v>
+        <v>2587700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-739700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G102" s="3">
-        <v>572100</v>
+      <c r="G102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H102" s="3">
-        <v>-626500</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>10</v>
+        <v>581400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-636600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>BRDCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5694500</v>
+        <v>7625300</v>
       </c>
       <c r="E8" s="3">
-        <v>7101100</v>
+        <v>5797100</v>
       </c>
       <c r="F8" s="3">
-        <v>8403600</v>
+        <v>7229000</v>
       </c>
       <c r="G8" s="3">
-        <v>8408500</v>
+        <v>8554900</v>
       </c>
       <c r="H8" s="3">
-        <v>8417800</v>
+        <v>8493300</v>
       </c>
       <c r="I8" s="3">
-        <v>8007100</v>
+        <v>8569400</v>
       </c>
       <c r="J8" s="3">
+        <v>8151300</v>
+      </c>
+      <c r="K8" s="3">
         <v>9212700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8349700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8322400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7816100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8862300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8318900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8054200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7556300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7913900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3852200</v>
+        <v>4877600</v>
       </c>
       <c r="E9" s="3">
-        <v>4476300</v>
+        <v>3921600</v>
       </c>
       <c r="F9" s="3">
-        <v>5317400</v>
+        <v>4556900</v>
       </c>
       <c r="G9" s="3">
-        <v>5227000</v>
+        <v>5413200</v>
       </c>
       <c r="H9" s="3">
-        <v>5306500</v>
+        <v>5177500</v>
       </c>
       <c r="I9" s="3">
-        <v>5004600</v>
+        <v>5402100</v>
       </c>
       <c r="J9" s="3">
+        <v>5094700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5770100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5275700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5136800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4767700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5507100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5290700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4957100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4610500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4741000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1842300</v>
+        <v>2747600</v>
       </c>
       <c r="E10" s="3">
-        <v>2624800</v>
+        <v>1875500</v>
       </c>
       <c r="F10" s="3">
-        <v>3086100</v>
+        <v>2672000</v>
       </c>
       <c r="G10" s="3">
-        <v>3181500</v>
+        <v>3141700</v>
       </c>
       <c r="H10" s="3">
-        <v>3111300</v>
+        <v>3315800</v>
       </c>
       <c r="I10" s="3">
-        <v>3002500</v>
+        <v>3167400</v>
       </c>
       <c r="J10" s="3">
+        <v>3056600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3442500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3074000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3185600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3048400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3355200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3028200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3097100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2945800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3172900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>209500</v>
+        <v>216800</v>
       </c>
       <c r="E12" s="3">
-        <v>250000</v>
+        <v>213200</v>
       </c>
       <c r="F12" s="3">
-        <v>261200</v>
+        <v>254500</v>
       </c>
       <c r="G12" s="3">
-        <v>248000</v>
+        <v>265900</v>
       </c>
       <c r="H12" s="3">
-        <v>259900</v>
+        <v>246600</v>
       </c>
       <c r="I12" s="3">
-        <v>238700</v>
+        <v>264600</v>
       </c>
       <c r="J12" s="3">
+        <v>243000</v>
+      </c>
+      <c r="K12" s="3">
         <v>269400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>238200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>228100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>220800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>241900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>216700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>232200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>207300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>215600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>304400</v>
+        <v>423700</v>
       </c>
       <c r="E14" s="3">
-        <v>55500</v>
+        <v>314200</v>
       </c>
       <c r="F14" s="3">
-        <v>86900</v>
+        <v>56500</v>
       </c>
       <c r="G14" s="3">
-        <v>21800</v>
+        <v>88500</v>
       </c>
       <c r="H14" s="3">
-        <v>103400</v>
+        <v>44900</v>
       </c>
       <c r="I14" s="3">
-        <v>-101700</v>
+        <v>105200</v>
       </c>
       <c r="J14" s="3">
+        <v>-103500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>99800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>58400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>39200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>205600</v>
+        <v>218400</v>
       </c>
       <c r="E15" s="3">
-        <v>213900</v>
+        <v>209300</v>
       </c>
       <c r="F15" s="3">
-        <v>102700</v>
+        <v>217700</v>
       </c>
       <c r="G15" s="3">
-        <v>101600</v>
+        <v>104600</v>
       </c>
       <c r="H15" s="3">
-        <v>206100</v>
+        <v>221700</v>
       </c>
       <c r="I15" s="3">
-        <v>199900</v>
+        <v>209800</v>
       </c>
       <c r="J15" s="3">
+        <v>203500</v>
+      </c>
+      <c r="K15" s="3">
         <v>85000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>84700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>79500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>78600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>80500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>76300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>73000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>72800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>71300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6085800</v>
+        <v>7396500</v>
       </c>
       <c r="E17" s="3">
-        <v>6697400</v>
+        <v>6195400</v>
       </c>
       <c r="F17" s="3">
-        <v>7775400</v>
+        <v>6818000</v>
       </c>
       <c r="G17" s="3">
-        <v>7562400</v>
+        <v>7915400</v>
       </c>
       <c r="H17" s="3">
-        <v>7805200</v>
+        <v>7237900</v>
       </c>
       <c r="I17" s="3">
-        <v>7218300</v>
+        <v>7945800</v>
       </c>
       <c r="J17" s="3">
+        <v>7348300</v>
+      </c>
+      <c r="K17" s="3">
         <v>8154600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7219900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7417600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6908000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7883500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7444900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7166000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6700500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6887600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-391200</v>
+        <v>228800</v>
       </c>
       <c r="E18" s="3">
-        <v>403700</v>
+        <v>-398300</v>
       </c>
       <c r="F18" s="3">
-        <v>628200</v>
+        <v>411000</v>
       </c>
       <c r="G18" s="3">
-        <v>846100</v>
+        <v>639500</v>
       </c>
       <c r="H18" s="3">
-        <v>612600</v>
+        <v>1255400</v>
       </c>
       <c r="I18" s="3">
-        <v>788800</v>
+        <v>623600</v>
       </c>
       <c r="J18" s="3">
+        <v>803000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1058100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1129800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>904800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>908100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>978800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>874100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>888200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>855800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1026300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23100</v>
+        <v>5800</v>
       </c>
       <c r="E20" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="F20" s="3">
-        <v>543100</v>
+        <v>-24700</v>
       </c>
       <c r="G20" s="3">
-        <v>351100</v>
+        <v>552900</v>
       </c>
       <c r="H20" s="3">
-        <v>19300</v>
+        <v>13300</v>
       </c>
       <c r="I20" s="3">
-        <v>5900</v>
+        <v>19600</v>
       </c>
       <c r="J20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K20" s="3">
         <v>109100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-33000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>231400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>77600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-36800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>47400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>211200</v>
+        <v>872200</v>
       </c>
       <c r="E21" s="3">
-        <v>1010500</v>
+        <v>215000</v>
       </c>
       <c r="F21" s="3">
-        <v>1729900</v>
+        <v>1028700</v>
       </c>
       <c r="G21" s="3">
-        <v>1543400</v>
+        <v>1466700</v>
       </c>
       <c r="H21" s="3">
-        <v>1276100</v>
+        <v>1915500</v>
       </c>
       <c r="I21" s="3">
-        <v>1416800</v>
+        <v>1299100</v>
       </c>
       <c r="J21" s="3">
+        <v>1442400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1646500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1608300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1369100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1340400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1700000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1425200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1353700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1259500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1502500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35200</v>
+        <v>29500</v>
       </c>
       <c r="E22" s="3">
-        <v>35200</v>
+        <v>35800</v>
       </c>
       <c r="F22" s="3">
-        <v>23300</v>
+        <v>35800</v>
       </c>
       <c r="G22" s="3">
-        <v>24100</v>
+        <v>23700</v>
       </c>
       <c r="H22" s="3">
-        <v>68700</v>
+        <v>62700</v>
       </c>
       <c r="I22" s="3">
-        <v>58800</v>
+        <v>69900</v>
       </c>
       <c r="J22" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K22" s="3">
         <v>24600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>31600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>28500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-449500</v>
+        <v>205100</v>
       </c>
       <c r="E23" s="3">
-        <v>344200</v>
+        <v>-457600</v>
       </c>
       <c r="F23" s="3">
-        <v>1148100</v>
+        <v>350400</v>
       </c>
       <c r="G23" s="3">
-        <v>1173100</v>
+        <v>1168700</v>
       </c>
       <c r="H23" s="3">
-        <v>563200</v>
+        <v>1206100</v>
       </c>
       <c r="I23" s="3">
-        <v>735900</v>
+        <v>573300</v>
       </c>
       <c r="J23" s="3">
+        <v>749100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1142600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1077300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>890600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>843500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1172000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>927100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>885100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>801000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1054200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-43800</v>
+        <v>209300</v>
       </c>
       <c r="E24" s="3">
-        <v>136700</v>
+        <v>-44600</v>
       </c>
       <c r="F24" s="3">
-        <v>317300</v>
+        <v>139200</v>
       </c>
       <c r="G24" s="3">
-        <v>339000</v>
+        <v>323000</v>
       </c>
       <c r="H24" s="3">
-        <v>142600</v>
+        <v>326100</v>
       </c>
       <c r="I24" s="3">
-        <v>188600</v>
+        <v>145200</v>
       </c>
       <c r="J24" s="3">
+        <v>192000</v>
+      </c>
+      <c r="K24" s="3">
         <v>447300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>269000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>226900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>242800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>331900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>307100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>212300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>255800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>298900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-405700</v>
+        <v>-4200</v>
       </c>
       <c r="E26" s="3">
-        <v>207500</v>
+        <v>-413000</v>
       </c>
       <c r="F26" s="3">
-        <v>830700</v>
+        <v>211200</v>
       </c>
       <c r="G26" s="3">
-        <v>834100</v>
+        <v>845700</v>
       </c>
       <c r="H26" s="3">
-        <v>420600</v>
+        <v>879900</v>
       </c>
       <c r="I26" s="3">
-        <v>547300</v>
+        <v>428200</v>
       </c>
       <c r="J26" s="3">
+        <v>557100</v>
+      </c>
+      <c r="K26" s="3">
         <v>695400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>808300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>663700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>840100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>620100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>672800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>545200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>755300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-391900</v>
+        <v>-19900</v>
       </c>
       <c r="E27" s="3">
-        <v>183800</v>
+        <v>-399000</v>
       </c>
       <c r="F27" s="3">
-        <v>823100</v>
+        <v>187100</v>
       </c>
       <c r="G27" s="3">
-        <v>817700</v>
+        <v>837900</v>
       </c>
       <c r="H27" s="3">
-        <v>405100</v>
+        <v>863500</v>
       </c>
       <c r="I27" s="3">
-        <v>526600</v>
+        <v>412400</v>
       </c>
       <c r="J27" s="3">
+        <v>536100</v>
+      </c>
+      <c r="K27" s="3">
         <v>681400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>788200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>647300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>576300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>818200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>596000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>656300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>525400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>731700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23100</v>
+        <v>-5800</v>
       </c>
       <c r="E32" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="F32" s="3">
-        <v>-543100</v>
+        <v>24700</v>
       </c>
       <c r="G32" s="3">
-        <v>-351100</v>
+        <v>-552900</v>
       </c>
       <c r="H32" s="3">
-        <v>-19300</v>
+        <v>-13300</v>
       </c>
       <c r="I32" s="3">
-        <v>-5900</v>
+        <v>-19600</v>
       </c>
       <c r="J32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-109100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>33000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-231400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-77600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>36800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-47400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-391900</v>
+        <v>-19900</v>
       </c>
       <c r="E33" s="3">
-        <v>183800</v>
+        <v>-399000</v>
       </c>
       <c r="F33" s="3">
-        <v>823100</v>
+        <v>187100</v>
       </c>
       <c r="G33" s="3">
-        <v>817700</v>
+        <v>837900</v>
       </c>
       <c r="H33" s="3">
-        <v>405100</v>
+        <v>863500</v>
       </c>
       <c r="I33" s="3">
-        <v>526600</v>
+        <v>412400</v>
       </c>
       <c r="J33" s="3">
+        <v>536100</v>
+      </c>
+      <c r="K33" s="3">
         <v>681400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>788200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>647300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>576300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>818200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>596000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>656300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>525400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>731700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-391900</v>
+        <v>-19900</v>
       </c>
       <c r="E35" s="3">
-        <v>183800</v>
+        <v>-399000</v>
       </c>
       <c r="F35" s="3">
-        <v>823100</v>
+        <v>187100</v>
       </c>
       <c r="G35" s="3">
-        <v>817700</v>
+        <v>837900</v>
       </c>
       <c r="H35" s="3">
-        <v>405100</v>
+        <v>863500</v>
       </c>
       <c r="I35" s="3">
-        <v>526600</v>
+        <v>412400</v>
       </c>
       <c r="J35" s="3">
+        <v>536100</v>
+      </c>
+      <c r="K35" s="3">
         <v>681400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>788200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>647300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>576300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>818200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>596000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>656300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>525400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>731700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5934900</v>
+        <v>6353200</v>
       </c>
       <c r="E41" s="3">
-        <v>3347200</v>
+        <v>6041700</v>
       </c>
       <c r="F41" s="3">
-        <v>4086800</v>
+        <v>3407400</v>
       </c>
       <c r="G41" s="3">
-        <v>2815200</v>
+        <v>4160400</v>
       </c>
       <c r="H41" s="3">
-        <v>4104400</v>
+        <v>2865900</v>
       </c>
       <c r="I41" s="3">
-        <v>3572000</v>
+        <v>4178400</v>
       </c>
       <c r="J41" s="3">
+        <v>3636300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4157200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3618500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3839700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3842000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4627500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3814400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4267500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3099000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4284300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>95400</v>
+        <v>63500</v>
       </c>
       <c r="E42" s="3">
-        <v>166400</v>
+        <v>97100</v>
       </c>
       <c r="F42" s="3">
-        <v>1419400</v>
+        <v>169400</v>
       </c>
       <c r="G42" s="3">
-        <v>1393600</v>
+        <v>1444900</v>
       </c>
       <c r="H42" s="3">
-        <v>1363500</v>
+        <v>1418600</v>
       </c>
       <c r="I42" s="3">
-        <v>1218900</v>
+        <v>1388000</v>
       </c>
       <c r="J42" s="3">
+        <v>1240800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1452400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1538000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1440600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1170800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2004000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1762800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1563400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1328400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1487500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5718000</v>
+        <v>6473100</v>
       </c>
       <c r="E43" s="3">
-        <v>6383100</v>
+        <v>5820900</v>
       </c>
       <c r="F43" s="3">
-        <v>12434300</v>
+        <v>6498100</v>
       </c>
       <c r="G43" s="3">
-        <v>5475100</v>
+        <v>12658200</v>
       </c>
       <c r="H43" s="3">
-        <v>5276700</v>
+        <v>5573700</v>
       </c>
       <c r="I43" s="3">
-        <v>5437300</v>
+        <v>5371700</v>
       </c>
       <c r="J43" s="3">
+        <v>5535200</v>
+      </c>
+      <c r="K43" s="3">
         <v>5472300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5235300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4915100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4979300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4396600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4227700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3849600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3759800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3894300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5614700</v>
+        <v>4960400</v>
       </c>
       <c r="E44" s="3">
-        <v>5889800</v>
+        <v>5715800</v>
       </c>
       <c r="F44" s="3">
-        <v>11579000</v>
+        <v>5995900</v>
       </c>
       <c r="G44" s="3">
-        <v>5800000</v>
+        <v>11787500</v>
       </c>
       <c r="H44" s="3">
-        <v>5932300</v>
+        <v>5904400</v>
       </c>
       <c r="I44" s="3">
-        <v>6036800</v>
+        <v>6039100</v>
       </c>
       <c r="J44" s="3">
+        <v>6145500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5826700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6012000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5542800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5444800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5335200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5557500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5631700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5198100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4944200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>717500</v>
+        <v>838200</v>
       </c>
       <c r="E45" s="3">
-        <v>689900</v>
+        <v>730400</v>
       </c>
       <c r="F45" s="3">
-        <v>808700</v>
+        <v>702300</v>
       </c>
       <c r="G45" s="3">
-        <v>1325600</v>
+        <v>823300</v>
       </c>
       <c r="H45" s="3">
-        <v>1271400</v>
+        <v>1349400</v>
       </c>
       <c r="I45" s="3">
-        <v>1195500</v>
+        <v>1294200</v>
       </c>
       <c r="J45" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1145000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1780200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1605900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1554400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1599400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1782100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1801500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1521500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1552300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18080400</v>
+        <v>18688500</v>
       </c>
       <c r="E46" s="3">
-        <v>16476400</v>
+        <v>18406000</v>
       </c>
       <c r="F46" s="3">
-        <v>18109800</v>
+        <v>16773100</v>
       </c>
       <c r="G46" s="3">
-        <v>16809400</v>
+        <v>18435900</v>
       </c>
       <c r="H46" s="3">
-        <v>17948300</v>
+        <v>17112100</v>
       </c>
       <c r="I46" s="3">
-        <v>17460400</v>
+        <v>18271500</v>
       </c>
       <c r="J46" s="3">
+        <v>17774800</v>
+      </c>
+      <c r="K46" s="3">
         <v>18053400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18184000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17344100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16991400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17962800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17144600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17113800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14906800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16162500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1413000</v>
+        <v>1300500</v>
       </c>
       <c r="E47" s="3">
-        <v>1612900</v>
+        <v>1438500</v>
       </c>
       <c r="F47" s="3">
-        <v>3098300</v>
+        <v>1641900</v>
       </c>
       <c r="G47" s="3">
-        <v>1800100</v>
+        <v>3154100</v>
       </c>
       <c r="H47" s="3">
-        <v>1899000</v>
+        <v>1832500</v>
       </c>
       <c r="I47" s="3">
-        <v>2099200</v>
+        <v>1933200</v>
       </c>
       <c r="J47" s="3">
+        <v>2137000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2062100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2715400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2197500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2397300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2506000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2589900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2498300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2378500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2322300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16686600</v>
+        <v>16511900</v>
       </c>
       <c r="E48" s="3">
-        <v>16788200</v>
+        <v>16987100</v>
       </c>
       <c r="F48" s="3">
-        <v>32246100</v>
+        <v>17090600</v>
       </c>
       <c r="G48" s="3">
-        <v>14094300</v>
+        <v>32826800</v>
       </c>
       <c r="H48" s="3">
-        <v>14130600</v>
+        <v>14348100</v>
       </c>
       <c r="I48" s="3">
-        <v>14352400</v>
+        <v>14385100</v>
       </c>
       <c r="J48" s="3">
+        <v>14610900</v>
+      </c>
+      <c r="K48" s="3">
         <v>13861400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13471900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12947700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12817300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13316300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12869100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12797900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12444100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12853700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1978600</v>
+        <v>2025800</v>
       </c>
       <c r="E49" s="3">
-        <v>1960200</v>
+        <v>2014200</v>
       </c>
       <c r="F49" s="3">
-        <v>3937000</v>
+        <v>1995500</v>
       </c>
       <c r="G49" s="3">
-        <v>1790600</v>
+        <v>4007900</v>
       </c>
       <c r="H49" s="3">
-        <v>1822800</v>
+        <v>1822900</v>
       </c>
       <c r="I49" s="3">
-        <v>846300</v>
+        <v>1855600</v>
       </c>
       <c r="J49" s="3">
+        <v>861500</v>
+      </c>
+      <c r="K49" s="3">
         <v>957700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>954200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>903400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>891800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>949500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>992600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>988400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>656000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>657700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>988700</v>
+        <v>985500</v>
       </c>
       <c r="E52" s="3">
-        <v>966300</v>
+        <v>1006500</v>
       </c>
       <c r="F52" s="3">
-        <v>1870900</v>
+        <v>983700</v>
       </c>
       <c r="G52" s="3">
-        <v>1390300</v>
+        <v>1904600</v>
       </c>
       <c r="H52" s="3">
-        <v>1430900</v>
+        <v>1415400</v>
       </c>
       <c r="I52" s="3">
-        <v>1432600</v>
+        <v>1456700</v>
       </c>
       <c r="J52" s="3">
+        <v>1458400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1317400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1118100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1054100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1038900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1055100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1022800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>998600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>934800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>965000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39147300</v>
+        <v>39512100</v>
       </c>
       <c r="E54" s="3">
-        <v>37803900</v>
+        <v>39852200</v>
       </c>
       <c r="F54" s="3">
-        <v>40375000</v>
+        <v>38484700</v>
       </c>
       <c r="G54" s="3">
-        <v>35884800</v>
+        <v>41102100</v>
       </c>
       <c r="H54" s="3">
-        <v>37231500</v>
+        <v>36531000</v>
       </c>
       <c r="I54" s="3">
-        <v>36190900</v>
+        <v>37902000</v>
       </c>
       <c r="J54" s="3">
+        <v>36842700</v>
+      </c>
+      <c r="K54" s="3">
         <v>36252100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36443600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34446800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34136600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35789700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34619000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34397000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31320200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32961200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2865900</v>
+        <v>3207000</v>
       </c>
       <c r="E57" s="3">
-        <v>3351900</v>
+        <v>2917500</v>
       </c>
       <c r="F57" s="3">
-        <v>6184300</v>
+        <v>3412300</v>
       </c>
       <c r="G57" s="3">
-        <v>1885000</v>
+        <v>6295700</v>
       </c>
       <c r="H57" s="3">
-        <v>2088300</v>
+        <v>1919000</v>
       </c>
       <c r="I57" s="3">
-        <v>2146400</v>
+        <v>2125900</v>
       </c>
       <c r="J57" s="3">
+        <v>2185100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2208700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2243400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2116200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1950300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2103600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2025600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2021500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1854200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1735000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4019800</v>
+        <v>3663600</v>
       </c>
       <c r="E58" s="3">
-        <v>1732600</v>
+        <v>4092200</v>
       </c>
       <c r="F58" s="3">
-        <v>3055800</v>
+        <v>1763800</v>
       </c>
       <c r="G58" s="3">
-        <v>1793000</v>
+        <v>3110900</v>
       </c>
       <c r="H58" s="3">
-        <v>2153100</v>
+        <v>1825300</v>
       </c>
       <c r="I58" s="3">
-        <v>2196100</v>
+        <v>2191900</v>
       </c>
       <c r="J58" s="3">
+        <v>2235600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2774400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2216500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1276800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1618000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1434900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1467800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1607300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1067600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3107800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2142800</v>
+        <v>2569000</v>
       </c>
       <c r="E59" s="3">
-        <v>2172200</v>
+        <v>2181400</v>
       </c>
       <c r="F59" s="3">
-        <v>6586300</v>
+        <v>2211300</v>
       </c>
       <c r="G59" s="3">
-        <v>4077500</v>
+        <v>6704900</v>
       </c>
       <c r="H59" s="3">
-        <v>4176500</v>
+        <v>4151000</v>
       </c>
       <c r="I59" s="3">
-        <v>4166900</v>
+        <v>4251800</v>
       </c>
       <c r="J59" s="3">
+        <v>4241900</v>
+      </c>
+      <c r="K59" s="3">
         <v>4382200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3976300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3814200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3884900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4692900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4226900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3933500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3658000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4252700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9028500</v>
+        <v>9439600</v>
       </c>
       <c r="E60" s="3">
-        <v>7256700</v>
+        <v>9191100</v>
       </c>
       <c r="F60" s="3">
-        <v>8452000</v>
+        <v>7387400</v>
       </c>
       <c r="G60" s="3">
-        <v>7755500</v>
+        <v>8604200</v>
       </c>
       <c r="H60" s="3">
-        <v>8417900</v>
+        <v>7895200</v>
       </c>
       <c r="I60" s="3">
-        <v>8509400</v>
+        <v>8569500</v>
       </c>
       <c r="J60" s="3">
+        <v>8662700</v>
+      </c>
+      <c r="K60" s="3">
         <v>8374400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8436100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7207200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7453300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8231300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7720400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7562300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6579800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7538000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6227600</v>
+        <v>6355700</v>
       </c>
       <c r="E61" s="3">
-        <v>6200800</v>
+        <v>6339700</v>
       </c>
       <c r="F61" s="3">
-        <v>6194500</v>
+        <v>6312500</v>
       </c>
       <c r="G61" s="3">
-        <v>4246300</v>
+        <v>6306100</v>
       </c>
       <c r="H61" s="3">
-        <v>4263500</v>
+        <v>4322800</v>
       </c>
       <c r="I61" s="3">
-        <v>2399300</v>
+        <v>4340300</v>
       </c>
       <c r="J61" s="3">
+        <v>2442500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2031700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1989500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2684500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2665900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2714700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2646700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2640600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1438000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1481900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2845200</v>
+        <v>2809500</v>
       </c>
       <c r="E62" s="3">
-        <v>2952800</v>
+        <v>2896400</v>
       </c>
       <c r="F62" s="3">
-        <v>4950500</v>
+        <v>3006000</v>
       </c>
       <c r="G62" s="3">
-        <v>2664700</v>
+        <v>5039700</v>
       </c>
       <c r="H62" s="3">
-        <v>2731900</v>
+        <v>2712700</v>
       </c>
       <c r="I62" s="3">
-        <v>2866900</v>
+        <v>2781100</v>
       </c>
       <c r="J62" s="3">
+        <v>2918600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2848700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3083300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2898400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2955800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3122900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3026900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3025700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2934900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3133100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18536000</v>
+        <v>19026300</v>
       </c>
       <c r="E66" s="3">
-        <v>16871200</v>
+        <v>18869800</v>
       </c>
       <c r="F66" s="3">
-        <v>18196900</v>
+        <v>17175000</v>
       </c>
       <c r="G66" s="3">
-        <v>15145100</v>
+        <v>18524600</v>
       </c>
       <c r="H66" s="3">
-        <v>15911700</v>
+        <v>15417900</v>
       </c>
       <c r="I66" s="3">
-        <v>14284100</v>
+        <v>16198300</v>
       </c>
       <c r="J66" s="3">
+        <v>14541300</v>
+      </c>
+      <c r="K66" s="3">
         <v>13766400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13999700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13266900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13552900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14583900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13891000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13721500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11424400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12677000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19010200</v>
+        <v>19046000</v>
       </c>
       <c r="E72" s="3">
-        <v>19407100</v>
+        <v>19352600</v>
       </c>
       <c r="F72" s="3">
-        <v>45623200</v>
+        <v>19756600</v>
       </c>
       <c r="G72" s="3">
-        <v>23145700</v>
+        <v>46444800</v>
       </c>
       <c r="H72" s="3">
-        <v>22871400</v>
+        <v>23562500</v>
       </c>
       <c r="I72" s="3">
-        <v>22320600</v>
+        <v>23283300</v>
       </c>
       <c r="J72" s="3">
+        <v>22722500</v>
+      </c>
+      <c r="K72" s="3">
         <v>22336800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21311700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20630000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19983000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21211900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20394100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20283300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19252000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19213200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20611200</v>
+        <v>20485800</v>
       </c>
       <c r="E76" s="3">
-        <v>20932700</v>
+        <v>20982400</v>
       </c>
       <c r="F76" s="3">
-        <v>22178100</v>
+        <v>21309700</v>
       </c>
       <c r="G76" s="3">
-        <v>20739600</v>
+        <v>22577500</v>
       </c>
       <c r="H76" s="3">
-        <v>21319800</v>
+        <v>21113100</v>
       </c>
       <c r="I76" s="3">
-        <v>21906900</v>
+        <v>21703700</v>
       </c>
       <c r="J76" s="3">
+        <v>22301400</v>
+      </c>
+      <c r="K76" s="3">
         <v>22485700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22443800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21179900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20583800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21205800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20728000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20675500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19895800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20284200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-391900</v>
+        <v>-19900</v>
       </c>
       <c r="E81" s="3">
-        <v>183800</v>
+        <v>-399000</v>
       </c>
       <c r="F81" s="3">
-        <v>823100</v>
+        <v>187100</v>
       </c>
       <c r="G81" s="3">
-        <v>817700</v>
+        <v>837900</v>
       </c>
       <c r="H81" s="3">
-        <v>405100</v>
+        <v>863500</v>
       </c>
       <c r="I81" s="3">
-        <v>526600</v>
+        <v>412400</v>
       </c>
       <c r="J81" s="3">
+        <v>536100</v>
+      </c>
+      <c r="K81" s="3">
         <v>681400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>788200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>647300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>576300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>818200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>596000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>656300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>525400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>731700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>625500</v>
+        <v>637700</v>
       </c>
       <c r="E83" s="3">
-        <v>631100</v>
+        <v>636700</v>
       </c>
       <c r="F83" s="3">
-        <v>558600</v>
+        <v>642500</v>
       </c>
       <c r="G83" s="3">
-        <v>310800</v>
+        <v>213600</v>
       </c>
       <c r="H83" s="3">
-        <v>668400</v>
+        <v>671400</v>
       </c>
       <c r="I83" s="3">
-        <v>633400</v>
+        <v>680400</v>
       </c>
       <c r="J83" s="3">
+        <v>644800</v>
+      </c>
+      <c r="K83" s="3">
         <v>479300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>503300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>444400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>465300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>489800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>473600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>440100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>440600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>428800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,37 +4756,40 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>765500</v>
+        <v>1632200</v>
       </c>
       <c r="E89" s="3">
-        <v>605000</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>10</v>
+        <v>779300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>615900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1632200</v>
       </c>
       <c r="H89" s="3">
-        <v>915200</v>
+        <v>726600</v>
       </c>
       <c r="I89" s="3">
-        <v>1152200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>10</v>
+        <v>931700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1172900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,37 +4836,38 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-360700</v>
+        <v>-449100</v>
       </c>
       <c r="E91" s="3">
-        <v>-607200</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+        <v>-367200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-618100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-660600</v>
       </c>
       <c r="H91" s="3">
-        <v>-539100</v>
+        <v>-709600</v>
       </c>
       <c r="I91" s="3">
-        <v>-668700</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+        <v>-548800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-680800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,37 +5002,40 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-423400</v>
+        <v>-360700</v>
       </c>
       <c r="E94" s="3">
-        <v>-559600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
+        <v>-431000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-569700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-95000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1376700</v>
+        <v>-374500</v>
       </c>
       <c r="I94" s="3">
-        <v>-681700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+        <v>-1401500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-694000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,31 +5082,32 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6500</v>
+        <v>-337700</v>
       </c>
       <c r="E96" s="3">
-        <v>-525000</v>
+        <v>-6600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-534500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="H96" s="3">
-        <v>-5600</v>
+        <v>-552200</v>
       </c>
       <c r="I96" s="3">
-        <v>-562100</v>
+        <v>-5700</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-572200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,37 +5304,40 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2154700</v>
+        <v>-894300</v>
       </c>
       <c r="E100" s="3">
-        <v>-609000</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
+        <v>2193500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-620000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-243600</v>
       </c>
       <c r="H100" s="3">
-        <v>1317400</v>
+        <v>-1811300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1173700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
+        <v>1341100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1194800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5114,37 +5360,40 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>90900</v>
+        <v>-65800</v>
       </c>
       <c r="E101" s="3">
-        <v>-176000</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
+        <v>92600</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-179200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>108400</v>
       </c>
       <c r="H101" s="3">
-        <v>-58000</v>
+        <v>-93600</v>
       </c>
       <c r="I101" s="3">
-        <v>66600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+        <v>-59100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>67800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5167,37 +5416,40 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2587700</v>
+        <v>311500</v>
       </c>
       <c r="E102" s="3">
-        <v>-739700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>10</v>
+        <v>2634300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-753000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1402000</v>
       </c>
       <c r="H102" s="3">
-        <v>581400</v>
+        <v>-1332300</v>
       </c>
       <c r="I102" s="3">
-        <v>-636600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>10</v>
+        <v>591800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-648100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7625300</v>
+        <v>7745500</v>
       </c>
       <c r="E8" s="3">
-        <v>5797100</v>
+        <v>7268200</v>
       </c>
       <c r="F8" s="3">
-        <v>7229000</v>
+        <v>5525600</v>
       </c>
       <c r="G8" s="3">
-        <v>8554900</v>
+        <v>6890500</v>
       </c>
       <c r="H8" s="3">
-        <v>8493300</v>
+        <v>8093000</v>
       </c>
       <c r="I8" s="3">
-        <v>8569400</v>
+        <v>8095600</v>
       </c>
       <c r="J8" s="3">
+        <v>8168200</v>
+      </c>
+      <c r="K8" s="3">
         <v>8151300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9212700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8349700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8322400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7816100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8862300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8318900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8054200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7556300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7913900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4877600</v>
+        <v>4733300</v>
       </c>
       <c r="E9" s="3">
-        <v>3921600</v>
+        <v>4649200</v>
       </c>
       <c r="F9" s="3">
-        <v>4556900</v>
+        <v>3737900</v>
       </c>
       <c r="G9" s="3">
-        <v>5413200</v>
+        <v>4343500</v>
       </c>
       <c r="H9" s="3">
-        <v>5177500</v>
+        <v>5051900</v>
       </c>
       <c r="I9" s="3">
-        <v>5402100</v>
+        <v>4935100</v>
       </c>
       <c r="J9" s="3">
+        <v>5149100</v>
+      </c>
+      <c r="K9" s="3">
         <v>5094700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5770100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5275700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5136800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4767700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5507100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5290700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4957100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4610500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4741000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2747600</v>
+        <v>3012200</v>
       </c>
       <c r="E10" s="3">
-        <v>1875500</v>
+        <v>2619000</v>
       </c>
       <c r="F10" s="3">
-        <v>2672000</v>
+        <v>1787700</v>
       </c>
       <c r="G10" s="3">
-        <v>3141700</v>
+        <v>2546900</v>
       </c>
       <c r="H10" s="3">
-        <v>3315800</v>
+        <v>3041100</v>
       </c>
       <c r="I10" s="3">
-        <v>3167400</v>
+        <v>3160500</v>
       </c>
       <c r="J10" s="3">
+        <v>3019100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3056600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3442500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3074000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3185600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3048400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3355200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3028200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3097100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2945800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3172900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>216800</v>
+        <v>219500</v>
       </c>
       <c r="E12" s="3">
-        <v>213200</v>
+        <v>206700</v>
       </c>
       <c r="F12" s="3">
-        <v>254500</v>
+        <v>203200</v>
       </c>
       <c r="G12" s="3">
-        <v>265900</v>
+        <v>242600</v>
       </c>
       <c r="H12" s="3">
-        <v>246600</v>
+        <v>253900</v>
       </c>
       <c r="I12" s="3">
-        <v>264600</v>
+        <v>235100</v>
       </c>
       <c r="J12" s="3">
+        <v>252200</v>
+      </c>
+      <c r="K12" s="3">
         <v>243000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>269400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>238200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>228100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>220800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>241900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>216700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>232200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>207300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>215600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>423700</v>
+        <v>703200</v>
       </c>
       <c r="E14" s="3">
-        <v>314200</v>
+        <v>403800</v>
       </c>
       <c r="F14" s="3">
-        <v>56500</v>
+        <v>299500</v>
       </c>
       <c r="G14" s="3">
-        <v>88500</v>
+        <v>53900</v>
       </c>
       <c r="H14" s="3">
-        <v>44900</v>
+        <v>191200</v>
       </c>
       <c r="I14" s="3">
-        <v>105200</v>
+        <v>42800</v>
       </c>
       <c r="J14" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-103500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>99800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>58400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>39200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>218400</v>
+        <v>208400</v>
       </c>
       <c r="E15" s="3">
-        <v>209300</v>
+        <v>208200</v>
       </c>
       <c r="F15" s="3">
-        <v>217700</v>
+        <v>199500</v>
       </c>
       <c r="G15" s="3">
-        <v>104600</v>
+        <v>207500</v>
       </c>
       <c r="H15" s="3">
-        <v>221700</v>
+        <v>214800</v>
       </c>
       <c r="I15" s="3">
-        <v>209800</v>
+        <v>211400</v>
       </c>
       <c r="J15" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K15" s="3">
         <v>203500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>85000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>84700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>79500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>78600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>80500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>76300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>73000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>72800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>71300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7396500</v>
+        <v>7555100</v>
       </c>
       <c r="E17" s="3">
-        <v>6195400</v>
+        <v>7050100</v>
       </c>
       <c r="F17" s="3">
-        <v>6818000</v>
+        <v>5905300</v>
       </c>
       <c r="G17" s="3">
-        <v>7915400</v>
+        <v>6498800</v>
       </c>
       <c r="H17" s="3">
-        <v>7237900</v>
+        <v>7449600</v>
       </c>
       <c r="I17" s="3">
-        <v>7945800</v>
+        <v>6899000</v>
       </c>
       <c r="J17" s="3">
+        <v>7573700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7348300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8154600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7219900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7417600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6908000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7883500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7444900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7166000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6700500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6887600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>228800</v>
+        <v>190500</v>
       </c>
       <c r="E18" s="3">
-        <v>-398300</v>
+        <v>218100</v>
       </c>
       <c r="F18" s="3">
-        <v>411000</v>
+        <v>-379600</v>
       </c>
       <c r="G18" s="3">
-        <v>639500</v>
+        <v>391700</v>
       </c>
       <c r="H18" s="3">
-        <v>1255400</v>
+        <v>643500</v>
       </c>
       <c r="I18" s="3">
-        <v>623600</v>
+        <v>1196600</v>
       </c>
       <c r="J18" s="3">
+        <v>594400</v>
+      </c>
+      <c r="K18" s="3">
         <v>803000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1058100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1129800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>904800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>908100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>978800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>874100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>888200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>855800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1026300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5800</v>
+        <v>10900</v>
       </c>
       <c r="E20" s="3">
-        <v>-23500</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
-        <v>-24700</v>
+        <v>-22400</v>
       </c>
       <c r="G20" s="3">
-        <v>552900</v>
+        <v>-23600</v>
       </c>
       <c r="H20" s="3">
-        <v>13300</v>
+        <v>77400</v>
       </c>
       <c r="I20" s="3">
-        <v>19600</v>
+        <v>12700</v>
       </c>
       <c r="J20" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>109100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-33000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>231400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>77600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-36800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>47400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>872200</v>
+        <v>824100</v>
       </c>
       <c r="E21" s="3">
-        <v>215000</v>
+        <v>831400</v>
       </c>
       <c r="F21" s="3">
-        <v>1028700</v>
+        <v>204900</v>
       </c>
       <c r="G21" s="3">
-        <v>1466700</v>
+        <v>980600</v>
       </c>
       <c r="H21" s="3">
-        <v>1915500</v>
+        <v>1346500</v>
       </c>
       <c r="I21" s="3">
-        <v>1299100</v>
+        <v>1825800</v>
       </c>
       <c r="J21" s="3">
+        <v>1238200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1442400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1646500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1608300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1369100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1340400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1700000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1425200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1353700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1259500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1502500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29500</v>
+        <v>26600</v>
       </c>
       <c r="E22" s="3">
-        <v>35800</v>
+        <v>28100</v>
       </c>
       <c r="F22" s="3">
-        <v>35800</v>
+        <v>34100</v>
       </c>
       <c r="G22" s="3">
-        <v>23700</v>
+        <v>34100</v>
       </c>
       <c r="H22" s="3">
-        <v>62700</v>
+        <v>57700</v>
       </c>
       <c r="I22" s="3">
-        <v>69900</v>
+        <v>59700</v>
       </c>
       <c r="J22" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K22" s="3">
         <v>59900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>27700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>31600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>28500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>205100</v>
+        <v>174800</v>
       </c>
       <c r="E23" s="3">
-        <v>-457600</v>
+        <v>195500</v>
       </c>
       <c r="F23" s="3">
-        <v>350400</v>
+        <v>-436200</v>
       </c>
       <c r="G23" s="3">
-        <v>1168700</v>
+        <v>334000</v>
       </c>
       <c r="H23" s="3">
-        <v>1206100</v>
+        <v>663100</v>
       </c>
       <c r="I23" s="3">
-        <v>573300</v>
+        <v>1149600</v>
       </c>
       <c r="J23" s="3">
+        <v>546500</v>
+      </c>
+      <c r="K23" s="3">
         <v>749100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1142600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1077300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>890600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>843500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1172000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>927100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>885100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>801000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1054200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>209300</v>
+        <v>159200</v>
       </c>
       <c r="E24" s="3">
-        <v>-44600</v>
+        <v>199500</v>
       </c>
       <c r="F24" s="3">
-        <v>139200</v>
+        <v>-42500</v>
       </c>
       <c r="G24" s="3">
-        <v>323000</v>
+        <v>132700</v>
       </c>
       <c r="H24" s="3">
-        <v>326100</v>
+        <v>185000</v>
       </c>
       <c r="I24" s="3">
-        <v>145200</v>
+        <v>310800</v>
       </c>
       <c r="J24" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K24" s="3">
         <v>192000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>447300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>269000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>226900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>242800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>331900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>307100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>212300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>255800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>298900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4200</v>
+        <v>15600</v>
       </c>
       <c r="E26" s="3">
-        <v>-413000</v>
+        <v>-4000</v>
       </c>
       <c r="F26" s="3">
-        <v>211200</v>
+        <v>-393600</v>
       </c>
       <c r="G26" s="3">
-        <v>845700</v>
+        <v>201300</v>
       </c>
       <c r="H26" s="3">
-        <v>879900</v>
+        <v>478100</v>
       </c>
       <c r="I26" s="3">
-        <v>428200</v>
+        <v>838700</v>
       </c>
       <c r="J26" s="3">
+        <v>408100</v>
+      </c>
+      <c r="K26" s="3">
         <v>557100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>695400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>808300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>663700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>840100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>620100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>672800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>545200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>755300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19900</v>
+        <v>7500</v>
       </c>
       <c r="E27" s="3">
-        <v>-399000</v>
+        <v>-19000</v>
       </c>
       <c r="F27" s="3">
-        <v>187100</v>
+        <v>-380300</v>
       </c>
       <c r="G27" s="3">
-        <v>837900</v>
+        <v>178400</v>
       </c>
       <c r="H27" s="3">
-        <v>863500</v>
+        <v>472200</v>
       </c>
       <c r="I27" s="3">
-        <v>412400</v>
+        <v>823100</v>
       </c>
       <c r="J27" s="3">
+        <v>393100</v>
+      </c>
+      <c r="K27" s="3">
         <v>536100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>681400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>788200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>647300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>576300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>818200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>596000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>656300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>525400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>731700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5800</v>
+        <v>-10900</v>
       </c>
       <c r="E32" s="3">
-        <v>23500</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
-        <v>24700</v>
+        <v>22400</v>
       </c>
       <c r="G32" s="3">
-        <v>-552900</v>
+        <v>23600</v>
       </c>
       <c r="H32" s="3">
-        <v>-13300</v>
+        <v>-77400</v>
       </c>
       <c r="I32" s="3">
-        <v>-19600</v>
+        <v>-12700</v>
       </c>
       <c r="J32" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-109100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>33000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-231400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-77600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>36800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-47400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19900</v>
+        <v>7500</v>
       </c>
       <c r="E33" s="3">
-        <v>-399000</v>
+        <v>-19000</v>
       </c>
       <c r="F33" s="3">
-        <v>187100</v>
+        <v>-380300</v>
       </c>
       <c r="G33" s="3">
-        <v>837900</v>
+        <v>178400</v>
       </c>
       <c r="H33" s="3">
-        <v>863500</v>
+        <v>472200</v>
       </c>
       <c r="I33" s="3">
-        <v>412400</v>
+        <v>823100</v>
       </c>
       <c r="J33" s="3">
+        <v>393100</v>
+      </c>
+      <c r="K33" s="3">
         <v>536100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>681400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>788200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>647300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>576300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>818200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>596000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>656300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>525400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>731700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19900</v>
+        <v>7500</v>
       </c>
       <c r="E35" s="3">
-        <v>-399000</v>
+        <v>-19000</v>
       </c>
       <c r="F35" s="3">
-        <v>187100</v>
+        <v>-380300</v>
       </c>
       <c r="G35" s="3">
-        <v>837900</v>
+        <v>178400</v>
       </c>
       <c r="H35" s="3">
-        <v>863500</v>
+        <v>472200</v>
       </c>
       <c r="I35" s="3">
-        <v>412400</v>
+        <v>823100</v>
       </c>
       <c r="J35" s="3">
+        <v>393100</v>
+      </c>
+      <c r="K35" s="3">
         <v>536100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>681400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>788200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>647300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>576300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>818200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>596000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>656300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>525400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>731700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6353200</v>
+        <v>7424600</v>
       </c>
       <c r="E41" s="3">
-        <v>6041700</v>
+        <v>6055700</v>
       </c>
       <c r="F41" s="3">
-        <v>3407400</v>
+        <v>5758800</v>
       </c>
       <c r="G41" s="3">
-        <v>4160400</v>
+        <v>3247900</v>
       </c>
       <c r="H41" s="3">
-        <v>2865900</v>
+        <v>3965600</v>
       </c>
       <c r="I41" s="3">
-        <v>4178400</v>
+        <v>2731700</v>
       </c>
       <c r="J41" s="3">
+        <v>3982700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3636300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4157200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3618500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3839700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3842000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4627500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3814400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4267500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3099000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4284300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63500</v>
+        <v>66700</v>
       </c>
       <c r="E42" s="3">
-        <v>97100</v>
+        <v>60500</v>
       </c>
       <c r="F42" s="3">
-        <v>169400</v>
+        <v>92500</v>
       </c>
       <c r="G42" s="3">
-        <v>1444900</v>
+        <v>161500</v>
       </c>
       <c r="H42" s="3">
-        <v>1418600</v>
+        <v>1377300</v>
       </c>
       <c r="I42" s="3">
-        <v>1388000</v>
+        <v>1352200</v>
       </c>
       <c r="J42" s="3">
+        <v>1323100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1240800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1452400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1538000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1440600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1170800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2004000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1762800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1563400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1328400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1487500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6473100</v>
+        <v>6116700</v>
       </c>
       <c r="E43" s="3">
-        <v>5820900</v>
+        <v>6170000</v>
       </c>
       <c r="F43" s="3">
-        <v>6498100</v>
+        <v>5548400</v>
       </c>
       <c r="G43" s="3">
-        <v>12658200</v>
+        <v>6193800</v>
       </c>
       <c r="H43" s="3">
-        <v>5573700</v>
+        <v>12065500</v>
       </c>
       <c r="I43" s="3">
-        <v>5371700</v>
+        <v>5312700</v>
       </c>
       <c r="J43" s="3">
+        <v>5120200</v>
+      </c>
+      <c r="K43" s="3">
         <v>5535200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5472300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5235300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4915100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4979300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4396600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4227700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3849600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3759800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3894300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4960400</v>
+        <v>4499800</v>
       </c>
       <c r="E44" s="3">
-        <v>5715800</v>
+        <v>4728100</v>
       </c>
       <c r="F44" s="3">
-        <v>5995900</v>
+        <v>5448200</v>
       </c>
       <c r="G44" s="3">
-        <v>11787500</v>
+        <v>5715100</v>
       </c>
       <c r="H44" s="3">
-        <v>5904400</v>
+        <v>11235500</v>
       </c>
       <c r="I44" s="3">
-        <v>6039100</v>
+        <v>5627900</v>
       </c>
       <c r="J44" s="3">
+        <v>5756300</v>
+      </c>
+      <c r="K44" s="3">
         <v>6145500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5826700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6012000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5542800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5444800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5335200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5557500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5631700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5198100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4944200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>838200</v>
+        <v>711800</v>
       </c>
       <c r="E45" s="3">
-        <v>730400</v>
+        <v>799000</v>
       </c>
       <c r="F45" s="3">
-        <v>702300</v>
+        <v>696200</v>
       </c>
       <c r="G45" s="3">
-        <v>823300</v>
+        <v>669400</v>
       </c>
       <c r="H45" s="3">
-        <v>1349400</v>
+        <v>784700</v>
       </c>
       <c r="I45" s="3">
-        <v>1294200</v>
+        <v>1286200</v>
       </c>
       <c r="J45" s="3">
+        <v>1233600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1217000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1145000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1780200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1605900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1554400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1599400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1782100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1801500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1521500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1552300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18688500</v>
+        <v>18819500</v>
       </c>
       <c r="E46" s="3">
-        <v>18406000</v>
+        <v>17813300</v>
       </c>
       <c r="F46" s="3">
-        <v>16773100</v>
+        <v>17544100</v>
       </c>
       <c r="G46" s="3">
-        <v>18435900</v>
+        <v>15987700</v>
       </c>
       <c r="H46" s="3">
-        <v>17112100</v>
+        <v>17572600</v>
       </c>
       <c r="I46" s="3">
-        <v>18271500</v>
+        <v>16310800</v>
       </c>
       <c r="J46" s="3">
+        <v>17415900</v>
+      </c>
+      <c r="K46" s="3">
         <v>17774800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18053400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18184000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17344100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16991400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17962800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17144600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17113800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14906800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16162500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300500</v>
+        <v>1261900</v>
       </c>
       <c r="E47" s="3">
-        <v>1438500</v>
+        <v>1239600</v>
       </c>
       <c r="F47" s="3">
-        <v>1641900</v>
+        <v>1371100</v>
       </c>
       <c r="G47" s="3">
-        <v>3154100</v>
+        <v>1565100</v>
       </c>
       <c r="H47" s="3">
-        <v>1832500</v>
+        <v>3006400</v>
       </c>
       <c r="I47" s="3">
-        <v>1933200</v>
+        <v>1746700</v>
       </c>
       <c r="J47" s="3">
+        <v>1842600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2137000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2062100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2715400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2197500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2397300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2506000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2589900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2498300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2378500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2322300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16511900</v>
+        <v>15409500</v>
       </c>
       <c r="E48" s="3">
-        <v>16987100</v>
+        <v>15738700</v>
       </c>
       <c r="F48" s="3">
-        <v>17090600</v>
+        <v>16191600</v>
       </c>
       <c r="G48" s="3">
-        <v>32826800</v>
+        <v>16290300</v>
       </c>
       <c r="H48" s="3">
-        <v>14348100</v>
+        <v>31289600</v>
       </c>
       <c r="I48" s="3">
-        <v>14385100</v>
+        <v>13676200</v>
       </c>
       <c r="J48" s="3">
+        <v>13711500</v>
+      </c>
+      <c r="K48" s="3">
         <v>14610900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13861400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13471900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12947700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12817300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13316300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12869100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12797900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12444100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12853700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2025800</v>
+        <v>1970600</v>
       </c>
       <c r="E49" s="3">
-        <v>2014200</v>
+        <v>1930900</v>
       </c>
       <c r="F49" s="3">
-        <v>1995500</v>
+        <v>1919900</v>
       </c>
       <c r="G49" s="3">
-        <v>4007900</v>
+        <v>1902000</v>
       </c>
       <c r="H49" s="3">
-        <v>1822900</v>
+        <v>3820300</v>
       </c>
       <c r="I49" s="3">
-        <v>1855600</v>
+        <v>1737500</v>
       </c>
       <c r="J49" s="3">
+        <v>1768700</v>
+      </c>
+      <c r="K49" s="3">
         <v>861500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>957700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>954200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>903400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>891800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>949500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>992600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>988400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>656000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>657700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>985500</v>
+        <v>912700</v>
       </c>
       <c r="E52" s="3">
-        <v>1006500</v>
+        <v>939400</v>
       </c>
       <c r="F52" s="3">
-        <v>983700</v>
+        <v>959300</v>
       </c>
       <c r="G52" s="3">
-        <v>1904600</v>
+        <v>937600</v>
       </c>
       <c r="H52" s="3">
-        <v>1415400</v>
+        <v>1815400</v>
       </c>
       <c r="I52" s="3">
-        <v>1456700</v>
+        <v>1349100</v>
       </c>
       <c r="J52" s="3">
+        <v>1388500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1458400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1317400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1118100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1054100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1038900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1055100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1022800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>998600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>934800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>965000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39512100</v>
+        <v>38374200</v>
       </c>
       <c r="E54" s="3">
-        <v>39852200</v>
+        <v>37661900</v>
       </c>
       <c r="F54" s="3">
-        <v>38484700</v>
+        <v>37986100</v>
       </c>
       <c r="G54" s="3">
-        <v>41102100</v>
+        <v>36682600</v>
       </c>
       <c r="H54" s="3">
-        <v>36531000</v>
+        <v>39177500</v>
       </c>
       <c r="I54" s="3">
-        <v>37902000</v>
+        <v>34820400</v>
       </c>
       <c r="J54" s="3">
+        <v>36127200</v>
+      </c>
+      <c r="K54" s="3">
         <v>36842700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36252100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36443600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34446800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34136600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35789700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34619000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34397000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31320200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32961200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3207000</v>
+        <v>3848500</v>
       </c>
       <c r="E57" s="3">
-        <v>2917500</v>
+        <v>3056900</v>
       </c>
       <c r="F57" s="3">
-        <v>3412300</v>
+        <v>2780900</v>
       </c>
       <c r="G57" s="3">
-        <v>6295700</v>
+        <v>3252500</v>
       </c>
       <c r="H57" s="3">
-        <v>1919000</v>
+        <v>6000900</v>
       </c>
       <c r="I57" s="3">
-        <v>2125900</v>
+        <v>1829100</v>
       </c>
       <c r="J57" s="3">
+        <v>2026300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2185100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2208700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2243400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2116200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1950300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2103600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2025600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2021500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1854200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1735000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3663600</v>
+        <v>3187200</v>
       </c>
       <c r="E58" s="3">
-        <v>4092200</v>
+        <v>3492000</v>
       </c>
       <c r="F58" s="3">
-        <v>1763800</v>
+        <v>3900500</v>
       </c>
       <c r="G58" s="3">
-        <v>3110900</v>
+        <v>1681200</v>
       </c>
       <c r="H58" s="3">
-        <v>1825300</v>
+        <v>4205800</v>
       </c>
       <c r="I58" s="3">
-        <v>2191900</v>
+        <v>1739800</v>
       </c>
       <c r="J58" s="3">
+        <v>2089300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2235600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2774400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2216500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1276800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1618000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1434900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1467800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1607300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1067600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3107800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2569000</v>
+        <v>2506800</v>
       </c>
       <c r="E59" s="3">
-        <v>2181400</v>
+        <v>2448700</v>
       </c>
       <c r="F59" s="3">
-        <v>2211300</v>
+        <v>2079300</v>
       </c>
       <c r="G59" s="3">
-        <v>6704900</v>
+        <v>2107700</v>
       </c>
       <c r="H59" s="3">
-        <v>4151000</v>
+        <v>6390900</v>
       </c>
       <c r="I59" s="3">
-        <v>4251800</v>
+        <v>3956600</v>
       </c>
       <c r="J59" s="3">
+        <v>4052700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4241900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4382200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3976300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3814200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3884900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4692900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4226900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3933500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3658000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4252700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9439600</v>
+        <v>9542400</v>
       </c>
       <c r="E60" s="3">
-        <v>9191100</v>
+        <v>8997600</v>
       </c>
       <c r="F60" s="3">
-        <v>7387400</v>
+        <v>8760700</v>
       </c>
       <c r="G60" s="3">
-        <v>8604200</v>
+        <v>7041400</v>
       </c>
       <c r="H60" s="3">
-        <v>7895200</v>
+        <v>8201300</v>
       </c>
       <c r="I60" s="3">
-        <v>8569500</v>
+        <v>7525500</v>
       </c>
       <c r="J60" s="3">
+        <v>8168300</v>
+      </c>
+      <c r="K60" s="3">
         <v>8662700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8374400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8436100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7207200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7453300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8231300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7720400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7562300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6579800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7538000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6355700</v>
+        <v>6029500</v>
       </c>
       <c r="E61" s="3">
-        <v>6339700</v>
+        <v>6058100</v>
       </c>
       <c r="F61" s="3">
-        <v>6312500</v>
+        <v>6042900</v>
       </c>
       <c r="G61" s="3">
-        <v>6306100</v>
+        <v>6016900</v>
       </c>
       <c r="H61" s="3">
-        <v>4322800</v>
+        <v>6010800</v>
       </c>
       <c r="I61" s="3">
-        <v>4340300</v>
+        <v>4120400</v>
       </c>
       <c r="J61" s="3">
+        <v>4137000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2442500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2031700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1989500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2684500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2665900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2714700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2646700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2640600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1438000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1481900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2809500</v>
+        <v>2693400</v>
       </c>
       <c r="E62" s="3">
-        <v>2896400</v>
+        <v>2678000</v>
       </c>
       <c r="F62" s="3">
-        <v>3006000</v>
+        <v>2760800</v>
       </c>
       <c r="G62" s="3">
-        <v>5039700</v>
+        <v>2865200</v>
       </c>
       <c r="H62" s="3">
-        <v>2712700</v>
+        <v>4803700</v>
       </c>
       <c r="I62" s="3">
-        <v>2781100</v>
+        <v>2585600</v>
       </c>
       <c r="J62" s="3">
+        <v>2650800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2918600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2848700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3083300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2898400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2955800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3122900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3026900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3025700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2934900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3133100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19026300</v>
+        <v>18680600</v>
       </c>
       <c r="E66" s="3">
-        <v>18869800</v>
+        <v>18135400</v>
       </c>
       <c r="F66" s="3">
-        <v>17175000</v>
+        <v>17986200</v>
       </c>
       <c r="G66" s="3">
-        <v>18524600</v>
+        <v>16370800</v>
       </c>
       <c r="H66" s="3">
-        <v>15417900</v>
+        <v>17657200</v>
       </c>
       <c r="I66" s="3">
-        <v>16198300</v>
+        <v>14695900</v>
       </c>
       <c r="J66" s="3">
+        <v>15439800</v>
+      </c>
+      <c r="K66" s="3">
         <v>14541300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13766400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13999700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13266900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13552900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14583900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13891000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13721500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11424400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12677000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19046000</v>
+        <v>18348600</v>
       </c>
       <c r="E72" s="3">
-        <v>19352600</v>
+        <v>18154100</v>
       </c>
       <c r="F72" s="3">
-        <v>19756600</v>
+        <v>18446400</v>
       </c>
       <c r="G72" s="3">
-        <v>46444800</v>
+        <v>18831400</v>
       </c>
       <c r="H72" s="3">
-        <v>23562500</v>
+        <v>44270000</v>
       </c>
       <c r="I72" s="3">
-        <v>23283300</v>
+        <v>22459200</v>
       </c>
       <c r="J72" s="3">
+        <v>22193000</v>
+      </c>
+      <c r="K72" s="3">
         <v>22722500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22336800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21311700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20630000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19983000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21211900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20394100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20283300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19252000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19213200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20485800</v>
+        <v>19693600</v>
       </c>
       <c r="E76" s="3">
-        <v>20982400</v>
+        <v>19526500</v>
       </c>
       <c r="F76" s="3">
-        <v>21309700</v>
+        <v>19999900</v>
       </c>
       <c r="G76" s="3">
-        <v>22577500</v>
+        <v>20311900</v>
       </c>
       <c r="H76" s="3">
-        <v>21113100</v>
+        <v>21520300</v>
       </c>
       <c r="I76" s="3">
-        <v>21703700</v>
+        <v>20124500</v>
       </c>
       <c r="J76" s="3">
+        <v>20687400</v>
+      </c>
+      <c r="K76" s="3">
         <v>22301400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22485700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22443800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21179900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20583800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21205800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20728000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20675500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19895800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20284200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19900</v>
+        <v>7500</v>
       </c>
       <c r="E81" s="3">
-        <v>-399000</v>
+        <v>-19000</v>
       </c>
       <c r="F81" s="3">
-        <v>187100</v>
+        <v>-380300</v>
       </c>
       <c r="G81" s="3">
-        <v>837900</v>
+        <v>178400</v>
       </c>
       <c r="H81" s="3">
-        <v>863500</v>
+        <v>472200</v>
       </c>
       <c r="I81" s="3">
-        <v>412400</v>
+        <v>823100</v>
       </c>
       <c r="J81" s="3">
+        <v>393100</v>
+      </c>
+      <c r="K81" s="3">
         <v>536100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>681400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>788200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>647300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>576300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>818200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>596000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>656300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>525400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>731700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>637700</v>
+        <v>622700</v>
       </c>
       <c r="E83" s="3">
-        <v>636700</v>
+        <v>607800</v>
       </c>
       <c r="F83" s="3">
-        <v>642500</v>
+        <v>606900</v>
       </c>
       <c r="G83" s="3">
-        <v>213600</v>
+        <v>612400</v>
       </c>
       <c r="H83" s="3">
-        <v>671400</v>
+        <v>630900</v>
       </c>
       <c r="I83" s="3">
-        <v>680400</v>
+        <v>639900</v>
       </c>
       <c r="J83" s="3">
+        <v>648500</v>
+      </c>
+      <c r="K83" s="3">
         <v>644800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>479300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>503300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>444400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>465300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>489800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>473600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>440100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>440600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>428800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,40 +4972,43 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1632200</v>
+        <v>1941200</v>
       </c>
       <c r="E89" s="3">
-        <v>779300</v>
+        <v>1555800</v>
       </c>
       <c r="F89" s="3">
-        <v>615900</v>
+        <v>742800</v>
       </c>
       <c r="G89" s="3">
-        <v>1632200</v>
+        <v>587000</v>
       </c>
       <c r="H89" s="3">
-        <v>726600</v>
+        <v>1905500</v>
       </c>
       <c r="I89" s="3">
-        <v>931700</v>
+        <v>692600</v>
       </c>
       <c r="J89" s="3">
+        <v>888100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,40 +5056,41 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-449100</v>
+        <v>-471000</v>
       </c>
       <c r="E91" s="3">
-        <v>-367200</v>
+        <v>-428100</v>
       </c>
       <c r="F91" s="3">
-        <v>-618100</v>
+        <v>-350000</v>
       </c>
       <c r="G91" s="3">
-        <v>-660600</v>
+        <v>-589200</v>
       </c>
       <c r="H91" s="3">
-        <v>-709600</v>
+        <v>-629700</v>
       </c>
       <c r="I91" s="3">
-        <v>-548800</v>
+        <v>-676300</v>
       </c>
       <c r="J91" s="3">
+        <v>-523100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,40 +5231,43 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-360700</v>
+        <v>-125600</v>
       </c>
       <c r="E94" s="3">
-        <v>-431000</v>
+        <v>-343800</v>
       </c>
       <c r="F94" s="3">
-        <v>-569700</v>
+        <v>-410900</v>
       </c>
       <c r="G94" s="3">
-        <v>-95000</v>
+        <v>-543000</v>
       </c>
       <c r="H94" s="3">
-        <v>-374500</v>
+        <v>-44400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1401500</v>
+        <v>-357000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1335900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,35 +5315,36 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-337700</v>
+        <v>-700</v>
       </c>
       <c r="E96" s="3">
-        <v>-6600</v>
+        <v>-321900</v>
       </c>
       <c r="F96" s="3">
-        <v>-534500</v>
+        <v>-6300</v>
       </c>
       <c r="G96" s="3">
+        <v>-509500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-800</v>
       </c>
-      <c r="H96" s="3">
-        <v>-552200</v>
-      </c>
       <c r="I96" s="3">
-        <v>-5700</v>
+        <v>-526300</v>
       </c>
       <c r="J96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-572200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,40 +5549,43 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-894300</v>
+        <v>-481800</v>
       </c>
       <c r="E100" s="3">
-        <v>2193500</v>
+        <v>-852400</v>
       </c>
       <c r="F100" s="3">
-        <v>-620000</v>
+        <v>2090800</v>
       </c>
       <c r="G100" s="3">
-        <v>-243600</v>
+        <v>-591000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1811300</v>
+        <v>-232200</v>
       </c>
       <c r="I100" s="3">
-        <v>1341100</v>
+        <v>-1726400</v>
       </c>
       <c r="J100" s="3">
+        <v>1278300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5363,40 +5608,43 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-65800</v>
+        <v>35100</v>
       </c>
       <c r="E101" s="3">
-        <v>92600</v>
+        <v>-62700</v>
       </c>
       <c r="F101" s="3">
-        <v>-179200</v>
+        <v>88200</v>
       </c>
       <c r="G101" s="3">
-        <v>108400</v>
+        <v>-170800</v>
       </c>
       <c r="H101" s="3">
-        <v>-93600</v>
+        <v>103300</v>
       </c>
       <c r="I101" s="3">
-        <v>-59100</v>
+        <v>-89200</v>
       </c>
       <c r="J101" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="K101" s="3">
         <v>67800</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5419,40 +5667,43 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>311500</v>
+        <v>1368900</v>
       </c>
       <c r="E102" s="3">
-        <v>2634300</v>
+        <v>296900</v>
       </c>
       <c r="F102" s="3">
-        <v>-753000</v>
+        <v>2511000</v>
       </c>
       <c r="G102" s="3">
-        <v>1402000</v>
+        <v>-717700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1332300</v>
+        <v>1336400</v>
       </c>
       <c r="I102" s="3">
-        <v>591800</v>
+        <v>-1269900</v>
       </c>
       <c r="J102" s="3">
+        <v>564100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>BRDCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7745500</v>
+        <v>6955800</v>
       </c>
       <c r="E8" s="3">
-        <v>7268200</v>
+        <v>7770900</v>
       </c>
       <c r="F8" s="3">
-        <v>5525600</v>
+        <v>7292000</v>
       </c>
       <c r="G8" s="3">
-        <v>6890500</v>
+        <v>5543700</v>
       </c>
       <c r="H8" s="3">
-        <v>8093000</v>
+        <v>6486000</v>
       </c>
       <c r="I8" s="3">
-        <v>8095600</v>
+        <v>8119500</v>
       </c>
       <c r="J8" s="3">
+        <v>8122100</v>
+      </c>
+      <c r="K8" s="3">
         <v>8168200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8151300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9212700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8349700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8322400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7816100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8862300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8318900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8054200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7556300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7913900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4733300</v>
+        <v>4231200</v>
       </c>
       <c r="E9" s="3">
-        <v>4649200</v>
+        <v>4748800</v>
       </c>
       <c r="F9" s="3">
-        <v>3737900</v>
+        <v>4664500</v>
       </c>
       <c r="G9" s="3">
-        <v>4343500</v>
+        <v>3750200</v>
       </c>
       <c r="H9" s="3">
-        <v>5051900</v>
+        <v>4062600</v>
       </c>
       <c r="I9" s="3">
-        <v>4935100</v>
+        <v>5068500</v>
       </c>
       <c r="J9" s="3">
+        <v>4951200</v>
+      </c>
+      <c r="K9" s="3">
         <v>5149100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5094700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5770100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5275700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5136800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4767700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5507100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5290700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4957100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4610500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4741000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3012200</v>
+        <v>2724600</v>
       </c>
       <c r="E10" s="3">
-        <v>2619000</v>
+        <v>3022100</v>
       </c>
       <c r="F10" s="3">
-        <v>1787700</v>
+        <v>2627500</v>
       </c>
       <c r="G10" s="3">
-        <v>2546900</v>
+        <v>1793500</v>
       </c>
       <c r="H10" s="3">
-        <v>3041100</v>
+        <v>2423400</v>
       </c>
       <c r="I10" s="3">
-        <v>3160500</v>
+        <v>3051100</v>
       </c>
       <c r="J10" s="3">
+        <v>3170900</v>
+      </c>
+      <c r="K10" s="3">
         <v>3019100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3056600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3442500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3074000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3185600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3048400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3355200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3028200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3097100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2945800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3172900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>219500</v>
+        <v>220900</v>
       </c>
       <c r="E12" s="3">
-        <v>206700</v>
+        <v>220300</v>
       </c>
       <c r="F12" s="3">
-        <v>203200</v>
+        <v>207300</v>
       </c>
       <c r="G12" s="3">
-        <v>242600</v>
+        <v>203900</v>
       </c>
       <c r="H12" s="3">
-        <v>253900</v>
+        <v>239100</v>
       </c>
       <c r="I12" s="3">
-        <v>235100</v>
+        <v>254800</v>
       </c>
       <c r="J12" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K12" s="3">
         <v>252200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>243000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>269400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>238200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>228100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>220800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>241900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>216700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>232200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>207300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>215600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>703200</v>
+        <v>16800</v>
       </c>
       <c r="E14" s="3">
-        <v>403800</v>
+        <v>705500</v>
       </c>
       <c r="F14" s="3">
-        <v>299500</v>
+        <v>393800</v>
       </c>
       <c r="G14" s="3">
-        <v>53900</v>
+        <v>299200</v>
       </c>
       <c r="H14" s="3">
-        <v>191200</v>
+        <v>49600</v>
       </c>
       <c r="I14" s="3">
-        <v>42800</v>
+        <v>191800</v>
       </c>
       <c r="J14" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K14" s="3">
         <v>100300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-103500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>99800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>58400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>39200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>208400</v>
+        <v>203400</v>
       </c>
       <c r="E15" s="3">
-        <v>208200</v>
+        <v>209100</v>
       </c>
       <c r="F15" s="3">
-        <v>199500</v>
+        <v>208900</v>
       </c>
       <c r="G15" s="3">
-        <v>207500</v>
+        <v>200100</v>
       </c>
       <c r="H15" s="3">
-        <v>214800</v>
+        <v>201400</v>
       </c>
       <c r="I15" s="3">
-        <v>211400</v>
+        <v>315500</v>
       </c>
       <c r="J15" s="3">
+        <v>310900</v>
+      </c>
+      <c r="K15" s="3">
         <v>200000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>203500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>85000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>84700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>79500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>78600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>80500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>76300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>73000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>72800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>71300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7555100</v>
+        <v>6212300</v>
       </c>
       <c r="E17" s="3">
-        <v>7050100</v>
+        <v>7579800</v>
       </c>
       <c r="F17" s="3">
-        <v>5905300</v>
+        <v>7073200</v>
       </c>
       <c r="G17" s="3">
-        <v>6498800</v>
+        <v>5924600</v>
       </c>
       <c r="H17" s="3">
-        <v>7449600</v>
+        <v>6126800</v>
       </c>
       <c r="I17" s="3">
-        <v>6899000</v>
+        <v>7474000</v>
       </c>
       <c r="J17" s="3">
+        <v>6921500</v>
+      </c>
+      <c r="K17" s="3">
         <v>7573700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7348300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8154600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7219900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7417600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6908000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7883500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7444900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7166000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6700500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6887600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>190500</v>
+        <v>743600</v>
       </c>
       <c r="E18" s="3">
-        <v>218100</v>
+        <v>191100</v>
       </c>
       <c r="F18" s="3">
-        <v>-379600</v>
+        <v>218800</v>
       </c>
       <c r="G18" s="3">
-        <v>391700</v>
+        <v>-380900</v>
       </c>
       <c r="H18" s="3">
-        <v>643500</v>
+        <v>359200</v>
       </c>
       <c r="I18" s="3">
-        <v>1196600</v>
+        <v>645600</v>
       </c>
       <c r="J18" s="3">
+        <v>1200600</v>
+      </c>
+      <c r="K18" s="3">
         <v>594400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>803000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1058100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1129800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>904800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>908100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>978800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>874100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>888200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>855800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1026300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E20" s="3">
         <v>10900</v>
       </c>
-      <c r="E20" s="3">
-        <v>5500</v>
-      </c>
       <c r="F20" s="3">
-        <v>-22400</v>
+        <v>5600</v>
       </c>
       <c r="G20" s="3">
-        <v>-23600</v>
+        <v>-22500</v>
       </c>
       <c r="H20" s="3">
-        <v>77400</v>
+        <v>-25100</v>
       </c>
       <c r="I20" s="3">
+        <v>77600</v>
+      </c>
+      <c r="J20" s="3">
         <v>12700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>18700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>109100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-33000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>231400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>77600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-36800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>47400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>824100</v>
+        <v>1338800</v>
       </c>
       <c r="E21" s="3">
-        <v>831400</v>
+        <v>826800</v>
       </c>
       <c r="F21" s="3">
-        <v>204900</v>
+        <v>834100</v>
       </c>
       <c r="G21" s="3">
-        <v>980600</v>
+        <v>205600</v>
       </c>
       <c r="H21" s="3">
-        <v>1346500</v>
+        <v>948600</v>
       </c>
       <c r="I21" s="3">
-        <v>1825800</v>
+        <v>1350900</v>
       </c>
       <c r="J21" s="3">
+        <v>1831800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1238200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1442400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1646500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1608300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1369100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1340400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1700000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1425200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1353700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1259500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1502500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26600</v>
+        <v>24400</v>
       </c>
       <c r="E22" s="3">
-        <v>28100</v>
+        <v>26700</v>
       </c>
       <c r="F22" s="3">
+        <v>28200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>34300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>34200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>57900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>66700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>59900</v>
+      </c>
+      <c r="M22" s="3">
+        <v>24600</v>
+      </c>
+      <c r="N22" s="3">
+        <v>27700</v>
+      </c>
+      <c r="O22" s="3">
         <v>34100</v>
       </c>
-      <c r="G22" s="3">
-        <v>34100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>57700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>59700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>66700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>59900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>24600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>27700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>34100</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>31600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>38200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>28500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>174800</v>
+        <v>749600</v>
       </c>
       <c r="E23" s="3">
-        <v>195500</v>
+        <v>175300</v>
       </c>
       <c r="F23" s="3">
-        <v>-436200</v>
+        <v>196100</v>
       </c>
       <c r="G23" s="3">
-        <v>334000</v>
+        <v>-437600</v>
       </c>
       <c r="H23" s="3">
-        <v>663100</v>
+        <v>299900</v>
       </c>
       <c r="I23" s="3">
-        <v>1149600</v>
+        <v>665300</v>
       </c>
       <c r="J23" s="3">
+        <v>1153400</v>
+      </c>
+      <c r="K23" s="3">
         <v>546500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>749100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1142600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1077300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>890600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>843500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1172000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>927100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>885100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>801000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1054200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>159200</v>
+        <v>173800</v>
       </c>
       <c r="E24" s="3">
-        <v>199500</v>
+        <v>159700</v>
       </c>
       <c r="F24" s="3">
-        <v>-42500</v>
+        <v>200100</v>
       </c>
       <c r="G24" s="3">
-        <v>132700</v>
+        <v>-42700</v>
       </c>
       <c r="H24" s="3">
-        <v>185000</v>
+        <v>122800</v>
       </c>
       <c r="I24" s="3">
-        <v>310800</v>
+        <v>185600</v>
       </c>
       <c r="J24" s="3">
+        <v>311900</v>
+      </c>
+      <c r="K24" s="3">
         <v>138400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>192000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>447300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>269000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>226900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>242800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>331900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>307100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>212300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>255800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>298900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>575900</v>
+      </c>
+      <c r="E26" s="3">
         <v>15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-393600</v>
-      </c>
       <c r="G26" s="3">
-        <v>201300</v>
+        <v>-394900</v>
       </c>
       <c r="H26" s="3">
-        <v>478100</v>
+        <v>177100</v>
       </c>
       <c r="I26" s="3">
-        <v>838700</v>
+        <v>479700</v>
       </c>
       <c r="J26" s="3">
+        <v>841500</v>
+      </c>
+      <c r="K26" s="3">
         <v>408100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>557100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>695400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>808300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>663700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>840100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>620100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>672800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>545200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>755300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>553800</v>
+      </c>
+      <c r="E27" s="3">
         <v>7500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-19000</v>
-      </c>
       <c r="F27" s="3">
-        <v>-380300</v>
+        <v>-19100</v>
       </c>
       <c r="G27" s="3">
-        <v>178400</v>
+        <v>-381500</v>
       </c>
       <c r="H27" s="3">
-        <v>472200</v>
+        <v>154100</v>
       </c>
       <c r="I27" s="3">
-        <v>823100</v>
+        <v>473800</v>
       </c>
       <c r="J27" s="3">
+        <v>825800</v>
+      </c>
+      <c r="K27" s="3">
         <v>393100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>536100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>681400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>788200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>647300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>576300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>818200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>596000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>656300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>525400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>731700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>2067600</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>24900</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-5500</v>
-      </c>
       <c r="F32" s="3">
-        <v>22400</v>
+        <v>-5600</v>
       </c>
       <c r="G32" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="H32" s="3">
-        <v>-77400</v>
+        <v>25100</v>
       </c>
       <c r="I32" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-12700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-18700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-109100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>33000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-231400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-77600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>36800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-47400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2621400</v>
+      </c>
+      <c r="E33" s="3">
         <v>7500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-19000</v>
-      </c>
       <c r="F33" s="3">
-        <v>-380300</v>
+        <v>-19100</v>
       </c>
       <c r="G33" s="3">
-        <v>178400</v>
+        <v>-381500</v>
       </c>
       <c r="H33" s="3">
-        <v>472200</v>
+        <v>179000</v>
       </c>
       <c r="I33" s="3">
-        <v>823100</v>
+        <v>473800</v>
       </c>
       <c r="J33" s="3">
+        <v>825800</v>
+      </c>
+      <c r="K33" s="3">
         <v>393100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>536100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>681400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>788200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>647300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>576300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>818200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>596000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>656300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>525400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>731700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2621400</v>
+      </c>
+      <c r="E35" s="3">
         <v>7500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-19000</v>
-      </c>
       <c r="F35" s="3">
-        <v>-380300</v>
+        <v>-19100</v>
       </c>
       <c r="G35" s="3">
-        <v>178400</v>
+        <v>-381500</v>
       </c>
       <c r="H35" s="3">
-        <v>472200</v>
+        <v>179000</v>
       </c>
       <c r="I35" s="3">
-        <v>823100</v>
+        <v>473800</v>
       </c>
       <c r="J35" s="3">
+        <v>825800</v>
+      </c>
+      <c r="K35" s="3">
         <v>393100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>536100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>681400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>788200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>647300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>576300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>818200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>596000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>656300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>525400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>731700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7424600</v>
+        <v>10935000</v>
       </c>
       <c r="E41" s="3">
-        <v>6055700</v>
+        <v>7448900</v>
       </c>
       <c r="F41" s="3">
-        <v>5758800</v>
+        <v>6075600</v>
       </c>
       <c r="G41" s="3">
-        <v>3247900</v>
+        <v>5777700</v>
       </c>
       <c r="H41" s="3">
-        <v>3965600</v>
+        <v>3258500</v>
       </c>
       <c r="I41" s="3">
-        <v>2731700</v>
+        <v>3978600</v>
       </c>
       <c r="J41" s="3">
+        <v>2740700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3982700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3636300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4157200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3618500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3839700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3842000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4627500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3814400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4267500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3099000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4284300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66700</v>
+        <v>58500</v>
       </c>
       <c r="E42" s="3">
-        <v>60500</v>
+        <v>66900</v>
       </c>
       <c r="F42" s="3">
-        <v>92500</v>
+        <v>60700</v>
       </c>
       <c r="G42" s="3">
-        <v>161500</v>
+        <v>92800</v>
       </c>
       <c r="H42" s="3">
-        <v>1377300</v>
+        <v>162000</v>
       </c>
       <c r="I42" s="3">
-        <v>1352200</v>
+        <v>1381800</v>
       </c>
       <c r="J42" s="3">
+        <v>1356600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1323100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1240800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1452400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1538000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1440600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1170800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2004000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1762800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1563400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1328400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1487500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6116700</v>
+        <v>5911500</v>
       </c>
       <c r="E43" s="3">
-        <v>6170000</v>
+        <v>6136700</v>
       </c>
       <c r="F43" s="3">
-        <v>5548400</v>
+        <v>6190200</v>
       </c>
       <c r="G43" s="3">
-        <v>6193800</v>
+        <v>5566500</v>
       </c>
       <c r="H43" s="3">
-        <v>12065500</v>
+        <v>6214100</v>
       </c>
       <c r="I43" s="3">
-        <v>5312700</v>
+        <v>12105000</v>
       </c>
       <c r="J43" s="3">
+        <v>5330100</v>
+      </c>
+      <c r="K43" s="3">
         <v>5120200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5535200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5472300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5235300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4915100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4979300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4396600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4227700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3849600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3759800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3894300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4499800</v>
+        <v>4828700</v>
       </c>
       <c r="E44" s="3">
-        <v>4728100</v>
+        <v>4514500</v>
       </c>
       <c r="F44" s="3">
-        <v>5448200</v>
+        <v>4743600</v>
       </c>
       <c r="G44" s="3">
-        <v>5715100</v>
+        <v>5466000</v>
       </c>
       <c r="H44" s="3">
-        <v>11235500</v>
+        <v>5733800</v>
       </c>
       <c r="I44" s="3">
-        <v>5627900</v>
+        <v>11272300</v>
       </c>
       <c r="J44" s="3">
+        <v>5646400</v>
+      </c>
+      <c r="K44" s="3">
         <v>5756300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6145500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5826700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6012000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5542800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5444800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5335200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5557500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5631700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5198100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4944200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>711800</v>
+        <v>761400</v>
       </c>
       <c r="E45" s="3">
-        <v>799000</v>
+        <v>714100</v>
       </c>
       <c r="F45" s="3">
-        <v>696200</v>
+        <v>801600</v>
       </c>
       <c r="G45" s="3">
-        <v>669400</v>
+        <v>698500</v>
       </c>
       <c r="H45" s="3">
-        <v>784700</v>
+        <v>671600</v>
       </c>
       <c r="I45" s="3">
-        <v>1286200</v>
+        <v>787300</v>
       </c>
       <c r="J45" s="3">
+        <v>1290500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1233600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1217000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1145000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1780200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1605900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1554400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1599400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1782100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1801500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1521500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1552300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18819500</v>
+        <v>22495000</v>
       </c>
       <c r="E46" s="3">
-        <v>17813300</v>
+        <v>18881100</v>
       </c>
       <c r="F46" s="3">
-        <v>17544100</v>
+        <v>17871700</v>
       </c>
       <c r="G46" s="3">
-        <v>15987700</v>
+        <v>17601600</v>
       </c>
       <c r="H46" s="3">
-        <v>17572600</v>
+        <v>16040100</v>
       </c>
       <c r="I46" s="3">
-        <v>16310800</v>
+        <v>17630200</v>
       </c>
       <c r="J46" s="3">
+        <v>16364300</v>
+      </c>
+      <c r="K46" s="3">
         <v>17415900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17774800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18053400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18184000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17344100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16991400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17962800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17144600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17113800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14906800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16162500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1261900</v>
+        <v>1361100</v>
       </c>
       <c r="E47" s="3">
-        <v>1239600</v>
+        <v>1266100</v>
       </c>
       <c r="F47" s="3">
-        <v>1371100</v>
+        <v>1243600</v>
       </c>
       <c r="G47" s="3">
-        <v>1565100</v>
+        <v>1375600</v>
       </c>
       <c r="H47" s="3">
-        <v>3006400</v>
+        <v>1570200</v>
       </c>
       <c r="I47" s="3">
-        <v>1746700</v>
+        <v>3016300</v>
       </c>
       <c r="J47" s="3">
+        <v>1752500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1842600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2137000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2062100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2715400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2197500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2397300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2506000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2589900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2498300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2378500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2322300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15409500</v>
+        <v>15563600</v>
       </c>
       <c r="E48" s="3">
-        <v>15738700</v>
+        <v>15460000</v>
       </c>
       <c r="F48" s="3">
-        <v>16191600</v>
+        <v>15790200</v>
       </c>
       <c r="G48" s="3">
-        <v>16290300</v>
+        <v>16244600</v>
       </c>
       <c r="H48" s="3">
-        <v>31289600</v>
+        <v>16343600</v>
       </c>
       <c r="I48" s="3">
-        <v>13676200</v>
+        <v>31392100</v>
       </c>
       <c r="J48" s="3">
+        <v>13721000</v>
+      </c>
+      <c r="K48" s="3">
         <v>13711500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14610900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13861400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13471900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12947700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12817300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13316300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12869100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12797900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12444100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12853700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1970600</v>
+        <v>1851300</v>
       </c>
       <c r="E49" s="3">
-        <v>1930900</v>
+        <v>1977000</v>
       </c>
       <c r="F49" s="3">
-        <v>1919900</v>
+        <v>1937300</v>
       </c>
       <c r="G49" s="3">
-        <v>1902000</v>
+        <v>1926200</v>
       </c>
       <c r="H49" s="3">
-        <v>3820300</v>
+        <v>1908300</v>
       </c>
       <c r="I49" s="3">
-        <v>1737500</v>
+        <v>3832800</v>
       </c>
       <c r="J49" s="3">
+        <v>1743200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1768700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>861500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>957700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>954200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>903400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>891800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>949500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>992600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>988400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>656000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>657700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>912700</v>
+        <v>967000</v>
       </c>
       <c r="E52" s="3">
-        <v>939400</v>
+        <v>915700</v>
       </c>
       <c r="F52" s="3">
-        <v>959300</v>
+        <v>942400</v>
       </c>
       <c r="G52" s="3">
-        <v>937600</v>
+        <v>962500</v>
       </c>
       <c r="H52" s="3">
-        <v>1815400</v>
+        <v>940700</v>
       </c>
       <c r="I52" s="3">
-        <v>1349100</v>
+        <v>1821300</v>
       </c>
       <c r="J52" s="3">
+        <v>1353500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1388500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1458400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1317400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1118100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1054100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1038900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1055100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1022800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>998600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>934800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>965000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38374200</v>
+        <v>42238000</v>
       </c>
       <c r="E54" s="3">
-        <v>37661900</v>
+        <v>38499900</v>
       </c>
       <c r="F54" s="3">
-        <v>37986100</v>
+        <v>37785200</v>
       </c>
       <c r="G54" s="3">
-        <v>36682600</v>
+        <v>38110500</v>
       </c>
       <c r="H54" s="3">
-        <v>39177500</v>
+        <v>36802800</v>
       </c>
       <c r="I54" s="3">
-        <v>34820400</v>
+        <v>39305800</v>
       </c>
       <c r="J54" s="3">
+        <v>34934500</v>
+      </c>
+      <c r="K54" s="3">
         <v>36127200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36842700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36252100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36443600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34446800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34136600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35789700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34619000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34397000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31320200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32961200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3848500</v>
+        <v>3543000</v>
       </c>
       <c r="E57" s="3">
-        <v>3056900</v>
+        <v>3861100</v>
       </c>
       <c r="F57" s="3">
-        <v>2780900</v>
+        <v>3066900</v>
       </c>
       <c r="G57" s="3">
-        <v>3252500</v>
+        <v>2790000</v>
       </c>
       <c r="H57" s="3">
-        <v>6000900</v>
+        <v>3263200</v>
       </c>
       <c r="I57" s="3">
-        <v>1829100</v>
+        <v>6020500</v>
       </c>
       <c r="J57" s="3">
+        <v>1835100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2026300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2185100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2208700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2243400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2116200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1950300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2103600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2025600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2021500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1854200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1735000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3187200</v>
+        <v>3512800</v>
       </c>
       <c r="E58" s="3">
-        <v>3492000</v>
+        <v>3197600</v>
       </c>
       <c r="F58" s="3">
-        <v>3900500</v>
+        <v>3503500</v>
       </c>
       <c r="G58" s="3">
-        <v>1681200</v>
+        <v>3913300</v>
       </c>
       <c r="H58" s="3">
-        <v>4205800</v>
+        <v>1686700</v>
       </c>
       <c r="I58" s="3">
-        <v>1739800</v>
+        <v>2974900</v>
       </c>
       <c r="J58" s="3">
+        <v>1745500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2089300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2235600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2774400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2216500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1276800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1618000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1434900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1467800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1607300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1067600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3107800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2506800</v>
+        <v>3213600</v>
       </c>
       <c r="E59" s="3">
-        <v>2448700</v>
+        <v>2515000</v>
       </c>
       <c r="F59" s="3">
-        <v>2079300</v>
+        <v>2456700</v>
       </c>
       <c r="G59" s="3">
-        <v>2107700</v>
+        <v>2086100</v>
       </c>
       <c r="H59" s="3">
-        <v>6390900</v>
+        <v>2114600</v>
       </c>
       <c r="I59" s="3">
-        <v>3956600</v>
+        <v>6411800</v>
       </c>
       <c r="J59" s="3">
+        <v>3969500</v>
+      </c>
+      <c r="K59" s="3">
         <v>4052700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4241900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4382200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3976300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3814200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3884900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4692900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4226900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3933500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3658000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4252700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9542400</v>
+        <v>10269400</v>
       </c>
       <c r="E60" s="3">
-        <v>8997600</v>
+        <v>9573700</v>
       </c>
       <c r="F60" s="3">
-        <v>8760700</v>
+        <v>9027100</v>
       </c>
       <c r="G60" s="3">
-        <v>7041400</v>
+        <v>8789400</v>
       </c>
       <c r="H60" s="3">
-        <v>8201300</v>
+        <v>7064500</v>
       </c>
       <c r="I60" s="3">
-        <v>7525500</v>
+        <v>8228100</v>
       </c>
       <c r="J60" s="3">
+        <v>7550100</v>
+      </c>
+      <c r="K60" s="3">
         <v>8168300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8662700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8374400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8436100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7207200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7453300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8231300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7720400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7562300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6579800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7538000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6029500</v>
+        <v>5904900</v>
       </c>
       <c r="E61" s="3">
-        <v>6058100</v>
+        <v>6049300</v>
       </c>
       <c r="F61" s="3">
-        <v>6042900</v>
+        <v>6077900</v>
       </c>
       <c r="G61" s="3">
-        <v>6016900</v>
+        <v>6062700</v>
       </c>
       <c r="H61" s="3">
-        <v>6010800</v>
+        <v>6036600</v>
       </c>
       <c r="I61" s="3">
-        <v>4120400</v>
+        <v>6030500</v>
       </c>
       <c r="J61" s="3">
+        <v>4133900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4137000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2442500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2031700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1989500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2684500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2665900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2714700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2646700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2640600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1438000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1481900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2693400</v>
+        <v>2646700</v>
       </c>
       <c r="E62" s="3">
-        <v>2678000</v>
+        <v>2702200</v>
       </c>
       <c r="F62" s="3">
-        <v>2760800</v>
+        <v>2686700</v>
       </c>
       <c r="G62" s="3">
-        <v>2865200</v>
+        <v>2769800</v>
       </c>
       <c r="H62" s="3">
-        <v>4803700</v>
+        <v>2874600</v>
       </c>
       <c r="I62" s="3">
-        <v>2585600</v>
+        <v>4819400</v>
       </c>
       <c r="J62" s="3">
+        <v>2594100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2650800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2918600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2848700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3083300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2898400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2955800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3122900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3026900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3025700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2934900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3133100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18680600</v>
+        <v>19241900</v>
       </c>
       <c r="E66" s="3">
-        <v>18135400</v>
+        <v>18741800</v>
       </c>
       <c r="F66" s="3">
-        <v>17986200</v>
+        <v>18194800</v>
       </c>
       <c r="G66" s="3">
-        <v>16370800</v>
+        <v>18045100</v>
       </c>
       <c r="H66" s="3">
-        <v>17657200</v>
+        <v>16424400</v>
       </c>
       <c r="I66" s="3">
-        <v>14695900</v>
+        <v>17715000</v>
       </c>
       <c r="J66" s="3">
+        <v>14744100</v>
+      </c>
+      <c r="K66" s="3">
         <v>15439800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14541300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13766400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13999700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13266900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13552900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14583900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13891000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13721500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11424400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12677000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18348600</v>
+        <v>20642200</v>
       </c>
       <c r="E72" s="3">
-        <v>18154100</v>
+        <v>18408700</v>
       </c>
       <c r="F72" s="3">
-        <v>18446400</v>
+        <v>18213600</v>
       </c>
       <c r="G72" s="3">
-        <v>18831400</v>
+        <v>18506800</v>
       </c>
       <c r="H72" s="3">
-        <v>44270000</v>
+        <v>18893100</v>
       </c>
       <c r="I72" s="3">
-        <v>22459200</v>
+        <v>44415000</v>
       </c>
       <c r="J72" s="3">
+        <v>22532700</v>
+      </c>
+      <c r="K72" s="3">
         <v>22193000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22722500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22336800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21311700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20630000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19983000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21211900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20394100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20283300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19252000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19213200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19693600</v>
+        <v>22996100</v>
       </c>
       <c r="E76" s="3">
-        <v>19526500</v>
+        <v>19758100</v>
       </c>
       <c r="F76" s="3">
-        <v>19999900</v>
+        <v>19590500</v>
       </c>
       <c r="G76" s="3">
-        <v>20311900</v>
+        <v>20065400</v>
       </c>
       <c r="H76" s="3">
-        <v>21520300</v>
+        <v>20378400</v>
       </c>
       <c r="I76" s="3">
-        <v>20124500</v>
+        <v>21590800</v>
       </c>
       <c r="J76" s="3">
+        <v>20190400</v>
+      </c>
+      <c r="K76" s="3">
         <v>20687400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22301400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22485700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22443800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21179900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20583800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21205800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20728000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20675500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19895800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20284200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2621400</v>
+      </c>
+      <c r="E81" s="3">
         <v>7500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-19000</v>
-      </c>
       <c r="F81" s="3">
-        <v>-380300</v>
+        <v>-19100</v>
       </c>
       <c r="G81" s="3">
-        <v>178400</v>
+        <v>-381500</v>
       </c>
       <c r="H81" s="3">
-        <v>472200</v>
+        <v>179000</v>
       </c>
       <c r="I81" s="3">
-        <v>823100</v>
+        <v>473800</v>
       </c>
       <c r="J81" s="3">
+        <v>825800</v>
+      </c>
+      <c r="K81" s="3">
         <v>393100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>536100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>681400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>788200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>647300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>576300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>818200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>596000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>656300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>525400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>731700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>622700</v>
+        <v>564800</v>
       </c>
       <c r="E83" s="3">
-        <v>607800</v>
+        <v>624800</v>
       </c>
       <c r="F83" s="3">
-        <v>606900</v>
+        <v>609800</v>
       </c>
       <c r="G83" s="3">
-        <v>612400</v>
+        <v>608900</v>
       </c>
       <c r="H83" s="3">
-        <v>630900</v>
+        <v>614400</v>
       </c>
       <c r="I83" s="3">
-        <v>639900</v>
+        <v>633000</v>
       </c>
       <c r="J83" s="3">
+        <v>642000</v>
+      </c>
+      <c r="K83" s="3">
         <v>648500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>644800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>479300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>503300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>444400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>465300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>489800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>473600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>440100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>440600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>428800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,43 +5189,46 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1941200</v>
+        <v>835000</v>
       </c>
       <c r="E89" s="3">
-        <v>1555800</v>
+        <v>1947600</v>
       </c>
       <c r="F89" s="3">
-        <v>742800</v>
+        <v>1560900</v>
       </c>
       <c r="G89" s="3">
-        <v>587000</v>
+        <v>745200</v>
       </c>
       <c r="H89" s="3">
-        <v>1905500</v>
+        <v>589000</v>
       </c>
       <c r="I89" s="3">
-        <v>692600</v>
+        <v>1911700</v>
       </c>
       <c r="J89" s="3">
+        <v>694900</v>
+      </c>
+      <c r="K89" s="3">
         <v>888100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,43 +5277,44 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-471000</v>
+        <v>-452400</v>
       </c>
       <c r="E91" s="3">
-        <v>-428100</v>
+        <v>-472500</v>
       </c>
       <c r="F91" s="3">
-        <v>-350000</v>
+        <v>-429500</v>
       </c>
       <c r="G91" s="3">
-        <v>-589200</v>
+        <v>-351100</v>
       </c>
       <c r="H91" s="3">
-        <v>-629700</v>
+        <v>-591100</v>
       </c>
       <c r="I91" s="3">
-        <v>-676300</v>
+        <v>-631700</v>
       </c>
       <c r="J91" s="3">
+        <v>-678600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-523100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,43 +5461,46 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-125600</v>
+        <v>2663600</v>
       </c>
       <c r="E94" s="3">
-        <v>-343800</v>
+        <v>-126000</v>
       </c>
       <c r="F94" s="3">
-        <v>-410900</v>
+        <v>-344900</v>
       </c>
       <c r="G94" s="3">
-        <v>-543000</v>
+        <v>-412200</v>
       </c>
       <c r="H94" s="3">
-        <v>-44400</v>
+        <v>-544800</v>
       </c>
       <c r="I94" s="3">
-        <v>-357000</v>
+        <v>-44500</v>
       </c>
       <c r="J94" s="3">
+        <v>-358100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,38 +5549,39 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-380600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-700</v>
       </c>
-      <c r="E96" s="3">
-        <v>-321900</v>
-      </c>
       <c r="F96" s="3">
+        <v>-322900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-6300</v>
       </c>
-      <c r="G96" s="3">
-        <v>-509500</v>
-      </c>
       <c r="H96" s="3">
+        <v>-511100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-800</v>
       </c>
-      <c r="I96" s="3">
-        <v>-526300</v>
-      </c>
       <c r="J96" s="3">
+        <v>-528100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-572200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,43 +5795,46 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-481800</v>
+        <v>-422900</v>
       </c>
       <c r="E100" s="3">
-        <v>-852400</v>
+        <v>-483400</v>
       </c>
       <c r="F100" s="3">
-        <v>2090800</v>
+        <v>-855200</v>
       </c>
       <c r="G100" s="3">
-        <v>-591000</v>
+        <v>2097600</v>
       </c>
       <c r="H100" s="3">
-        <v>-232200</v>
+        <v>-592900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1726400</v>
+        <v>-232900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1732100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1278300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5611,43 +5857,46 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>35100</v>
+        <v>410300</v>
       </c>
       <c r="E101" s="3">
-        <v>-62700</v>
+        <v>35200</v>
       </c>
       <c r="F101" s="3">
-        <v>88200</v>
+        <v>-62900</v>
       </c>
       <c r="G101" s="3">
-        <v>-170800</v>
+        <v>88500</v>
       </c>
       <c r="H101" s="3">
-        <v>103300</v>
+        <v>-171400</v>
       </c>
       <c r="I101" s="3">
-        <v>-89200</v>
+        <v>103600</v>
       </c>
       <c r="J101" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-56300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>67800</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5670,43 +5919,46 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1368900</v>
+        <v>3486000</v>
       </c>
       <c r="E102" s="3">
-        <v>296900</v>
+        <v>1373400</v>
       </c>
       <c r="F102" s="3">
-        <v>2511000</v>
+        <v>297900</v>
       </c>
       <c r="G102" s="3">
-        <v>-717700</v>
+        <v>2519200</v>
       </c>
       <c r="H102" s="3">
-        <v>1336400</v>
+        <v>-720100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1269900</v>
+        <v>1340700</v>
       </c>
       <c r="J102" s="3">
+        <v>-1274100</v>
+      </c>
+      <c r="K102" s="3">
         <v>564100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>BRDCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6955800</v>
+        <v>7396400</v>
       </c>
       <c r="E8" s="3">
-        <v>7770900</v>
+        <v>6895300</v>
       </c>
       <c r="F8" s="3">
-        <v>7292000</v>
+        <v>7703300</v>
       </c>
       <c r="G8" s="3">
-        <v>5543700</v>
+        <v>7228500</v>
       </c>
       <c r="H8" s="3">
-        <v>6486000</v>
+        <v>5075600</v>
       </c>
       <c r="I8" s="3">
-        <v>8119500</v>
+        <v>6429500</v>
       </c>
       <c r="J8" s="3">
+        <v>8048800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8122100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8168200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8151300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9212700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8349700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8322400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7816100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8862300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8318900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8054200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7556300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7913900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4231200</v>
+        <v>4459100</v>
       </c>
       <c r="E9" s="3">
-        <v>4748800</v>
+        <v>4194400</v>
       </c>
       <c r="F9" s="3">
-        <v>4664500</v>
+        <v>4707500</v>
       </c>
       <c r="G9" s="3">
-        <v>3750200</v>
+        <v>4623900</v>
       </c>
       <c r="H9" s="3">
-        <v>4062600</v>
+        <v>3450100</v>
       </c>
       <c r="I9" s="3">
-        <v>5068500</v>
+        <v>4027300</v>
       </c>
       <c r="J9" s="3">
+        <v>5024300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4951200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5149100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5094700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5770100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5275700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5136800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4767700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5507100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5290700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4957100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4610500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4741000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2724600</v>
+        <v>2937200</v>
       </c>
       <c r="E10" s="3">
-        <v>3022100</v>
+        <v>2700900</v>
       </c>
       <c r="F10" s="3">
-        <v>2627500</v>
+        <v>2995800</v>
       </c>
       <c r="G10" s="3">
-        <v>1793500</v>
+        <v>2604700</v>
       </c>
       <c r="H10" s="3">
-        <v>2423400</v>
+        <v>1625500</v>
       </c>
       <c r="I10" s="3">
-        <v>3051100</v>
+        <v>2402300</v>
       </c>
       <c r="J10" s="3">
+        <v>3024500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3170900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3019100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3056600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3442500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3074000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3185600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3048400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3355200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3028200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3097100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2945800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3172900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>220900</v>
+        <v>222300</v>
       </c>
       <c r="E12" s="3">
-        <v>220300</v>
+        <v>219000</v>
       </c>
       <c r="F12" s="3">
+        <v>218300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>205500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>198900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>237000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>252500</v>
+      </c>
+      <c r="K12" s="3">
+        <v>235800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>252200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>243000</v>
+      </c>
+      <c r="N12" s="3">
+        <v>269400</v>
+      </c>
+      <c r="O12" s="3">
+        <v>238200</v>
+      </c>
+      <c r="P12" s="3">
+        <v>228100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>220800</v>
+      </c>
+      <c r="R12" s="3">
+        <v>241900</v>
+      </c>
+      <c r="S12" s="3">
+        <v>216700</v>
+      </c>
+      <c r="T12" s="3">
+        <v>232200</v>
+      </c>
+      <c r="U12" s="3">
         <v>207300</v>
       </c>
-      <c r="G12" s="3">
-        <v>203900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>239100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>254800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>235800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>252200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>243000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>269400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>238200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>228100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>220800</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>241900</v>
-      </c>
-      <c r="R12" s="3">
-        <v>216700</v>
-      </c>
-      <c r="S12" s="3">
-        <v>232200</v>
-      </c>
-      <c r="T12" s="3">
-        <v>207300</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>215600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>16800</v>
+        <v>49600</v>
       </c>
       <c r="E14" s="3">
-        <v>705500</v>
+        <v>16600</v>
       </c>
       <c r="F14" s="3">
-        <v>393800</v>
+        <v>699400</v>
       </c>
       <c r="G14" s="3">
-        <v>299200</v>
+        <v>390400</v>
       </c>
       <c r="H14" s="3">
-        <v>49600</v>
+        <v>405300</v>
       </c>
       <c r="I14" s="3">
-        <v>191800</v>
+        <v>49100</v>
       </c>
       <c r="J14" s="3">
+        <v>190200</v>
+      </c>
+      <c r="K14" s="3">
         <v>41600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-103500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>99800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>58400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>39200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>203400</v>
+        <v>201700</v>
       </c>
       <c r="E15" s="3">
-        <v>209100</v>
+        <v>201600</v>
       </c>
       <c r="F15" s="3">
-        <v>208900</v>
+        <v>207200</v>
       </c>
       <c r="G15" s="3">
-        <v>200100</v>
+        <v>207000</v>
       </c>
       <c r="H15" s="3">
-        <v>201400</v>
+        <v>191300</v>
       </c>
       <c r="I15" s="3">
-        <v>315500</v>
+        <v>199600</v>
       </c>
       <c r="J15" s="3">
+        <v>312700</v>
+      </c>
+      <c r="K15" s="3">
         <v>310900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>200000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>203500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>85000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>84700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>79500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>78600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>80500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>76300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>73000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>72800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>71300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6212300</v>
+        <v>6587500</v>
       </c>
       <c r="E17" s="3">
-        <v>7579800</v>
+        <v>6158200</v>
       </c>
       <c r="F17" s="3">
-        <v>7073200</v>
+        <v>7513800</v>
       </c>
       <c r="G17" s="3">
-        <v>5924600</v>
+        <v>7011700</v>
       </c>
       <c r="H17" s="3">
-        <v>6126800</v>
+        <v>5516100</v>
       </c>
       <c r="I17" s="3">
-        <v>7474000</v>
+        <v>6073400</v>
       </c>
       <c r="J17" s="3">
+        <v>7408900</v>
+      </c>
+      <c r="K17" s="3">
         <v>6921500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7573700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7348300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8154600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7219900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7417600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6908000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7883500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7444900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7166000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6700500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6887600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>743600</v>
+        <v>808900</v>
       </c>
       <c r="E18" s="3">
-        <v>191100</v>
+        <v>737100</v>
       </c>
       <c r="F18" s="3">
-        <v>218800</v>
+        <v>189400</v>
       </c>
       <c r="G18" s="3">
-        <v>-380900</v>
+        <v>216900</v>
       </c>
       <c r="H18" s="3">
-        <v>359200</v>
+        <v>-440500</v>
       </c>
       <c r="I18" s="3">
-        <v>645600</v>
+        <v>356100</v>
       </c>
       <c r="J18" s="3">
+        <v>640000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1200600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>594400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>803000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1058100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1129800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>904800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>908100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>978800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>874100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>888200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>855800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1026300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30400</v>
+        <v>20200</v>
       </c>
       <c r="E20" s="3">
-        <v>10900</v>
+        <v>30200</v>
       </c>
       <c r="F20" s="3">
-        <v>5600</v>
+        <v>10800</v>
       </c>
       <c r="G20" s="3">
-        <v>-22500</v>
+        <v>5500</v>
       </c>
       <c r="H20" s="3">
-        <v>-25100</v>
+        <v>-24900</v>
       </c>
       <c r="I20" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>12700</v>
+      </c>
+      <c r="L20" s="3">
+        <v>18700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>109100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="P20" s="3">
+        <v>19900</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="R20" s="3">
+        <v>231400</v>
+      </c>
+      <c r="S20" s="3">
         <v>77600</v>
       </c>
-      <c r="J20" s="3">
-        <v>12700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>18700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>6000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>109100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>19900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>231400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>77600</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-36800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>47400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1338800</v>
+        <v>1377900</v>
       </c>
       <c r="E21" s="3">
-        <v>826800</v>
+        <v>1327100</v>
       </c>
       <c r="F21" s="3">
-        <v>834100</v>
+        <v>819600</v>
       </c>
       <c r="G21" s="3">
-        <v>205600</v>
+        <v>826900</v>
       </c>
       <c r="H21" s="3">
-        <v>948600</v>
+        <v>138200</v>
       </c>
       <c r="I21" s="3">
-        <v>1350900</v>
+        <v>940300</v>
       </c>
       <c r="J21" s="3">
+        <v>1339200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1831800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1238200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1442400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1646500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1608300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1369100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1340400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1700000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1425200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1353700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1259500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1502500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24400</v>
+        <v>24000</v>
       </c>
       <c r="E22" s="3">
-        <v>26700</v>
+        <v>24100</v>
       </c>
       <c r="F22" s="3">
-        <v>28200</v>
+        <v>26400</v>
       </c>
       <c r="G22" s="3">
-        <v>34300</v>
+        <v>28000</v>
       </c>
       <c r="H22" s="3">
-        <v>34200</v>
+        <v>34000</v>
       </c>
       <c r="I22" s="3">
-        <v>57900</v>
+        <v>33900</v>
       </c>
       <c r="J22" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K22" s="3">
         <v>59900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>66700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>27700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>31600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>38200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>28500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>19500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>749600</v>
+        <v>805100</v>
       </c>
       <c r="E23" s="3">
-        <v>175300</v>
+        <v>743100</v>
       </c>
       <c r="F23" s="3">
-        <v>196100</v>
+        <v>173800</v>
       </c>
       <c r="G23" s="3">
-        <v>-437600</v>
+        <v>194400</v>
       </c>
       <c r="H23" s="3">
-        <v>299900</v>
+        <v>-499400</v>
       </c>
       <c r="I23" s="3">
-        <v>665300</v>
+        <v>297300</v>
       </c>
       <c r="J23" s="3">
+        <v>659500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1153400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>546500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>749100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1142600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1077300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>890600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>843500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1172000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>927100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>885100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>801000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1054200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>173800</v>
+        <v>214900</v>
       </c>
       <c r="E24" s="3">
-        <v>159700</v>
+        <v>172300</v>
       </c>
       <c r="F24" s="3">
-        <v>200100</v>
+        <v>158300</v>
       </c>
       <c r="G24" s="3">
-        <v>-42700</v>
+        <v>198400</v>
       </c>
       <c r="H24" s="3">
-        <v>122800</v>
+        <v>-58200</v>
       </c>
       <c r="I24" s="3">
-        <v>185600</v>
+        <v>121800</v>
       </c>
       <c r="J24" s="3">
+        <v>184000</v>
+      </c>
+      <c r="K24" s="3">
         <v>311900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>138400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>192000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>447300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>269000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>226900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>242800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>331900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>307100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>212300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>255800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>298900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>575900</v>
+        <v>590200</v>
       </c>
       <c r="E26" s="3">
-        <v>15600</v>
+        <v>570800</v>
       </c>
       <c r="F26" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-394900</v>
-      </c>
       <c r="H26" s="3">
-        <v>177100</v>
+        <v>-441200</v>
       </c>
       <c r="I26" s="3">
-        <v>479700</v>
+        <v>175500</v>
       </c>
       <c r="J26" s="3">
+        <v>475500</v>
+      </c>
+      <c r="K26" s="3">
         <v>841500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>408100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>557100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>695400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>808300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>663700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>840100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>620100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>672800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>545200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>755300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>553800</v>
+        <v>577200</v>
       </c>
       <c r="E27" s="3">
-        <v>7500</v>
+        <v>549000</v>
       </c>
       <c r="F27" s="3">
-        <v>-19100</v>
+        <v>7400</v>
       </c>
       <c r="G27" s="3">
-        <v>-381500</v>
+        <v>-18900</v>
       </c>
       <c r="H27" s="3">
-        <v>154100</v>
+        <v>-428000</v>
       </c>
       <c r="I27" s="3">
-        <v>473800</v>
+        <v>152700</v>
       </c>
       <c r="J27" s="3">
+        <v>469700</v>
+      </c>
+      <c r="K27" s="3">
         <v>825800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>393100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>536100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>681400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>788200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>647300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>576300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>818200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>596000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>656300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>525400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>731700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,16 +1996,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>2067600</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
+        <v>33800</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2049600</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1956,16 +2017,16 @@
         <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>24900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+        <v>49700</v>
+      </c>
+      <c r="I29" s="3">
+        <v>24700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30400</v>
+        <v>-20200</v>
       </c>
       <c r="E32" s="3">
-        <v>-10900</v>
+        <v>-30200</v>
       </c>
       <c r="F32" s="3">
-        <v>-5600</v>
+        <v>-10800</v>
       </c>
       <c r="G32" s="3">
-        <v>22500</v>
+        <v>-5500</v>
       </c>
       <c r="H32" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="I32" s="3">
+        <v>24800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>24800</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>33000</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-231400</v>
+      </c>
+      <c r="S32" s="3">
         <v>-77600</v>
       </c>
-      <c r="J32" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-109100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>24800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>33000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-231400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-77600</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>36800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-47400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2621400</v>
+        <v>611000</v>
       </c>
       <c r="E33" s="3">
-        <v>7500</v>
+        <v>2598600</v>
       </c>
       <c r="F33" s="3">
-        <v>-19100</v>
+        <v>7400</v>
       </c>
       <c r="G33" s="3">
-        <v>-381500</v>
+        <v>-18900</v>
       </c>
       <c r="H33" s="3">
-        <v>179000</v>
+        <v>-378200</v>
       </c>
       <c r="I33" s="3">
-        <v>473800</v>
+        <v>177400</v>
       </c>
       <c r="J33" s="3">
+        <v>469700</v>
+      </c>
+      <c r="K33" s="3">
         <v>825800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>393100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>536100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>681400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>788200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>647300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>576300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>818200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>596000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>656300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>525400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>731700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2621400</v>
+        <v>611000</v>
       </c>
       <c r="E35" s="3">
-        <v>7500</v>
+        <v>2598600</v>
       </c>
       <c r="F35" s="3">
-        <v>-19100</v>
+        <v>7400</v>
       </c>
       <c r="G35" s="3">
-        <v>-381500</v>
+        <v>-18900</v>
       </c>
       <c r="H35" s="3">
-        <v>179000</v>
+        <v>-378200</v>
       </c>
       <c r="I35" s="3">
-        <v>473800</v>
+        <v>177400</v>
       </c>
       <c r="J35" s="3">
+        <v>469700</v>
+      </c>
+      <c r="K35" s="3">
         <v>825800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>393100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>536100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>681400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>788200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>647300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>576300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>818200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>596000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>656300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>525400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>731700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10935000</v>
+        <v>8681800</v>
       </c>
       <c r="E41" s="3">
-        <v>7448900</v>
+        <v>10839800</v>
       </c>
       <c r="F41" s="3">
-        <v>6075600</v>
+        <v>7384100</v>
       </c>
       <c r="G41" s="3">
-        <v>5777700</v>
+        <v>6022700</v>
       </c>
       <c r="H41" s="3">
-        <v>3258500</v>
+        <v>5727400</v>
       </c>
       <c r="I41" s="3">
-        <v>3978600</v>
+        <v>3230100</v>
       </c>
       <c r="J41" s="3">
+        <v>3943900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2740700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3982700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3636300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4157200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3618500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3839700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3842000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4627500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3814400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4267500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3099000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4284300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>58500</v>
+        <v>63900</v>
       </c>
       <c r="E42" s="3">
-        <v>66900</v>
+        <v>58000</v>
       </c>
       <c r="F42" s="3">
-        <v>60700</v>
+        <v>66300</v>
       </c>
       <c r="G42" s="3">
-        <v>92800</v>
+        <v>60200</v>
       </c>
       <c r="H42" s="3">
-        <v>162000</v>
+        <v>92000</v>
       </c>
       <c r="I42" s="3">
-        <v>1381800</v>
+        <v>160600</v>
       </c>
       <c r="J42" s="3">
+        <v>1369700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1356600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1323100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1240800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1452400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1538000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1440600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1170800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2004000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1762800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1563400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1328400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1487500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5911500</v>
+        <v>6008900</v>
       </c>
       <c r="E43" s="3">
-        <v>6136700</v>
+        <v>5860000</v>
       </c>
       <c r="F43" s="3">
-        <v>6190200</v>
+        <v>6083300</v>
       </c>
       <c r="G43" s="3">
-        <v>5566500</v>
+        <v>6136300</v>
       </c>
       <c r="H43" s="3">
-        <v>6214100</v>
+        <v>5518100</v>
       </c>
       <c r="I43" s="3">
-        <v>12105000</v>
+        <v>6160000</v>
       </c>
       <c r="J43" s="3">
+        <v>11999600</v>
+      </c>
+      <c r="K43" s="3">
         <v>5330100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5120200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5535200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5472300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5235300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4915100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4979300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4396600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4227700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3849600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3759800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3894300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4828700</v>
+        <v>5164400</v>
       </c>
       <c r="E44" s="3">
-        <v>4514500</v>
+        <v>4786600</v>
       </c>
       <c r="F44" s="3">
-        <v>4743600</v>
+        <v>4475200</v>
       </c>
       <c r="G44" s="3">
-        <v>5466000</v>
+        <v>4702300</v>
       </c>
       <c r="H44" s="3">
-        <v>5733800</v>
+        <v>5418400</v>
       </c>
       <c r="I44" s="3">
-        <v>11272300</v>
+        <v>5683900</v>
       </c>
       <c r="J44" s="3">
+        <v>11174200</v>
+      </c>
+      <c r="K44" s="3">
         <v>5646400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5756300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6145500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5826700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6012000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5542800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5444800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5335200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5557500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5631700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5198100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4944200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>761400</v>
+        <v>804500</v>
       </c>
       <c r="E45" s="3">
-        <v>714100</v>
+        <v>754800</v>
       </c>
       <c r="F45" s="3">
-        <v>801600</v>
+        <v>707900</v>
       </c>
       <c r="G45" s="3">
-        <v>698500</v>
+        <v>794600</v>
       </c>
       <c r="H45" s="3">
-        <v>671600</v>
+        <v>692400</v>
       </c>
       <c r="I45" s="3">
-        <v>787300</v>
+        <v>665700</v>
       </c>
       <c r="J45" s="3">
+        <v>780500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1290500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1233600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1217000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1145000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1780200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1605900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1554400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1599400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1782100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1801500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1521500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1552300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22495000</v>
+        <v>20723500</v>
       </c>
       <c r="E46" s="3">
-        <v>18881100</v>
+        <v>22299200</v>
       </c>
       <c r="F46" s="3">
-        <v>17871700</v>
+        <v>18716800</v>
       </c>
       <c r="G46" s="3">
-        <v>17601600</v>
+        <v>17716100</v>
       </c>
       <c r="H46" s="3">
-        <v>16040100</v>
+        <v>17448400</v>
       </c>
       <c r="I46" s="3">
-        <v>17630200</v>
+        <v>15900400</v>
       </c>
       <c r="J46" s="3">
+        <v>17476700</v>
+      </c>
+      <c r="K46" s="3">
         <v>16364300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17415900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17774800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18053400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18184000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17344100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16991400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17962800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17144600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17113800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14906800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16162500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1361100</v>
+        <v>1419800</v>
       </c>
       <c r="E47" s="3">
-        <v>1266100</v>
+        <v>1349200</v>
       </c>
       <c r="F47" s="3">
-        <v>1243600</v>
+        <v>1255000</v>
       </c>
       <c r="G47" s="3">
-        <v>1375600</v>
+        <v>1232800</v>
       </c>
       <c r="H47" s="3">
-        <v>1570200</v>
+        <v>1363600</v>
       </c>
       <c r="I47" s="3">
-        <v>3016300</v>
+        <v>1556500</v>
       </c>
       <c r="J47" s="3">
+        <v>2990000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1752500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1842600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2137000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2062100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2715400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2197500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2397300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2506000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2589900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2498300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2378500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2322300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15563600</v>
+        <v>15439900</v>
       </c>
       <c r="E48" s="3">
-        <v>15460000</v>
+        <v>15428100</v>
       </c>
       <c r="F48" s="3">
-        <v>15790200</v>
+        <v>15325400</v>
       </c>
       <c r="G48" s="3">
-        <v>16244600</v>
+        <v>15652800</v>
       </c>
       <c r="H48" s="3">
-        <v>16343600</v>
+        <v>16103200</v>
       </c>
       <c r="I48" s="3">
-        <v>31392100</v>
+        <v>16201400</v>
       </c>
       <c r="J48" s="3">
+        <v>31118800</v>
+      </c>
+      <c r="K48" s="3">
         <v>13721000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13711500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14610900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13861400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13471900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12947700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12817300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13316300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12869100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12797900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12444100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12853700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1851300</v>
+        <v>1843900</v>
       </c>
       <c r="E49" s="3">
-        <v>1977000</v>
+        <v>1835200</v>
       </c>
       <c r="F49" s="3">
-        <v>1937300</v>
+        <v>1959800</v>
       </c>
       <c r="G49" s="3">
-        <v>1926200</v>
+        <v>1920400</v>
       </c>
       <c r="H49" s="3">
-        <v>1908300</v>
+        <v>1909400</v>
       </c>
       <c r="I49" s="3">
-        <v>3832800</v>
+        <v>1891700</v>
       </c>
       <c r="J49" s="3">
+        <v>3799400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1743200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1768700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>861500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>957700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>954200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>903400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>891800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>949500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>992600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>988400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>656000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>657700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>967000</v>
+        <v>988700</v>
       </c>
       <c r="E52" s="3">
-        <v>915700</v>
+        <v>958600</v>
       </c>
       <c r="F52" s="3">
-        <v>942400</v>
+        <v>907700</v>
       </c>
       <c r="G52" s="3">
-        <v>962500</v>
+        <v>934200</v>
       </c>
       <c r="H52" s="3">
-        <v>940700</v>
+        <v>954100</v>
       </c>
       <c r="I52" s="3">
-        <v>1821300</v>
+        <v>932500</v>
       </c>
       <c r="J52" s="3">
+        <v>1805500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1353500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1388500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1458400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1317400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1118100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1054100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1038900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1055100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1022800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>998600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>934800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>965000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42238000</v>
+        <v>40415900</v>
       </c>
       <c r="E54" s="3">
-        <v>38499900</v>
+        <v>41870300</v>
       </c>
       <c r="F54" s="3">
-        <v>37785200</v>
+        <v>38164800</v>
       </c>
       <c r="G54" s="3">
-        <v>38110500</v>
+        <v>37456300</v>
       </c>
       <c r="H54" s="3">
-        <v>36802800</v>
+        <v>37778800</v>
       </c>
       <c r="I54" s="3">
-        <v>39305800</v>
+        <v>36482400</v>
       </c>
       <c r="J54" s="3">
+        <v>38963600</v>
+      </c>
+      <c r="K54" s="3">
         <v>34934500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36127200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36842700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36252100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36443600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34446800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34136600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35789700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34619000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34397000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31320200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32961200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3543000</v>
+        <v>3813100</v>
       </c>
       <c r="E57" s="3">
-        <v>3861100</v>
+        <v>3512100</v>
       </c>
       <c r="F57" s="3">
-        <v>3066900</v>
+        <v>3827500</v>
       </c>
       <c r="G57" s="3">
-        <v>2790000</v>
+        <v>3040200</v>
       </c>
       <c r="H57" s="3">
-        <v>3263200</v>
+        <v>2765700</v>
       </c>
       <c r="I57" s="3">
-        <v>6020500</v>
+        <v>3234800</v>
       </c>
       <c r="J57" s="3">
+        <v>5968100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1835100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2026300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2185100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2208700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2243400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2116200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1950300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2103600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2025600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2021500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1854200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1735000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3512800</v>
+        <v>1934100</v>
       </c>
       <c r="E58" s="3">
-        <v>3197600</v>
+        <v>3482200</v>
       </c>
       <c r="F58" s="3">
-        <v>3503500</v>
+        <v>3169800</v>
       </c>
       <c r="G58" s="3">
-        <v>3913300</v>
+        <v>3473000</v>
       </c>
       <c r="H58" s="3">
-        <v>1686700</v>
+        <v>3879300</v>
       </c>
       <c r="I58" s="3">
-        <v>2974900</v>
+        <v>1672000</v>
       </c>
       <c r="J58" s="3">
+        <v>2949000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1745500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2089300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2235600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2774400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2216500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1276800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1618000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1434900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1467800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1607300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1067600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3107800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3213600</v>
+        <v>2641600</v>
       </c>
       <c r="E59" s="3">
-        <v>2515000</v>
+        <v>3185600</v>
       </c>
       <c r="F59" s="3">
-        <v>2456700</v>
+        <v>2493100</v>
       </c>
       <c r="G59" s="3">
-        <v>2086100</v>
+        <v>2435300</v>
       </c>
       <c r="H59" s="3">
-        <v>2114600</v>
+        <v>2067900</v>
       </c>
       <c r="I59" s="3">
-        <v>6411800</v>
+        <v>2096200</v>
       </c>
       <c r="J59" s="3">
+        <v>6356000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3969500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4052700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4241900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4382200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3976300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3814200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3884900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4692900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4226900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3933500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3658000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4252700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10269400</v>
+        <v>8388800</v>
       </c>
       <c r="E60" s="3">
-        <v>9573700</v>
+        <v>10180000</v>
       </c>
       <c r="F60" s="3">
-        <v>9027100</v>
+        <v>9490300</v>
       </c>
       <c r="G60" s="3">
-        <v>8789400</v>
+        <v>8948500</v>
       </c>
       <c r="H60" s="3">
-        <v>7064500</v>
+        <v>8712900</v>
       </c>
       <c r="I60" s="3">
-        <v>8228100</v>
+        <v>7003000</v>
       </c>
       <c r="J60" s="3">
+        <v>8156500</v>
+      </c>
+      <c r="K60" s="3">
         <v>7550100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8168300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8662700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8374400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8436100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7207200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7453300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8231300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7720400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7562300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6579800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7538000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5904900</v>
+        <v>5509400</v>
       </c>
       <c r="E61" s="3">
-        <v>6049300</v>
+        <v>5853500</v>
       </c>
       <c r="F61" s="3">
-        <v>6077900</v>
+        <v>5996600</v>
       </c>
       <c r="G61" s="3">
-        <v>6062700</v>
+        <v>6025000</v>
       </c>
       <c r="H61" s="3">
-        <v>6036600</v>
+        <v>6009900</v>
       </c>
       <c r="I61" s="3">
-        <v>6030500</v>
+        <v>5984100</v>
       </c>
       <c r="J61" s="3">
+        <v>5978000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4133900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4137000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2442500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2031700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1989500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2684500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2665900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2714700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2646700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2640600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1438000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1481900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2646700</v>
+        <v>2612900</v>
       </c>
       <c r="E62" s="3">
-        <v>2702200</v>
+        <v>2623700</v>
       </c>
       <c r="F62" s="3">
-        <v>2686700</v>
+        <v>2678700</v>
       </c>
       <c r="G62" s="3">
-        <v>2769800</v>
+        <v>2663300</v>
       </c>
       <c r="H62" s="3">
-        <v>2874600</v>
+        <v>2745700</v>
       </c>
       <c r="I62" s="3">
-        <v>4819400</v>
+        <v>2849600</v>
       </c>
       <c r="J62" s="3">
+        <v>4777500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2594100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2650800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2918600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2848700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3083300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2898400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2955800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3122900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3026900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3025700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2934900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3133100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19241900</v>
+        <v>16905800</v>
       </c>
       <c r="E66" s="3">
-        <v>18741800</v>
+        <v>19074400</v>
       </c>
       <c r="F66" s="3">
-        <v>18194800</v>
+        <v>18578700</v>
       </c>
       <c r="G66" s="3">
-        <v>18045100</v>
+        <v>18036400</v>
       </c>
       <c r="H66" s="3">
-        <v>16424400</v>
+        <v>17888000</v>
       </c>
       <c r="I66" s="3">
-        <v>17715000</v>
+        <v>16281400</v>
       </c>
       <c r="J66" s="3">
+        <v>17560800</v>
+      </c>
+      <c r="K66" s="3">
         <v>14744100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15439800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14541300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13766400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13999700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13266900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13552900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14583900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13891000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13721500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11424400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12677000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20642200</v>
+        <v>21079700</v>
       </c>
       <c r="E72" s="3">
-        <v>18408700</v>
+        <v>20462500</v>
       </c>
       <c r="F72" s="3">
-        <v>18213600</v>
+        <v>18248400</v>
       </c>
       <c r="G72" s="3">
-        <v>18506800</v>
+        <v>18055000</v>
       </c>
       <c r="H72" s="3">
-        <v>18893100</v>
+        <v>18345700</v>
       </c>
       <c r="I72" s="3">
-        <v>44415000</v>
+        <v>18728700</v>
       </c>
       <c r="J72" s="3">
+        <v>44028300</v>
+      </c>
+      <c r="K72" s="3">
         <v>22532700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22193000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22722500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22336800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21311700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20630000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19983000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21211900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20394100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20283300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19252000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19213200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22996100</v>
+        <v>23510100</v>
       </c>
       <c r="E76" s="3">
-        <v>19758100</v>
+        <v>22795900</v>
       </c>
       <c r="F76" s="3">
-        <v>19590500</v>
+        <v>19586100</v>
       </c>
       <c r="G76" s="3">
-        <v>20065400</v>
+        <v>19419900</v>
       </c>
       <c r="H76" s="3">
-        <v>20378400</v>
+        <v>19890700</v>
       </c>
       <c r="I76" s="3">
-        <v>21590800</v>
+        <v>20201000</v>
       </c>
       <c r="J76" s="3">
+        <v>21402800</v>
+      </c>
+      <c r="K76" s="3">
         <v>20190400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20687400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22301400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22485700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22443800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21179900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20583800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21205800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20728000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20675500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19895800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20284200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2621400</v>
+        <v>611000</v>
       </c>
       <c r="E81" s="3">
-        <v>7500</v>
+        <v>2598600</v>
       </c>
       <c r="F81" s="3">
-        <v>-19100</v>
+        <v>7400</v>
       </c>
       <c r="G81" s="3">
-        <v>-381500</v>
+        <v>-18900</v>
       </c>
       <c r="H81" s="3">
-        <v>179000</v>
+        <v>-378200</v>
       </c>
       <c r="I81" s="3">
-        <v>473800</v>
+        <v>177400</v>
       </c>
       <c r="J81" s="3">
+        <v>469700</v>
+      </c>
+      <c r="K81" s="3">
         <v>825800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>393100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>536100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>681400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>788200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>647300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>576300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>818200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>596000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>656300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>525400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>731700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>564800</v>
+        <v>548900</v>
       </c>
       <c r="E83" s="3">
-        <v>624800</v>
+        <v>559900</v>
       </c>
       <c r="F83" s="3">
-        <v>609800</v>
+        <v>619300</v>
       </c>
       <c r="G83" s="3">
-        <v>608900</v>
+        <v>604500</v>
       </c>
       <c r="H83" s="3">
-        <v>614400</v>
+        <v>603600</v>
       </c>
       <c r="I83" s="3">
-        <v>633000</v>
+        <v>609100</v>
       </c>
       <c r="J83" s="3">
+        <v>627500</v>
+      </c>
+      <c r="K83" s="3">
         <v>642000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>648500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>644800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>479300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>503300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>444400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>465300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>489800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>473600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>440100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>440600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>428800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,46 +5406,49 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>835000</v>
+        <v>223100</v>
       </c>
       <c r="E89" s="3">
-        <v>1947600</v>
+        <v>827700</v>
       </c>
       <c r="F89" s="3">
-        <v>1560900</v>
+        <v>1930600</v>
       </c>
       <c r="G89" s="3">
-        <v>745200</v>
+        <v>1547300</v>
       </c>
       <c r="H89" s="3">
-        <v>589000</v>
+        <v>738700</v>
       </c>
       <c r="I89" s="3">
-        <v>1911700</v>
+        <v>583800</v>
       </c>
       <c r="J89" s="3">
+        <v>1895100</v>
+      </c>
+      <c r="K89" s="3">
         <v>694900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>888100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,46 +5498,47 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-452400</v>
+        <v>-243700</v>
       </c>
       <c r="E91" s="3">
-        <v>-472500</v>
+        <v>-448500</v>
       </c>
       <c r="F91" s="3">
-        <v>-429500</v>
+        <v>-468400</v>
       </c>
       <c r="G91" s="3">
-        <v>-351100</v>
+        <v>-425700</v>
       </c>
       <c r="H91" s="3">
-        <v>-591100</v>
+        <v>-348100</v>
       </c>
       <c r="I91" s="3">
-        <v>-631700</v>
+        <v>-585900</v>
       </c>
       <c r="J91" s="3">
+        <v>-626200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-678600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-523100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,46 +5691,49 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2663600</v>
+        <v>-217200</v>
       </c>
       <c r="E94" s="3">
-        <v>-126000</v>
+        <v>2640500</v>
       </c>
       <c r="F94" s="3">
-        <v>-344900</v>
+        <v>-124900</v>
       </c>
       <c r="G94" s="3">
-        <v>-412200</v>
+        <v>-341900</v>
       </c>
       <c r="H94" s="3">
-        <v>-544800</v>
+        <v>-408600</v>
       </c>
       <c r="I94" s="3">
-        <v>-44500</v>
+        <v>-540000</v>
       </c>
       <c r="J94" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-358100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,41 +5783,42 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-380600</v>
+        <v>-7600</v>
       </c>
       <c r="E96" s="3">
+        <v>-377300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-700</v>
       </c>
-      <c r="F96" s="3">
-        <v>-322900</v>
-      </c>
       <c r="G96" s="3">
+        <v>-320100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-6300</v>
       </c>
-      <c r="H96" s="3">
-        <v>-511100</v>
-      </c>
       <c r="I96" s="3">
+        <v>-506700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-528100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-572200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,46 +6041,49 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-422900</v>
+        <v>-2092700</v>
       </c>
       <c r="E100" s="3">
-        <v>-483400</v>
+        <v>-419200</v>
       </c>
       <c r="F100" s="3">
-        <v>-855200</v>
+        <v>-479200</v>
       </c>
       <c r="G100" s="3">
-        <v>2097600</v>
+        <v>-847800</v>
       </c>
       <c r="H100" s="3">
-        <v>-592900</v>
+        <v>2079400</v>
       </c>
       <c r="I100" s="3">
-        <v>-232900</v>
+        <v>-587700</v>
       </c>
       <c r="J100" s="3">
+        <v>-230900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1278300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5860,46 +6106,49 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>410300</v>
+        <v>-71200</v>
       </c>
       <c r="E101" s="3">
-        <v>35200</v>
+        <v>406700</v>
       </c>
       <c r="F101" s="3">
-        <v>-62900</v>
+        <v>34900</v>
       </c>
       <c r="G101" s="3">
-        <v>88500</v>
+        <v>-62300</v>
       </c>
       <c r="H101" s="3">
-        <v>-171400</v>
+        <v>87800</v>
       </c>
       <c r="I101" s="3">
-        <v>103600</v>
+        <v>-169900</v>
       </c>
       <c r="J101" s="3">
+        <v>102700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-89500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-56300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>67800</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5922,46 +6171,49 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3486000</v>
+        <v>-2158000</v>
       </c>
       <c r="E102" s="3">
-        <v>1373400</v>
+        <v>3455700</v>
       </c>
       <c r="F102" s="3">
-        <v>297900</v>
+        <v>1361400</v>
       </c>
       <c r="G102" s="3">
-        <v>2519200</v>
+        <v>295300</v>
       </c>
       <c r="H102" s="3">
-        <v>-720100</v>
+        <v>2497300</v>
       </c>
       <c r="I102" s="3">
-        <v>1340700</v>
+        <v>-713800</v>
       </c>
       <c r="J102" s="3">
+        <v>1329100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1274100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>564100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>BRDCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7396400</v>
+        <v>7338500</v>
       </c>
       <c r="E8" s="3">
-        <v>6895300</v>
+        <v>7152800</v>
       </c>
       <c r="F8" s="3">
-        <v>7703300</v>
+        <v>6668200</v>
       </c>
       <c r="G8" s="3">
-        <v>7228500</v>
+        <v>7449600</v>
       </c>
       <c r="H8" s="3">
-        <v>5075600</v>
+        <v>6530400</v>
       </c>
       <c r="I8" s="3">
-        <v>6429500</v>
+        <v>4908500</v>
       </c>
       <c r="J8" s="3">
+        <v>6217800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8048800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8122100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8168200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8151300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9212700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8349700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8322400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7816100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8862300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8318900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8054200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7556300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7913900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4459100</v>
+        <v>4375900</v>
       </c>
       <c r="E9" s="3">
-        <v>4194400</v>
+        <v>4312300</v>
       </c>
       <c r="F9" s="3">
-        <v>4707500</v>
+        <v>4056300</v>
       </c>
       <c r="G9" s="3">
-        <v>4623900</v>
+        <v>4552400</v>
       </c>
       <c r="H9" s="3">
-        <v>3450100</v>
+        <v>4195200</v>
       </c>
       <c r="I9" s="3">
-        <v>4027300</v>
+        <v>3336500</v>
       </c>
       <c r="J9" s="3">
+        <v>3894700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5024300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4951200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5149100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5094700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5770100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5275700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5136800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4767700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5507100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5290700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4957100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4610500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4741000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2937200</v>
+        <v>2962500</v>
       </c>
       <c r="E10" s="3">
-        <v>2700900</v>
+        <v>2840500</v>
       </c>
       <c r="F10" s="3">
-        <v>2995800</v>
+        <v>2612000</v>
       </c>
       <c r="G10" s="3">
-        <v>2604700</v>
+        <v>2897200</v>
       </c>
       <c r="H10" s="3">
-        <v>1625500</v>
+        <v>2335200</v>
       </c>
       <c r="I10" s="3">
-        <v>2402300</v>
+        <v>1572000</v>
       </c>
       <c r="J10" s="3">
+        <v>2323200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3024500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3170900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3019100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3056600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3442500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3074000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3185600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3048400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3355200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3028200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3097100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2945800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3172900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>222300</v>
+        <v>212700</v>
       </c>
       <c r="E12" s="3">
-        <v>219000</v>
+        <v>215000</v>
       </c>
       <c r="F12" s="3">
-        <v>218300</v>
+        <v>211800</v>
       </c>
       <c r="G12" s="3">
-        <v>205500</v>
+        <v>211100</v>
       </c>
       <c r="H12" s="3">
-        <v>198900</v>
+        <v>195700</v>
       </c>
       <c r="I12" s="3">
-        <v>237000</v>
+        <v>192400</v>
       </c>
       <c r="J12" s="3">
+        <v>229200</v>
+      </c>
+      <c r="K12" s="3">
         <v>252500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>235800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>252200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>243000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>269400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>238200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>228100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>220800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>241900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>216700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>232200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>207300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>215600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>49600</v>
+        <v>31000</v>
       </c>
       <c r="E14" s="3">
-        <v>16600</v>
+        <v>48000</v>
       </c>
       <c r="F14" s="3">
-        <v>699400</v>
+        <v>16100</v>
       </c>
       <c r="G14" s="3">
-        <v>390400</v>
+        <v>676300</v>
       </c>
       <c r="H14" s="3">
-        <v>405300</v>
+        <v>767700</v>
       </c>
       <c r="I14" s="3">
-        <v>49100</v>
+        <v>391900</v>
       </c>
       <c r="J14" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K14" s="3">
         <v>190200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-103500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>99800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>58400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>39200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>201700</v>
+        <v>198100</v>
       </c>
       <c r="E15" s="3">
-        <v>201600</v>
+        <v>195000</v>
       </c>
       <c r="F15" s="3">
-        <v>207200</v>
+        <v>195000</v>
       </c>
       <c r="G15" s="3">
-        <v>207000</v>
+        <v>200400</v>
       </c>
       <c r="H15" s="3">
-        <v>191300</v>
+        <v>194300</v>
       </c>
       <c r="I15" s="3">
-        <v>199600</v>
+        <v>185000</v>
       </c>
       <c r="J15" s="3">
+        <v>193000</v>
+      </c>
+      <c r="K15" s="3">
         <v>312700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>310900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>200000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>203500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>85000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>84700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>79500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>78600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>80500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>76300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>73000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>72800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>71300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6587500</v>
+        <v>6492000</v>
       </c>
       <c r="E17" s="3">
-        <v>6158200</v>
+        <v>6370600</v>
       </c>
       <c r="F17" s="3">
-        <v>7513800</v>
+        <v>5955400</v>
       </c>
       <c r="G17" s="3">
-        <v>7011700</v>
+        <v>7266400</v>
       </c>
       <c r="H17" s="3">
-        <v>5516100</v>
+        <v>6411500</v>
       </c>
       <c r="I17" s="3">
-        <v>6073400</v>
+        <v>5334500</v>
       </c>
       <c r="J17" s="3">
+        <v>5873400</v>
+      </c>
+      <c r="K17" s="3">
         <v>7408900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6921500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7573700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7348300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8154600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7219900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7417600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6908000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7883500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7444900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7166000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6700500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6887600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>808900</v>
+        <v>846400</v>
       </c>
       <c r="E18" s="3">
-        <v>737100</v>
+        <v>782200</v>
       </c>
       <c r="F18" s="3">
-        <v>189400</v>
+        <v>712800</v>
       </c>
       <c r="G18" s="3">
-        <v>216900</v>
+        <v>183200</v>
       </c>
       <c r="H18" s="3">
-        <v>-440500</v>
+        <v>118800</v>
       </c>
       <c r="I18" s="3">
-        <v>356100</v>
+        <v>-426000</v>
       </c>
       <c r="J18" s="3">
+        <v>344400</v>
+      </c>
+      <c r="K18" s="3">
         <v>640000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>594400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>803000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1058100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1129800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>904800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>908100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>978800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>874100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>888200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>855800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1026300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20200</v>
+        <v>16700</v>
       </c>
       <c r="E20" s="3">
-        <v>30200</v>
+        <v>19600</v>
       </c>
       <c r="F20" s="3">
-        <v>10800</v>
+        <v>29200</v>
       </c>
       <c r="G20" s="3">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="H20" s="3">
-        <v>-24900</v>
+        <v>10700</v>
       </c>
       <c r="I20" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>76900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>12700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>18700</v>
+      </c>
+      <c r="N20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>109100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-24800</v>
       </c>
-      <c r="J20" s="3">
-        <v>76900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>12700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>18700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>6000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>109100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-33000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>231400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>77600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-36800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>47400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1377900</v>
+        <v>1427200</v>
       </c>
       <c r="E21" s="3">
-        <v>1327100</v>
+        <v>1332600</v>
       </c>
       <c r="F21" s="3">
-        <v>819600</v>
+        <v>1283400</v>
       </c>
       <c r="G21" s="3">
-        <v>826900</v>
+        <v>792600</v>
       </c>
       <c r="H21" s="3">
-        <v>138200</v>
+        <v>714100</v>
       </c>
       <c r="I21" s="3">
-        <v>940300</v>
+        <v>133600</v>
       </c>
       <c r="J21" s="3">
+        <v>909400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1339200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1831800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1238200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1442400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1646500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1608300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1369100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1340400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1700000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1425200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1353700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1259500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1502500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24000</v>
+        <v>25900</v>
       </c>
       <c r="E22" s="3">
-        <v>24100</v>
+        <v>23200</v>
       </c>
       <c r="F22" s="3">
-        <v>26400</v>
+        <v>23300</v>
       </c>
       <c r="G22" s="3">
-        <v>28000</v>
+        <v>25600</v>
       </c>
       <c r="H22" s="3">
-        <v>34000</v>
+        <v>27100</v>
       </c>
       <c r="I22" s="3">
-        <v>33900</v>
+        <v>32800</v>
       </c>
       <c r="J22" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K22" s="3">
         <v>57400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>66700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>27700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>31600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>38200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>24500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>28500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>19500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>805100</v>
+        <v>837200</v>
       </c>
       <c r="E23" s="3">
-        <v>743100</v>
+        <v>778500</v>
       </c>
       <c r="F23" s="3">
-        <v>173800</v>
+        <v>718600</v>
       </c>
       <c r="G23" s="3">
-        <v>194400</v>
+        <v>168100</v>
       </c>
       <c r="H23" s="3">
-        <v>-499400</v>
+        <v>102400</v>
       </c>
       <c r="I23" s="3">
-        <v>297300</v>
+        <v>-482900</v>
       </c>
       <c r="J23" s="3">
+        <v>287500</v>
+      </c>
+      <c r="K23" s="3">
         <v>659500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1153400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>546500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>749100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1142600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1077300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>890600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>843500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1172000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>927100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>885100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>801000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1054200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>214900</v>
+        <v>215800</v>
       </c>
       <c r="E24" s="3">
-        <v>172300</v>
+        <v>207800</v>
       </c>
       <c r="F24" s="3">
-        <v>158300</v>
+        <v>166600</v>
       </c>
       <c r="G24" s="3">
-        <v>198400</v>
+        <v>153100</v>
       </c>
       <c r="H24" s="3">
-        <v>-58200</v>
+        <v>174500</v>
       </c>
       <c r="I24" s="3">
-        <v>121800</v>
+        <v>-56300</v>
       </c>
       <c r="J24" s="3">
+        <v>117800</v>
+      </c>
+      <c r="K24" s="3">
         <v>184000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>311900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>138400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>192000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>447300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>269000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>226900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>242800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>331900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>307100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>212300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>255800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>298900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>590200</v>
+        <v>621400</v>
       </c>
       <c r="E26" s="3">
-        <v>570800</v>
+        <v>570700</v>
       </c>
       <c r="F26" s="3">
-        <v>15500</v>
+        <v>552000</v>
       </c>
       <c r="G26" s="3">
-        <v>-4000</v>
+        <v>15000</v>
       </c>
       <c r="H26" s="3">
-        <v>-441200</v>
+        <v>-72000</v>
       </c>
       <c r="I26" s="3">
-        <v>175500</v>
+        <v>-426700</v>
       </c>
       <c r="J26" s="3">
+        <v>169800</v>
+      </c>
+      <c r="K26" s="3">
         <v>475500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>841500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>408100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>557100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>695400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>808300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>663700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>840100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>620100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>672800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>545200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>755300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>577200</v>
+        <v>610400</v>
       </c>
       <c r="E27" s="3">
-        <v>549000</v>
+        <v>558200</v>
       </c>
       <c r="F27" s="3">
-        <v>7400</v>
+        <v>530900</v>
       </c>
       <c r="G27" s="3">
-        <v>-18900</v>
+        <v>7200</v>
       </c>
       <c r="H27" s="3">
-        <v>-428000</v>
+        <v>-86400</v>
       </c>
       <c r="I27" s="3">
-        <v>152700</v>
+        <v>-413900</v>
       </c>
       <c r="J27" s="3">
+        <v>147700</v>
+      </c>
+      <c r="K27" s="3">
         <v>469700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>825800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>393100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>536100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>681400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>788200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>647300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>576300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>818200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>596000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>656300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>525400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>731700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,37 +2057,40 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>33800</v>
+        <v>11000</v>
       </c>
       <c r="E29" s="3">
-        <v>2049600</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>32700</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1982100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>49700</v>
+        <v>68200</v>
       </c>
       <c r="I29" s="3">
-        <v>24700</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+        <v>48100</v>
+      </c>
+      <c r="J29" s="3">
+        <v>23900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20200</v>
+        <v>-16700</v>
       </c>
       <c r="E32" s="3">
-        <v>-30200</v>
+        <v>-19600</v>
       </c>
       <c r="F32" s="3">
-        <v>-10800</v>
+        <v>-29200</v>
       </c>
       <c r="G32" s="3">
-        <v>-5500</v>
+        <v>-10500</v>
       </c>
       <c r="H32" s="3">
-        <v>24900</v>
+        <v>-10700</v>
       </c>
       <c r="I32" s="3">
+        <v>24100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="P32" s="3">
         <v>24800</v>
       </c>
-      <c r="J32" s="3">
-        <v>-76900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-109100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>24800</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>33000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-231400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-77600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>36800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-47400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>611000</v>
+        <v>621300</v>
       </c>
       <c r="E33" s="3">
-        <v>2598600</v>
+        <v>590900</v>
       </c>
       <c r="F33" s="3">
-        <v>7400</v>
+        <v>2513000</v>
       </c>
       <c r="G33" s="3">
-        <v>-18900</v>
+        <v>7200</v>
       </c>
       <c r="H33" s="3">
-        <v>-378200</v>
+        <v>-18300</v>
       </c>
       <c r="I33" s="3">
-        <v>177400</v>
+        <v>-365800</v>
       </c>
       <c r="J33" s="3">
+        <v>171600</v>
+      </c>
+      <c r="K33" s="3">
         <v>469700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>825800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>393100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>536100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>681400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>788200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>647300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>576300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>818200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>596000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>656300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>525400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>731700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>611000</v>
+        <v>621300</v>
       </c>
       <c r="E35" s="3">
-        <v>2598600</v>
+        <v>590900</v>
       </c>
       <c r="F35" s="3">
-        <v>7400</v>
+        <v>2513000</v>
       </c>
       <c r="G35" s="3">
-        <v>-18900</v>
+        <v>7200</v>
       </c>
       <c r="H35" s="3">
-        <v>-378200</v>
+        <v>-18300</v>
       </c>
       <c r="I35" s="3">
-        <v>177400</v>
+        <v>-365800</v>
       </c>
       <c r="J35" s="3">
+        <v>171600</v>
+      </c>
+      <c r="K35" s="3">
         <v>469700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>825800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>393100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>536100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>681400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>788200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>647300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>576300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>818200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>596000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>656300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>525400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>731700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8681800</v>
+        <v>7490500</v>
       </c>
       <c r="E41" s="3">
-        <v>10839800</v>
+        <v>8395900</v>
       </c>
       <c r="F41" s="3">
-        <v>7384100</v>
+        <v>10482800</v>
       </c>
       <c r="G41" s="3">
-        <v>6022700</v>
+        <v>7140900</v>
       </c>
       <c r="H41" s="3">
-        <v>5727400</v>
+        <v>5824300</v>
       </c>
       <c r="I41" s="3">
-        <v>3230100</v>
+        <v>5538800</v>
       </c>
       <c r="J41" s="3">
+        <v>3123800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3943900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2740700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3982700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3636300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4157200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3618500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3839700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3842000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4627500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3814400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4267500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3099000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4284300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63900</v>
+        <v>66100</v>
       </c>
       <c r="E42" s="3">
-        <v>58000</v>
+        <v>61800</v>
       </c>
       <c r="F42" s="3">
-        <v>66300</v>
+        <v>56100</v>
       </c>
       <c r="G42" s="3">
-        <v>60200</v>
+        <v>64100</v>
       </c>
       <c r="H42" s="3">
-        <v>92000</v>
+        <v>58200</v>
       </c>
       <c r="I42" s="3">
-        <v>160600</v>
+        <v>89000</v>
       </c>
       <c r="J42" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1369700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1356600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1323100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1240800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1452400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1538000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1440600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1170800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2004000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1762800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1563400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1328400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1487500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6008900</v>
+        <v>6135800</v>
       </c>
       <c r="E43" s="3">
-        <v>5860000</v>
+        <v>5811000</v>
       </c>
       <c r="F43" s="3">
-        <v>6083300</v>
+        <v>5667100</v>
       </c>
       <c r="G43" s="3">
-        <v>6136300</v>
+        <v>5883000</v>
       </c>
       <c r="H43" s="3">
-        <v>5518100</v>
+        <v>5934200</v>
       </c>
       <c r="I43" s="3">
-        <v>6160000</v>
+        <v>5336400</v>
       </c>
       <c r="J43" s="3">
+        <v>5957200</v>
+      </c>
+      <c r="K43" s="3">
         <v>11999600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5330100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5120200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5535200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5472300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5235300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4915100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4979300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4396600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4227700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3849600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3759800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3894300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5164400</v>
+        <v>5483700</v>
       </c>
       <c r="E44" s="3">
-        <v>4786600</v>
+        <v>4994400</v>
       </c>
       <c r="F44" s="3">
-        <v>4475200</v>
+        <v>4629000</v>
       </c>
       <c r="G44" s="3">
-        <v>4702300</v>
+        <v>4327800</v>
       </c>
       <c r="H44" s="3">
-        <v>5418400</v>
+        <v>4547400</v>
       </c>
       <c r="I44" s="3">
-        <v>5683900</v>
+        <v>5240000</v>
       </c>
       <c r="J44" s="3">
+        <v>5496700</v>
+      </c>
+      <c r="K44" s="3">
         <v>11174200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5646400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5756300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6145500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5826700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6012000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5542800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5444800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5335200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5557500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5631700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5198100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4944200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>804500</v>
+        <v>776700</v>
       </c>
       <c r="E45" s="3">
-        <v>754800</v>
+        <v>778000</v>
       </c>
       <c r="F45" s="3">
-        <v>707900</v>
+        <v>729900</v>
       </c>
       <c r="G45" s="3">
-        <v>794600</v>
+        <v>684600</v>
       </c>
       <c r="H45" s="3">
-        <v>692400</v>
+        <v>768500</v>
       </c>
       <c r="I45" s="3">
-        <v>665700</v>
+        <v>669600</v>
       </c>
       <c r="J45" s="3">
+        <v>643800</v>
+      </c>
+      <c r="K45" s="3">
         <v>780500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1290500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1233600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1217000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1145000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1780200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1605900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1554400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1599400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1782100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1801500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1521500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1552300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20723500</v>
+        <v>19952800</v>
       </c>
       <c r="E46" s="3">
-        <v>22299200</v>
+        <v>20041100</v>
       </c>
       <c r="F46" s="3">
-        <v>18716800</v>
+        <v>21564900</v>
       </c>
       <c r="G46" s="3">
-        <v>17716100</v>
+        <v>18100400</v>
       </c>
       <c r="H46" s="3">
-        <v>17448400</v>
+        <v>17132700</v>
       </c>
       <c r="I46" s="3">
-        <v>15900400</v>
+        <v>16873800</v>
       </c>
       <c r="J46" s="3">
+        <v>15376800</v>
+      </c>
+      <c r="K46" s="3">
         <v>17476700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16364300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17415900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17774800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18053400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18184000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17344100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16991400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17962800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17144600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17113800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14906800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16162500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1419800</v>
+        <v>1399300</v>
       </c>
       <c r="E47" s="3">
-        <v>1349200</v>
+        <v>1373100</v>
       </c>
       <c r="F47" s="3">
-        <v>1255000</v>
+        <v>1304800</v>
       </c>
       <c r="G47" s="3">
-        <v>1232800</v>
+        <v>1213700</v>
       </c>
       <c r="H47" s="3">
-        <v>1363600</v>
+        <v>1192200</v>
       </c>
       <c r="I47" s="3">
-        <v>1556500</v>
+        <v>1318700</v>
       </c>
       <c r="J47" s="3">
+        <v>1505300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2990000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1752500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1842600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2137000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2062100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2715400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2197500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2397300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2506000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2589900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2498300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2378500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2322300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15439900</v>
+        <v>14706900</v>
       </c>
       <c r="E48" s="3">
-        <v>15428100</v>
+        <v>14931500</v>
       </c>
       <c r="F48" s="3">
-        <v>15325400</v>
+        <v>14920100</v>
       </c>
       <c r="G48" s="3">
-        <v>15652800</v>
+        <v>14820700</v>
       </c>
       <c r="H48" s="3">
-        <v>16103200</v>
+        <v>15137300</v>
       </c>
       <c r="I48" s="3">
-        <v>16201400</v>
+        <v>15572900</v>
       </c>
       <c r="J48" s="3">
+        <v>15667800</v>
+      </c>
+      <c r="K48" s="3">
         <v>31118800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13721000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13711500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14610900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13861400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13471900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12947700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12817300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13316300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12869100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12797900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12444100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12853700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1843900</v>
+        <v>2209000</v>
       </c>
       <c r="E49" s="3">
-        <v>1835200</v>
+        <v>1783200</v>
       </c>
       <c r="F49" s="3">
-        <v>1959800</v>
+        <v>1774800</v>
       </c>
       <c r="G49" s="3">
-        <v>1920400</v>
+        <v>1895300</v>
       </c>
       <c r="H49" s="3">
-        <v>1909400</v>
+        <v>1857200</v>
       </c>
       <c r="I49" s="3">
-        <v>1891700</v>
+        <v>1846500</v>
       </c>
       <c r="J49" s="3">
+        <v>1829400</v>
+      </c>
+      <c r="K49" s="3">
         <v>3799400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1743200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1768700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>861500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>957700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>954200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>903400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>891800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>949500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>992600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>988400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>656000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>657700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>988700</v>
+        <v>960000</v>
       </c>
       <c r="E52" s="3">
-        <v>958600</v>
+        <v>956100</v>
       </c>
       <c r="F52" s="3">
-        <v>907700</v>
+        <v>927000</v>
       </c>
       <c r="G52" s="3">
-        <v>934200</v>
+        <v>877900</v>
       </c>
       <c r="H52" s="3">
-        <v>954100</v>
+        <v>903500</v>
       </c>
       <c r="I52" s="3">
-        <v>932500</v>
+        <v>922700</v>
       </c>
       <c r="J52" s="3">
+        <v>901800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1805500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1353500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1388500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1458400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1317400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1118100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1054100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1038900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1055100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1022800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>998600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>934800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>965000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40415900</v>
+        <v>39227900</v>
       </c>
       <c r="E54" s="3">
-        <v>41870300</v>
+        <v>39084900</v>
       </c>
       <c r="F54" s="3">
-        <v>38164800</v>
+        <v>40491500</v>
       </c>
       <c r="G54" s="3">
-        <v>37456300</v>
+        <v>36908000</v>
       </c>
       <c r="H54" s="3">
-        <v>37778800</v>
+        <v>36222800</v>
       </c>
       <c r="I54" s="3">
-        <v>36482400</v>
+        <v>36534700</v>
       </c>
       <c r="J54" s="3">
+        <v>35281000</v>
+      </c>
+      <c r="K54" s="3">
         <v>38963600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34934500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36127200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36842700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36252100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36443600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34446800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34136600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35789700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34619000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34397000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31320200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>32961200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3813100</v>
+        <v>3705300</v>
       </c>
       <c r="E57" s="3">
-        <v>3512100</v>
+        <v>3687500</v>
       </c>
       <c r="F57" s="3">
-        <v>3827500</v>
+        <v>3396500</v>
       </c>
       <c r="G57" s="3">
-        <v>3040200</v>
+        <v>3701400</v>
       </c>
       <c r="H57" s="3">
-        <v>2765700</v>
+        <v>2940100</v>
       </c>
       <c r="I57" s="3">
-        <v>3234800</v>
+        <v>2674600</v>
       </c>
       <c r="J57" s="3">
+        <v>3128200</v>
+      </c>
+      <c r="K57" s="3">
         <v>5968100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1835100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2026300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2185100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2208700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2243400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2116200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1950300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2103600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2025600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2021500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1854200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1735000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1934100</v>
+        <v>1897200</v>
       </c>
       <c r="E58" s="3">
-        <v>3482200</v>
+        <v>1870400</v>
       </c>
       <c r="F58" s="3">
-        <v>3169800</v>
+        <v>3367600</v>
       </c>
       <c r="G58" s="3">
-        <v>3473000</v>
+        <v>3065400</v>
       </c>
       <c r="H58" s="3">
-        <v>3879300</v>
+        <v>3358600</v>
       </c>
       <c r="I58" s="3">
-        <v>1672000</v>
+        <v>3751500</v>
       </c>
       <c r="J58" s="3">
+        <v>1617000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2949000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1745500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2089300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2235600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2774400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2216500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1276800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1618000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1434900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1467800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1607300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1067600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3107800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2641600</v>
+        <v>2592100</v>
       </c>
       <c r="E59" s="3">
-        <v>3185600</v>
+        <v>2554600</v>
       </c>
       <c r="F59" s="3">
-        <v>2493100</v>
+        <v>3080700</v>
       </c>
       <c r="G59" s="3">
-        <v>2435300</v>
+        <v>2411000</v>
       </c>
       <c r="H59" s="3">
-        <v>2067900</v>
+        <v>2355200</v>
       </c>
       <c r="I59" s="3">
-        <v>2096200</v>
+        <v>1999800</v>
       </c>
       <c r="J59" s="3">
+        <v>2027200</v>
+      </c>
+      <c r="K59" s="3">
         <v>6356000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3969500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4052700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4241900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4382200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3976300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3814200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3884900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4692900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4226900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3933500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3658000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4252700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8388800</v>
+        <v>8194600</v>
       </c>
       <c r="E60" s="3">
-        <v>10180000</v>
+        <v>8112600</v>
       </c>
       <c r="F60" s="3">
-        <v>9490300</v>
+        <v>9844800</v>
       </c>
       <c r="G60" s="3">
-        <v>8948500</v>
+        <v>9177800</v>
       </c>
       <c r="H60" s="3">
-        <v>8712900</v>
+        <v>8653800</v>
       </c>
       <c r="I60" s="3">
-        <v>7003000</v>
+        <v>8426000</v>
       </c>
       <c r="J60" s="3">
+        <v>6772400</v>
+      </c>
+      <c r="K60" s="3">
         <v>8156500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7550100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8168300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8662700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8374400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8436100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7207200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7453300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8231300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7720400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7562300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6579800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7538000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5509400</v>
+        <v>5281000</v>
       </c>
       <c r="E61" s="3">
-        <v>5853500</v>
+        <v>5327900</v>
       </c>
       <c r="F61" s="3">
-        <v>5996600</v>
+        <v>5660700</v>
       </c>
       <c r="G61" s="3">
-        <v>6025000</v>
+        <v>5799200</v>
       </c>
       <c r="H61" s="3">
-        <v>6009900</v>
+        <v>5826600</v>
       </c>
       <c r="I61" s="3">
-        <v>5984100</v>
+        <v>5812000</v>
       </c>
       <c r="J61" s="3">
+        <v>5787000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5978000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4133900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4137000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2442500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2031700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1989500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2684500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2665900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2714700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2646700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2640600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1438000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1481900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2612900</v>
+        <v>2503300</v>
       </c>
       <c r="E62" s="3">
-        <v>2623700</v>
+        <v>2526800</v>
       </c>
       <c r="F62" s="3">
-        <v>2678700</v>
+        <v>2537300</v>
       </c>
       <c r="G62" s="3">
-        <v>2663300</v>
+        <v>2590500</v>
       </c>
       <c r="H62" s="3">
-        <v>2745700</v>
+        <v>2575600</v>
       </c>
       <c r="I62" s="3">
-        <v>2849600</v>
+        <v>2655300</v>
       </c>
       <c r="J62" s="3">
+        <v>2755700</v>
+      </c>
+      <c r="K62" s="3">
         <v>4777500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2594100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2650800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2918600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2848700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3083300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2898400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2955800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3122900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3026900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3025700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2934900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3133100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16905800</v>
+        <v>16348700</v>
       </c>
       <c r="E66" s="3">
-        <v>19074400</v>
+        <v>16349000</v>
       </c>
       <c r="F66" s="3">
-        <v>18578700</v>
+        <v>18446200</v>
       </c>
       <c r="G66" s="3">
-        <v>18036400</v>
+        <v>17966800</v>
       </c>
       <c r="H66" s="3">
-        <v>17888000</v>
+        <v>17442400</v>
       </c>
       <c r="I66" s="3">
-        <v>16281400</v>
+        <v>17299000</v>
       </c>
       <c r="J66" s="3">
+        <v>15745300</v>
+      </c>
+      <c r="K66" s="3">
         <v>17560800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14744100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15439800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14541300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13766400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13999700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13266900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13552900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14583900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13891000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13721500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11424400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12677000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21079700</v>
+        <v>20509600</v>
       </c>
       <c r="E72" s="3">
-        <v>20462500</v>
+        <v>20385600</v>
       </c>
       <c r="F72" s="3">
-        <v>18248400</v>
+        <v>19788700</v>
       </c>
       <c r="G72" s="3">
-        <v>18055000</v>
+        <v>17647500</v>
       </c>
       <c r="H72" s="3">
-        <v>18345700</v>
+        <v>17460400</v>
       </c>
       <c r="I72" s="3">
-        <v>18728700</v>
+        <v>17741500</v>
       </c>
       <c r="J72" s="3">
+        <v>18111900</v>
+      </c>
+      <c r="K72" s="3">
         <v>44028300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22532700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22193000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22722500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22336800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21311700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20630000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19983000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21211900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20394100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20283300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19252000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19213200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23510100</v>
+        <v>22879200</v>
       </c>
       <c r="E76" s="3">
-        <v>22795900</v>
+        <v>22735900</v>
       </c>
       <c r="F76" s="3">
-        <v>19586100</v>
+        <v>22045200</v>
       </c>
       <c r="G76" s="3">
-        <v>19419900</v>
+        <v>18941100</v>
       </c>
       <c r="H76" s="3">
-        <v>19890700</v>
+        <v>18780400</v>
       </c>
       <c r="I76" s="3">
-        <v>20201000</v>
+        <v>19235700</v>
       </c>
       <c r="J76" s="3">
+        <v>19535800</v>
+      </c>
+      <c r="K76" s="3">
         <v>21402800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20190400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20687400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22301400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22485700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22443800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21179900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20583800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21205800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20728000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20675500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19895800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20284200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>611000</v>
+        <v>621300</v>
       </c>
       <c r="E81" s="3">
-        <v>2598600</v>
+        <v>590900</v>
       </c>
       <c r="F81" s="3">
-        <v>7400</v>
+        <v>2513000</v>
       </c>
       <c r="G81" s="3">
-        <v>-18900</v>
+        <v>7200</v>
       </c>
       <c r="H81" s="3">
-        <v>-378200</v>
+        <v>-18300</v>
       </c>
       <c r="I81" s="3">
-        <v>177400</v>
+        <v>-365800</v>
       </c>
       <c r="J81" s="3">
+        <v>171600</v>
+      </c>
+      <c r="K81" s="3">
         <v>469700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>825800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>393100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>536100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>681400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>788200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>647300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>576300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>818200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>596000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>656300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>525400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>731700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>548900</v>
+        <v>564100</v>
       </c>
       <c r="E83" s="3">
-        <v>559900</v>
+        <v>530800</v>
       </c>
       <c r="F83" s="3">
-        <v>619300</v>
+        <v>541400</v>
       </c>
       <c r="G83" s="3">
-        <v>604500</v>
+        <v>598900</v>
       </c>
       <c r="H83" s="3">
-        <v>603600</v>
+        <v>584600</v>
       </c>
       <c r="I83" s="3">
-        <v>609100</v>
+        <v>583700</v>
       </c>
       <c r="J83" s="3">
+        <v>589000</v>
+      </c>
+      <c r="K83" s="3">
         <v>627500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>642000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>648500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>644800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>479300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>503300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>444400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>465300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>489800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>473600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>440100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>440600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>428800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,49 +5623,52 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>223100</v>
+        <v>508300</v>
       </c>
       <c r="E89" s="3">
-        <v>827700</v>
+        <v>215700</v>
       </c>
       <c r="F89" s="3">
-        <v>1930600</v>
+        <v>800400</v>
       </c>
       <c r="G89" s="3">
-        <v>1547300</v>
+        <v>1867000</v>
       </c>
       <c r="H89" s="3">
-        <v>738700</v>
+        <v>1496400</v>
       </c>
       <c r="I89" s="3">
-        <v>583800</v>
+        <v>714400</v>
       </c>
       <c r="J89" s="3">
+        <v>564600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1895100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>694900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>888100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,49 +5719,50 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-243700</v>
+        <v>-339800</v>
       </c>
       <c r="E91" s="3">
-        <v>-448500</v>
+        <v>-235600</v>
       </c>
       <c r="F91" s="3">
-        <v>-468400</v>
+        <v>-433700</v>
       </c>
       <c r="G91" s="3">
-        <v>-425700</v>
+        <v>-453000</v>
       </c>
       <c r="H91" s="3">
-        <v>-348100</v>
+        <v>-411700</v>
       </c>
       <c r="I91" s="3">
-        <v>-585900</v>
+        <v>-336600</v>
       </c>
       <c r="J91" s="3">
+        <v>-566700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-626200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-678600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-523100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,49 +5921,52 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-217200</v>
+        <v>-730800</v>
       </c>
       <c r="E94" s="3">
-        <v>2640500</v>
+        <v>-210000</v>
       </c>
       <c r="F94" s="3">
-        <v>-124900</v>
+        <v>2553500</v>
       </c>
       <c r="G94" s="3">
-        <v>-341900</v>
+        <v>-120800</v>
       </c>
       <c r="H94" s="3">
-        <v>-408600</v>
+        <v>-330700</v>
       </c>
       <c r="I94" s="3">
-        <v>-540000</v>
+        <v>-395200</v>
       </c>
       <c r="J94" s="3">
+        <v>-522200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-44100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-358100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,44 +6017,45 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7600</v>
+        <v>-526500</v>
       </c>
       <c r="E96" s="3">
-        <v>-377300</v>
+        <v>-7300</v>
       </c>
       <c r="F96" s="3">
+        <v>-364900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-700</v>
       </c>
-      <c r="G96" s="3">
-        <v>-320100</v>
-      </c>
       <c r="H96" s="3">
-        <v>-6300</v>
+        <v>-309600</v>
       </c>
       <c r="I96" s="3">
-        <v>-506700</v>
+        <v>-6100</v>
       </c>
       <c r="J96" s="3">
+        <v>-490000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-528100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-572200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,49 +6287,52 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2092700</v>
+        <v>-643200</v>
       </c>
       <c r="E100" s="3">
-        <v>-419200</v>
+        <v>-2023800</v>
       </c>
       <c r="F100" s="3">
-        <v>-479200</v>
+        <v>-405400</v>
       </c>
       <c r="G100" s="3">
-        <v>-847800</v>
+        <v>-463400</v>
       </c>
       <c r="H100" s="3">
-        <v>2079400</v>
+        <v>-819900</v>
       </c>
       <c r="I100" s="3">
-        <v>-587700</v>
+        <v>2010900</v>
       </c>
       <c r="J100" s="3">
+        <v>-568400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-230900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1278300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6109,49 +6355,52 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-71200</v>
+        <v>-39500</v>
       </c>
       <c r="E101" s="3">
-        <v>406700</v>
+        <v>-68800</v>
       </c>
       <c r="F101" s="3">
-        <v>34900</v>
+        <v>393300</v>
       </c>
       <c r="G101" s="3">
-        <v>-62300</v>
+        <v>33800</v>
       </c>
       <c r="H101" s="3">
-        <v>87800</v>
+        <v>-60300</v>
       </c>
       <c r="I101" s="3">
-        <v>-169900</v>
+        <v>84900</v>
       </c>
       <c r="J101" s="3">
+        <v>-164300</v>
+      </c>
+      <c r="K101" s="3">
         <v>102700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-89500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-56300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>67800</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6174,49 +6423,52 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2158000</v>
+        <v>-905300</v>
       </c>
       <c r="E102" s="3">
-        <v>3455700</v>
+        <v>-2086900</v>
       </c>
       <c r="F102" s="3">
-        <v>1361400</v>
+        <v>3341900</v>
       </c>
       <c r="G102" s="3">
-        <v>295300</v>
+        <v>1316600</v>
       </c>
       <c r="H102" s="3">
-        <v>2497300</v>
+        <v>285500</v>
       </c>
       <c r="I102" s="3">
-        <v>-713800</v>
+        <v>2415000</v>
       </c>
       <c r="J102" s="3">
+        <v>-690300</v>
+      </c>
+      <c r="K102" s="3">
         <v>1329100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1274100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>564100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>BRDCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7338500</v>
+        <v>7201900</v>
       </c>
       <c r="E8" s="3">
-        <v>7152800</v>
+        <v>7105200</v>
       </c>
       <c r="F8" s="3">
-        <v>6668200</v>
+        <v>6925500</v>
       </c>
       <c r="G8" s="3">
-        <v>7449600</v>
+        <v>6456300</v>
       </c>
       <c r="H8" s="3">
-        <v>6530400</v>
+        <v>5894700</v>
       </c>
       <c r="I8" s="3">
-        <v>4908500</v>
+        <v>6322800</v>
       </c>
       <c r="J8" s="3">
+        <v>4752500</v>
+      </c>
+      <c r="K8" s="3">
         <v>6217800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8048800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8122100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8168200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8151300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9212700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8349700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8322400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7816100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8862300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8318900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8054200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7556300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7913900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4375900</v>
+        <v>4120200</v>
       </c>
       <c r="E9" s="3">
-        <v>4312300</v>
+        <v>4236900</v>
       </c>
       <c r="F9" s="3">
-        <v>4056300</v>
+        <v>4175200</v>
       </c>
       <c r="G9" s="3">
-        <v>4552400</v>
+        <v>3927300</v>
       </c>
       <c r="H9" s="3">
-        <v>4195200</v>
+        <v>3280100</v>
       </c>
       <c r="I9" s="3">
-        <v>3336500</v>
+        <v>4061800</v>
       </c>
       <c r="J9" s="3">
+        <v>3230500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3894700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5024300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4951200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5149100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5094700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5770100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5275700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5136800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4767700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5507100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5290700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4957100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4610500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4741000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2962500</v>
+        <v>3081700</v>
       </c>
       <c r="E10" s="3">
-        <v>2840500</v>
+        <v>2868400</v>
       </c>
       <c r="F10" s="3">
-        <v>2612000</v>
+        <v>2750200</v>
       </c>
       <c r="G10" s="3">
-        <v>2897200</v>
+        <v>2529000</v>
       </c>
       <c r="H10" s="3">
-        <v>2335200</v>
+        <v>2614600</v>
       </c>
       <c r="I10" s="3">
-        <v>1572000</v>
+        <v>2261000</v>
       </c>
       <c r="J10" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2323200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3024500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3170900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3019100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3056600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3442500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3074000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3185600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3048400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3355200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3028200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3097100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2945800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3172900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>212700</v>
+        <v>195300</v>
       </c>
       <c r="E12" s="3">
-        <v>215000</v>
+        <v>205900</v>
       </c>
       <c r="F12" s="3">
-        <v>211800</v>
+        <v>208100</v>
       </c>
       <c r="G12" s="3">
-        <v>211100</v>
+        <v>205000</v>
       </c>
       <c r="H12" s="3">
-        <v>195700</v>
+        <v>146900</v>
       </c>
       <c r="I12" s="3">
-        <v>192400</v>
+        <v>189400</v>
       </c>
       <c r="J12" s="3">
+        <v>186300</v>
+      </c>
+      <c r="K12" s="3">
         <v>229200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>252500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>235800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>252200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>243000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>269400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>238200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>228100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>220800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>241900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>216700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>232200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>207300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>215600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>31000</v>
+        <v>72300</v>
       </c>
       <c r="E14" s="3">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="F14" s="3">
-        <v>16100</v>
+        <v>46400</v>
       </c>
       <c r="G14" s="3">
-        <v>676300</v>
+        <v>15600</v>
       </c>
       <c r="H14" s="3">
-        <v>767700</v>
+        <v>860400</v>
       </c>
       <c r="I14" s="3">
-        <v>391900</v>
+        <v>746800</v>
       </c>
       <c r="J14" s="3">
+        <v>383400</v>
+      </c>
+      <c r="K14" s="3">
         <v>47500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>190200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>41600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-103500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>99800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>58400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>39200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>198100</v>
+        <v>196400</v>
       </c>
       <c r="E15" s="3">
-        <v>195000</v>
+        <v>191800</v>
       </c>
       <c r="F15" s="3">
-        <v>195000</v>
+        <v>188800</v>
       </c>
       <c r="G15" s="3">
-        <v>200400</v>
+        <v>188800</v>
       </c>
       <c r="H15" s="3">
-        <v>194300</v>
+        <v>185000</v>
       </c>
       <c r="I15" s="3">
-        <v>185000</v>
+        <v>188100</v>
       </c>
       <c r="J15" s="3">
+        <v>179100</v>
+      </c>
+      <c r="K15" s="3">
         <v>193000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>312700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>310900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>200000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>203500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>85000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>84700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>79500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>78600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>80500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>76300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>73000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>72800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>71300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6492000</v>
+        <v>6254800</v>
       </c>
       <c r="E17" s="3">
-        <v>6370600</v>
+        <v>6285700</v>
       </c>
       <c r="F17" s="3">
-        <v>5955400</v>
+        <v>6168100</v>
       </c>
       <c r="G17" s="3">
-        <v>7266400</v>
+        <v>5766100</v>
       </c>
       <c r="H17" s="3">
-        <v>6411500</v>
+        <v>5553000</v>
       </c>
       <c r="I17" s="3">
-        <v>5334500</v>
+        <v>6207800</v>
       </c>
       <c r="J17" s="3">
+        <v>5164900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5873400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7408900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6921500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7573700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7348300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8154600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7219900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7417600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6908000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7883500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7444900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7166000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6700500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6887600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>846400</v>
+        <v>947100</v>
       </c>
       <c r="E18" s="3">
-        <v>782200</v>
+        <v>819500</v>
       </c>
       <c r="F18" s="3">
-        <v>712800</v>
+        <v>757400</v>
       </c>
       <c r="G18" s="3">
-        <v>183200</v>
+        <v>690200</v>
       </c>
       <c r="H18" s="3">
-        <v>118800</v>
+        <v>341800</v>
       </c>
       <c r="I18" s="3">
-        <v>-426000</v>
+        <v>115100</v>
       </c>
       <c r="J18" s="3">
+        <v>-412500</v>
+      </c>
+      <c r="K18" s="3">
         <v>344400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>640000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1200600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>594400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>803000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1058100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1129800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>904800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>908100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>978800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>874100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>888200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>855800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1026300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16700</v>
+        <v>39800</v>
       </c>
       <c r="E20" s="3">
-        <v>19600</v>
+        <v>16200</v>
       </c>
       <c r="F20" s="3">
-        <v>29200</v>
+        <v>18900</v>
       </c>
       <c r="G20" s="3">
-        <v>10500</v>
+        <v>28200</v>
       </c>
       <c r="H20" s="3">
-        <v>10700</v>
+        <v>4400</v>
       </c>
       <c r="I20" s="3">
-        <v>-24100</v>
+        <v>10300</v>
       </c>
       <c r="J20" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>76900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>109100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-33000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>231400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>77600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-36800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>47400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1427200</v>
+        <v>1538900</v>
       </c>
       <c r="E21" s="3">
-        <v>1332600</v>
+        <v>1381900</v>
       </c>
       <c r="F21" s="3">
-        <v>1283400</v>
+        <v>1290200</v>
       </c>
       <c r="G21" s="3">
-        <v>792600</v>
+        <v>1242600</v>
       </c>
       <c r="H21" s="3">
-        <v>714100</v>
+        <v>926000</v>
       </c>
       <c r="I21" s="3">
-        <v>133600</v>
+        <v>691400</v>
       </c>
       <c r="J21" s="3">
+        <v>129400</v>
+      </c>
+      <c r="K21" s="3">
         <v>909400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1339200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1831800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1238200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1442400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1646500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1608300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1369100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1340400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1700000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1425200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1353700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1259500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1502500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25900</v>
+        <v>26200</v>
       </c>
       <c r="E22" s="3">
-        <v>23200</v>
+        <v>25100</v>
       </c>
       <c r="F22" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="G22" s="3">
-        <v>25600</v>
+        <v>22600</v>
       </c>
       <c r="H22" s="3">
-        <v>27100</v>
+        <v>22300</v>
       </c>
       <c r="I22" s="3">
+        <v>26200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K22" s="3">
         <v>32800</v>
       </c>
-      <c r="J22" s="3">
-        <v>32800</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>57400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>66700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>27700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>31600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>38200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>24500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>28500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>19500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>837200</v>
+        <v>960700</v>
       </c>
       <c r="E23" s="3">
-        <v>778500</v>
+        <v>810600</v>
       </c>
       <c r="F23" s="3">
-        <v>718600</v>
+        <v>753800</v>
       </c>
       <c r="G23" s="3">
-        <v>168100</v>
+        <v>695800</v>
       </c>
       <c r="H23" s="3">
-        <v>102400</v>
+        <v>323800</v>
       </c>
       <c r="I23" s="3">
-        <v>-482900</v>
+        <v>99200</v>
       </c>
       <c r="J23" s="3">
+        <v>-467600</v>
+      </c>
+      <c r="K23" s="3">
         <v>287500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>659500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1153400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>546500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>749100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1142600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1077300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>890600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>843500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1172000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>927100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>885100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>801000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1054200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>215800</v>
+        <v>-32100</v>
       </c>
       <c r="E24" s="3">
-        <v>207800</v>
+        <v>208900</v>
       </c>
       <c r="F24" s="3">
-        <v>166600</v>
+        <v>201200</v>
       </c>
       <c r="G24" s="3">
-        <v>153100</v>
+        <v>161300</v>
       </c>
       <c r="H24" s="3">
-        <v>174500</v>
+        <v>143700</v>
       </c>
       <c r="I24" s="3">
-        <v>-56300</v>
+        <v>168900</v>
       </c>
       <c r="J24" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="K24" s="3">
         <v>117800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>184000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>311900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>138400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>192000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>447300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>269000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>226900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>242800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>331900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>307100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>212300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>255800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>298900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>621400</v>
+        <v>992800</v>
       </c>
       <c r="E26" s="3">
-        <v>570700</v>
+        <v>601600</v>
       </c>
       <c r="F26" s="3">
-        <v>552000</v>
+        <v>552600</v>
       </c>
       <c r="G26" s="3">
-        <v>15000</v>
+        <v>534500</v>
       </c>
       <c r="H26" s="3">
-        <v>-72000</v>
+        <v>180200</v>
       </c>
       <c r="I26" s="3">
-        <v>-426700</v>
+        <v>-69700</v>
       </c>
       <c r="J26" s="3">
+        <v>-413100</v>
+      </c>
+      <c r="K26" s="3">
         <v>169800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>475500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>841500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>408100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>557100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>695400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>808300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>663700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>840100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>620100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>672800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>545200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>755300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>610400</v>
+        <v>980700</v>
       </c>
       <c r="E27" s="3">
-        <v>558200</v>
+        <v>591000</v>
       </c>
       <c r="F27" s="3">
-        <v>530900</v>
+        <v>540500</v>
       </c>
       <c r="G27" s="3">
-        <v>7200</v>
+        <v>514000</v>
       </c>
       <c r="H27" s="3">
-        <v>-86400</v>
+        <v>172600</v>
       </c>
       <c r="I27" s="3">
-        <v>-413900</v>
+        <v>-83700</v>
       </c>
       <c r="J27" s="3">
+        <v>-400700</v>
+      </c>
+      <c r="K27" s="3">
         <v>147700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>469700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>825800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>393100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>536100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>681400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>788200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>647300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>576300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>818200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>596000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>656300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>525400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>731700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,40 +2117,43 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>11000</v>
+        <v>-1226400</v>
       </c>
       <c r="E29" s="3">
-        <v>32700</v>
+        <v>10600</v>
       </c>
       <c r="F29" s="3">
-        <v>1982100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
+        <v>31700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1919100</v>
       </c>
       <c r="H29" s="3">
-        <v>68200</v>
+        <v>-165600</v>
       </c>
       <c r="I29" s="3">
-        <v>48100</v>
+        <v>66000</v>
       </c>
       <c r="J29" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K29" s="3">
         <v>23900</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16700</v>
+        <v>-39800</v>
       </c>
       <c r="E32" s="3">
-        <v>-19600</v>
+        <v>-16200</v>
       </c>
       <c r="F32" s="3">
-        <v>-29200</v>
+        <v>-18900</v>
       </c>
       <c r="G32" s="3">
-        <v>-10500</v>
+        <v>-28200</v>
       </c>
       <c r="H32" s="3">
-        <v>-10700</v>
+        <v>-4400</v>
       </c>
       <c r="I32" s="3">
-        <v>24100</v>
+        <v>-10300</v>
       </c>
       <c r="J32" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K32" s="3">
         <v>24000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-76900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-109100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>33000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-231400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-77600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>36800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-47400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>621300</v>
+        <v>-245800</v>
       </c>
       <c r="E33" s="3">
-        <v>590900</v>
+        <v>601600</v>
       </c>
       <c r="F33" s="3">
-        <v>2513000</v>
+        <v>572100</v>
       </c>
       <c r="G33" s="3">
-        <v>7200</v>
+        <v>2433200</v>
       </c>
       <c r="H33" s="3">
-        <v>-18300</v>
+        <v>7000</v>
       </c>
       <c r="I33" s="3">
-        <v>-365800</v>
+        <v>-17700</v>
       </c>
       <c r="J33" s="3">
+        <v>-354100</v>
+      </c>
+      <c r="K33" s="3">
         <v>171600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>469700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>825800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>393100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>536100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>681400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>788200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>647300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>576300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>818200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>596000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>656300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>525400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>731700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>621300</v>
+        <v>-245800</v>
       </c>
       <c r="E35" s="3">
-        <v>590900</v>
+        <v>601600</v>
       </c>
       <c r="F35" s="3">
-        <v>2513000</v>
+        <v>572100</v>
       </c>
       <c r="G35" s="3">
-        <v>7200</v>
+        <v>2433200</v>
       </c>
       <c r="H35" s="3">
-        <v>-18300</v>
+        <v>7000</v>
       </c>
       <c r="I35" s="3">
-        <v>-365800</v>
+        <v>-17700</v>
       </c>
       <c r="J35" s="3">
+        <v>-354100</v>
+      </c>
+      <c r="K35" s="3">
         <v>171600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>469700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>825800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>393100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>536100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>681400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>788200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>647300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>576300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>818200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>596000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>656300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>525400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>731700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7490500</v>
+        <v>6717700</v>
       </c>
       <c r="E41" s="3">
-        <v>8395900</v>
+        <v>7252500</v>
       </c>
       <c r="F41" s="3">
-        <v>10482800</v>
+        <v>8129000</v>
       </c>
       <c r="G41" s="3">
-        <v>7140900</v>
+        <v>10149600</v>
       </c>
       <c r="H41" s="3">
-        <v>5824300</v>
+        <v>6914000</v>
       </c>
       <c r="I41" s="3">
-        <v>5538800</v>
+        <v>5639200</v>
       </c>
       <c r="J41" s="3">
+        <v>5362800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3123800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3943900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2740700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3982700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3636300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4157200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3618500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3839700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3842000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4627500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3814400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4267500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3099000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4284300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66100</v>
+        <v>100400</v>
       </c>
       <c r="E42" s="3">
-        <v>61800</v>
+        <v>64000</v>
       </c>
       <c r="F42" s="3">
-        <v>56100</v>
+        <v>59900</v>
       </c>
       <c r="G42" s="3">
-        <v>64100</v>
+        <v>54300</v>
       </c>
       <c r="H42" s="3">
-        <v>58200</v>
+        <v>62100</v>
       </c>
       <c r="I42" s="3">
-        <v>89000</v>
+        <v>56400</v>
       </c>
       <c r="J42" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K42" s="3">
         <v>155300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1369700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1356600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1323100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1240800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1452400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1538000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1440600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1170800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2004000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1762800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1563400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1328400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1487500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6135800</v>
+        <v>6326000</v>
       </c>
       <c r="E43" s="3">
-        <v>5811000</v>
+        <v>5940800</v>
       </c>
       <c r="F43" s="3">
-        <v>5667100</v>
+        <v>5626300</v>
       </c>
       <c r="G43" s="3">
-        <v>5883000</v>
+        <v>5486900</v>
       </c>
       <c r="H43" s="3">
-        <v>5934200</v>
+        <v>5696000</v>
       </c>
       <c r="I43" s="3">
-        <v>5336400</v>
+        <v>5745600</v>
       </c>
       <c r="J43" s="3">
+        <v>5166800</v>
+      </c>
+      <c r="K43" s="3">
         <v>5957200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11999600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5330100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5120200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5535200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5472300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5235300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4915100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4979300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4396600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4227700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3849600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3759800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3894300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5483700</v>
+        <v>5375100</v>
       </c>
       <c r="E44" s="3">
-        <v>4994400</v>
+        <v>5309400</v>
       </c>
       <c r="F44" s="3">
-        <v>4629000</v>
+        <v>4835600</v>
       </c>
       <c r="G44" s="3">
-        <v>4327800</v>
+        <v>4481900</v>
       </c>
       <c r="H44" s="3">
-        <v>4547400</v>
+        <v>4190300</v>
       </c>
       <c r="I44" s="3">
-        <v>5240000</v>
+        <v>4402900</v>
       </c>
       <c r="J44" s="3">
+        <v>5073500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5496700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11174200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5646400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5756300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6145500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5826700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6012000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5542800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5444800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5335200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5557500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5631700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5198100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4944200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>776700</v>
+        <v>1039000</v>
       </c>
       <c r="E45" s="3">
-        <v>778000</v>
+        <v>752000</v>
       </c>
       <c r="F45" s="3">
-        <v>729900</v>
+        <v>753200</v>
       </c>
       <c r="G45" s="3">
-        <v>684600</v>
+        <v>706700</v>
       </c>
       <c r="H45" s="3">
-        <v>768500</v>
+        <v>662800</v>
       </c>
       <c r="I45" s="3">
-        <v>669600</v>
+        <v>744000</v>
       </c>
       <c r="J45" s="3">
+        <v>648300</v>
+      </c>
+      <c r="K45" s="3">
         <v>643800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>780500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1290500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1233600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1217000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1145000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1780200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1605900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1554400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1599400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1782100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1801500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1521500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1552300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19952800</v>
+        <v>19558200</v>
       </c>
       <c r="E46" s="3">
-        <v>20041100</v>
+        <v>19318700</v>
       </c>
       <c r="F46" s="3">
-        <v>21564900</v>
+        <v>19404100</v>
       </c>
       <c r="G46" s="3">
-        <v>18100400</v>
+        <v>20879500</v>
       </c>
       <c r="H46" s="3">
-        <v>17132700</v>
+        <v>17525100</v>
       </c>
       <c r="I46" s="3">
-        <v>16873800</v>
+        <v>16588200</v>
       </c>
       <c r="J46" s="3">
+        <v>16337500</v>
+      </c>
+      <c r="K46" s="3">
         <v>15376800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17476700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16364300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17415900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17774800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18053400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18184000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17344100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16991400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17962800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17144600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17113800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14906800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16162500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1399300</v>
+        <v>1411800</v>
       </c>
       <c r="E47" s="3">
-        <v>1373100</v>
+        <v>1354800</v>
       </c>
       <c r="F47" s="3">
-        <v>1304800</v>
+        <v>1329500</v>
       </c>
       <c r="G47" s="3">
-        <v>1213700</v>
+        <v>1263300</v>
       </c>
       <c r="H47" s="3">
-        <v>1192200</v>
+        <v>1175100</v>
       </c>
       <c r="I47" s="3">
-        <v>1318700</v>
+        <v>1154300</v>
       </c>
       <c r="J47" s="3">
+        <v>1276800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1505300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2990000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1752500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1842600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2137000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2062100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2715400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2197500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2397300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2506000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2589900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2498300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2378500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2322300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14706900</v>
+        <v>14688400</v>
       </c>
       <c r="E48" s="3">
-        <v>14931500</v>
+        <v>14239400</v>
       </c>
       <c r="F48" s="3">
-        <v>14920100</v>
+        <v>14456900</v>
       </c>
       <c r="G48" s="3">
-        <v>14820700</v>
+        <v>14445900</v>
       </c>
       <c r="H48" s="3">
-        <v>15137300</v>
+        <v>14349700</v>
       </c>
       <c r="I48" s="3">
-        <v>15572900</v>
+        <v>14656200</v>
       </c>
       <c r="J48" s="3">
+        <v>15078000</v>
+      </c>
+      <c r="K48" s="3">
         <v>15667800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31118800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13721000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13711500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14610900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13861400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13471900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12947700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12817300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13316300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12869100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12797900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12444100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12853700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2209000</v>
+        <v>2218800</v>
       </c>
       <c r="E49" s="3">
-        <v>1783200</v>
+        <v>2138800</v>
       </c>
       <c r="F49" s="3">
-        <v>1774800</v>
+        <v>1726500</v>
       </c>
       <c r="G49" s="3">
-        <v>1895300</v>
+        <v>1718400</v>
       </c>
       <c r="H49" s="3">
-        <v>1857200</v>
+        <v>1835000</v>
       </c>
       <c r="I49" s="3">
-        <v>1846500</v>
+        <v>1798100</v>
       </c>
       <c r="J49" s="3">
+        <v>1787900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1829400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3799400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1743200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1768700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>861500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>957700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>954200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>903400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>891800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>949500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>992600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>988400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>656000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>657700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>960000</v>
+        <v>1146700</v>
       </c>
       <c r="E52" s="3">
-        <v>956100</v>
+        <v>929500</v>
       </c>
       <c r="F52" s="3">
-        <v>927000</v>
+        <v>925800</v>
       </c>
       <c r="G52" s="3">
-        <v>877900</v>
+        <v>897500</v>
       </c>
       <c r="H52" s="3">
-        <v>903500</v>
+        <v>850000</v>
       </c>
       <c r="I52" s="3">
-        <v>922700</v>
+        <v>874800</v>
       </c>
       <c r="J52" s="3">
+        <v>893400</v>
+      </c>
+      <c r="K52" s="3">
         <v>901800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1805500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1353500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1388500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1458400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1317400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1118100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1054100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1038900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1055100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1022800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>998600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>934800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>965000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39227900</v>
+        <v>39023800</v>
       </c>
       <c r="E54" s="3">
-        <v>39084900</v>
+        <v>37981200</v>
       </c>
       <c r="F54" s="3">
-        <v>40491500</v>
+        <v>37842700</v>
       </c>
       <c r="G54" s="3">
-        <v>36908000</v>
+        <v>39204600</v>
       </c>
       <c r="H54" s="3">
-        <v>36222800</v>
+        <v>35735000</v>
       </c>
       <c r="I54" s="3">
-        <v>36534700</v>
+        <v>35071600</v>
       </c>
       <c r="J54" s="3">
+        <v>35373500</v>
+      </c>
+      <c r="K54" s="3">
         <v>35281000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38963600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34934500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36127200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36842700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36252100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36443600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34446800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34136600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35789700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34619000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34397000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31320200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>32961200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3705300</v>
+        <v>4410100</v>
       </c>
       <c r="E57" s="3">
-        <v>3687500</v>
+        <v>3587500</v>
       </c>
       <c r="F57" s="3">
-        <v>3396500</v>
+        <v>3570400</v>
       </c>
       <c r="G57" s="3">
-        <v>3701400</v>
+        <v>3288500</v>
       </c>
       <c r="H57" s="3">
-        <v>2940100</v>
+        <v>3583800</v>
       </c>
       <c r="I57" s="3">
-        <v>2674600</v>
+        <v>2846600</v>
       </c>
       <c r="J57" s="3">
+        <v>2589600</v>
+      </c>
+      <c r="K57" s="3">
         <v>3128200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5968100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1835100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2026300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2185100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2208700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2243400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2116200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1950300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2103600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2025600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2021500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1854200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1735000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1897200</v>
+        <v>1747200</v>
       </c>
       <c r="E58" s="3">
-        <v>1870400</v>
+        <v>1836900</v>
       </c>
       <c r="F58" s="3">
-        <v>3367600</v>
+        <v>1811000</v>
       </c>
       <c r="G58" s="3">
-        <v>3065400</v>
+        <v>3260500</v>
       </c>
       <c r="H58" s="3">
-        <v>3358600</v>
+        <v>2968000</v>
       </c>
       <c r="I58" s="3">
-        <v>3751500</v>
+        <v>3251800</v>
       </c>
       <c r="J58" s="3">
+        <v>3632300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1617000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2949000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1745500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2089300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2235600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2774400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2216500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1276800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1618000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1434900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1467800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1607300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1067600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3107800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2592100</v>
+        <v>2572300</v>
       </c>
       <c r="E59" s="3">
-        <v>2554600</v>
+        <v>2509700</v>
       </c>
       <c r="F59" s="3">
-        <v>3080700</v>
+        <v>2473400</v>
       </c>
       <c r="G59" s="3">
-        <v>2411000</v>
+        <v>2982800</v>
       </c>
       <c r="H59" s="3">
-        <v>2355200</v>
+        <v>2334400</v>
       </c>
       <c r="I59" s="3">
-        <v>1999800</v>
+        <v>2280300</v>
       </c>
       <c r="J59" s="3">
+        <v>1936300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2027200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6356000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3969500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4052700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4241900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4382200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3976300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3814200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3884900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4692900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4226900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3933500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3658000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4252700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8194600</v>
+        <v>8729600</v>
       </c>
       <c r="E60" s="3">
-        <v>8112600</v>
+        <v>7934200</v>
       </c>
       <c r="F60" s="3">
-        <v>9844800</v>
+        <v>7854800</v>
       </c>
       <c r="G60" s="3">
-        <v>9177800</v>
+        <v>9531900</v>
       </c>
       <c r="H60" s="3">
-        <v>8653800</v>
+        <v>8886100</v>
       </c>
       <c r="I60" s="3">
-        <v>8426000</v>
+        <v>8378800</v>
       </c>
       <c r="J60" s="3">
+        <v>8158200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6772400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8156500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7550100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8168300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8662700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8374400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8436100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7207200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7453300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8231300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7720400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7562300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6579800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7538000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5281000</v>
+        <v>5171800</v>
       </c>
       <c r="E61" s="3">
-        <v>5327900</v>
+        <v>5113200</v>
       </c>
       <c r="F61" s="3">
-        <v>5660700</v>
+        <v>5158600</v>
       </c>
       <c r="G61" s="3">
-        <v>5799200</v>
+        <v>5480800</v>
       </c>
       <c r="H61" s="3">
-        <v>5826600</v>
+        <v>5614800</v>
       </c>
       <c r="I61" s="3">
-        <v>5812000</v>
+        <v>5641400</v>
       </c>
       <c r="J61" s="3">
+        <v>5627300</v>
+      </c>
+      <c r="K61" s="3">
         <v>5787000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5978000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4133900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4137000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2442500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2031700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1989500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2684500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2665900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2714700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2646700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2640600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1438000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1481900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2503300</v>
+        <v>2301600</v>
       </c>
       <c r="E62" s="3">
-        <v>2526800</v>
+        <v>2423800</v>
       </c>
       <c r="F62" s="3">
-        <v>2537300</v>
+        <v>2446500</v>
       </c>
       <c r="G62" s="3">
-        <v>2590500</v>
+        <v>2456600</v>
       </c>
       <c r="H62" s="3">
-        <v>2575600</v>
+        <v>2508200</v>
       </c>
       <c r="I62" s="3">
-        <v>2655300</v>
+        <v>2493800</v>
       </c>
       <c r="J62" s="3">
+        <v>2570900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2755700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4777500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2594100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2650800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2918600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2848700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3083300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2898400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2955800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3122900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3026900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3025700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2934900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3133100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16348700</v>
+        <v>16590900</v>
       </c>
       <c r="E66" s="3">
-        <v>16349000</v>
+        <v>15829100</v>
       </c>
       <c r="F66" s="3">
-        <v>18446200</v>
+        <v>15829400</v>
       </c>
       <c r="G66" s="3">
-        <v>17966800</v>
+        <v>17860000</v>
       </c>
       <c r="H66" s="3">
-        <v>17442400</v>
+        <v>17395800</v>
       </c>
       <c r="I66" s="3">
-        <v>17299000</v>
+        <v>16888100</v>
       </c>
       <c r="J66" s="3">
+        <v>16749200</v>
+      </c>
+      <c r="K66" s="3">
         <v>15745300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17560800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14744100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15439800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14541300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13766400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13999700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13266900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13552900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14583900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13891000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13721500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11424400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12677000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20509600</v>
+        <v>19684400</v>
       </c>
       <c r="E72" s="3">
-        <v>20385600</v>
+        <v>19857700</v>
       </c>
       <c r="F72" s="3">
-        <v>19788700</v>
+        <v>19737700</v>
       </c>
       <c r="G72" s="3">
-        <v>17647500</v>
+        <v>19159700</v>
       </c>
       <c r="H72" s="3">
-        <v>17460400</v>
+        <v>17086600</v>
       </c>
       <c r="I72" s="3">
-        <v>17741500</v>
+        <v>16905500</v>
       </c>
       <c r="J72" s="3">
+        <v>17177700</v>
+      </c>
+      <c r="K72" s="3">
         <v>18111900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44028300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22532700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22193000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22722500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22336800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21311700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20630000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19983000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21211900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20394100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20283300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19252000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19213200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22879200</v>
+        <v>22432900</v>
       </c>
       <c r="E76" s="3">
-        <v>22735900</v>
+        <v>22152100</v>
       </c>
       <c r="F76" s="3">
-        <v>22045200</v>
+        <v>22013300</v>
       </c>
       <c r="G76" s="3">
-        <v>18941100</v>
+        <v>21344600</v>
       </c>
       <c r="H76" s="3">
-        <v>18780400</v>
+        <v>18339100</v>
       </c>
       <c r="I76" s="3">
-        <v>19235700</v>
+        <v>18183500</v>
       </c>
       <c r="J76" s="3">
+        <v>18624400</v>
+      </c>
+      <c r="K76" s="3">
         <v>19535800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21402800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20190400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20687400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22301400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22485700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22443800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21179900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20583800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21205800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20728000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20675500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19895800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20284200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>621300</v>
+        <v>-245800</v>
       </c>
       <c r="E81" s="3">
-        <v>590900</v>
+        <v>601600</v>
       </c>
       <c r="F81" s="3">
-        <v>2513000</v>
+        <v>572100</v>
       </c>
       <c r="G81" s="3">
-        <v>7200</v>
+        <v>2433200</v>
       </c>
       <c r="H81" s="3">
-        <v>-18300</v>
+        <v>7000</v>
       </c>
       <c r="I81" s="3">
-        <v>-365800</v>
+        <v>-17700</v>
       </c>
       <c r="J81" s="3">
+        <v>-354100</v>
+      </c>
+      <c r="K81" s="3">
         <v>171600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>469700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>825800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>393100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>536100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>681400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>788200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>647300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>576300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>818200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>596000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>656300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>525400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>731700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>564100</v>
+        <v>552000</v>
       </c>
       <c r="E83" s="3">
-        <v>530800</v>
+        <v>546200</v>
       </c>
       <c r="F83" s="3">
-        <v>541400</v>
+        <v>513900</v>
       </c>
       <c r="G83" s="3">
-        <v>598900</v>
+        <v>524200</v>
       </c>
       <c r="H83" s="3">
-        <v>584600</v>
+        <v>579900</v>
       </c>
       <c r="I83" s="3">
-        <v>583700</v>
+        <v>566000</v>
       </c>
       <c r="J83" s="3">
+        <v>565200</v>
+      </c>
+      <c r="K83" s="3">
         <v>589000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>627500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>642000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>648500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>644800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>479300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>503300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>444400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>465300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>489800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>473600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>440100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>440600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>428800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,52 +5839,55 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>508300</v>
+        <v>27500</v>
       </c>
       <c r="E89" s="3">
-        <v>215700</v>
+        <v>492100</v>
       </c>
       <c r="F89" s="3">
-        <v>800400</v>
+        <v>208900</v>
       </c>
       <c r="G89" s="3">
-        <v>1867000</v>
+        <v>775000</v>
       </c>
       <c r="H89" s="3">
-        <v>1496400</v>
+        <v>1807700</v>
       </c>
       <c r="I89" s="3">
-        <v>714400</v>
+        <v>1448800</v>
       </c>
       <c r="J89" s="3">
+        <v>691700</v>
+      </c>
+      <c r="K89" s="3">
         <v>564600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1895100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>694900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>888100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,52 +5939,53 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-339800</v>
+        <v>-396600</v>
       </c>
       <c r="E91" s="3">
-        <v>-235600</v>
+        <v>-329000</v>
       </c>
       <c r="F91" s="3">
-        <v>-433700</v>
+        <v>-228100</v>
       </c>
       <c r="G91" s="3">
-        <v>-453000</v>
+        <v>-419900</v>
       </c>
       <c r="H91" s="3">
-        <v>-411700</v>
+        <v>-438600</v>
       </c>
       <c r="I91" s="3">
-        <v>-336600</v>
+        <v>-398600</v>
       </c>
       <c r="J91" s="3">
+        <v>-325900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-566700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-626200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-678600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-523100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,52 +6150,55 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-730800</v>
+        <v>-438000</v>
       </c>
       <c r="E94" s="3">
-        <v>-210000</v>
+        <v>-707600</v>
       </c>
       <c r="F94" s="3">
-        <v>2553500</v>
+        <v>-203400</v>
       </c>
       <c r="G94" s="3">
-        <v>-120800</v>
+        <v>2472300</v>
       </c>
       <c r="H94" s="3">
-        <v>-330700</v>
+        <v>-117000</v>
       </c>
       <c r="I94" s="3">
-        <v>-395200</v>
+        <v>-320200</v>
       </c>
       <c r="J94" s="3">
+        <v>-382600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-522200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-358100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,47 +6250,48 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-526500</v>
+        <v>-900</v>
       </c>
       <c r="E96" s="3">
-        <v>-7300</v>
+        <v>-509800</v>
       </c>
       <c r="F96" s="3">
-        <v>-364900</v>
+        <v>-7100</v>
       </c>
       <c r="G96" s="3">
-        <v>-700</v>
+        <v>-353300</v>
       </c>
       <c r="H96" s="3">
-        <v>-309600</v>
+        <v>-600</v>
       </c>
       <c r="I96" s="3">
-        <v>-6100</v>
+        <v>-299800</v>
       </c>
       <c r="J96" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-490000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-528100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-572200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,52 +6532,55 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-643200</v>
+        <v>-260800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2023800</v>
+        <v>-622800</v>
       </c>
       <c r="F100" s="3">
-        <v>-405400</v>
+        <v>-1959500</v>
       </c>
       <c r="G100" s="3">
-        <v>-463400</v>
+        <v>-392500</v>
       </c>
       <c r="H100" s="3">
-        <v>-819900</v>
+        <v>-448700</v>
       </c>
       <c r="I100" s="3">
-        <v>2010900</v>
+        <v>-793800</v>
       </c>
       <c r="J100" s="3">
+        <v>1947000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-568400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-230900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1278300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6358,52 +6603,55 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39500</v>
+        <v>136500</v>
       </c>
       <c r="E101" s="3">
-        <v>-68800</v>
+        <v>-38300</v>
       </c>
       <c r="F101" s="3">
-        <v>393300</v>
+        <v>-66600</v>
       </c>
       <c r="G101" s="3">
-        <v>33800</v>
+        <v>380800</v>
       </c>
       <c r="H101" s="3">
-        <v>-60300</v>
+        <v>32700</v>
       </c>
       <c r="I101" s="3">
-        <v>84900</v>
+        <v>-58400</v>
       </c>
       <c r="J101" s="3">
+        <v>82200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-164300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>102700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-89500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-56300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>67800</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6426,52 +6674,55 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-905300</v>
+        <v>-534700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2086900</v>
+        <v>-876600</v>
       </c>
       <c r="F102" s="3">
-        <v>3341900</v>
+        <v>-2020600</v>
       </c>
       <c r="G102" s="3">
-        <v>1316600</v>
+        <v>3235700</v>
       </c>
       <c r="H102" s="3">
-        <v>285500</v>
+        <v>1274700</v>
       </c>
       <c r="I102" s="3">
-        <v>2415000</v>
+        <v>276500</v>
       </c>
       <c r="J102" s="3">
+        <v>2338300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-690300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1329100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1274100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>564100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7201900</v>
+        <v>6941000</v>
       </c>
       <c r="E8" s="3">
-        <v>7105200</v>
+        <v>6577100</v>
       </c>
       <c r="F8" s="3">
-        <v>6925500</v>
+        <v>6488800</v>
       </c>
       <c r="G8" s="3">
-        <v>6456300</v>
+        <v>6324700</v>
       </c>
       <c r="H8" s="3">
-        <v>5894700</v>
+        <v>5665100</v>
       </c>
       <c r="I8" s="3">
-        <v>6322800</v>
+        <v>5383400</v>
       </c>
       <c r="J8" s="3">
+        <v>5774300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4752500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6217800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8048800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8122100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8168200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8151300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9212700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8349700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8322400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7816100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8862300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8318900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8054200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7556300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7913900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4120200</v>
+        <v>4241100</v>
       </c>
       <c r="E9" s="3">
-        <v>4236900</v>
+        <v>3762700</v>
       </c>
       <c r="F9" s="3">
-        <v>4175200</v>
+        <v>3869300</v>
       </c>
       <c r="G9" s="3">
-        <v>3927300</v>
+        <v>3813000</v>
       </c>
       <c r="H9" s="3">
-        <v>3280100</v>
+        <v>3372100</v>
       </c>
       <c r="I9" s="3">
-        <v>4061800</v>
+        <v>2995600</v>
       </c>
       <c r="J9" s="3">
+        <v>3709400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3230500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3894700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5024300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4951200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5149100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5094700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5770100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5275700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5136800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4767700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5507100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5290700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4957100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4610500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4741000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3081700</v>
+        <v>2699900</v>
       </c>
       <c r="E10" s="3">
-        <v>2868400</v>
+        <v>2814400</v>
       </c>
       <c r="F10" s="3">
-        <v>2750200</v>
+        <v>2619500</v>
       </c>
       <c r="G10" s="3">
-        <v>2529000</v>
+        <v>2511700</v>
       </c>
       <c r="H10" s="3">
-        <v>2614600</v>
+        <v>2292900</v>
       </c>
       <c r="I10" s="3">
-        <v>2261000</v>
+        <v>2387800</v>
       </c>
       <c r="J10" s="3">
+        <v>2064900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1522000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2323200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3024500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3170900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3019100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3056600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3442500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3074000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3185600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3048400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3355200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3028200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3097100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2945800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3172900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>195300</v>
+        <v>205500</v>
       </c>
       <c r="E12" s="3">
-        <v>205900</v>
+        <v>178400</v>
       </c>
       <c r="F12" s="3">
-        <v>208100</v>
+        <v>188100</v>
       </c>
       <c r="G12" s="3">
-        <v>205000</v>
+        <v>190100</v>
       </c>
       <c r="H12" s="3">
-        <v>146900</v>
+        <v>174900</v>
       </c>
       <c r="I12" s="3">
-        <v>189400</v>
+        <v>134100</v>
       </c>
       <c r="J12" s="3">
+        <v>173000</v>
+      </c>
+      <c r="K12" s="3">
         <v>186300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>229200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>252500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>235800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>252200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>243000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>269400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>238200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>228100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>220800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>241900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>216700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>232200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>207300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>215600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>72300</v>
+        <v>100600</v>
       </c>
       <c r="E14" s="3">
-        <v>30000</v>
+        <v>56600</v>
       </c>
       <c r="F14" s="3">
-        <v>46400</v>
+        <v>27400</v>
       </c>
       <c r="G14" s="3">
-        <v>15600</v>
+        <v>42400</v>
       </c>
       <c r="H14" s="3">
-        <v>860400</v>
+        <v>13800</v>
       </c>
       <c r="I14" s="3">
-        <v>746800</v>
+        <v>517600</v>
       </c>
       <c r="J14" s="3">
+        <v>682000</v>
+      </c>
+      <c r="K14" s="3">
         <v>383400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>47500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>190200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>41600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-103500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>99800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>58400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>39200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>196400</v>
+        <v>181000</v>
       </c>
       <c r="E15" s="3">
-        <v>191800</v>
+        <v>179400</v>
       </c>
       <c r="F15" s="3">
-        <v>188800</v>
+        <v>175200</v>
       </c>
       <c r="G15" s="3">
-        <v>188800</v>
+        <v>172500</v>
       </c>
       <c r="H15" s="3">
-        <v>185000</v>
+        <v>171900</v>
       </c>
       <c r="I15" s="3">
-        <v>188100</v>
+        <v>168900</v>
       </c>
       <c r="J15" s="3">
+        <v>171800</v>
+      </c>
+      <c r="K15" s="3">
         <v>179100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>193000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>312700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>310900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>200000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>203500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>85000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>84700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>79500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>78600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>80500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>76300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>73000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>72800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>71300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6254800</v>
+        <v>6258300</v>
       </c>
       <c r="E17" s="3">
-        <v>6285700</v>
+        <v>5712200</v>
       </c>
       <c r="F17" s="3">
-        <v>6168100</v>
+        <v>5740400</v>
       </c>
       <c r="G17" s="3">
-        <v>5766100</v>
+        <v>5633000</v>
       </c>
       <c r="H17" s="3">
-        <v>5553000</v>
+        <v>5015700</v>
       </c>
       <c r="I17" s="3">
-        <v>6207800</v>
+        <v>5071200</v>
       </c>
       <c r="J17" s="3">
+        <v>5669200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5164900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5873400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7408900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6921500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7573700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7348300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8154600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7219900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7417600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6908000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7883500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7444900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7166000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6700500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6887600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>947100</v>
+        <v>682700</v>
       </c>
       <c r="E18" s="3">
-        <v>819500</v>
+        <v>864900</v>
       </c>
       <c r="F18" s="3">
-        <v>757400</v>
+        <v>748400</v>
       </c>
       <c r="G18" s="3">
-        <v>690200</v>
+        <v>691700</v>
       </c>
       <c r="H18" s="3">
-        <v>341800</v>
+        <v>649300</v>
       </c>
       <c r="I18" s="3">
-        <v>115100</v>
+        <v>312100</v>
       </c>
       <c r="J18" s="3">
+        <v>105100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-412500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>344400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>640000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1200600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>594400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>803000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1058100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1129800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>904800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>908100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>978800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>874100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>888200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>855800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1026300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>39800</v>
+        <v>66200</v>
       </c>
       <c r="E20" s="3">
-        <v>16200</v>
+        <v>36400</v>
       </c>
       <c r="F20" s="3">
-        <v>18900</v>
+        <v>14800</v>
       </c>
       <c r="G20" s="3">
-        <v>28200</v>
+        <v>17300</v>
       </c>
       <c r="H20" s="3">
-        <v>4400</v>
+        <v>25800</v>
       </c>
       <c r="I20" s="3">
-        <v>10300</v>
+        <v>4000</v>
       </c>
       <c r="J20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-23300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>76900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>109100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-33000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>231400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>77600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-36800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>47400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1538900</v>
+        <v>1260200</v>
       </c>
       <c r="E21" s="3">
-        <v>1381900</v>
+        <v>1405400</v>
       </c>
       <c r="F21" s="3">
-        <v>1290200</v>
+        <v>1262000</v>
       </c>
       <c r="G21" s="3">
-        <v>1242600</v>
+        <v>1178300</v>
       </c>
       <c r="H21" s="3">
-        <v>926000</v>
+        <v>1153900</v>
       </c>
       <c r="I21" s="3">
-        <v>691400</v>
+        <v>845700</v>
       </c>
       <c r="J21" s="3">
+        <v>631400</v>
+      </c>
+      <c r="K21" s="3">
         <v>129400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>909400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1339200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1831800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1238200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1442400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1646500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1608300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1369100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1340400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1700000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1425200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1353700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1259500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1502500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26200</v>
+        <v>23500</v>
       </c>
       <c r="E22" s="3">
-        <v>25100</v>
+        <v>23900</v>
       </c>
       <c r="F22" s="3">
-        <v>22500</v>
+        <v>22900</v>
       </c>
       <c r="G22" s="3">
-        <v>22600</v>
+        <v>20600</v>
       </c>
       <c r="H22" s="3">
-        <v>22300</v>
+        <v>20300</v>
       </c>
       <c r="I22" s="3">
-        <v>26200</v>
+        <v>20400</v>
       </c>
       <c r="J22" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K22" s="3">
         <v>31800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>57400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>66700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>27700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>34100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>31600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>38200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>28500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>17900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>19500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>960700</v>
+        <v>725300</v>
       </c>
       <c r="E23" s="3">
-        <v>810600</v>
+        <v>877400</v>
       </c>
       <c r="F23" s="3">
-        <v>753800</v>
+        <v>740200</v>
       </c>
       <c r="G23" s="3">
-        <v>695800</v>
+        <v>688400</v>
       </c>
       <c r="H23" s="3">
-        <v>323800</v>
+        <v>654900</v>
       </c>
       <c r="I23" s="3">
-        <v>99200</v>
+        <v>295700</v>
       </c>
       <c r="J23" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-467600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>287500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>659500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1153400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>546500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>749100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1142600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1077300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>890600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>843500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1172000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>927100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>885100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>801000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1054200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-32100</v>
+        <v>207500</v>
       </c>
       <c r="E24" s="3">
-        <v>208900</v>
+        <v>-29300</v>
       </c>
       <c r="F24" s="3">
-        <v>201200</v>
+        <v>190800</v>
       </c>
       <c r="G24" s="3">
-        <v>161300</v>
+        <v>183800</v>
       </c>
       <c r="H24" s="3">
-        <v>143700</v>
+        <v>143500</v>
       </c>
       <c r="I24" s="3">
-        <v>168900</v>
+        <v>131200</v>
       </c>
       <c r="J24" s="3">
+        <v>154300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-54500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>117800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>184000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>311900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>138400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>192000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>447300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>269000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>226900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>242800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>331900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>307100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>212300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>255800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>298900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>992800</v>
+        <v>517800</v>
       </c>
       <c r="E26" s="3">
-        <v>601600</v>
+        <v>906700</v>
       </c>
       <c r="F26" s="3">
-        <v>552600</v>
+        <v>549400</v>
       </c>
       <c r="G26" s="3">
-        <v>534500</v>
+        <v>504700</v>
       </c>
       <c r="H26" s="3">
-        <v>180200</v>
+        <v>511400</v>
       </c>
       <c r="I26" s="3">
-        <v>-69700</v>
+        <v>164500</v>
       </c>
       <c r="J26" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-413100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>169800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>475500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>841500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>408100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>557100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>695400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>808300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>663700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>840100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>620100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>672800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>545200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>755300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>980700</v>
+        <v>509600</v>
       </c>
       <c r="E27" s="3">
-        <v>591000</v>
+        <v>895600</v>
       </c>
       <c r="F27" s="3">
-        <v>540500</v>
+        <v>539700</v>
       </c>
       <c r="G27" s="3">
-        <v>514000</v>
+        <v>493600</v>
       </c>
       <c r="H27" s="3">
-        <v>172600</v>
+        <v>492700</v>
       </c>
       <c r="I27" s="3">
-        <v>-83700</v>
+        <v>157600</v>
       </c>
       <c r="J27" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>147700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>469700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>825800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>393100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>536100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>681400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>788200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>647300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>576300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>818200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>596000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>656300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>525400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>731700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,43 +2178,46 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-1226400</v>
+        <v>-90200</v>
       </c>
       <c r="E29" s="3">
-        <v>10600</v>
+        <v>-1120000</v>
       </c>
       <c r="F29" s="3">
-        <v>31700</v>
+        <v>9700</v>
       </c>
       <c r="G29" s="3">
-        <v>1919100</v>
+        <v>28900</v>
       </c>
       <c r="H29" s="3">
-        <v>-165600</v>
+        <v>1729400</v>
       </c>
       <c r="I29" s="3">
-        <v>66000</v>
+        <v>-151300</v>
       </c>
       <c r="J29" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K29" s="3">
         <v>46600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>23900</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-39800</v>
+        <v>-66200</v>
       </c>
       <c r="E32" s="3">
-        <v>-16200</v>
+        <v>-36400</v>
       </c>
       <c r="F32" s="3">
-        <v>-18900</v>
+        <v>-14800</v>
       </c>
       <c r="G32" s="3">
-        <v>-28200</v>
+        <v>-17300</v>
       </c>
       <c r="H32" s="3">
-        <v>-4400</v>
+        <v>-25800</v>
       </c>
       <c r="I32" s="3">
-        <v>-10300</v>
+        <v>-4000</v>
       </c>
       <c r="J32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K32" s="3">
         <v>23300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-76900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-109100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>33000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-231400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-77600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>36800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-47400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-245800</v>
+        <v>419400</v>
       </c>
       <c r="E33" s="3">
-        <v>601600</v>
+        <v>-224400</v>
       </c>
       <c r="F33" s="3">
-        <v>572100</v>
+        <v>549400</v>
       </c>
       <c r="G33" s="3">
-        <v>2433200</v>
+        <v>522500</v>
       </c>
       <c r="H33" s="3">
-        <v>7000</v>
+        <v>2222100</v>
       </c>
       <c r="I33" s="3">
-        <v>-17700</v>
+        <v>6400</v>
       </c>
       <c r="J33" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-354100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>171600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>469700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>825800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>393100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>536100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>681400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>788200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>647300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>576300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>818200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>596000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>656300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>525400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>731700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-245800</v>
+        <v>419400</v>
       </c>
       <c r="E35" s="3">
-        <v>601600</v>
+        <v>-224400</v>
       </c>
       <c r="F35" s="3">
-        <v>572100</v>
+        <v>549400</v>
       </c>
       <c r="G35" s="3">
-        <v>2433200</v>
+        <v>522500</v>
       </c>
       <c r="H35" s="3">
-        <v>7000</v>
+        <v>2222100</v>
       </c>
       <c r="I35" s="3">
-        <v>-17700</v>
+        <v>6400</v>
       </c>
       <c r="J35" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-354100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>171600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>469700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>825800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>393100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>536100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>681400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>788200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>647300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>576300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>818200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>596000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>656300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>525400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>731700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6717700</v>
+        <v>5287100</v>
       </c>
       <c r="E41" s="3">
-        <v>7252500</v>
+        <v>6135000</v>
       </c>
       <c r="F41" s="3">
-        <v>8129000</v>
+        <v>6623300</v>
       </c>
       <c r="G41" s="3">
-        <v>10149600</v>
+        <v>7423800</v>
       </c>
       <c r="H41" s="3">
-        <v>6914000</v>
+        <v>9269100</v>
       </c>
       <c r="I41" s="3">
-        <v>5639200</v>
+        <v>6314200</v>
       </c>
       <c r="J41" s="3">
+        <v>5150000</v>
+      </c>
+      <c r="K41" s="3">
         <v>5362800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3123800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3943900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2740700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3982700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3636300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4157200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3618500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3839700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3842000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4627500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3814400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4267500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3099000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4284300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100400</v>
+        <v>77100</v>
       </c>
       <c r="E42" s="3">
-        <v>64000</v>
+        <v>91700</v>
       </c>
       <c r="F42" s="3">
-        <v>59900</v>
+        <v>58500</v>
       </c>
       <c r="G42" s="3">
-        <v>54300</v>
+        <v>54700</v>
       </c>
       <c r="H42" s="3">
-        <v>62100</v>
+        <v>49600</v>
       </c>
       <c r="I42" s="3">
-        <v>56400</v>
+        <v>56700</v>
       </c>
       <c r="J42" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K42" s="3">
         <v>86200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>155300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1369700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1356600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1323100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1240800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1452400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1538000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1440600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1170800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2004000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1762800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1563400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1328400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1487500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6326000</v>
+        <v>6209100</v>
       </c>
       <c r="E43" s="3">
-        <v>5940800</v>
+        <v>5777200</v>
       </c>
       <c r="F43" s="3">
-        <v>5626300</v>
+        <v>5425400</v>
       </c>
       <c r="G43" s="3">
-        <v>5486900</v>
+        <v>5138200</v>
       </c>
       <c r="H43" s="3">
-        <v>5696000</v>
+        <v>5010900</v>
       </c>
       <c r="I43" s="3">
-        <v>5745600</v>
+        <v>5201900</v>
       </c>
       <c r="J43" s="3">
+        <v>5247200</v>
+      </c>
+      <c r="K43" s="3">
         <v>5166800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5957200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11999600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5330100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5120200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5535200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5472300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5235300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4915100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4979300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4396600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4227700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3849600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3759800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3894300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5375100</v>
+        <v>5640300</v>
       </c>
       <c r="E44" s="3">
-        <v>5309400</v>
+        <v>4908800</v>
       </c>
       <c r="F44" s="3">
-        <v>4835600</v>
+        <v>4848800</v>
       </c>
       <c r="G44" s="3">
-        <v>4481900</v>
+        <v>4416100</v>
       </c>
       <c r="H44" s="3">
-        <v>4190300</v>
+        <v>4093100</v>
       </c>
       <c r="I44" s="3">
-        <v>4402900</v>
+        <v>3826800</v>
       </c>
       <c r="J44" s="3">
+        <v>4021000</v>
+      </c>
+      <c r="K44" s="3">
         <v>5073500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5496700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11174200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5646400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5756300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6145500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5826700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6012000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5542800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5444800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5335200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5557500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5631700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5198100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4944200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1039000</v>
+        <v>1069300</v>
       </c>
       <c r="E45" s="3">
-        <v>752000</v>
+        <v>948900</v>
       </c>
       <c r="F45" s="3">
-        <v>753200</v>
+        <v>686800</v>
       </c>
       <c r="G45" s="3">
-        <v>706700</v>
+        <v>687900</v>
       </c>
       <c r="H45" s="3">
-        <v>662800</v>
+        <v>645400</v>
       </c>
       <c r="I45" s="3">
-        <v>744000</v>
+        <v>605300</v>
       </c>
       <c r="J45" s="3">
+        <v>679500</v>
+      </c>
+      <c r="K45" s="3">
         <v>648300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>643800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>780500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1290500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1233600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1217000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1145000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1780200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1605900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1554400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1599400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1782100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1801500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1521500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1552300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19558200</v>
+        <v>18282800</v>
       </c>
       <c r="E46" s="3">
-        <v>19318700</v>
+        <v>17861500</v>
       </c>
       <c r="F46" s="3">
-        <v>19404100</v>
+        <v>17642800</v>
       </c>
       <c r="G46" s="3">
-        <v>20879500</v>
+        <v>17720800</v>
       </c>
       <c r="H46" s="3">
-        <v>17525100</v>
+        <v>19068100</v>
       </c>
       <c r="I46" s="3">
-        <v>16588200</v>
+        <v>16004800</v>
       </c>
       <c r="J46" s="3">
+        <v>15149100</v>
+      </c>
+      <c r="K46" s="3">
         <v>16337500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15376800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17476700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16364300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17415900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17774800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18053400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18184000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17344100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16991400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17962800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17144600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17113800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>14906800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16162500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1411800</v>
+        <v>1250200</v>
       </c>
       <c r="E47" s="3">
-        <v>1354800</v>
+        <v>1289300</v>
       </c>
       <c r="F47" s="3">
-        <v>1329500</v>
+        <v>1237300</v>
       </c>
       <c r="G47" s="3">
-        <v>1263300</v>
+        <v>1214100</v>
       </c>
       <c r="H47" s="3">
-        <v>1175100</v>
+        <v>1153700</v>
       </c>
       <c r="I47" s="3">
-        <v>1154300</v>
+        <v>1073200</v>
       </c>
       <c r="J47" s="3">
+        <v>1054200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1276800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1505300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2990000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1752500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1842600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2137000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2062100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2715400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2197500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2397300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2506000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2589900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2498300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2378500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2322300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14688400</v>
+        <v>13696800</v>
       </c>
       <c r="E48" s="3">
-        <v>14239400</v>
+        <v>13414100</v>
       </c>
       <c r="F48" s="3">
-        <v>14456900</v>
+        <v>13004100</v>
       </c>
       <c r="G48" s="3">
-        <v>14445900</v>
+        <v>13202800</v>
       </c>
       <c r="H48" s="3">
-        <v>14349700</v>
+        <v>13192600</v>
       </c>
       <c r="I48" s="3">
-        <v>14656200</v>
+        <v>13104800</v>
       </c>
       <c r="J48" s="3">
+        <v>13384700</v>
+      </c>
+      <c r="K48" s="3">
         <v>15078000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15667800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31118800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13721000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13711500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14610900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13861400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13471900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12947700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12817300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13316300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12869100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12797900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12444100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12853700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2218800</v>
+        <v>2142300</v>
       </c>
       <c r="E49" s="3">
-        <v>2138800</v>
+        <v>2026300</v>
       </c>
       <c r="F49" s="3">
-        <v>1726500</v>
+        <v>1953300</v>
       </c>
       <c r="G49" s="3">
-        <v>1718400</v>
+        <v>1576700</v>
       </c>
       <c r="H49" s="3">
-        <v>1835000</v>
+        <v>1569300</v>
       </c>
       <c r="I49" s="3">
-        <v>1798100</v>
+        <v>1675800</v>
       </c>
       <c r="J49" s="3">
+        <v>1642100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1787900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1829400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3799400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1743200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1768700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>861500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>957700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>954200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>903400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>891800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>949500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>992600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>988400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>656000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>657700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1146700</v>
+        <v>1167100</v>
       </c>
       <c r="E52" s="3">
-        <v>929500</v>
+        <v>1047200</v>
       </c>
       <c r="F52" s="3">
-        <v>925800</v>
+        <v>848800</v>
       </c>
       <c r="G52" s="3">
-        <v>897500</v>
+        <v>845400</v>
       </c>
       <c r="H52" s="3">
-        <v>850000</v>
+        <v>819700</v>
       </c>
       <c r="I52" s="3">
-        <v>874800</v>
+        <v>776200</v>
       </c>
       <c r="J52" s="3">
+        <v>798900</v>
+      </c>
+      <c r="K52" s="3">
         <v>893400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>901800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1805500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1353500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1388500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1458400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1317400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1118100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1054100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1038900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1055100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1022800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>998600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>934800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>965000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39023800</v>
+        <v>36539200</v>
       </c>
       <c r="E54" s="3">
-        <v>37981200</v>
+        <v>35638400</v>
       </c>
       <c r="F54" s="3">
-        <v>37842700</v>
+        <v>34686200</v>
       </c>
       <c r="G54" s="3">
-        <v>39204600</v>
+        <v>34559800</v>
       </c>
       <c r="H54" s="3">
-        <v>35735000</v>
+        <v>35803500</v>
       </c>
       <c r="I54" s="3">
-        <v>35071600</v>
+        <v>32634900</v>
       </c>
       <c r="J54" s="3">
+        <v>32029000</v>
+      </c>
+      <c r="K54" s="3">
         <v>35373500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35281000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38963600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34934500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36127200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36842700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36252100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36443600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34446800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34136600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35789700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34619000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>34397000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31320200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>32961200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4410100</v>
+        <v>3819800</v>
       </c>
       <c r="E57" s="3">
-        <v>3587500</v>
+        <v>4027500</v>
       </c>
       <c r="F57" s="3">
-        <v>3570400</v>
+        <v>3276300</v>
       </c>
       <c r="G57" s="3">
-        <v>3288500</v>
+        <v>3260600</v>
       </c>
       <c r="H57" s="3">
-        <v>3583800</v>
+        <v>3003200</v>
       </c>
       <c r="I57" s="3">
-        <v>2846600</v>
+        <v>3272900</v>
       </c>
       <c r="J57" s="3">
+        <v>2599700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2589600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3128200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5968100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1835100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2026300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2185100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2208700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2243400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2116200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1950300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2103600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2025600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2021500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1854200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1735000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1747200</v>
+        <v>1528400</v>
       </c>
       <c r="E58" s="3">
-        <v>1836900</v>
+        <v>1595600</v>
       </c>
       <c r="F58" s="3">
-        <v>1811000</v>
+        <v>1677600</v>
       </c>
       <c r="G58" s="3">
-        <v>3260500</v>
+        <v>1653900</v>
       </c>
       <c r="H58" s="3">
-        <v>2968000</v>
+        <v>2977700</v>
       </c>
       <c r="I58" s="3">
-        <v>3251800</v>
+        <v>2710500</v>
       </c>
       <c r="J58" s="3">
+        <v>2969700</v>
+      </c>
+      <c r="K58" s="3">
         <v>3632300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1617000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2949000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1745500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2089300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2235600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2774400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2216500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1276800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1618000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1434900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1467800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1607300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1067600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3107800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2572300</v>
+        <v>2747800</v>
       </c>
       <c r="E59" s="3">
-        <v>2509700</v>
+        <v>2349200</v>
       </c>
       <c r="F59" s="3">
-        <v>2473400</v>
+        <v>2292000</v>
       </c>
       <c r="G59" s="3">
-        <v>2982800</v>
+        <v>2258900</v>
       </c>
       <c r="H59" s="3">
-        <v>2334400</v>
+        <v>2724100</v>
       </c>
       <c r="I59" s="3">
-        <v>2280300</v>
+        <v>2131800</v>
       </c>
       <c r="J59" s="3">
+        <v>2082500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1936300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2027200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6356000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3969500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4052700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4241900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4382200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3976300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3814200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3884900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4692900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4226900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3933500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3658000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4252700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8729600</v>
+        <v>8096000</v>
       </c>
       <c r="E60" s="3">
-        <v>7934200</v>
+        <v>7972300</v>
       </c>
       <c r="F60" s="3">
-        <v>7854800</v>
+        <v>7245900</v>
       </c>
       <c r="G60" s="3">
-        <v>9531900</v>
+        <v>7173300</v>
       </c>
       <c r="H60" s="3">
-        <v>8886100</v>
+        <v>8705000</v>
       </c>
       <c r="I60" s="3">
-        <v>8378800</v>
+        <v>8115200</v>
       </c>
       <c r="J60" s="3">
+        <v>7651900</v>
+      </c>
+      <c r="K60" s="3">
         <v>8158200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6772400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8156500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7550100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8168300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8662700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8374400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8436100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7207200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7453300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8231300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7720400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7562300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6579800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7538000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5171800</v>
+        <v>4703200</v>
       </c>
       <c r="E61" s="3">
-        <v>5113200</v>
+        <v>4723200</v>
       </c>
       <c r="F61" s="3">
-        <v>5158600</v>
+        <v>4669600</v>
       </c>
       <c r="G61" s="3">
-        <v>5480800</v>
+        <v>4711100</v>
       </c>
       <c r="H61" s="3">
-        <v>5614800</v>
+        <v>5005300</v>
       </c>
       <c r="I61" s="3">
-        <v>5641400</v>
+        <v>5127700</v>
       </c>
       <c r="J61" s="3">
+        <v>5152000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5627300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5787000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5978000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4133900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4137000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2442500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2031700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1989500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2684500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2665900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2714700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2646700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2640600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1438000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1481900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2301600</v>
+        <v>2167700</v>
       </c>
       <c r="E62" s="3">
-        <v>2423800</v>
+        <v>2102000</v>
       </c>
       <c r="F62" s="3">
-        <v>2446500</v>
+        <v>2213500</v>
       </c>
       <c r="G62" s="3">
-        <v>2456600</v>
+        <v>2234300</v>
       </c>
       <c r="H62" s="3">
-        <v>2508200</v>
+        <v>2243500</v>
       </c>
       <c r="I62" s="3">
-        <v>2493800</v>
+        <v>2290600</v>
       </c>
       <c r="J62" s="3">
+        <v>2277400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2570900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2755700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4777500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2594100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2650800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2918600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2848700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3083300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2898400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2955800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3122900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3026900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3025700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2934900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3133100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16590900</v>
+        <v>15336000</v>
       </c>
       <c r="E66" s="3">
-        <v>15829100</v>
+        <v>15151600</v>
       </c>
       <c r="F66" s="3">
-        <v>15829400</v>
+        <v>14455900</v>
       </c>
       <c r="G66" s="3">
-        <v>17860000</v>
+        <v>14456200</v>
       </c>
       <c r="H66" s="3">
-        <v>17395800</v>
+        <v>16310600</v>
       </c>
       <c r="I66" s="3">
-        <v>16888100</v>
+        <v>15886700</v>
       </c>
       <c r="J66" s="3">
+        <v>15423000</v>
+      </c>
+      <c r="K66" s="3">
         <v>16749200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15745300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17560800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14744100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15439800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14541300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13766400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13999700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13266900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13552900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14583900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13891000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13721500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11424400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12677000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19684400</v>
+        <v>17960100</v>
       </c>
       <c r="E72" s="3">
-        <v>19857700</v>
+        <v>18000100</v>
       </c>
       <c r="F72" s="3">
-        <v>19737700</v>
+        <v>18135000</v>
       </c>
       <c r="G72" s="3">
-        <v>19159700</v>
+        <v>18025400</v>
       </c>
       <c r="H72" s="3">
-        <v>17086600</v>
+        <v>17497600</v>
       </c>
       <c r="I72" s="3">
-        <v>16905500</v>
+        <v>15604300</v>
       </c>
       <c r="J72" s="3">
+        <v>15438900</v>
+      </c>
+      <c r="K72" s="3">
         <v>17177700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18111900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44028300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22532700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22193000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22722500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22336800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21311700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20630000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19983000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21211900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20394100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20283300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19252000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19213200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22432900</v>
+        <v>21203200</v>
       </c>
       <c r="E76" s="3">
-        <v>22152100</v>
+        <v>20486800</v>
       </c>
       <c r="F76" s="3">
-        <v>22013300</v>
+        <v>20230300</v>
       </c>
       <c r="G76" s="3">
-        <v>21344600</v>
+        <v>20103600</v>
       </c>
       <c r="H76" s="3">
-        <v>18339100</v>
+        <v>19492900</v>
       </c>
       <c r="I76" s="3">
-        <v>18183500</v>
+        <v>16748200</v>
       </c>
       <c r="J76" s="3">
+        <v>16606100</v>
+      </c>
+      <c r="K76" s="3">
         <v>18624400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19535800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21402800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20190400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20687400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22301400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22485700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22443800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21179900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20583800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21205800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20728000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20675500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19895800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20284200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-245800</v>
+        <v>419400</v>
       </c>
       <c r="E81" s="3">
-        <v>601600</v>
+        <v>-224400</v>
       </c>
       <c r="F81" s="3">
-        <v>572100</v>
+        <v>549400</v>
       </c>
       <c r="G81" s="3">
-        <v>2433200</v>
+        <v>522500</v>
       </c>
       <c r="H81" s="3">
-        <v>7000</v>
+        <v>2222100</v>
       </c>
       <c r="I81" s="3">
-        <v>-17700</v>
+        <v>6400</v>
       </c>
       <c r="J81" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-354100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>171600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>469700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>825800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>393100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>536100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>681400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>788200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>647300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>576300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>818200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>596000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>656300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>525400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>731700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>552000</v>
+        <v>511300</v>
       </c>
       <c r="E83" s="3">
-        <v>546200</v>
+        <v>504100</v>
       </c>
       <c r="F83" s="3">
-        <v>513900</v>
+        <v>498800</v>
       </c>
       <c r="G83" s="3">
-        <v>524200</v>
+        <v>469300</v>
       </c>
       <c r="H83" s="3">
-        <v>579900</v>
+        <v>478700</v>
       </c>
       <c r="I83" s="3">
-        <v>566000</v>
+        <v>529600</v>
       </c>
       <c r="J83" s="3">
+        <v>516900</v>
+      </c>
+      <c r="K83" s="3">
         <v>565200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>589000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>627500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>642000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>648500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>644800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>479300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>503300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>444400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>465300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>489800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>473600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>440100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>440600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>428800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,55 +6056,58 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27500</v>
+        <v>468600</v>
       </c>
       <c r="E89" s="3">
-        <v>492100</v>
+        <v>25100</v>
       </c>
       <c r="F89" s="3">
-        <v>208900</v>
+        <v>449400</v>
       </c>
       <c r="G89" s="3">
-        <v>775000</v>
+        <v>190800</v>
       </c>
       <c r="H89" s="3">
-        <v>1807700</v>
+        <v>707800</v>
       </c>
       <c r="I89" s="3">
-        <v>1448800</v>
+        <v>1650900</v>
       </c>
       <c r="J89" s="3">
+        <v>1323100</v>
+      </c>
+      <c r="K89" s="3">
         <v>691700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>564600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1895100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>694900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>888100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,55 +6160,56 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-396600</v>
+        <v>-511500</v>
       </c>
       <c r="E91" s="3">
-        <v>-329000</v>
+        <v>-362200</v>
       </c>
       <c r="F91" s="3">
-        <v>-228100</v>
+        <v>-300500</v>
       </c>
       <c r="G91" s="3">
-        <v>-419900</v>
+        <v>-208400</v>
       </c>
       <c r="H91" s="3">
-        <v>-438600</v>
+        <v>-383500</v>
       </c>
       <c r="I91" s="3">
-        <v>-398600</v>
+        <v>-400500</v>
       </c>
       <c r="J91" s="3">
+        <v>-364000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-325900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-566700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-626200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-678600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-523100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,55 +6380,58 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-438000</v>
+        <v>-576800</v>
       </c>
       <c r="E94" s="3">
-        <v>-707600</v>
+        <v>-400000</v>
       </c>
       <c r="F94" s="3">
-        <v>-203400</v>
+        <v>-646200</v>
       </c>
       <c r="G94" s="3">
-        <v>2472300</v>
+        <v>-185700</v>
       </c>
       <c r="H94" s="3">
-        <v>-117000</v>
+        <v>2257900</v>
       </c>
       <c r="I94" s="3">
-        <v>-320200</v>
+        <v>-106800</v>
       </c>
       <c r="J94" s="3">
+        <v>-292400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-382600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-522200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-44100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-358100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,50 +6484,51 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-461500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-900</v>
       </c>
-      <c r="E96" s="3">
-        <v>-509800</v>
-      </c>
       <c r="F96" s="3">
-        <v>-7100</v>
+        <v>-465500</v>
       </c>
       <c r="G96" s="3">
-        <v>-353300</v>
+        <v>-6500</v>
       </c>
       <c r="H96" s="3">
+        <v>-322600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-600</v>
       </c>
-      <c r="I96" s="3">
-        <v>-299800</v>
-      </c>
       <c r="J96" s="3">
+        <v>-273700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-490000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-528100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-572200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,55 +6778,58 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-260800</v>
+        <v>-1047000</v>
       </c>
       <c r="E100" s="3">
-        <v>-622800</v>
+        <v>-238200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1959500</v>
+        <v>-568800</v>
       </c>
       <c r="G100" s="3">
-        <v>-392500</v>
+        <v>-1789500</v>
       </c>
       <c r="H100" s="3">
-        <v>-448700</v>
+        <v>-358400</v>
       </c>
       <c r="I100" s="3">
-        <v>-793800</v>
+        <v>-409800</v>
       </c>
       <c r="J100" s="3">
+        <v>-724900</v>
+      </c>
+      <c r="K100" s="3">
         <v>1947000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-568400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-230900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1278300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6606,55 +6852,58 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>136500</v>
+        <v>307300</v>
       </c>
       <c r="E101" s="3">
-        <v>-38300</v>
+        <v>124700</v>
       </c>
       <c r="F101" s="3">
-        <v>-66600</v>
+        <v>-35000</v>
       </c>
       <c r="G101" s="3">
-        <v>380800</v>
+        <v>-60800</v>
       </c>
       <c r="H101" s="3">
-        <v>32700</v>
+        <v>347800</v>
       </c>
       <c r="I101" s="3">
-        <v>-58400</v>
+        <v>29800</v>
       </c>
       <c r="J101" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="K101" s="3">
         <v>82200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-164300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>102700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-89500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-56300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>67800</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6677,55 +6926,58 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-534700</v>
+        <v>-847800</v>
       </c>
       <c r="E102" s="3">
-        <v>-876600</v>
+        <v>-488400</v>
       </c>
       <c r="F102" s="3">
-        <v>-2020600</v>
+        <v>-800500</v>
       </c>
       <c r="G102" s="3">
-        <v>3235700</v>
+        <v>-1845300</v>
       </c>
       <c r="H102" s="3">
-        <v>1274700</v>
+        <v>2955000</v>
       </c>
       <c r="I102" s="3">
-        <v>276500</v>
+        <v>1164100</v>
       </c>
       <c r="J102" s="3">
+        <v>252500</v>
+      </c>
+      <c r="K102" s="3">
         <v>2338300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-690300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1329100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1274100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>564100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6941000</v>
+        <v>7295800</v>
       </c>
       <c r="E8" s="3">
-        <v>6577100</v>
+        <v>6531100</v>
       </c>
       <c r="F8" s="3">
-        <v>6488800</v>
+        <v>6188700</v>
       </c>
       <c r="G8" s="3">
-        <v>6324700</v>
+        <v>6105700</v>
       </c>
       <c r="H8" s="3">
-        <v>5665100</v>
+        <v>5740900</v>
       </c>
       <c r="I8" s="3">
-        <v>5383400</v>
+        <v>5330500</v>
       </c>
       <c r="J8" s="3">
+        <v>5065500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5774300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4752500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6217800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8048800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8122100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8168200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8151300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9212700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8349700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8322400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7816100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8862300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8318900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8054200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7556300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7913900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4241100</v>
+        <v>4475000</v>
       </c>
       <c r="E9" s="3">
-        <v>3762700</v>
+        <v>3990600</v>
       </c>
       <c r="F9" s="3">
-        <v>3869300</v>
+        <v>3540500</v>
       </c>
       <c r="G9" s="3">
-        <v>3813000</v>
+        <v>3640800</v>
       </c>
       <c r="H9" s="3">
-        <v>3372100</v>
+        <v>3386300</v>
       </c>
       <c r="I9" s="3">
-        <v>2995600</v>
+        <v>3173000</v>
       </c>
       <c r="J9" s="3">
+        <v>2818700</v>
+      </c>
+      <c r="K9" s="3">
         <v>3709400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3230500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3894700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5024300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4951200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5149100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5094700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5770100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5275700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5136800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4767700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5507100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5290700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4957100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4610500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4741000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2699900</v>
+        <v>2820700</v>
       </c>
       <c r="E10" s="3">
-        <v>2814400</v>
+        <v>2540500</v>
       </c>
       <c r="F10" s="3">
-        <v>2619500</v>
+        <v>2648200</v>
       </c>
       <c r="G10" s="3">
-        <v>2511700</v>
+        <v>2464800</v>
       </c>
       <c r="H10" s="3">
-        <v>2292900</v>
+        <v>2354600</v>
       </c>
       <c r="I10" s="3">
-        <v>2387800</v>
+        <v>2157500</v>
       </c>
       <c r="J10" s="3">
+        <v>2246800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2064900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1522000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2323200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3024500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3170900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3019100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3056600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3442500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3074000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3185600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3048400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3355200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3028200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3097100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2945800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3172900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>205500</v>
+        <v>200200</v>
       </c>
       <c r="E12" s="3">
-        <v>178400</v>
+        <v>193300</v>
       </c>
       <c r="F12" s="3">
-        <v>188100</v>
+        <v>167800</v>
       </c>
       <c r="G12" s="3">
-        <v>190100</v>
+        <v>177000</v>
       </c>
       <c r="H12" s="3">
-        <v>174900</v>
+        <v>167800</v>
       </c>
       <c r="I12" s="3">
-        <v>134100</v>
+        <v>164600</v>
       </c>
       <c r="J12" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K12" s="3">
         <v>173000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>186300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>229200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>252500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>235800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>252200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>243000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>269400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>238200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>228100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>220800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>241900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>216700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>232200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>207300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>215600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>100600</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
-        <v>56600</v>
+        <v>92400</v>
       </c>
       <c r="F14" s="3">
-        <v>27400</v>
+        <v>53200</v>
       </c>
       <c r="G14" s="3">
-        <v>42400</v>
+        <v>25800</v>
       </c>
       <c r="H14" s="3">
-        <v>13800</v>
+        <v>39700</v>
       </c>
       <c r="I14" s="3">
-        <v>517600</v>
+        <v>13000</v>
       </c>
       <c r="J14" s="3">
+        <v>487000</v>
+      </c>
+      <c r="K14" s="3">
         <v>682000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>383400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>47500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>190200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>41600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-103500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>99800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>58400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>39200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>181000</v>
+        <v>180200</v>
       </c>
       <c r="E15" s="3">
-        <v>179400</v>
+        <v>170300</v>
       </c>
       <c r="F15" s="3">
-        <v>175200</v>
+        <v>168800</v>
       </c>
       <c r="G15" s="3">
-        <v>172500</v>
+        <v>164800</v>
       </c>
       <c r="H15" s="3">
-        <v>171900</v>
+        <v>161500</v>
       </c>
       <c r="I15" s="3">
-        <v>168900</v>
+        <v>161800</v>
       </c>
       <c r="J15" s="3">
+        <v>159000</v>
+      </c>
+      <c r="K15" s="3">
         <v>171800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>179100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>193000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>312700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>310900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>200000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>203500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>85000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>84700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>79500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>78600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>80500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>76300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>73000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>72800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>71300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6258300</v>
+        <v>6662800</v>
       </c>
       <c r="E17" s="3">
-        <v>5712200</v>
+        <v>5888800</v>
       </c>
       <c r="F17" s="3">
-        <v>5740400</v>
+        <v>5374900</v>
       </c>
       <c r="G17" s="3">
-        <v>5633000</v>
+        <v>5401400</v>
       </c>
       <c r="H17" s="3">
-        <v>5015700</v>
+        <v>5057800</v>
       </c>
       <c r="I17" s="3">
-        <v>5071200</v>
+        <v>4719500</v>
       </c>
       <c r="J17" s="3">
+        <v>4771800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5669200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5164900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5873400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7408900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6921500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7573700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7348300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8154600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7219900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7417600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6908000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7883500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7444900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7166000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6700500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6887600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>682700</v>
+        <v>633000</v>
       </c>
       <c r="E18" s="3">
-        <v>864900</v>
+        <v>642300</v>
       </c>
       <c r="F18" s="3">
-        <v>748400</v>
+        <v>813800</v>
       </c>
       <c r="G18" s="3">
-        <v>691700</v>
+        <v>704200</v>
       </c>
       <c r="H18" s="3">
-        <v>649300</v>
+        <v>683100</v>
       </c>
       <c r="I18" s="3">
-        <v>312100</v>
+        <v>611000</v>
       </c>
       <c r="J18" s="3">
+        <v>293700</v>
+      </c>
+      <c r="K18" s="3">
         <v>105100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-412500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>344400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>640000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>594400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>803000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1058100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1129800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>904800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>908100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>978800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>874100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>888200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>855800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1026300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>66200</v>
+        <v>28000</v>
       </c>
       <c r="E20" s="3">
-        <v>36400</v>
+        <v>62300</v>
       </c>
       <c r="F20" s="3">
-        <v>14800</v>
+        <v>34200</v>
       </c>
       <c r="G20" s="3">
-        <v>17300</v>
+        <v>13900</v>
       </c>
       <c r="H20" s="3">
-        <v>25800</v>
+        <v>17500</v>
       </c>
       <c r="I20" s="3">
-        <v>4000</v>
+        <v>24300</v>
       </c>
       <c r="J20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K20" s="3">
         <v>9400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-23300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>76900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>109100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-33000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>231400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>77600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>25400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-36800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>47400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1260200</v>
+        <v>1162100</v>
       </c>
       <c r="E21" s="3">
-        <v>1405400</v>
+        <v>1185800</v>
       </c>
       <c r="F21" s="3">
-        <v>1262000</v>
+        <v>1322400</v>
       </c>
       <c r="G21" s="3">
-        <v>1178300</v>
+        <v>1187500</v>
       </c>
       <c r="H21" s="3">
-        <v>1153900</v>
+        <v>1142200</v>
       </c>
       <c r="I21" s="3">
-        <v>845700</v>
+        <v>1085800</v>
       </c>
       <c r="J21" s="3">
+        <v>795700</v>
+      </c>
+      <c r="K21" s="3">
         <v>631400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>129400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>909400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1339200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1831800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1238200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1442400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1646500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1608300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1369100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1340400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1700000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1425200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1353700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1259500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1502500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23500</v>
+        <v>22900</v>
       </c>
       <c r="E22" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K22" s="3">
         <v>23900</v>
       </c>
-      <c r="F22" s="3">
-        <v>22900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>20600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>20300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>23900</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>57400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>66700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>59900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>27700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>34100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>31600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>38200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>24500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>28500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>17900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>19500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>725300</v>
+        <v>638100</v>
       </c>
       <c r="E23" s="3">
-        <v>877400</v>
+        <v>682500</v>
       </c>
       <c r="F23" s="3">
-        <v>740200</v>
+        <v>825600</v>
       </c>
       <c r="G23" s="3">
-        <v>688400</v>
+        <v>696500</v>
       </c>
       <c r="H23" s="3">
-        <v>654900</v>
+        <v>681600</v>
       </c>
       <c r="I23" s="3">
-        <v>295700</v>
+        <v>616200</v>
       </c>
       <c r="J23" s="3">
+        <v>278300</v>
+      </c>
+      <c r="K23" s="3">
         <v>90600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-467600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>287500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>659500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1153400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>546500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>749100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1142600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1077300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>890600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>843500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1172000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>927100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>885100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>801000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1054200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>207500</v>
+        <v>243700</v>
       </c>
       <c r="E24" s="3">
-        <v>-29300</v>
+        <v>195200</v>
       </c>
       <c r="F24" s="3">
-        <v>190800</v>
+        <v>-27500</v>
       </c>
       <c r="G24" s="3">
-        <v>183800</v>
+        <v>179500</v>
       </c>
       <c r="H24" s="3">
-        <v>143500</v>
+        <v>172000</v>
       </c>
       <c r="I24" s="3">
-        <v>131200</v>
+        <v>135000</v>
       </c>
       <c r="J24" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K24" s="3">
         <v>154300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-54500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>117800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>184000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>311900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>138400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>192000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>447300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>269000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>226900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>242800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>331900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>307100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>212300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>255800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>298900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>517800</v>
+        <v>394400</v>
       </c>
       <c r="E26" s="3">
-        <v>906700</v>
+        <v>487300</v>
       </c>
       <c r="F26" s="3">
-        <v>549400</v>
+        <v>853100</v>
       </c>
       <c r="G26" s="3">
-        <v>504700</v>
+        <v>517000</v>
       </c>
       <c r="H26" s="3">
-        <v>511400</v>
+        <v>509600</v>
       </c>
       <c r="I26" s="3">
-        <v>164500</v>
+        <v>481200</v>
       </c>
       <c r="J26" s="3">
+        <v>154800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-63700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-413100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>169800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>475500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>841500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>408100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>557100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>695400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>808300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>663700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>840100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>620100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>672800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>545200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>755300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>509600</v>
+        <v>382500</v>
       </c>
       <c r="E27" s="3">
-        <v>895600</v>
+        <v>479500</v>
       </c>
       <c r="F27" s="3">
-        <v>539700</v>
+        <v>842700</v>
       </c>
       <c r="G27" s="3">
-        <v>493600</v>
+        <v>507900</v>
       </c>
       <c r="H27" s="3">
-        <v>492700</v>
+        <v>499200</v>
       </c>
       <c r="I27" s="3">
-        <v>157600</v>
+        <v>463600</v>
       </c>
       <c r="J27" s="3">
+        <v>148300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-76400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>147700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>469700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>825800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>393100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>536100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>681400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>788200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>647300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>576300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>818200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>596000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>656300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>525400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>731700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,46 +2239,49 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-90200</v>
+        <v>-95900</v>
       </c>
       <c r="E29" s="3">
-        <v>-1120000</v>
+        <v>-84900</v>
       </c>
       <c r="F29" s="3">
-        <v>9700</v>
+        <v>-1053900</v>
       </c>
       <c r="G29" s="3">
-        <v>28900</v>
+        <v>9100</v>
       </c>
       <c r="H29" s="3">
-        <v>1729400</v>
+        <v>-7500</v>
       </c>
       <c r="I29" s="3">
-        <v>-151300</v>
+        <v>1627300</v>
       </c>
       <c r="J29" s="3">
+        <v>-142300</v>
+      </c>
+      <c r="K29" s="3">
         <v>60300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>46600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>23900</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-66200</v>
+        <v>-28000</v>
       </c>
       <c r="E32" s="3">
-        <v>-36400</v>
+        <v>-62300</v>
       </c>
       <c r="F32" s="3">
-        <v>-14800</v>
+        <v>-34200</v>
       </c>
       <c r="G32" s="3">
-        <v>-17300</v>
+        <v>-13900</v>
       </c>
       <c r="H32" s="3">
-        <v>-25800</v>
+        <v>-17500</v>
       </c>
       <c r="I32" s="3">
-        <v>-4000</v>
+        <v>-24300</v>
       </c>
       <c r="J32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>23300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-76900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-109100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>33000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-231400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-77600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-25400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>36800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-47400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>419400</v>
+        <v>286700</v>
       </c>
       <c r="E33" s="3">
-        <v>-224400</v>
+        <v>394600</v>
       </c>
       <c r="F33" s="3">
-        <v>549400</v>
+        <v>-211200</v>
       </c>
       <c r="G33" s="3">
-        <v>522500</v>
+        <v>517000</v>
       </c>
       <c r="H33" s="3">
-        <v>2222100</v>
+        <v>491700</v>
       </c>
       <c r="I33" s="3">
-        <v>6400</v>
+        <v>2090900</v>
       </c>
       <c r="J33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-16100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-354100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>171600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>469700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>825800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>393100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>536100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>681400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>788200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>647300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>576300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>818200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>596000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>656300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>525400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>731700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>419400</v>
+        <v>286700</v>
       </c>
       <c r="E35" s="3">
-        <v>-224400</v>
+        <v>394600</v>
       </c>
       <c r="F35" s="3">
-        <v>549400</v>
+        <v>-211200</v>
       </c>
       <c r="G35" s="3">
-        <v>522500</v>
+        <v>517000</v>
       </c>
       <c r="H35" s="3">
-        <v>2222100</v>
+        <v>491700</v>
       </c>
       <c r="I35" s="3">
-        <v>6400</v>
+        <v>2090900</v>
       </c>
       <c r="J35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-16100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-354100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>171600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>469700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>825800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>393100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>536100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>681400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>788200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>647300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>576300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>818200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>596000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>656300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>525400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>731700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5287100</v>
+        <v>4548200</v>
       </c>
       <c r="E41" s="3">
-        <v>6135000</v>
+        <v>4974900</v>
       </c>
       <c r="F41" s="3">
-        <v>6623300</v>
+        <v>5772700</v>
       </c>
       <c r="G41" s="3">
-        <v>7423800</v>
+        <v>6232200</v>
       </c>
       <c r="H41" s="3">
-        <v>9269100</v>
+        <v>6985500</v>
       </c>
       <c r="I41" s="3">
-        <v>6314200</v>
+        <v>8721800</v>
       </c>
       <c r="J41" s="3">
+        <v>5941300</v>
+      </c>
+      <c r="K41" s="3">
         <v>5150000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5362800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3123800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3943900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2740700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3982700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3636300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4157200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3618500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3839700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3842000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4627500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3814400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4267500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3099000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4284300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77100</v>
+        <v>68500</v>
       </c>
       <c r="E42" s="3">
-        <v>91700</v>
+        <v>72600</v>
       </c>
       <c r="F42" s="3">
-        <v>58500</v>
+        <v>86300</v>
       </c>
       <c r="G42" s="3">
-        <v>54700</v>
+        <v>55000</v>
       </c>
       <c r="H42" s="3">
-        <v>49600</v>
+        <v>51400</v>
       </c>
       <c r="I42" s="3">
-        <v>56700</v>
+        <v>46700</v>
       </c>
       <c r="J42" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K42" s="3">
         <v>51500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>86200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>155300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1369700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1356600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1323100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1240800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1452400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1538000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1440600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1170800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2004000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1762800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1563400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1328400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1487500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6209100</v>
+        <v>6461700</v>
       </c>
       <c r="E43" s="3">
-        <v>5777200</v>
+        <v>5842400</v>
       </c>
       <c r="F43" s="3">
-        <v>5425400</v>
+        <v>5436000</v>
       </c>
       <c r="G43" s="3">
-        <v>5138200</v>
+        <v>5105000</v>
       </c>
       <c r="H43" s="3">
-        <v>5010900</v>
+        <v>4834800</v>
       </c>
       <c r="I43" s="3">
-        <v>5201900</v>
+        <v>4715000</v>
       </c>
       <c r="J43" s="3">
+        <v>4894700</v>
+      </c>
+      <c r="K43" s="3">
         <v>5247200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5166800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5957200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11999600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5330100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5120200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5535200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5472300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5235300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4915100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4979300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4396600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4227700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3849600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3759800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3894300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5640300</v>
+        <v>6228600</v>
       </c>
       <c r="E44" s="3">
-        <v>4908800</v>
+        <v>5307200</v>
       </c>
       <c r="F44" s="3">
-        <v>4848800</v>
+        <v>4618900</v>
       </c>
       <c r="G44" s="3">
-        <v>4416100</v>
+        <v>4562500</v>
       </c>
       <c r="H44" s="3">
-        <v>4093100</v>
+        <v>4155300</v>
       </c>
       <c r="I44" s="3">
-        <v>3826800</v>
+        <v>3851400</v>
       </c>
       <c r="J44" s="3">
+        <v>3600800</v>
+      </c>
+      <c r="K44" s="3">
         <v>4021000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5073500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5496700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11174200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5646400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5756300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6145500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5826700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6012000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5542800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5444800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5335200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5557500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5631700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5198100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4944200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1069300</v>
+        <v>1340200</v>
       </c>
       <c r="E45" s="3">
-        <v>948900</v>
+        <v>1006100</v>
       </c>
       <c r="F45" s="3">
-        <v>686800</v>
+        <v>892800</v>
       </c>
       <c r="G45" s="3">
-        <v>687900</v>
+        <v>646200</v>
       </c>
       <c r="H45" s="3">
-        <v>645400</v>
+        <v>647300</v>
       </c>
       <c r="I45" s="3">
-        <v>605300</v>
+        <v>607300</v>
       </c>
       <c r="J45" s="3">
+        <v>569600</v>
+      </c>
+      <c r="K45" s="3">
         <v>679500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>648300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>643800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>780500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1290500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1233600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1217000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1145000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1780200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1605900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1554400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1599400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1782100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1801500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1521500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1552300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18282800</v>
+        <v>18647200</v>
       </c>
       <c r="E46" s="3">
-        <v>17861500</v>
+        <v>17203200</v>
       </c>
       <c r="F46" s="3">
-        <v>17642800</v>
+        <v>16806700</v>
       </c>
       <c r="G46" s="3">
-        <v>17720800</v>
+        <v>16600900</v>
       </c>
       <c r="H46" s="3">
-        <v>19068100</v>
+        <v>16674300</v>
       </c>
       <c r="I46" s="3">
-        <v>16004800</v>
+        <v>17942200</v>
       </c>
       <c r="J46" s="3">
+        <v>15059700</v>
+      </c>
+      <c r="K46" s="3">
         <v>15149100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16337500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15376800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17476700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16364300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17415900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17774800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18053400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18184000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17344100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16991400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17962800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17144600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17113800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>14906800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16162500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1250200</v>
+        <v>1204900</v>
       </c>
       <c r="E47" s="3">
-        <v>1289300</v>
+        <v>1176400</v>
       </c>
       <c r="F47" s="3">
-        <v>1237300</v>
+        <v>1213200</v>
       </c>
       <c r="G47" s="3">
-        <v>1214100</v>
+        <v>1164200</v>
       </c>
       <c r="H47" s="3">
-        <v>1153700</v>
+        <v>1142400</v>
       </c>
       <c r="I47" s="3">
-        <v>1073200</v>
+        <v>1085600</v>
       </c>
       <c r="J47" s="3">
+        <v>1009800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1054200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1276800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1505300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2990000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1752500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1842600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2137000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2062100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2715400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2197500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2397300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2506000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2589900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2498300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2378500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2322300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13696800</v>
+        <v>13514600</v>
       </c>
       <c r="E48" s="3">
-        <v>13414100</v>
+        <v>12888000</v>
       </c>
       <c r="F48" s="3">
-        <v>13004100</v>
+        <v>12622000</v>
       </c>
       <c r="G48" s="3">
-        <v>13202800</v>
+        <v>12236200</v>
       </c>
       <c r="H48" s="3">
-        <v>13192600</v>
+        <v>12423100</v>
       </c>
       <c r="I48" s="3">
-        <v>13104800</v>
+        <v>12413600</v>
       </c>
       <c r="J48" s="3">
+        <v>12331000</v>
+      </c>
+      <c r="K48" s="3">
         <v>13384700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15078000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15667800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31118800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13721000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13711500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14610900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13861400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13471900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12947700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12817300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13316300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12869100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12797900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12444100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12853700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2142300</v>
+        <v>2145000</v>
       </c>
       <c r="E49" s="3">
-        <v>2026300</v>
+        <v>2015800</v>
       </c>
       <c r="F49" s="3">
-        <v>1953300</v>
+        <v>1906600</v>
       </c>
       <c r="G49" s="3">
-        <v>1576700</v>
+        <v>1837900</v>
       </c>
       <c r="H49" s="3">
-        <v>1569300</v>
+        <v>1483600</v>
       </c>
       <c r="I49" s="3">
-        <v>1675800</v>
+        <v>1476600</v>
       </c>
       <c r="J49" s="3">
+        <v>1576900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1642100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1787900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1829400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3799400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1743200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1768700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>861500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>957700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>954200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>903400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>891800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>949500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>992600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>988400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>656000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>657700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1167100</v>
+        <v>1208200</v>
       </c>
       <c r="E52" s="3">
-        <v>1047200</v>
+        <v>1098200</v>
       </c>
       <c r="F52" s="3">
-        <v>848800</v>
+        <v>985400</v>
       </c>
       <c r="G52" s="3">
-        <v>845400</v>
+        <v>798700</v>
       </c>
       <c r="H52" s="3">
-        <v>819700</v>
+        <v>795500</v>
       </c>
       <c r="I52" s="3">
-        <v>776200</v>
+        <v>771300</v>
       </c>
       <c r="J52" s="3">
+        <v>730400</v>
+      </c>
+      <c r="K52" s="3">
         <v>798900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>893400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>901800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1805500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1353500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1388500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1458400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1317400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1118100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1054100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1038900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1055100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1022800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>998600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>934800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>965000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36539200</v>
+        <v>36719800</v>
       </c>
       <c r="E54" s="3">
-        <v>35638400</v>
+        <v>34381600</v>
       </c>
       <c r="F54" s="3">
-        <v>34686200</v>
+        <v>33534000</v>
       </c>
       <c r="G54" s="3">
-        <v>34559800</v>
+        <v>32638000</v>
       </c>
       <c r="H54" s="3">
-        <v>35803500</v>
+        <v>32519000</v>
       </c>
       <c r="I54" s="3">
-        <v>32634900</v>
+        <v>33689300</v>
       </c>
       <c r="J54" s="3">
+        <v>30707800</v>
+      </c>
+      <c r="K54" s="3">
         <v>32029000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35373500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35281000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38963600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34934500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36127200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36842700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36252100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36443600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34446800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34136600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>35789700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>34619000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>34397000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>31320200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>32961200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3819800</v>
+        <v>3975900</v>
       </c>
       <c r="E57" s="3">
-        <v>4027500</v>
+        <v>3594300</v>
       </c>
       <c r="F57" s="3">
-        <v>3276300</v>
+        <v>3789700</v>
       </c>
       <c r="G57" s="3">
-        <v>3260600</v>
+        <v>3082900</v>
       </c>
       <c r="H57" s="3">
-        <v>3003200</v>
+        <v>3068100</v>
       </c>
       <c r="I57" s="3">
-        <v>3272900</v>
+        <v>2825900</v>
       </c>
       <c r="J57" s="3">
+        <v>3079600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2599700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2589600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3128200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5968100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1835100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2026300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2185100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2208700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2243400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2116200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1950300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2103600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2025600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2021500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1854200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1735000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1528400</v>
+        <v>1130500</v>
       </c>
       <c r="E58" s="3">
-        <v>1595600</v>
+        <v>1438100</v>
       </c>
       <c r="F58" s="3">
-        <v>1677600</v>
+        <v>1501400</v>
       </c>
       <c r="G58" s="3">
-        <v>1653900</v>
+        <v>1578500</v>
       </c>
       <c r="H58" s="3">
-        <v>2977700</v>
+        <v>1556200</v>
       </c>
       <c r="I58" s="3">
-        <v>2710500</v>
+        <v>2801800</v>
       </c>
       <c r="J58" s="3">
+        <v>2550400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2969700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3632300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1617000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2949000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1745500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2089300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2235600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2774400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2216500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1276800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1618000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1434900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1467800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1607300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1067600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3107800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2747800</v>
+        <v>2926300</v>
       </c>
       <c r="E59" s="3">
-        <v>2349200</v>
+        <v>2585500</v>
       </c>
       <c r="F59" s="3">
-        <v>2292000</v>
+        <v>2210400</v>
       </c>
       <c r="G59" s="3">
-        <v>2258900</v>
+        <v>2156700</v>
       </c>
       <c r="H59" s="3">
-        <v>2724100</v>
+        <v>2125500</v>
       </c>
       <c r="I59" s="3">
-        <v>2131800</v>
+        <v>2563200</v>
       </c>
       <c r="J59" s="3">
+        <v>2006000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2082500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1936300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2027200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6356000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3969500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4052700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4241900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4382200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3976300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3814200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3884900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4692900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4226900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3933500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3658000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4252700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8096000</v>
+        <v>8032600</v>
       </c>
       <c r="E60" s="3">
-        <v>7972300</v>
+        <v>7617900</v>
       </c>
       <c r="F60" s="3">
-        <v>7245900</v>
+        <v>7501500</v>
       </c>
       <c r="G60" s="3">
-        <v>7173300</v>
+        <v>6818000</v>
       </c>
       <c r="H60" s="3">
-        <v>8705000</v>
+        <v>6749700</v>
       </c>
       <c r="I60" s="3">
-        <v>8115200</v>
+        <v>8190900</v>
       </c>
       <c r="J60" s="3">
+        <v>7636000</v>
+      </c>
+      <c r="K60" s="3">
         <v>7651900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8158200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6772400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8156500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7550100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8168300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8662700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8374400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8436100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7207200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7453300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8231300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7720400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7562300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6579800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7538000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4703200</v>
+        <v>4539900</v>
       </c>
       <c r="E61" s="3">
-        <v>4723200</v>
+        <v>4425500</v>
       </c>
       <c r="F61" s="3">
-        <v>4669600</v>
+        <v>4444300</v>
       </c>
       <c r="G61" s="3">
-        <v>4711100</v>
+        <v>4393900</v>
       </c>
       <c r="H61" s="3">
-        <v>5005300</v>
+        <v>4432900</v>
       </c>
       <c r="I61" s="3">
-        <v>5127700</v>
+        <v>4709800</v>
       </c>
       <c r="J61" s="3">
+        <v>4825000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5152000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5627300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5787000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5978000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4133900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4137000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2442500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2031700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1989500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2684500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2665900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2714700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2646700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2640600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1438000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1481900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2167700</v>
+        <v>2123600</v>
       </c>
       <c r="E62" s="3">
-        <v>2102000</v>
+        <v>2039700</v>
       </c>
       <c r="F62" s="3">
-        <v>2213500</v>
+        <v>1977800</v>
       </c>
       <c r="G62" s="3">
-        <v>2234300</v>
+        <v>2082800</v>
       </c>
       <c r="H62" s="3">
-        <v>2243500</v>
+        <v>2102300</v>
       </c>
       <c r="I62" s="3">
-        <v>2290600</v>
+        <v>2111000</v>
       </c>
       <c r="J62" s="3">
+        <v>2155300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2277400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2570900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2755700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4777500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2594100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2650800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2918600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2848700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3083300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2898400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2955800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3122900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3026900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3025700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2934900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3133100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15336000</v>
+        <v>15051800</v>
       </c>
       <c r="E66" s="3">
-        <v>15151600</v>
+        <v>14430400</v>
       </c>
       <c r="F66" s="3">
-        <v>14455900</v>
+        <v>14256900</v>
       </c>
       <c r="G66" s="3">
-        <v>14456200</v>
+        <v>13602300</v>
       </c>
       <c r="H66" s="3">
-        <v>16310600</v>
+        <v>13602600</v>
       </c>
       <c r="I66" s="3">
-        <v>15886700</v>
+        <v>15347400</v>
       </c>
       <c r="J66" s="3">
+        <v>14948600</v>
+      </c>
+      <c r="K66" s="3">
         <v>15423000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16749200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15745300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17560800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14744100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15439800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14541300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13766400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13999700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13266900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13552900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14583900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13891000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13721500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11424400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12677000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17960100</v>
+        <v>17187400</v>
       </c>
       <c r="E72" s="3">
-        <v>18000100</v>
+        <v>16899600</v>
       </c>
       <c r="F72" s="3">
-        <v>18135000</v>
+        <v>16937200</v>
       </c>
       <c r="G72" s="3">
-        <v>18025400</v>
+        <v>17064200</v>
       </c>
       <c r="H72" s="3">
-        <v>17497600</v>
+        <v>16961000</v>
       </c>
       <c r="I72" s="3">
-        <v>15604300</v>
+        <v>16464400</v>
       </c>
       <c r="J72" s="3">
+        <v>14682900</v>
+      </c>
+      <c r="K72" s="3">
         <v>15438900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17177700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18111900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44028300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22532700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22193000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22722500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22336800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21311700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20630000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19983000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21211900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20394100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20283300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19252000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19213200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21203200</v>
+        <v>21668000</v>
       </c>
       <c r="E76" s="3">
-        <v>20486800</v>
+        <v>19951200</v>
       </c>
       <c r="F76" s="3">
-        <v>20230300</v>
+        <v>19277000</v>
       </c>
       <c r="G76" s="3">
-        <v>20103600</v>
+        <v>19035700</v>
       </c>
       <c r="H76" s="3">
-        <v>19492900</v>
+        <v>18916500</v>
       </c>
       <c r="I76" s="3">
-        <v>16748200</v>
+        <v>18341800</v>
       </c>
       <c r="J76" s="3">
+        <v>15759200</v>
+      </c>
+      <c r="K76" s="3">
         <v>16606100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18624400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19535800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21402800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20190400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20687400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22301400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22485700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22443800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21179900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20583800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21205800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20728000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20675500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19895800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20284200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>419400</v>
+        <v>286700</v>
       </c>
       <c r="E81" s="3">
-        <v>-224400</v>
+        <v>394600</v>
       </c>
       <c r="F81" s="3">
-        <v>549400</v>
+        <v>-211200</v>
       </c>
       <c r="G81" s="3">
-        <v>522500</v>
+        <v>517000</v>
       </c>
       <c r="H81" s="3">
-        <v>2222100</v>
+        <v>491700</v>
       </c>
       <c r="I81" s="3">
-        <v>6400</v>
+        <v>2090900</v>
       </c>
       <c r="J81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-16100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-354100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>171600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>469700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>825800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>393100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>536100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>681400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>788200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>647300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>576300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>818200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>596000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>656300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>525400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>731700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>511300</v>
+        <v>501000</v>
       </c>
       <c r="E83" s="3">
-        <v>504100</v>
+        <v>481100</v>
       </c>
       <c r="F83" s="3">
-        <v>498800</v>
+        <v>474400</v>
       </c>
       <c r="G83" s="3">
         <v>469300</v>
       </c>
       <c r="H83" s="3">
-        <v>478700</v>
+        <v>441600</v>
       </c>
       <c r="I83" s="3">
-        <v>529600</v>
+        <v>450500</v>
       </c>
       <c r="J83" s="3">
+        <v>498300</v>
+      </c>
+      <c r="K83" s="3">
         <v>516900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>565200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>589000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>627500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>642000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>648500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>644800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>479300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>503300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>444400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>465300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>489800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>473600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>440100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>440600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>428800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,58 +6273,61 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>468600</v>
+        <v>150200</v>
       </c>
       <c r="E89" s="3">
-        <v>25100</v>
+        <v>440900</v>
       </c>
       <c r="F89" s="3">
-        <v>449400</v>
+        <v>23600</v>
       </c>
       <c r="G89" s="3">
-        <v>190800</v>
+        <v>422900</v>
       </c>
       <c r="H89" s="3">
-        <v>707800</v>
+        <v>179500</v>
       </c>
       <c r="I89" s="3">
-        <v>1650900</v>
+        <v>666000</v>
       </c>
       <c r="J89" s="3">
+        <v>1553400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1323100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>691700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>564600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1895100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>694900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>888100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,58 +6381,59 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-511500</v>
+        <v>-269800</v>
       </c>
       <c r="E91" s="3">
-        <v>-362200</v>
+        <v>-481300</v>
       </c>
       <c r="F91" s="3">
-        <v>-300500</v>
+        <v>-340800</v>
       </c>
       <c r="G91" s="3">
-        <v>-208400</v>
+        <v>-282700</v>
       </c>
       <c r="H91" s="3">
-        <v>-383500</v>
+        <v>-196000</v>
       </c>
       <c r="I91" s="3">
-        <v>-400500</v>
+        <v>-360800</v>
       </c>
       <c r="J91" s="3">
+        <v>-376900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-364000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-325900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-566700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-626200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-678600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-523100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,58 +6610,61 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-576800</v>
+        <v>-300800</v>
       </c>
       <c r="E94" s="3">
-        <v>-400000</v>
+        <v>-542700</v>
       </c>
       <c r="F94" s="3">
-        <v>-646200</v>
+        <v>-376400</v>
       </c>
       <c r="G94" s="3">
-        <v>-185700</v>
+        <v>-608100</v>
       </c>
       <c r="H94" s="3">
-        <v>2257900</v>
+        <v>-174700</v>
       </c>
       <c r="I94" s="3">
-        <v>-106800</v>
+        <v>2124500</v>
       </c>
       <c r="J94" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-292400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-382600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-522200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-44100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-358100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,53 +6718,54 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-461500</v>
+        <v>-4400</v>
       </c>
       <c r="E96" s="3">
-        <v>-900</v>
+        <v>-434200</v>
       </c>
       <c r="F96" s="3">
-        <v>-465500</v>
+        <v>-800</v>
       </c>
       <c r="G96" s="3">
-        <v>-6500</v>
+        <v>-438000</v>
       </c>
       <c r="H96" s="3">
-        <v>-322600</v>
+        <v>-6100</v>
       </c>
       <c r="I96" s="3">
-        <v>-600</v>
+        <v>-303600</v>
       </c>
       <c r="J96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-273700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-490000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-528100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-572200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,58 +7024,61 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1047000</v>
+        <v>-701600</v>
       </c>
       <c r="E100" s="3">
-        <v>-238200</v>
+        <v>-985200</v>
       </c>
       <c r="F100" s="3">
-        <v>-568800</v>
+        <v>-224100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1789500</v>
+        <v>-535200</v>
       </c>
       <c r="H100" s="3">
-        <v>-358400</v>
+        <v>-1683800</v>
       </c>
       <c r="I100" s="3">
-        <v>-409800</v>
+        <v>-337300</v>
       </c>
       <c r="J100" s="3">
+        <v>-385600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-724900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1947000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-568400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-230900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1278300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6855,58 +7101,61 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>307300</v>
+        <v>425400</v>
       </c>
       <c r="E101" s="3">
-        <v>124700</v>
+        <v>289200</v>
       </c>
       <c r="F101" s="3">
-        <v>-35000</v>
+        <v>117300</v>
       </c>
       <c r="G101" s="3">
-        <v>-60800</v>
+        <v>-32900</v>
       </c>
       <c r="H101" s="3">
-        <v>347800</v>
+        <v>-57300</v>
       </c>
       <c r="I101" s="3">
-        <v>29800</v>
+        <v>327300</v>
       </c>
       <c r="J101" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-53300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>82200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-164300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>102700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-89500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-56300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>67800</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6929,58 +7178,61 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-847800</v>
+        <v>-426700</v>
       </c>
       <c r="E102" s="3">
-        <v>-488400</v>
+        <v>-797800</v>
       </c>
       <c r="F102" s="3">
-        <v>-800500</v>
+        <v>-459500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1845300</v>
+        <v>-753300</v>
       </c>
       <c r="H102" s="3">
-        <v>2955000</v>
+        <v>-1736300</v>
       </c>
       <c r="I102" s="3">
-        <v>1164100</v>
+        <v>2780500</v>
       </c>
       <c r="J102" s="3">
+        <v>1095400</v>
+      </c>
+      <c r="K102" s="3">
         <v>252500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2338300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-690300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1329100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1274100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>564100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7295800</v>
+        <v>7732200</v>
       </c>
       <c r="E8" s="3">
-        <v>6531100</v>
+        <v>7056900</v>
       </c>
       <c r="F8" s="3">
-        <v>6188700</v>
+        <v>6317300</v>
       </c>
       <c r="G8" s="3">
-        <v>6105700</v>
+        <v>5986100</v>
       </c>
       <c r="H8" s="3">
-        <v>5740900</v>
+        <v>5723500</v>
       </c>
       <c r="I8" s="3">
-        <v>5330500</v>
+        <v>5552900</v>
       </c>
       <c r="J8" s="3">
+        <v>5156000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5065500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5774300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4752500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6217800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8048800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8122100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8168200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8151300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9212700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8349700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8322400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7816100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8862300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8318900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8054200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7556300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7913900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4475000</v>
+        <v>4738700</v>
       </c>
       <c r="E9" s="3">
-        <v>3990600</v>
+        <v>4328500</v>
       </c>
       <c r="F9" s="3">
-        <v>3540500</v>
+        <v>3860000</v>
       </c>
       <c r="G9" s="3">
-        <v>3640800</v>
+        <v>3424600</v>
       </c>
       <c r="H9" s="3">
-        <v>3386300</v>
+        <v>3339800</v>
       </c>
       <c r="I9" s="3">
-        <v>3173000</v>
+        <v>3275500</v>
       </c>
       <c r="J9" s="3">
+        <v>3069100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2818700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3709400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3230500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3894700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5024300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4951200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5149100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5094700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5770100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5275700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5136800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4767700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5507100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5290700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4957100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4610500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4741000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2820700</v>
+        <v>2993500</v>
       </c>
       <c r="E10" s="3">
-        <v>2540500</v>
+        <v>2728400</v>
       </c>
       <c r="F10" s="3">
-        <v>2648200</v>
+        <v>2457300</v>
       </c>
       <c r="G10" s="3">
-        <v>2464800</v>
+        <v>2561500</v>
       </c>
       <c r="H10" s="3">
-        <v>2354600</v>
+        <v>2383700</v>
       </c>
       <c r="I10" s="3">
-        <v>2157500</v>
+        <v>2277500</v>
       </c>
       <c r="J10" s="3">
+        <v>2086900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2246800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2064900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1522000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2323200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3024500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3170900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3019100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3056600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3442500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3074000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3185600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3048400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3355200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3028200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3097100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2945800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3172900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200200</v>
+        <v>198900</v>
       </c>
       <c r="E12" s="3">
-        <v>193300</v>
+        <v>193600</v>
       </c>
       <c r="F12" s="3">
-        <v>167800</v>
+        <v>187000</v>
       </c>
       <c r="G12" s="3">
-        <v>177000</v>
+        <v>162300</v>
       </c>
       <c r="H12" s="3">
-        <v>167800</v>
+        <v>160300</v>
       </c>
       <c r="I12" s="3">
-        <v>164600</v>
+        <v>162300</v>
       </c>
       <c r="J12" s="3">
+        <v>159200</v>
+      </c>
+      <c r="K12" s="3">
         <v>126200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>173000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>186300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>229200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>252500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>235800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>252200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>243000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>269400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>238200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>228100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>220800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>241900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>216700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>232200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>207300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>215600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1300</v>
+        <v>11500</v>
       </c>
       <c r="E14" s="3">
-        <v>92400</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>53200</v>
+        <v>89400</v>
       </c>
       <c r="G14" s="3">
-        <v>25800</v>
+        <v>51500</v>
       </c>
       <c r="H14" s="3">
-        <v>39700</v>
+        <v>26500</v>
       </c>
       <c r="I14" s="3">
-        <v>13000</v>
+        <v>38400</v>
       </c>
       <c r="J14" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K14" s="3">
         <v>487000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>682000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>383400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>47500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>190200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>41600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-103500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>99800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>58400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>39200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>180200</v>
+        <v>192300</v>
       </c>
       <c r="E15" s="3">
-        <v>170300</v>
+        <v>174300</v>
       </c>
       <c r="F15" s="3">
-        <v>168800</v>
+        <v>164700</v>
       </c>
       <c r="G15" s="3">
-        <v>164800</v>
+        <v>163300</v>
       </c>
       <c r="H15" s="3">
-        <v>161500</v>
+        <v>159000</v>
       </c>
       <c r="I15" s="3">
-        <v>161800</v>
+        <v>156200</v>
       </c>
       <c r="J15" s="3">
+        <v>156500</v>
+      </c>
+      <c r="K15" s="3">
         <v>159000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>171800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>179100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>193000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>312700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>310900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>200000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>203500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>85000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>84700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>79500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>78600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>80500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>76300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>73000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>72800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>71300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6662800</v>
+        <v>6787600</v>
       </c>
       <c r="E17" s="3">
-        <v>5888800</v>
+        <v>6444600</v>
       </c>
       <c r="F17" s="3">
-        <v>5374900</v>
+        <v>5696000</v>
       </c>
       <c r="G17" s="3">
-        <v>5401400</v>
+        <v>5198900</v>
       </c>
       <c r="H17" s="3">
-        <v>5057800</v>
+        <v>5013500</v>
       </c>
       <c r="I17" s="3">
-        <v>4719500</v>
+        <v>4892200</v>
       </c>
       <c r="J17" s="3">
+        <v>4565000</v>
+      </c>
+      <c r="K17" s="3">
         <v>4771800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5669200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5164900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5873400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7408900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6921500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7573700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7348300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8154600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7219900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7417600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6908000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7883500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7444900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7166000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6700500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6887600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>633000</v>
+        <v>944700</v>
       </c>
       <c r="E18" s="3">
-        <v>642300</v>
+        <v>612300</v>
       </c>
       <c r="F18" s="3">
-        <v>813800</v>
+        <v>621300</v>
       </c>
       <c r="G18" s="3">
-        <v>704200</v>
+        <v>787200</v>
       </c>
       <c r="H18" s="3">
-        <v>683100</v>
+        <v>710100</v>
       </c>
       <c r="I18" s="3">
-        <v>611000</v>
+        <v>660700</v>
       </c>
       <c r="J18" s="3">
+        <v>591000</v>
+      </c>
+      <c r="K18" s="3">
         <v>293700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>105100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-412500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>344400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>640000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1200600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>594400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>803000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1058100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1129800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>904800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>908100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>978800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>874100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>888200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>855800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1026300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>28000</v>
+        <v>-36700</v>
       </c>
       <c r="E20" s="3">
-        <v>62300</v>
+        <v>27100</v>
       </c>
       <c r="F20" s="3">
-        <v>34200</v>
+        <v>60300</v>
       </c>
       <c r="G20" s="3">
-        <v>13900</v>
+        <v>33100</v>
       </c>
       <c r="H20" s="3">
-        <v>17500</v>
+        <v>13600</v>
       </c>
       <c r="I20" s="3">
-        <v>24300</v>
+        <v>16900</v>
       </c>
       <c r="J20" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-23300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>76900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>109100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-24800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-33000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>231400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>77600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>25400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-36800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>47400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1162100</v>
+        <v>1443600</v>
       </c>
       <c r="E21" s="3">
-        <v>1185800</v>
+        <v>1124000</v>
       </c>
       <c r="F21" s="3">
-        <v>1322400</v>
+        <v>1146900</v>
       </c>
       <c r="G21" s="3">
-        <v>1187500</v>
+        <v>1279100</v>
       </c>
       <c r="H21" s="3">
-        <v>1142200</v>
+        <v>1177600</v>
       </c>
       <c r="I21" s="3">
-        <v>1085800</v>
+        <v>1104800</v>
       </c>
       <c r="J21" s="3">
+        <v>1050200</v>
+      </c>
+      <c r="K21" s="3">
         <v>795700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>631400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>129400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>909400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1339200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1831800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1238200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1442400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1646500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1608300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1369100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1340400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1700000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1425200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1353700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1259500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1502500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22900</v>
+        <v>27800</v>
       </c>
       <c r="E22" s="3">
         <v>22200</v>
       </c>
       <c r="F22" s="3">
-        <v>22500</v>
+        <v>21400</v>
       </c>
       <c r="G22" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="H22" s="3">
-        <v>18900</v>
+        <v>20500</v>
       </c>
       <c r="I22" s="3">
-        <v>19100</v>
+        <v>18300</v>
       </c>
       <c r="J22" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K22" s="3">
         <v>19200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>57400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>66700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>59900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>27700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>34100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>31600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>38200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>24500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>28500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>17900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>19500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>638100</v>
+        <v>880200</v>
       </c>
       <c r="E23" s="3">
-        <v>682500</v>
+        <v>617200</v>
       </c>
       <c r="F23" s="3">
-        <v>825600</v>
+        <v>660100</v>
       </c>
       <c r="G23" s="3">
-        <v>696500</v>
+        <v>798500</v>
       </c>
       <c r="H23" s="3">
-        <v>681600</v>
+        <v>703100</v>
       </c>
       <c r="I23" s="3">
-        <v>616200</v>
+        <v>659300</v>
       </c>
       <c r="J23" s="3">
+        <v>596000</v>
+      </c>
+      <c r="K23" s="3">
         <v>278300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>90600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-467600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>287500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>659500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1153400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>546500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>749100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1142600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1077300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>890600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>843500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1172000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>927100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>885100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>801000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1054200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>243700</v>
+        <v>160700</v>
       </c>
       <c r="E24" s="3">
-        <v>195200</v>
+        <v>235700</v>
       </c>
       <c r="F24" s="3">
-        <v>-27500</v>
+        <v>188800</v>
       </c>
       <c r="G24" s="3">
-        <v>179500</v>
+        <v>-26600</v>
       </c>
       <c r="H24" s="3">
-        <v>172000</v>
+        <v>175200</v>
       </c>
       <c r="I24" s="3">
-        <v>135000</v>
+        <v>166400</v>
       </c>
       <c r="J24" s="3">
+        <v>130600</v>
+      </c>
+      <c r="K24" s="3">
         <v>123500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>154300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-54500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>117800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>184000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>311900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>138400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>192000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>447300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>269000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>226900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>242800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>331900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>307100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>212300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>255800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>298900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>394400</v>
+        <v>719500</v>
       </c>
       <c r="E26" s="3">
-        <v>487300</v>
+        <v>381500</v>
       </c>
       <c r="F26" s="3">
-        <v>853100</v>
+        <v>471300</v>
       </c>
       <c r="G26" s="3">
-        <v>517000</v>
+        <v>825200</v>
       </c>
       <c r="H26" s="3">
-        <v>509600</v>
+        <v>528000</v>
       </c>
       <c r="I26" s="3">
-        <v>481200</v>
+        <v>492900</v>
       </c>
       <c r="J26" s="3">
+        <v>465400</v>
+      </c>
+      <c r="K26" s="3">
         <v>154800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-63700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-413100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>169800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>475500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>841500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>408100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>557100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>695400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>808300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>663700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>600600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>840100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>620100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>672800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>545200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>755300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>382500</v>
+        <v>706200</v>
       </c>
       <c r="E27" s="3">
-        <v>479500</v>
+        <v>370000</v>
       </c>
       <c r="F27" s="3">
-        <v>842700</v>
+        <v>463800</v>
       </c>
       <c r="G27" s="3">
-        <v>507900</v>
+        <v>815100</v>
       </c>
       <c r="H27" s="3">
-        <v>499200</v>
+        <v>519100</v>
       </c>
       <c r="I27" s="3">
-        <v>463600</v>
+        <v>482800</v>
       </c>
       <c r="J27" s="3">
+        <v>448400</v>
+      </c>
+      <c r="K27" s="3">
         <v>148300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-76400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>147700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>469700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>825800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>393100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>536100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>681400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>788200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>647300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>576300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>818200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>596000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>656300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>525400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>731700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,49 +2300,52 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-95900</v>
+        <v>-26900</v>
       </c>
       <c r="E29" s="3">
-        <v>-84900</v>
+        <v>-92700</v>
       </c>
       <c r="F29" s="3">
-        <v>-1053900</v>
+        <v>-82100</v>
       </c>
       <c r="G29" s="3">
-        <v>9100</v>
+        <v>-1019400</v>
       </c>
       <c r="H29" s="3">
-        <v>-7500</v>
+        <v>-19100</v>
       </c>
       <c r="I29" s="3">
-        <v>1627300</v>
+        <v>-7200</v>
       </c>
       <c r="J29" s="3">
+        <v>1574000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-142300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>60300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>46600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>23900</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-28000</v>
+        <v>36700</v>
       </c>
       <c r="E32" s="3">
-        <v>-62300</v>
+        <v>-27100</v>
       </c>
       <c r="F32" s="3">
-        <v>-34200</v>
+        <v>-60300</v>
       </c>
       <c r="G32" s="3">
-        <v>-13900</v>
+        <v>-33100</v>
       </c>
       <c r="H32" s="3">
-        <v>-17500</v>
+        <v>-13600</v>
       </c>
       <c r="I32" s="3">
-        <v>-24300</v>
+        <v>-16900</v>
       </c>
       <c r="J32" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>23300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-76900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-109100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>24800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>33000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-231400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-77600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-25400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>36800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-47400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>286700</v>
+        <v>679300</v>
       </c>
       <c r="E33" s="3">
-        <v>394600</v>
+        <v>277300</v>
       </c>
       <c r="F33" s="3">
-        <v>-211200</v>
+        <v>381700</v>
       </c>
       <c r="G33" s="3">
-        <v>517000</v>
+        <v>-204300</v>
       </c>
       <c r="H33" s="3">
-        <v>491700</v>
+        <v>500000</v>
       </c>
       <c r="I33" s="3">
-        <v>2090900</v>
+        <v>475600</v>
       </c>
       <c r="J33" s="3">
+        <v>2022400</v>
+      </c>
+      <c r="K33" s="3">
         <v>6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-354100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>171600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>469700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>825800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>393100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>536100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>681400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>788200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>647300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>576300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>818200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>596000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>656300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>525400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>731700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>286700</v>
+        <v>679300</v>
       </c>
       <c r="E35" s="3">
-        <v>394600</v>
+        <v>277300</v>
       </c>
       <c r="F35" s="3">
-        <v>-211200</v>
+        <v>381700</v>
       </c>
       <c r="G35" s="3">
-        <v>517000</v>
+        <v>-204300</v>
       </c>
       <c r="H35" s="3">
-        <v>491700</v>
+        <v>500000</v>
       </c>
       <c r="I35" s="3">
-        <v>2090900</v>
+        <v>475600</v>
       </c>
       <c r="J35" s="3">
+        <v>2022400</v>
+      </c>
+      <c r="K35" s="3">
         <v>6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-354100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>171600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>469700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>825800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>393100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>536100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>681400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>788200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>647300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>576300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>818200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>596000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>656300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>525400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>731700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4548200</v>
+        <v>3719100</v>
       </c>
       <c r="E41" s="3">
-        <v>4974900</v>
+        <v>4399200</v>
       </c>
       <c r="F41" s="3">
-        <v>5772700</v>
+        <v>4812000</v>
       </c>
       <c r="G41" s="3">
-        <v>6232200</v>
+        <v>5583700</v>
       </c>
       <c r="H41" s="3">
-        <v>6985500</v>
+        <v>6028100</v>
       </c>
       <c r="I41" s="3">
-        <v>8721800</v>
+        <v>6756700</v>
       </c>
       <c r="J41" s="3">
+        <v>8436200</v>
+      </c>
+      <c r="K41" s="3">
         <v>5941300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5150000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5362800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3123800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3943900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2740700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3982700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3636300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4157200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3618500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3839700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3842000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4627500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3814400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4267500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3099000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4284300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>68500</v>
+        <v>162500</v>
       </c>
       <c r="E42" s="3">
-        <v>72600</v>
+        <v>66300</v>
       </c>
       <c r="F42" s="3">
-        <v>86300</v>
+        <v>70200</v>
       </c>
       <c r="G42" s="3">
-        <v>55000</v>
+        <v>83400</v>
       </c>
       <c r="H42" s="3">
-        <v>51400</v>
+        <v>53200</v>
       </c>
       <c r="I42" s="3">
-        <v>46700</v>
+        <v>49800</v>
       </c>
       <c r="J42" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K42" s="3">
         <v>53300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>51500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>86200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>155300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1369700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1356600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1323100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1240800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1452400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1538000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1440600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1170800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2004000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1762800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1563400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1328400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1487500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6461700</v>
+        <v>6928200</v>
       </c>
       <c r="E43" s="3">
-        <v>5842400</v>
+        <v>6250100</v>
       </c>
       <c r="F43" s="3">
-        <v>5436000</v>
+        <v>5651100</v>
       </c>
       <c r="G43" s="3">
-        <v>5105000</v>
+        <v>5258000</v>
       </c>
       <c r="H43" s="3">
-        <v>4834800</v>
+        <v>4937900</v>
       </c>
       <c r="I43" s="3">
-        <v>4715000</v>
+        <v>4676500</v>
       </c>
       <c r="J43" s="3">
+        <v>4560700</v>
+      </c>
+      <c r="K43" s="3">
         <v>4894700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5247200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5166800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5957200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11999600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5330100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5120200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5535200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5472300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5235300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4915100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4979300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4396600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4227700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3849600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3759800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3894300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6228600</v>
+        <v>6686100</v>
       </c>
       <c r="E44" s="3">
-        <v>5307200</v>
+        <v>6024700</v>
       </c>
       <c r="F44" s="3">
-        <v>4618900</v>
+        <v>5133400</v>
       </c>
       <c r="G44" s="3">
-        <v>4562500</v>
+        <v>4467700</v>
       </c>
       <c r="H44" s="3">
-        <v>4155300</v>
+        <v>4413100</v>
       </c>
       <c r="I44" s="3">
-        <v>3851400</v>
+        <v>4019300</v>
       </c>
       <c r="J44" s="3">
+        <v>3725300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3600800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4021000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5073500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5496700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11174200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5646400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5756300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6145500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5826700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6012000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5542800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5444800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5335200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5557500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5631700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5198100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4944200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1340200</v>
+        <v>1144800</v>
       </c>
       <c r="E45" s="3">
-        <v>1006100</v>
+        <v>1296300</v>
       </c>
       <c r="F45" s="3">
-        <v>892800</v>
+        <v>973200</v>
       </c>
       <c r="G45" s="3">
-        <v>646200</v>
+        <v>863600</v>
       </c>
       <c r="H45" s="3">
-        <v>647300</v>
+        <v>625000</v>
       </c>
       <c r="I45" s="3">
-        <v>607300</v>
+        <v>626100</v>
       </c>
       <c r="J45" s="3">
+        <v>587400</v>
+      </c>
+      <c r="K45" s="3">
         <v>569600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>679500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>648300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>643800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>780500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1290500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1233600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1217000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1145000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1780200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1605900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1554400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1599400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1782100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1801500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1521500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1552300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18647200</v>
+        <v>18640700</v>
       </c>
       <c r="E46" s="3">
-        <v>17203200</v>
+        <v>18036600</v>
       </c>
       <c r="F46" s="3">
-        <v>16806700</v>
+        <v>16639900</v>
       </c>
       <c r="G46" s="3">
-        <v>16600900</v>
+        <v>16256400</v>
       </c>
       <c r="H46" s="3">
-        <v>16674300</v>
+        <v>16057400</v>
       </c>
       <c r="I46" s="3">
-        <v>17942200</v>
+        <v>16128400</v>
       </c>
       <c r="J46" s="3">
+        <v>17354700</v>
+      </c>
+      <c r="K46" s="3">
         <v>15059700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15149100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16337500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15376800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17476700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16364300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17415900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17774800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18053400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18184000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17344100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16991400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17962800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17144600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17113800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>14906800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16162500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1204900</v>
+        <v>1101800</v>
       </c>
       <c r="E47" s="3">
-        <v>1176400</v>
+        <v>1165400</v>
       </c>
       <c r="F47" s="3">
-        <v>1213200</v>
+        <v>1137800</v>
       </c>
       <c r="G47" s="3">
-        <v>1164200</v>
+        <v>1173400</v>
       </c>
       <c r="H47" s="3">
-        <v>1142400</v>
+        <v>1126100</v>
       </c>
       <c r="I47" s="3">
-        <v>1085600</v>
+        <v>1105000</v>
       </c>
       <c r="J47" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1009800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1054200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1276800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1505300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2990000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1752500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1842600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2137000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2062100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2715400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2197500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2397300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2506000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2589900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2498300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2378500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2322300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13514600</v>
+        <v>13268400</v>
       </c>
       <c r="E48" s="3">
-        <v>12888000</v>
+        <v>13072100</v>
       </c>
       <c r="F48" s="3">
-        <v>12622000</v>
+        <v>12466000</v>
       </c>
       <c r="G48" s="3">
-        <v>12236200</v>
+        <v>12208800</v>
       </c>
       <c r="H48" s="3">
-        <v>12423100</v>
+        <v>11835600</v>
       </c>
       <c r="I48" s="3">
-        <v>12413600</v>
+        <v>12016400</v>
       </c>
       <c r="J48" s="3">
+        <v>12007200</v>
+      </c>
+      <c r="K48" s="3">
         <v>12331000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13384700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15078000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15667800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31118800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13721000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13711500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14610900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13861400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13471900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12947700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12817300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13316300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12869100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12797900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12444100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12853700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2145000</v>
+        <v>2165100</v>
       </c>
       <c r="E49" s="3">
-        <v>2015800</v>
+        <v>2074800</v>
       </c>
       <c r="F49" s="3">
-        <v>1906600</v>
+        <v>1949800</v>
       </c>
       <c r="G49" s="3">
-        <v>1837900</v>
+        <v>1844200</v>
       </c>
       <c r="H49" s="3">
-        <v>1483600</v>
+        <v>1777700</v>
       </c>
       <c r="I49" s="3">
-        <v>1476600</v>
+        <v>1435000</v>
       </c>
       <c r="J49" s="3">
+        <v>1428300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1576900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1642100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1787900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1829400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3799400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1743200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1768700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>861500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>957700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>954200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>903400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>891800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>949500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>992600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>988400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>656000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>657700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1208200</v>
+        <v>1205600</v>
       </c>
       <c r="E52" s="3">
-        <v>1098200</v>
+        <v>1168600</v>
       </c>
       <c r="F52" s="3">
-        <v>985400</v>
+        <v>1062300</v>
       </c>
       <c r="G52" s="3">
-        <v>798700</v>
+        <v>953100</v>
       </c>
       <c r="H52" s="3">
-        <v>795500</v>
+        <v>772600</v>
       </c>
       <c r="I52" s="3">
-        <v>771300</v>
+        <v>769500</v>
       </c>
       <c r="J52" s="3">
+        <v>746000</v>
+      </c>
+      <c r="K52" s="3">
         <v>730400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>798900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>893400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>901800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1805500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1353500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1388500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1458400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1317400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1118100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1054100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1038900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1055100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1022800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>998600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>934800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>965000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36719800</v>
+        <v>36381600</v>
       </c>
       <c r="E54" s="3">
-        <v>34381600</v>
+        <v>35517500</v>
       </c>
       <c r="F54" s="3">
-        <v>33534000</v>
+        <v>33255800</v>
       </c>
       <c r="G54" s="3">
-        <v>32638000</v>
+        <v>32436000</v>
       </c>
       <c r="H54" s="3">
-        <v>32519000</v>
+        <v>31569400</v>
       </c>
       <c r="I54" s="3">
-        <v>33689300</v>
+        <v>31454300</v>
       </c>
       <c r="J54" s="3">
+        <v>32586200</v>
+      </c>
+      <c r="K54" s="3">
         <v>30707800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32029000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35373500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35281000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38963600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34934500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36127200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36842700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36252100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36443600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34446800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34136600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>35789700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>34619000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34397000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>31320200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>32961200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3975900</v>
+        <v>4031000</v>
       </c>
       <c r="E57" s="3">
-        <v>3594300</v>
+        <v>3845700</v>
       </c>
       <c r="F57" s="3">
-        <v>3789700</v>
+        <v>3476600</v>
       </c>
       <c r="G57" s="3">
-        <v>3082900</v>
+        <v>3665600</v>
       </c>
       <c r="H57" s="3">
-        <v>3068100</v>
+        <v>2981900</v>
       </c>
       <c r="I57" s="3">
-        <v>2825900</v>
+        <v>2967600</v>
       </c>
       <c r="J57" s="3">
+        <v>2733400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3079600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2599700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2589600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3128200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5968100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1835100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2026300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2185100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2208700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2243400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2116200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1950300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2103600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2025600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2021500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1854200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1735000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1130500</v>
+        <v>1266400</v>
       </c>
       <c r="E58" s="3">
-        <v>1438100</v>
+        <v>1093500</v>
       </c>
       <c r="F58" s="3">
-        <v>1501400</v>
+        <v>1391000</v>
       </c>
       <c r="G58" s="3">
-        <v>1578500</v>
+        <v>1452200</v>
       </c>
       <c r="H58" s="3">
-        <v>1556200</v>
+        <v>1526800</v>
       </c>
       <c r="I58" s="3">
-        <v>2801800</v>
+        <v>1505200</v>
       </c>
       <c r="J58" s="3">
+        <v>2710100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2550400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2969700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3632300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1617000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2949000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1745500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2089300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2235600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2774400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2216500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1276800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1618000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1434900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1467800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1607300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1067600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3107800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2926300</v>
+        <v>2814800</v>
       </c>
       <c r="E59" s="3">
-        <v>2585500</v>
+        <v>2830400</v>
       </c>
       <c r="F59" s="3">
-        <v>2210400</v>
+        <v>2500900</v>
       </c>
       <c r="G59" s="3">
-        <v>2156700</v>
+        <v>2138100</v>
       </c>
       <c r="H59" s="3">
-        <v>2125500</v>
+        <v>2086100</v>
       </c>
       <c r="I59" s="3">
-        <v>2563200</v>
+        <v>2055900</v>
       </c>
       <c r="J59" s="3">
+        <v>2479300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2006000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2082500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1936300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2027200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6356000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3969500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4052700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4241900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4382200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3976300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3814200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3884900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4692900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4226900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3933500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3658000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4252700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8032600</v>
+        <v>8112200</v>
       </c>
       <c r="E60" s="3">
-        <v>7617900</v>
+        <v>7769600</v>
       </c>
       <c r="F60" s="3">
-        <v>7501500</v>
+        <v>7368500</v>
       </c>
       <c r="G60" s="3">
-        <v>6818000</v>
+        <v>7255900</v>
       </c>
       <c r="H60" s="3">
-        <v>6749700</v>
+        <v>6594800</v>
       </c>
       <c r="I60" s="3">
-        <v>8190900</v>
+        <v>6528700</v>
       </c>
       <c r="J60" s="3">
+        <v>7922700</v>
+      </c>
+      <c r="K60" s="3">
         <v>7636000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7651900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8158200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6772400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8156500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7550100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8168300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8662700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8374400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8436100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7207200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7453300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8231300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7720400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7562300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6579800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7538000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4539900</v>
+        <v>4398300</v>
       </c>
       <c r="E61" s="3">
-        <v>4425500</v>
+        <v>4391200</v>
       </c>
       <c r="F61" s="3">
-        <v>4444300</v>
+        <v>4280600</v>
       </c>
       <c r="G61" s="3">
-        <v>4393900</v>
+        <v>4298700</v>
       </c>
       <c r="H61" s="3">
-        <v>4432900</v>
+        <v>4250000</v>
       </c>
       <c r="I61" s="3">
-        <v>4709800</v>
+        <v>4287800</v>
       </c>
       <c r="J61" s="3">
+        <v>4555600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4825000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5152000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5627300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5787000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5978000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4133900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4137000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2442500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2031700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1989500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2684500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2665900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2714700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2646700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2640600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1438000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1481900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2123600</v>
+        <v>1948900</v>
       </c>
       <c r="E62" s="3">
-        <v>2039700</v>
+        <v>2054100</v>
       </c>
       <c r="F62" s="3">
-        <v>1977800</v>
+        <v>1972900</v>
       </c>
       <c r="G62" s="3">
-        <v>2082800</v>
+        <v>1913100</v>
       </c>
       <c r="H62" s="3">
-        <v>2102300</v>
+        <v>2014600</v>
       </c>
       <c r="I62" s="3">
-        <v>2111000</v>
+        <v>2033500</v>
       </c>
       <c r="J62" s="3">
+        <v>2041900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2155300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2277400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2570900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2755700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4777500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2594100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2650800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2918600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2848700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3083300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2898400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2955800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3122900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3026900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3025700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2934900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3133100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15051800</v>
+        <v>14803500</v>
       </c>
       <c r="E66" s="3">
-        <v>14430400</v>
+        <v>14559000</v>
       </c>
       <c r="F66" s="3">
-        <v>14256900</v>
+        <v>13957900</v>
       </c>
       <c r="G66" s="3">
-        <v>13602300</v>
+        <v>13790100</v>
       </c>
       <c r="H66" s="3">
-        <v>13602600</v>
+        <v>13156900</v>
       </c>
       <c r="I66" s="3">
-        <v>15347400</v>
+        <v>13157200</v>
       </c>
       <c r="J66" s="3">
+        <v>14844900</v>
+      </c>
+      <c r="K66" s="3">
         <v>14948600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15423000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16749200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15745300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17560800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14744100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15439800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14541300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13766400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13999700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13266900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13552900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14583900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13891000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13721500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11424400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12677000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17187400</v>
+        <v>16894100</v>
       </c>
       <c r="E72" s="3">
-        <v>16899600</v>
+        <v>16624700</v>
       </c>
       <c r="F72" s="3">
-        <v>16937200</v>
+        <v>16346300</v>
       </c>
       <c r="G72" s="3">
-        <v>17064200</v>
+        <v>16382600</v>
       </c>
       <c r="H72" s="3">
-        <v>16961000</v>
+        <v>16505400</v>
       </c>
       <c r="I72" s="3">
-        <v>16464400</v>
+        <v>16405600</v>
       </c>
       <c r="J72" s="3">
+        <v>15925300</v>
+      </c>
+      <c r="K72" s="3">
         <v>14682900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15438900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17177700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18111900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44028300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22532700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22193000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22722500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22336800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21311700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20630000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19983000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21211900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20394100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20283300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19252000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19213200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21668000</v>
+        <v>21578100</v>
       </c>
       <c r="E76" s="3">
-        <v>19951200</v>
+        <v>20958500</v>
       </c>
       <c r="F76" s="3">
-        <v>19277000</v>
+        <v>19297900</v>
       </c>
       <c r="G76" s="3">
-        <v>19035700</v>
+        <v>18645900</v>
       </c>
       <c r="H76" s="3">
-        <v>18916500</v>
+        <v>18412500</v>
       </c>
       <c r="I76" s="3">
-        <v>18341800</v>
+        <v>18297100</v>
       </c>
       <c r="J76" s="3">
+        <v>17741300</v>
+      </c>
+      <c r="K76" s="3">
         <v>15759200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16606100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18624400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19535800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21402800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20190400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20687400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22301400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22485700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22443800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21179900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20583800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21205800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20728000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20675500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19895800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20284200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>286700</v>
+        <v>679300</v>
       </c>
       <c r="E81" s="3">
-        <v>394600</v>
+        <v>277300</v>
       </c>
       <c r="F81" s="3">
-        <v>-211200</v>
+        <v>381700</v>
       </c>
       <c r="G81" s="3">
-        <v>517000</v>
+        <v>-204300</v>
       </c>
       <c r="H81" s="3">
-        <v>491700</v>
+        <v>500000</v>
       </c>
       <c r="I81" s="3">
-        <v>2090900</v>
+        <v>475600</v>
       </c>
       <c r="J81" s="3">
+        <v>2022400</v>
+      </c>
+      <c r="K81" s="3">
         <v>6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-354100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>171600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>469700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>825800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>393100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>536100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>681400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>788200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>647300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>576300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>818200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>596000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>656300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>525400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>731700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>501000</v>
+        <v>535700</v>
       </c>
       <c r="E83" s="3">
-        <v>481100</v>
+        <v>484600</v>
       </c>
       <c r="F83" s="3">
-        <v>474400</v>
+        <v>465400</v>
       </c>
       <c r="G83" s="3">
-        <v>469300</v>
+        <v>458800</v>
       </c>
       <c r="H83" s="3">
-        <v>441600</v>
+        <v>454000</v>
       </c>
       <c r="I83" s="3">
-        <v>450500</v>
+        <v>427200</v>
       </c>
       <c r="J83" s="3">
+        <v>435700</v>
+      </c>
+      <c r="K83" s="3">
         <v>498300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>516900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>565200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>589000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>627500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>642000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>648500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>644800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>479300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>503300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>444400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>465300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>489800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>473600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>440100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>440600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>428800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,61 +6490,64 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>150200</v>
+        <v>1015300</v>
       </c>
       <c r="E89" s="3">
-        <v>440900</v>
+        <v>145300</v>
       </c>
       <c r="F89" s="3">
-        <v>23600</v>
+        <v>426500</v>
       </c>
       <c r="G89" s="3">
-        <v>422900</v>
+        <v>22900</v>
       </c>
       <c r="H89" s="3">
-        <v>179500</v>
+        <v>409100</v>
       </c>
       <c r="I89" s="3">
-        <v>666000</v>
+        <v>173600</v>
       </c>
       <c r="J89" s="3">
+        <v>644200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1553400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1323100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>691700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>564600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1895100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>694900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>888100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,61 +6602,62 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-269800</v>
+        <v>-312400</v>
       </c>
       <c r="E91" s="3">
-        <v>-481300</v>
+        <v>-260900</v>
       </c>
       <c r="F91" s="3">
-        <v>-340800</v>
+        <v>-465500</v>
       </c>
       <c r="G91" s="3">
-        <v>-282700</v>
+        <v>-329700</v>
       </c>
       <c r="H91" s="3">
-        <v>-196000</v>
+        <v>-273500</v>
       </c>
       <c r="I91" s="3">
-        <v>-360800</v>
+        <v>-189600</v>
       </c>
       <c r="J91" s="3">
+        <v>-349000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-376900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-364000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-325900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-566700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-626200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-678600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-523100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,61 +6840,64 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300800</v>
+        <v>-1150500</v>
       </c>
       <c r="E94" s="3">
-        <v>-542700</v>
+        <v>-290900</v>
       </c>
       <c r="F94" s="3">
-        <v>-376400</v>
+        <v>-524900</v>
       </c>
       <c r="G94" s="3">
-        <v>-608100</v>
+        <v>-364000</v>
       </c>
       <c r="H94" s="3">
-        <v>-174700</v>
+        <v>-588200</v>
       </c>
       <c r="I94" s="3">
-        <v>2124500</v>
+        <v>-169000</v>
       </c>
       <c r="J94" s="3">
+        <v>2055000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-292400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-382600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-522200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-44100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-358100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,56 +6952,57 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4400</v>
+        <v>-418900</v>
       </c>
       <c r="E96" s="3">
-        <v>-434200</v>
+        <v>-4300</v>
       </c>
       <c r="F96" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-800</v>
       </c>
-      <c r="G96" s="3">
-        <v>-438000</v>
-      </c>
       <c r="H96" s="3">
-        <v>-6100</v>
+        <v>-423700</v>
       </c>
       <c r="I96" s="3">
-        <v>-303600</v>
+        <v>-5900</v>
       </c>
       <c r="J96" s="3">
+        <v>-293600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-273700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-490000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-528100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-572200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,61 +7270,64 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-701600</v>
+        <v>-662000</v>
       </c>
       <c r="E100" s="3">
-        <v>-985200</v>
+        <v>-678600</v>
       </c>
       <c r="F100" s="3">
-        <v>-224100</v>
+        <v>-952900</v>
       </c>
       <c r="G100" s="3">
-        <v>-535200</v>
+        <v>-216800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1683800</v>
+        <v>-517700</v>
       </c>
       <c r="I100" s="3">
-        <v>-337300</v>
+        <v>-1628700</v>
       </c>
       <c r="J100" s="3">
+        <v>-326200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-385600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-724900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1947000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-568400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-230900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1278300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7104,61 +7350,64 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>425400</v>
+        <v>117100</v>
       </c>
       <c r="E101" s="3">
-        <v>289200</v>
+        <v>411500</v>
       </c>
       <c r="F101" s="3">
-        <v>117300</v>
+        <v>279700</v>
       </c>
       <c r="G101" s="3">
-        <v>-32900</v>
+        <v>113500</v>
       </c>
       <c r="H101" s="3">
-        <v>-57300</v>
+        <v>-31800</v>
       </c>
       <c r="I101" s="3">
-        <v>327300</v>
+        <v>-55400</v>
       </c>
       <c r="J101" s="3">
+        <v>316500</v>
+      </c>
+      <c r="K101" s="3">
         <v>28100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-53300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>82200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-164300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>102700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-89500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>67800</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -7181,61 +7430,64 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-426700</v>
+        <v>-680100</v>
       </c>
       <c r="E102" s="3">
-        <v>-797800</v>
+        <v>-412800</v>
       </c>
       <c r="F102" s="3">
-        <v>-459500</v>
+        <v>-771700</v>
       </c>
       <c r="G102" s="3">
-        <v>-753300</v>
+        <v>-444500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1736300</v>
+        <v>-728600</v>
       </c>
       <c r="I102" s="3">
-        <v>2780500</v>
+        <v>-1679500</v>
       </c>
       <c r="J102" s="3">
+        <v>2689400</v>
+      </c>
+      <c r="K102" s="3">
         <v>1095400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>252500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2338300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-690300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1329100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1274100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>564100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7732200</v>
+        <v>8328600</v>
       </c>
       <c r="E8" s="3">
-        <v>7056900</v>
+        <v>8015800</v>
       </c>
       <c r="F8" s="3">
-        <v>6317300</v>
+        <v>7315700</v>
       </c>
       <c r="G8" s="3">
-        <v>5986100</v>
+        <v>6548900</v>
       </c>
       <c r="H8" s="3">
-        <v>5723500</v>
+        <v>6205600</v>
       </c>
       <c r="I8" s="3">
-        <v>5552900</v>
+        <v>5933400</v>
       </c>
       <c r="J8" s="3">
+        <v>5756600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5156000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5065500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5774300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4752500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6217800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8048800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8122100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8168200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8151300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9212700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8349700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8322400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7816100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8862300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8318900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8054200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7556300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7913900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4738700</v>
+        <v>5097400</v>
       </c>
       <c r="E9" s="3">
-        <v>4328500</v>
+        <v>4912500</v>
       </c>
       <c r="F9" s="3">
-        <v>3860000</v>
+        <v>4487200</v>
       </c>
       <c r="G9" s="3">
-        <v>3424600</v>
+        <v>4001500</v>
       </c>
       <c r="H9" s="3">
-        <v>3339800</v>
+        <v>3550200</v>
       </c>
       <c r="I9" s="3">
-        <v>3275500</v>
+        <v>3462300</v>
       </c>
       <c r="J9" s="3">
+        <v>3395600</v>
+      </c>
+      <c r="K9" s="3">
         <v>3069100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2818700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3709400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3230500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3894700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5024300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4951200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5149100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5094700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5770100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5275700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5136800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4767700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5507100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5290700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4957100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4610500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4741000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2993500</v>
+        <v>3231300</v>
       </c>
       <c r="E10" s="3">
-        <v>2728400</v>
+        <v>3103300</v>
       </c>
       <c r="F10" s="3">
-        <v>2457300</v>
+        <v>2828400</v>
       </c>
       <c r="G10" s="3">
-        <v>2561500</v>
+        <v>2547400</v>
       </c>
       <c r="H10" s="3">
-        <v>2383700</v>
+        <v>2655400</v>
       </c>
       <c r="I10" s="3">
-        <v>2277500</v>
+        <v>2471200</v>
       </c>
       <c r="J10" s="3">
+        <v>2361000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2086900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2246800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2064900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1522000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2323200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3024500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3170900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3019100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3056600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3442500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3074000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3185600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3048400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3355200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3028200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3097100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2945800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3172900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>198900</v>
+        <v>223900</v>
       </c>
       <c r="E12" s="3">
-        <v>193600</v>
+        <v>206200</v>
       </c>
       <c r="F12" s="3">
-        <v>187000</v>
+        <v>200700</v>
       </c>
       <c r="G12" s="3">
-        <v>162300</v>
+        <v>193900</v>
       </c>
       <c r="H12" s="3">
-        <v>160300</v>
+        <v>168300</v>
       </c>
       <c r="I12" s="3">
-        <v>162300</v>
+        <v>166200</v>
       </c>
       <c r="J12" s="3">
+        <v>168300</v>
+      </c>
+      <c r="K12" s="3">
         <v>159200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>126200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>173000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>186300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>229200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>252500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>235800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>252200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>243000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>269400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>238200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>228100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>220800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>241900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>216700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>232200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>207300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>215600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,168 +1222,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>11500</v>
+        <v>48100</v>
       </c>
       <c r="E14" s="3">
-        <v>1200</v>
+        <v>14600</v>
       </c>
       <c r="F14" s="3">
-        <v>89400</v>
+        <v>6100</v>
       </c>
       <c r="G14" s="3">
-        <v>51500</v>
+        <v>94900</v>
       </c>
       <c r="H14" s="3">
-        <v>26500</v>
+        <v>53400</v>
       </c>
       <c r="I14" s="3">
-        <v>38400</v>
+        <v>27400</v>
       </c>
       <c r="J14" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K14" s="3">
         <v>12600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>487000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>682000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>383400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>47500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>190200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>41600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-103500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3">
         <v>99800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>58400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>39200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>192300</v>
+        <v>194500</v>
       </c>
       <c r="E15" s="3">
-        <v>174300</v>
+        <v>199300</v>
       </c>
       <c r="F15" s="3">
-        <v>164700</v>
+        <v>180700</v>
       </c>
       <c r="G15" s="3">
-        <v>163300</v>
+        <v>170800</v>
       </c>
       <c r="H15" s="3">
+        <v>169300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>164900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K15" s="3">
+        <v>156500</v>
+      </c>
+      <c r="L15" s="3">
         <v>159000</v>
       </c>
-      <c r="I15" s="3">
-        <v>156200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>156500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>159000</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>171800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>179100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>193000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>312700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>310900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>200000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>203500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>85000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>84700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>79500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>78600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>80500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>76300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>73000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>72800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>71300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6787600</v>
+        <v>7343200</v>
       </c>
       <c r="E17" s="3">
-        <v>6444600</v>
+        <v>7036500</v>
       </c>
       <c r="F17" s="3">
-        <v>5696000</v>
+        <v>6680900</v>
       </c>
       <c r="G17" s="3">
-        <v>5198900</v>
+        <v>5904800</v>
       </c>
       <c r="H17" s="3">
-        <v>5013500</v>
+        <v>5389500</v>
       </c>
       <c r="I17" s="3">
-        <v>4892200</v>
+        <v>5197300</v>
       </c>
       <c r="J17" s="3">
+        <v>5071600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4565000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4771800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5669200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5164900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5873400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7408900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6921500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7573700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7348300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8154600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7219900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7417600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6908000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7883500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7444900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7166000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6700500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6887600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>944700</v>
+        <v>985400</v>
       </c>
       <c r="E18" s="3">
-        <v>612300</v>
+        <v>979300</v>
       </c>
       <c r="F18" s="3">
-        <v>621300</v>
+        <v>634700</v>
       </c>
       <c r="G18" s="3">
-        <v>787200</v>
+        <v>644100</v>
       </c>
       <c r="H18" s="3">
-        <v>710100</v>
+        <v>816100</v>
       </c>
       <c r="I18" s="3">
-        <v>660700</v>
+        <v>736100</v>
       </c>
       <c r="J18" s="3">
+        <v>684900</v>
+      </c>
+      <c r="K18" s="3">
         <v>591000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>293700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>105100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-412500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>344400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>640000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1200600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>594400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>803000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1058100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1129800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>904800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>908100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>978800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>874100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>888200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>855800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1026300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-36700</v>
+        <v>-79800</v>
       </c>
       <c r="E20" s="3">
-        <v>27100</v>
+        <v>-38100</v>
       </c>
       <c r="F20" s="3">
-        <v>60300</v>
+        <v>28100</v>
       </c>
       <c r="G20" s="3">
-        <v>33100</v>
+        <v>62500</v>
       </c>
       <c r="H20" s="3">
-        <v>13600</v>
+        <v>34300</v>
       </c>
       <c r="I20" s="3">
-        <v>16900</v>
+        <v>14100</v>
       </c>
       <c r="J20" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K20" s="3">
         <v>23500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-23300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>76900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>109100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-24800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-33000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>231400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>77600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>25400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-36800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>47400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1443600</v>
+        <v>1438900</v>
       </c>
       <c r="E21" s="3">
-        <v>1124000</v>
+        <v>1496600</v>
       </c>
       <c r="F21" s="3">
-        <v>1146900</v>
+        <v>1165200</v>
       </c>
       <c r="G21" s="3">
-        <v>1279100</v>
+        <v>1189000</v>
       </c>
       <c r="H21" s="3">
-        <v>1177600</v>
+        <v>1326000</v>
       </c>
       <c r="I21" s="3">
-        <v>1104800</v>
+        <v>1220800</v>
       </c>
       <c r="J21" s="3">
+        <v>1145300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1050200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>795700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>631400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>129400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>909400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1339200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1831800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1238200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1442400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1646500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1608300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1369100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1340400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1700000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1425200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1353700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1259500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1502500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>27800</v>
+        <v>29800</v>
       </c>
       <c r="E22" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G22" s="3">
         <v>22200</v>
       </c>
-      <c r="F22" s="3">
-        <v>21400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>21700</v>
-      </c>
       <c r="H22" s="3">
-        <v>20500</v>
+        <v>22500</v>
       </c>
       <c r="I22" s="3">
-        <v>18300</v>
+        <v>21300</v>
       </c>
       <c r="J22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K22" s="3">
         <v>18500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>31800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>57400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>59900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>66700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>59900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>24600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>27700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>34100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>31600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>38200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>24500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>28500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>17900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>19500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>880200</v>
+        <v>875800</v>
       </c>
       <c r="E23" s="3">
-        <v>617200</v>
+        <v>912400</v>
       </c>
       <c r="F23" s="3">
-        <v>660100</v>
+        <v>639900</v>
       </c>
       <c r="G23" s="3">
-        <v>798500</v>
+        <v>684400</v>
       </c>
       <c r="H23" s="3">
-        <v>703100</v>
+        <v>827800</v>
       </c>
       <c r="I23" s="3">
-        <v>659300</v>
+        <v>728900</v>
       </c>
       <c r="J23" s="3">
+        <v>683500</v>
+      </c>
+      <c r="K23" s="3">
         <v>596000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>278300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>90600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-467600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>287500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>659500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1153400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>546500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>749100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1142600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1077300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>890600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>843500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1172000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>927100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>885100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>801000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1054200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>160700</v>
+        <v>219800</v>
       </c>
       <c r="E24" s="3">
-        <v>235700</v>
+        <v>166600</v>
       </c>
       <c r="F24" s="3">
-        <v>188800</v>
+        <v>244300</v>
       </c>
       <c r="G24" s="3">
-        <v>-26600</v>
+        <v>195800</v>
       </c>
       <c r="H24" s="3">
-        <v>175200</v>
+        <v>-27600</v>
       </c>
       <c r="I24" s="3">
-        <v>166400</v>
+        <v>181600</v>
       </c>
       <c r="J24" s="3">
+        <v>172500</v>
+      </c>
+      <c r="K24" s="3">
         <v>130600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>123500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>154300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-54500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>117800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>184000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>311900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>138400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>192000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>447300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>269000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>226900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>242800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>331900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>307100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>212300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>255800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>298900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>719500</v>
+        <v>655900</v>
       </c>
       <c r="E26" s="3">
-        <v>381500</v>
+        <v>745900</v>
       </c>
       <c r="F26" s="3">
-        <v>471300</v>
+        <v>395500</v>
       </c>
       <c r="G26" s="3">
-        <v>825200</v>
+        <v>488600</v>
       </c>
       <c r="H26" s="3">
-        <v>528000</v>
+        <v>855500</v>
       </c>
       <c r="I26" s="3">
-        <v>492900</v>
+        <v>547300</v>
       </c>
       <c r="J26" s="3">
+        <v>511000</v>
+      </c>
+      <c r="K26" s="3">
         <v>465400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>154800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-63700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-413100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>169800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>475500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>841500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>408100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>557100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>695400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>808300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>663700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>600600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>840100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>620100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>672800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>545200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>755300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>706200</v>
+        <v>649100</v>
       </c>
       <c r="E27" s="3">
-        <v>370000</v>
+        <v>732100</v>
       </c>
       <c r="F27" s="3">
-        <v>463800</v>
+        <v>383500</v>
       </c>
       <c r="G27" s="3">
-        <v>815100</v>
+        <v>480800</v>
       </c>
       <c r="H27" s="3">
-        <v>519100</v>
+        <v>845000</v>
       </c>
       <c r="I27" s="3">
-        <v>482800</v>
+        <v>538200</v>
       </c>
       <c r="J27" s="3">
+        <v>500500</v>
+      </c>
+      <c r="K27" s="3">
         <v>448400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>148300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-76400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>147700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>469700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>825800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>393100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>536100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>681400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>788200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>647300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>576300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>818200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>596000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>656300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>525400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>731700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,52 +2360,55 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-26900</v>
+        <v>171300</v>
       </c>
       <c r="E29" s="3">
-        <v>-92700</v>
+        <v>-27900</v>
       </c>
       <c r="F29" s="3">
-        <v>-82100</v>
+        <v>-96100</v>
       </c>
       <c r="G29" s="3">
-        <v>-1019400</v>
+        <v>-85100</v>
       </c>
       <c r="H29" s="3">
-        <v>-19100</v>
+        <v>-1056800</v>
       </c>
       <c r="I29" s="3">
-        <v>-7200</v>
+        <v>-19800</v>
       </c>
       <c r="J29" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K29" s="3">
         <v>1574000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-142300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>60300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>46600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>23900</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>36700</v>
+        <v>79800</v>
       </c>
       <c r="E32" s="3">
-        <v>-27100</v>
+        <v>38100</v>
       </c>
       <c r="F32" s="3">
-        <v>-60300</v>
+        <v>-28100</v>
       </c>
       <c r="G32" s="3">
-        <v>-33100</v>
+        <v>-62500</v>
       </c>
       <c r="H32" s="3">
-        <v>-13600</v>
+        <v>-34300</v>
       </c>
       <c r="I32" s="3">
-        <v>-16900</v>
+        <v>-14100</v>
       </c>
       <c r="J32" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>23300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-76900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-109100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>24800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>33000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-231400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-77600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-25400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>36800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-47400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>679300</v>
+        <v>820400</v>
       </c>
       <c r="E33" s="3">
-        <v>277300</v>
+        <v>704200</v>
       </c>
       <c r="F33" s="3">
-        <v>381700</v>
+        <v>287400</v>
       </c>
       <c r="G33" s="3">
-        <v>-204300</v>
+        <v>395700</v>
       </c>
       <c r="H33" s="3">
-        <v>500000</v>
+        <v>-211800</v>
       </c>
       <c r="I33" s="3">
-        <v>475600</v>
+        <v>518400</v>
       </c>
       <c r="J33" s="3">
+        <v>493000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2022400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-354100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>171600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>469700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>825800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>393100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>536100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>681400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>788200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>647300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>576300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>818200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>596000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>656300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>525400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>731700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>679300</v>
+        <v>820400</v>
       </c>
       <c r="E35" s="3">
-        <v>277300</v>
+        <v>704200</v>
       </c>
       <c r="F35" s="3">
-        <v>381700</v>
+        <v>287400</v>
       </c>
       <c r="G35" s="3">
-        <v>-204300</v>
+        <v>395700</v>
       </c>
       <c r="H35" s="3">
-        <v>500000</v>
+        <v>-211800</v>
       </c>
       <c r="I35" s="3">
-        <v>475600</v>
+        <v>518400</v>
       </c>
       <c r="J35" s="3">
+        <v>493000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2022400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-354100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>171600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>469700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>825800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>393100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>536100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>681400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>788200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>647300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>576300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>818200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>596000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>656300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>525400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>731700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3093,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3719100</v>
+        <v>3814000</v>
       </c>
       <c r="E41" s="3">
-        <v>4399200</v>
+        <v>3855500</v>
       </c>
       <c r="F41" s="3">
-        <v>4812000</v>
+        <v>4560600</v>
       </c>
       <c r="G41" s="3">
-        <v>5583700</v>
+        <v>4988500</v>
       </c>
       <c r="H41" s="3">
-        <v>6028100</v>
+        <v>5788400</v>
       </c>
       <c r="I41" s="3">
-        <v>6756700</v>
+        <v>6249200</v>
       </c>
       <c r="J41" s="3">
+        <v>7004500</v>
+      </c>
+      <c r="K41" s="3">
         <v>8436200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5941300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5150000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5362800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3123800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3943900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2740700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3982700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3636300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4157200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3618500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3839700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3842000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4627500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3814400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4267500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3099000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4284300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>162500</v>
+        <v>111000</v>
       </c>
       <c r="E42" s="3">
-        <v>66300</v>
+        <v>168400</v>
       </c>
       <c r="F42" s="3">
-        <v>70200</v>
+        <v>68700</v>
       </c>
       <c r="G42" s="3">
-        <v>83400</v>
+        <v>72800</v>
       </c>
       <c r="H42" s="3">
-        <v>53200</v>
+        <v>86500</v>
       </c>
       <c r="I42" s="3">
-        <v>49800</v>
+        <v>55200</v>
       </c>
       <c r="J42" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K42" s="3">
         <v>45100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>53300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>51500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>86200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>155300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1369700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1356600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1323100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1240800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1452400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1538000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1440600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1170800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2004000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1762800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1563400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1328400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1487500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6928200</v>
+        <v>6957600</v>
       </c>
       <c r="E43" s="3">
-        <v>6250100</v>
+        <v>7182300</v>
       </c>
       <c r="F43" s="3">
-        <v>5651100</v>
+        <v>6479300</v>
       </c>
       <c r="G43" s="3">
-        <v>5258000</v>
+        <v>5858400</v>
       </c>
       <c r="H43" s="3">
-        <v>4937900</v>
+        <v>5450800</v>
       </c>
       <c r="I43" s="3">
-        <v>4676500</v>
+        <v>5119000</v>
       </c>
       <c r="J43" s="3">
+        <v>4848000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4560700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4894700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5247200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5166800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5957200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11999600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5330100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5120200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5535200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5472300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5235300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4915100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4979300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4396600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4227700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3849600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3759800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3894300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6686100</v>
+        <v>6507000</v>
       </c>
       <c r="E44" s="3">
-        <v>6024700</v>
+        <v>6931300</v>
       </c>
       <c r="F44" s="3">
-        <v>5133400</v>
+        <v>6245600</v>
       </c>
       <c r="G44" s="3">
-        <v>4467700</v>
+        <v>5321700</v>
       </c>
       <c r="H44" s="3">
-        <v>4413100</v>
+        <v>4631500</v>
       </c>
       <c r="I44" s="3">
-        <v>4019300</v>
+        <v>4574900</v>
       </c>
       <c r="J44" s="3">
+        <v>4166700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3725300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3600800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4021000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5073500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5496700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11174200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5646400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5756300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6145500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5826700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6012000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5542800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5444800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5335200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5557500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5631700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5198100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4944200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1144800</v>
+        <v>1078400</v>
       </c>
       <c r="E45" s="3">
-        <v>1296300</v>
+        <v>1186700</v>
       </c>
       <c r="F45" s="3">
-        <v>973200</v>
+        <v>1343800</v>
       </c>
       <c r="G45" s="3">
-        <v>863600</v>
+        <v>1008900</v>
       </c>
       <c r="H45" s="3">
-        <v>625000</v>
+        <v>895300</v>
       </c>
       <c r="I45" s="3">
-        <v>626100</v>
+        <v>648000</v>
       </c>
       <c r="J45" s="3">
+        <v>649000</v>
+      </c>
+      <c r="K45" s="3">
         <v>587400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>569600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>679500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>648300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>643800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>780500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1290500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1233600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1217000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1145000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1780200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1605900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1554400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1599400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1782100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1801500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1521500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1552300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18640700</v>
+        <v>18468000</v>
       </c>
       <c r="E46" s="3">
-        <v>18036600</v>
+        <v>19324300</v>
       </c>
       <c r="F46" s="3">
-        <v>16639900</v>
+        <v>18698000</v>
       </c>
       <c r="G46" s="3">
-        <v>16256400</v>
+        <v>17250100</v>
       </c>
       <c r="H46" s="3">
-        <v>16057400</v>
+        <v>16852600</v>
       </c>
       <c r="I46" s="3">
-        <v>16128400</v>
+        <v>16646200</v>
       </c>
       <c r="J46" s="3">
+        <v>16719800</v>
+      </c>
+      <c r="K46" s="3">
         <v>17354700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15059700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15149100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16337500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15376800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17476700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16364300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17415900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17774800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18053400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18184000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17344100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16991400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17962800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17144600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17113800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>14906800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16162500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1101800</v>
+        <v>1054000</v>
       </c>
       <c r="E47" s="3">
-        <v>1165400</v>
+        <v>1142200</v>
       </c>
       <c r="F47" s="3">
-        <v>1137800</v>
+        <v>1208100</v>
       </c>
       <c r="G47" s="3">
-        <v>1173400</v>
+        <v>1179600</v>
       </c>
       <c r="H47" s="3">
-        <v>1126100</v>
+        <v>1216500</v>
       </c>
       <c r="I47" s="3">
-        <v>1105000</v>
+        <v>1167400</v>
       </c>
       <c r="J47" s="3">
+        <v>1145500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1050000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1009800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1054200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1276800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1505300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2990000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1752500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1842600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2137000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2062100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2715400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2197500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2397300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2506000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2589900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2498300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2378500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2322300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13268400</v>
+        <v>13655900</v>
       </c>
       <c r="E48" s="3">
-        <v>13072100</v>
+        <v>13755000</v>
       </c>
       <c r="F48" s="3">
-        <v>12466000</v>
+        <v>13551500</v>
       </c>
       <c r="G48" s="3">
-        <v>12208800</v>
+        <v>12923200</v>
       </c>
       <c r="H48" s="3">
-        <v>11835600</v>
+        <v>12656500</v>
       </c>
       <c r="I48" s="3">
-        <v>12016400</v>
+        <v>12269600</v>
       </c>
       <c r="J48" s="3">
+        <v>12457000</v>
+      </c>
+      <c r="K48" s="3">
         <v>12007200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12331000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13384700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15078000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15667800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31118800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13721000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13711500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14610900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13861400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13471900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12947700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12817300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13316300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12869100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12797900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12444100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12853700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2165100</v>
+        <v>2178000</v>
       </c>
       <c r="E49" s="3">
-        <v>2074800</v>
+        <v>2244500</v>
       </c>
       <c r="F49" s="3">
-        <v>1949800</v>
+        <v>2150900</v>
       </c>
       <c r="G49" s="3">
-        <v>1844200</v>
+        <v>2021300</v>
       </c>
       <c r="H49" s="3">
-        <v>1777700</v>
+        <v>1911800</v>
       </c>
       <c r="I49" s="3">
-        <v>1435000</v>
+        <v>1842900</v>
       </c>
       <c r="J49" s="3">
+        <v>1487700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1428300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1576900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1642100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1787900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1829400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3799400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1743200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1768700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>861500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>957700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>954200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>903400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>891800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>949500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>992600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>988400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>656000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>657700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1205600</v>
+        <v>1113500</v>
       </c>
       <c r="E52" s="3">
-        <v>1168600</v>
+        <v>1249900</v>
       </c>
       <c r="F52" s="3">
-        <v>1062300</v>
+        <v>1211500</v>
       </c>
       <c r="G52" s="3">
-        <v>953100</v>
+        <v>1101200</v>
       </c>
       <c r="H52" s="3">
-        <v>772600</v>
+        <v>988100</v>
       </c>
       <c r="I52" s="3">
-        <v>769500</v>
+        <v>800900</v>
       </c>
       <c r="J52" s="3">
+        <v>797700</v>
+      </c>
+      <c r="K52" s="3">
         <v>746000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>730400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>798900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>893400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>901800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1805500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1353500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1388500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1458400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1317400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1118100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1054100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1038900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1055100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1022800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>998600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>934800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>965000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36381600</v>
+        <v>36469400</v>
       </c>
       <c r="E54" s="3">
-        <v>35517500</v>
+        <v>37715700</v>
       </c>
       <c r="F54" s="3">
-        <v>33255800</v>
+        <v>36820000</v>
       </c>
       <c r="G54" s="3">
-        <v>32436000</v>
+        <v>34475400</v>
       </c>
       <c r="H54" s="3">
-        <v>31569400</v>
+        <v>33625500</v>
       </c>
       <c r="I54" s="3">
-        <v>31454300</v>
+        <v>32727100</v>
       </c>
       <c r="J54" s="3">
+        <v>32607800</v>
+      </c>
+      <c r="K54" s="3">
         <v>32586200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30707800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32029000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35373500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35281000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>38963600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34934500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36127200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36842700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36252100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36443600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34446800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>34136600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>35789700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34619000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>34397000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>31320200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>32961200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4031000</v>
+        <v>4465100</v>
       </c>
       <c r="E57" s="3">
-        <v>3845700</v>
+        <v>4178800</v>
       </c>
       <c r="F57" s="3">
-        <v>3476600</v>
+        <v>3986700</v>
       </c>
       <c r="G57" s="3">
-        <v>3665600</v>
+        <v>3604100</v>
       </c>
       <c r="H57" s="3">
-        <v>2981900</v>
+        <v>3800000</v>
       </c>
       <c r="I57" s="3">
-        <v>2967600</v>
+        <v>3091300</v>
       </c>
       <c r="J57" s="3">
+        <v>3076400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2733400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3079600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2599700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2589600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3128200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5968100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1835100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2026300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2185100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2208700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2243400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2116200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1950300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2103600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2025600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2021500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1854200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1735000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1266400</v>
+        <v>1204700</v>
       </c>
       <c r="E58" s="3">
-        <v>1093500</v>
+        <v>1312900</v>
       </c>
       <c r="F58" s="3">
-        <v>1391000</v>
+        <v>1133600</v>
       </c>
       <c r="G58" s="3">
-        <v>1452200</v>
+        <v>1442000</v>
       </c>
       <c r="H58" s="3">
-        <v>1526800</v>
+        <v>1505500</v>
       </c>
       <c r="I58" s="3">
-        <v>1505200</v>
+        <v>1582800</v>
       </c>
       <c r="J58" s="3">
+        <v>1560400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2710100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2550400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2969700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3632300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1617000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2949000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1745500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2089300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2235600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2774400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2216500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1276800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1618000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1434900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1467800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1607300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1067600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3107800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2814800</v>
+        <v>2310900</v>
       </c>
       <c r="E59" s="3">
-        <v>2830400</v>
+        <v>2918000</v>
       </c>
       <c r="F59" s="3">
-        <v>2500900</v>
+        <v>2934200</v>
       </c>
       <c r="G59" s="3">
-        <v>2138100</v>
+        <v>2592600</v>
       </c>
       <c r="H59" s="3">
-        <v>2086100</v>
+        <v>2216500</v>
       </c>
       <c r="I59" s="3">
-        <v>2055900</v>
+        <v>2162600</v>
       </c>
       <c r="J59" s="3">
+        <v>2131300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2479300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2006000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2082500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1936300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2027200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6356000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3969500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4052700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4241900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4382200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3976300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3814200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3884900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4692900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4226900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3933500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3658000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4252700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8112200</v>
+        <v>7980600</v>
       </c>
       <c r="E60" s="3">
-        <v>7769600</v>
+        <v>8409700</v>
       </c>
       <c r="F60" s="3">
-        <v>7368500</v>
+        <v>8054500</v>
       </c>
       <c r="G60" s="3">
-        <v>7255900</v>
+        <v>7638700</v>
       </c>
       <c r="H60" s="3">
-        <v>6594800</v>
+        <v>7522000</v>
       </c>
       <c r="I60" s="3">
-        <v>6528700</v>
+        <v>6836600</v>
       </c>
       <c r="J60" s="3">
+        <v>6768200</v>
+      </c>
+      <c r="K60" s="3">
         <v>7922700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7636000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7651900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8158200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6772400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8156500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7550100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8168300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8662700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8374400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8436100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7207200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7453300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8231300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7720400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7562300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6579800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7538000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4398300</v>
+        <v>4434000</v>
       </c>
       <c r="E61" s="3">
-        <v>4391200</v>
+        <v>4559500</v>
       </c>
       <c r="F61" s="3">
-        <v>4280600</v>
+        <v>4552300</v>
       </c>
       <c r="G61" s="3">
-        <v>4298700</v>
+        <v>4437500</v>
       </c>
       <c r="H61" s="3">
-        <v>4250000</v>
+        <v>4456400</v>
       </c>
       <c r="I61" s="3">
-        <v>4287800</v>
+        <v>4405900</v>
       </c>
       <c r="J61" s="3">
+        <v>4445000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4555600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4825000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5152000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5627300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5787000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5978000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4133900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4137000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2442500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2031700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1989500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2684500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2665900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2714700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2646700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2640600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1438000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1481900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1948900</v>
+        <v>1913100</v>
       </c>
       <c r="E62" s="3">
-        <v>2054100</v>
+        <v>2020400</v>
       </c>
       <c r="F62" s="3">
-        <v>1972900</v>
+        <v>2129400</v>
       </c>
       <c r="G62" s="3">
-        <v>1913100</v>
+        <v>2045300</v>
       </c>
       <c r="H62" s="3">
-        <v>2014600</v>
+        <v>1983200</v>
       </c>
       <c r="I62" s="3">
-        <v>2033500</v>
+        <v>2088500</v>
       </c>
       <c r="J62" s="3">
+        <v>2108100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2041900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2155300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2277400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2570900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2755700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4777500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2594100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2650800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2918600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2848700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3083300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2898400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2955800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3122900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3026900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3025700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2934900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3133100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14803500</v>
+        <v>14670700</v>
       </c>
       <c r="E66" s="3">
-        <v>14559000</v>
+        <v>15346300</v>
       </c>
       <c r="F66" s="3">
-        <v>13957900</v>
+        <v>15092900</v>
       </c>
       <c r="G66" s="3">
-        <v>13790100</v>
+        <v>14469800</v>
       </c>
       <c r="H66" s="3">
-        <v>13156900</v>
+        <v>14295800</v>
       </c>
       <c r="I66" s="3">
-        <v>13157200</v>
+        <v>13639400</v>
       </c>
       <c r="J66" s="3">
+        <v>13639700</v>
+      </c>
+      <c r="K66" s="3">
         <v>14844900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14948600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15423000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16749200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15745300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17560800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14744100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15439800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14541300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13766400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13999700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13266900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13552900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14583900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13891000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13721500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11424400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12677000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16894100</v>
+        <v>18362000</v>
       </c>
       <c r="E72" s="3">
-        <v>16624700</v>
+        <v>17513600</v>
       </c>
       <c r="F72" s="3">
-        <v>16346300</v>
+        <v>17234300</v>
       </c>
       <c r="G72" s="3">
-        <v>16382600</v>
+        <v>16945700</v>
       </c>
       <c r="H72" s="3">
-        <v>16505400</v>
+        <v>16983400</v>
       </c>
       <c r="I72" s="3">
-        <v>16405600</v>
+        <v>17110700</v>
       </c>
       <c r="J72" s="3">
+        <v>17007300</v>
+      </c>
+      <c r="K72" s="3">
         <v>15925300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14682900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15438900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17177700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18111900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44028300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22532700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22193000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22722500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22336800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21311700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20630000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19983000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21211900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20394100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20283300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19252000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>19213200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21578100</v>
+        <v>21798700</v>
       </c>
       <c r="E76" s="3">
-        <v>20958500</v>
+        <v>22369400</v>
       </c>
       <c r="F76" s="3">
-        <v>19297900</v>
+        <v>21727100</v>
       </c>
       <c r="G76" s="3">
-        <v>18645900</v>
+        <v>20005600</v>
       </c>
       <c r="H76" s="3">
-        <v>18412500</v>
+        <v>19329600</v>
       </c>
       <c r="I76" s="3">
-        <v>18297100</v>
+        <v>19087700</v>
       </c>
       <c r="J76" s="3">
+        <v>18968100</v>
+      </c>
+      <c r="K76" s="3">
         <v>17741300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15759200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16606100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18624400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19535800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21402800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20190400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20687400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22301400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22485700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22443800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21179900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20583800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21205800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20728000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20675500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19895800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20284200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>679300</v>
+        <v>820400</v>
       </c>
       <c r="E81" s="3">
-        <v>277300</v>
+        <v>704200</v>
       </c>
       <c r="F81" s="3">
-        <v>381700</v>
+        <v>287400</v>
       </c>
       <c r="G81" s="3">
-        <v>-204300</v>
+        <v>395700</v>
       </c>
       <c r="H81" s="3">
-        <v>500000</v>
+        <v>-211800</v>
       </c>
       <c r="I81" s="3">
-        <v>475600</v>
+        <v>518400</v>
       </c>
       <c r="J81" s="3">
+        <v>493000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2022400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-354100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>171600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>469700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>825800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>393100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>536100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>681400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>788200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>647300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>576300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>818200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>596000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>656300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>525400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>731700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>535700</v>
+        <v>533300</v>
       </c>
       <c r="E83" s="3">
-        <v>484600</v>
+        <v>555300</v>
       </c>
       <c r="F83" s="3">
-        <v>465400</v>
+        <v>502400</v>
       </c>
       <c r="G83" s="3">
-        <v>458800</v>
+        <v>482400</v>
       </c>
       <c r="H83" s="3">
-        <v>454000</v>
+        <v>475700</v>
       </c>
       <c r="I83" s="3">
-        <v>427200</v>
+        <v>470600</v>
       </c>
       <c r="J83" s="3">
+        <v>442800</v>
+      </c>
+      <c r="K83" s="3">
         <v>435700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>498300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>516900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>565200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>589000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>627500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>642000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>648500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>644800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>479300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>503300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>444400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>465300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>489800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>473600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>440100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>440600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>428800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,64 +6706,67 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1015300</v>
+        <v>1061900</v>
       </c>
       <c r="E89" s="3">
-        <v>145300</v>
+        <v>1052500</v>
       </c>
       <c r="F89" s="3">
-        <v>426500</v>
+        <v>150600</v>
       </c>
       <c r="G89" s="3">
-        <v>22900</v>
+        <v>442100</v>
       </c>
       <c r="H89" s="3">
-        <v>409100</v>
+        <v>23700</v>
       </c>
       <c r="I89" s="3">
-        <v>173600</v>
+        <v>424100</v>
       </c>
       <c r="J89" s="3">
+        <v>180000</v>
+      </c>
+      <c r="K89" s="3">
         <v>644200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1553400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1323100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>691700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>564600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1895100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>694900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>888100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="U89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,64 +6822,65 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-312400</v>
+        <v>-549500</v>
       </c>
       <c r="E91" s="3">
-        <v>-260900</v>
+        <v>-323900</v>
       </c>
       <c r="F91" s="3">
-        <v>-465500</v>
+        <v>-270500</v>
       </c>
       <c r="G91" s="3">
-        <v>-329700</v>
+        <v>-482600</v>
       </c>
       <c r="H91" s="3">
-        <v>-273500</v>
+        <v>-341700</v>
       </c>
       <c r="I91" s="3">
-        <v>-189600</v>
+        <v>-283500</v>
       </c>
       <c r="J91" s="3">
+        <v>-196600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-349000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-376900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-364000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-325900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-566700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-626200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-678600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-523100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,64 +7069,67 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1150500</v>
+        <v>-445900</v>
       </c>
       <c r="E94" s="3">
-        <v>-290900</v>
+        <v>-1192700</v>
       </c>
       <c r="F94" s="3">
-        <v>-524900</v>
+        <v>-301600</v>
       </c>
       <c r="G94" s="3">
-        <v>-364000</v>
+        <v>-544200</v>
       </c>
       <c r="H94" s="3">
-        <v>-588200</v>
+        <v>-377400</v>
       </c>
       <c r="I94" s="3">
-        <v>-169000</v>
+        <v>-609700</v>
       </c>
       <c r="J94" s="3">
+        <v>-175200</v>
+      </c>
+      <c r="K94" s="3">
         <v>2055000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-292400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-382600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-522200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-44100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-358100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,59 +7185,60 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-418900</v>
+        <v>-700</v>
       </c>
       <c r="E96" s="3">
-        <v>-4300</v>
+        <v>-434300</v>
       </c>
       <c r="F96" s="3">
-        <v>-420000</v>
+        <v>-4500</v>
       </c>
       <c r="G96" s="3">
+        <v>-435400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-800</v>
       </c>
-      <c r="H96" s="3">
-        <v>-423700</v>
-      </c>
       <c r="I96" s="3">
+        <v>-439200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-293600</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-273700</v>
+      </c>
+      <c r="N96" s="3">
         <v>-5900</v>
       </c>
-      <c r="J96" s="3">
-        <v>-293600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-273700</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-490000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-528100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-572200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,64 +7515,67 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-662000</v>
+        <v>-298500</v>
       </c>
       <c r="E100" s="3">
-        <v>-678600</v>
+        <v>-686300</v>
       </c>
       <c r="F100" s="3">
-        <v>-952900</v>
+        <v>-703500</v>
       </c>
       <c r="G100" s="3">
-        <v>-216800</v>
+        <v>-987800</v>
       </c>
       <c r="H100" s="3">
-        <v>-517700</v>
+        <v>-224700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1628700</v>
+        <v>-536600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1688400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-326200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-385600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-724900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1947000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-568400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-230900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1278300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7353,64 +7598,67 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>117100</v>
+        <v>-359000</v>
       </c>
       <c r="E101" s="3">
-        <v>411500</v>
+        <v>121400</v>
       </c>
       <c r="F101" s="3">
-        <v>279700</v>
+        <v>426600</v>
       </c>
       <c r="G101" s="3">
-        <v>113500</v>
+        <v>290000</v>
       </c>
       <c r="H101" s="3">
-        <v>-31800</v>
+        <v>117700</v>
       </c>
       <c r="I101" s="3">
-        <v>-55400</v>
+        <v>-33000</v>
       </c>
       <c r="J101" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K101" s="3">
         <v>316500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>28100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-53300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>82200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-164300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>102700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-89500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-56300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>67800</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -7433,64 +7681,67 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-680100</v>
+        <v>-41600</v>
       </c>
       <c r="E102" s="3">
-        <v>-412800</v>
+        <v>-705000</v>
       </c>
       <c r="F102" s="3">
-        <v>-771700</v>
+        <v>-427900</v>
       </c>
       <c r="G102" s="3">
-        <v>-444500</v>
+        <v>-800000</v>
       </c>
       <c r="H102" s="3">
-        <v>-728600</v>
+        <v>-460800</v>
       </c>
       <c r="I102" s="3">
-        <v>-1679500</v>
+        <v>-755300</v>
       </c>
       <c r="J102" s="3">
+        <v>-1741100</v>
+      </c>
+      <c r="K102" s="3">
         <v>2689400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1095400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>252500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2338300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-690300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1329100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1274100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>564100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="U102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,380 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8328600</v>
+        <v>7523900</v>
       </c>
       <c r="E8" s="3">
-        <v>8015800</v>
+        <v>8170000</v>
       </c>
       <c r="F8" s="3">
-        <v>7315700</v>
+        <v>7863100</v>
       </c>
       <c r="G8" s="3">
-        <v>6548900</v>
+        <v>7176300</v>
       </c>
       <c r="H8" s="3">
-        <v>6205600</v>
+        <v>6424200</v>
       </c>
       <c r="I8" s="3">
-        <v>5933400</v>
+        <v>6087400</v>
       </c>
       <c r="J8" s="3">
+        <v>5820400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5756600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5156000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5065500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5774300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4752500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6217800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8048800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8122100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8168200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8151300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9212700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8349700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8322400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7816100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8862300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8318900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8054200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7556300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7913900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5097400</v>
+        <v>4635400</v>
       </c>
       <c r="E9" s="3">
-        <v>4912500</v>
+        <v>5000300</v>
       </c>
       <c r="F9" s="3">
-        <v>4487200</v>
+        <v>4818900</v>
       </c>
       <c r="G9" s="3">
-        <v>4001500</v>
+        <v>4401800</v>
       </c>
       <c r="H9" s="3">
-        <v>3550200</v>
+        <v>3925300</v>
       </c>
       <c r="I9" s="3">
-        <v>3462300</v>
+        <v>3482600</v>
       </c>
       <c r="J9" s="3">
+        <v>3396300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3395600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3069100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2818700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3709400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3230500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3894700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5024300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4951200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5149100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5094700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5770100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5275700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5136800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4767700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5507100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5290700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4957100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4610500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4741000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3231300</v>
+        <v>2888500</v>
       </c>
       <c r="E10" s="3">
-        <v>3103300</v>
+        <v>3169700</v>
       </c>
       <c r="F10" s="3">
-        <v>2828400</v>
+        <v>3044200</v>
       </c>
       <c r="G10" s="3">
-        <v>2547400</v>
+        <v>2774600</v>
       </c>
       <c r="H10" s="3">
-        <v>2655400</v>
+        <v>2498900</v>
       </c>
       <c r="I10" s="3">
-        <v>2471200</v>
+        <v>2604800</v>
       </c>
       <c r="J10" s="3">
+        <v>2424100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2361000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2086900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2246800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2064900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1522000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2323200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3024500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3170900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3019100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3056600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3442500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3074000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3185600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3048400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3355200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3028200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3097100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2945800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3172900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1068,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>223900</v>
+        <v>214000</v>
       </c>
       <c r="E12" s="3">
-        <v>206200</v>
+        <v>219600</v>
       </c>
       <c r="F12" s="3">
-        <v>200700</v>
+        <v>202200</v>
       </c>
       <c r="G12" s="3">
-        <v>193900</v>
+        <v>196900</v>
       </c>
       <c r="H12" s="3">
+        <v>190200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>165100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>163000</v>
+      </c>
+      <c r="K12" s="3">
         <v>168300</v>
       </c>
-      <c r="I12" s="3">
-        <v>166200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>168300</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>159200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>126200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>173000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>186300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>229200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>252500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>235800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>252200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>243000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>269400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>238200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>228100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>220800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>241900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>216700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>232200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>207300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>215600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,174 +1238,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>48100</v>
+        <v>9500</v>
       </c>
       <c r="E14" s="3">
-        <v>14600</v>
+        <v>47100</v>
       </c>
       <c r="F14" s="3">
-        <v>6100</v>
+        <v>14400</v>
       </c>
       <c r="G14" s="3">
-        <v>94900</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="3">
-        <v>53400</v>
+        <v>93100</v>
       </c>
       <c r="I14" s="3">
-        <v>27400</v>
+        <v>52300</v>
       </c>
       <c r="J14" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K14" s="3">
         <v>39800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>487000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>682000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>383400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>47500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>190200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>41600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-103500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-2100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3">
         <v>99800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>9300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>58400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>39200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>194500</v>
+        <v>189000</v>
       </c>
       <c r="E15" s="3">
-        <v>199300</v>
+        <v>190800</v>
       </c>
       <c r="F15" s="3">
-        <v>180700</v>
+        <v>195500</v>
       </c>
       <c r="G15" s="3">
-        <v>170800</v>
+        <v>177300</v>
       </c>
       <c r="H15" s="3">
-        <v>169300</v>
+        <v>167500</v>
       </c>
       <c r="I15" s="3">
-        <v>164900</v>
+        <v>166000</v>
       </c>
       <c r="J15" s="3">
+        <v>161700</v>
+      </c>
+      <c r="K15" s="3">
         <v>161900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>156500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>159000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>171800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>179100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>193000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>312700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>310900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>200000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>203500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>85000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>84700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>79500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>78600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>80500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>76300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>73000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>72800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>71300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7343200</v>
+        <v>6604600</v>
       </c>
       <c r="E17" s="3">
-        <v>7036500</v>
+        <v>7203400</v>
       </c>
       <c r="F17" s="3">
-        <v>6680900</v>
+        <v>6902500</v>
       </c>
       <c r="G17" s="3">
-        <v>5904800</v>
+        <v>6553700</v>
       </c>
       <c r="H17" s="3">
-        <v>5389500</v>
+        <v>5792400</v>
       </c>
       <c r="I17" s="3">
-        <v>5197300</v>
+        <v>5286900</v>
       </c>
       <c r="J17" s="3">
+        <v>5098300</v>
+      </c>
+      <c r="K17" s="3">
         <v>5071600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4565000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4771800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5669200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5164900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5873400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7408900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6921500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7573700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7348300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8154600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7219900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7417600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6908000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7883500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7444900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7166000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6700500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6887600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>985400</v>
+        <v>919300</v>
       </c>
       <c r="E18" s="3">
-        <v>979300</v>
+        <v>966600</v>
       </c>
       <c r="F18" s="3">
-        <v>634700</v>
+        <v>960600</v>
       </c>
       <c r="G18" s="3">
-        <v>644100</v>
+        <v>622600</v>
       </c>
       <c r="H18" s="3">
-        <v>816100</v>
+        <v>631800</v>
       </c>
       <c r="I18" s="3">
-        <v>736100</v>
+        <v>800500</v>
       </c>
       <c r="J18" s="3">
+        <v>722100</v>
+      </c>
+      <c r="K18" s="3">
         <v>684900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>591000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>293700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>105100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-412500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>344400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>640000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1200600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>594400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>803000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1058100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1129800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>904800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>908100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>978800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>874100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>888200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>855800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1026300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1645,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-79800</v>
+        <v>27900</v>
       </c>
       <c r="E20" s="3">
-        <v>-38100</v>
+        <v>-78300</v>
       </c>
       <c r="F20" s="3">
-        <v>28100</v>
+        <v>-37300</v>
       </c>
       <c r="G20" s="3">
-        <v>62500</v>
+        <v>27600</v>
       </c>
       <c r="H20" s="3">
-        <v>34300</v>
+        <v>61300</v>
       </c>
       <c r="I20" s="3">
-        <v>14100</v>
+        <v>33700</v>
       </c>
       <c r="J20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K20" s="3">
         <v>17500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-23300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>76900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>109100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-24800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>19900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-33000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>231400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>77600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>25400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-36800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>47400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1438900</v>
+        <v>1468000</v>
       </c>
       <c r="E21" s="3">
-        <v>1496600</v>
+        <v>1411500</v>
       </c>
       <c r="F21" s="3">
-        <v>1165200</v>
+        <v>1468100</v>
       </c>
       <c r="G21" s="3">
-        <v>1189000</v>
+        <v>1143000</v>
       </c>
       <c r="H21" s="3">
-        <v>1326000</v>
+        <v>1166300</v>
       </c>
       <c r="I21" s="3">
-        <v>1220800</v>
+        <v>1300800</v>
       </c>
       <c r="J21" s="3">
+        <v>1197600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1145300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1050200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>795700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>631400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>129400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>909400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1339200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1831800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1238200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1442400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1646500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1608300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1369100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1340400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1700000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1425200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1353700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1259500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1502500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29800</v>
+        <v>33400</v>
       </c>
       <c r="E22" s="3">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="F22" s="3">
-        <v>23000</v>
+        <v>28200</v>
       </c>
       <c r="G22" s="3">
-        <v>22200</v>
+        <v>22500</v>
       </c>
       <c r="H22" s="3">
-        <v>22500</v>
+        <v>21800</v>
       </c>
       <c r="I22" s="3">
-        <v>21300</v>
+        <v>22100</v>
       </c>
       <c r="J22" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K22" s="3">
         <v>19000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>31800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>32800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>57400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>59900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>66700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>59900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>24600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>27700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>34100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>31600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>38200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>24500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>28500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>17900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>19500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>875800</v>
+        <v>913700</v>
       </c>
       <c r="E23" s="3">
-        <v>912400</v>
+        <v>859100</v>
       </c>
       <c r="F23" s="3">
-        <v>639900</v>
+        <v>895100</v>
       </c>
       <c r="G23" s="3">
-        <v>684400</v>
+        <v>627700</v>
       </c>
       <c r="H23" s="3">
-        <v>827800</v>
+        <v>671300</v>
       </c>
       <c r="I23" s="3">
-        <v>728900</v>
+        <v>812100</v>
       </c>
       <c r="J23" s="3">
+        <v>715000</v>
+      </c>
+      <c r="K23" s="3">
         <v>683500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>596000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>278300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>90600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-467600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>287500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>659500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1153400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>546500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>749100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1142600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1077300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>890600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>843500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1172000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>927100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>885100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>801000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1054200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>219800</v>
+        <v>250300</v>
       </c>
       <c r="E24" s="3">
-        <v>166600</v>
+        <v>215700</v>
       </c>
       <c r="F24" s="3">
-        <v>244300</v>
+        <v>163400</v>
       </c>
       <c r="G24" s="3">
-        <v>195800</v>
+        <v>239700</v>
       </c>
       <c r="H24" s="3">
-        <v>-27600</v>
+        <v>192000</v>
       </c>
       <c r="I24" s="3">
-        <v>181600</v>
+        <v>-27100</v>
       </c>
       <c r="J24" s="3">
+        <v>178100</v>
+      </c>
+      <c r="K24" s="3">
         <v>172500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>130600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>123500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>154300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-54500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>117800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>184000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>311900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>138400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>192000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>447300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>269000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>226900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>242800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>331900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>307100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>212300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>255800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>298900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>655900</v>
+        <v>663400</v>
       </c>
       <c r="E26" s="3">
-        <v>745900</v>
+        <v>643400</v>
       </c>
       <c r="F26" s="3">
-        <v>395500</v>
+        <v>731600</v>
       </c>
       <c r="G26" s="3">
-        <v>488600</v>
+        <v>388000</v>
       </c>
       <c r="H26" s="3">
-        <v>855500</v>
+        <v>479300</v>
       </c>
       <c r="I26" s="3">
-        <v>547300</v>
+        <v>839200</v>
       </c>
       <c r="J26" s="3">
+        <v>536900</v>
+      </c>
+      <c r="K26" s="3">
         <v>511000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>465400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>154800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-63700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-413100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>169800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>475500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>841500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>408100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>557100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>695400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>808300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>663700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>600600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>840100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>620100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>672800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>545200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>755300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>649100</v>
+        <v>653700</v>
       </c>
       <c r="E27" s="3">
-        <v>732100</v>
+        <v>636700</v>
       </c>
       <c r="F27" s="3">
-        <v>383500</v>
+        <v>718100</v>
       </c>
       <c r="G27" s="3">
-        <v>480800</v>
+        <v>376200</v>
       </c>
       <c r="H27" s="3">
-        <v>845000</v>
+        <v>471600</v>
       </c>
       <c r="I27" s="3">
-        <v>538200</v>
+        <v>828900</v>
       </c>
       <c r="J27" s="3">
+        <v>527900</v>
+      </c>
+      <c r="K27" s="3">
         <v>500500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>448400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>148300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-76400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>147700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>469700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>825800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>393100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>536100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>681400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>788200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>647300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>576300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>818200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>596000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>656300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>525400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>731700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,55 +2417,58 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>171300</v>
+        <v>-1200</v>
       </c>
       <c r="E29" s="3">
-        <v>-27900</v>
+        <v>168100</v>
       </c>
       <c r="F29" s="3">
-        <v>-96100</v>
+        <v>-27300</v>
       </c>
       <c r="G29" s="3">
-        <v>-85100</v>
+        <v>-94300</v>
       </c>
       <c r="H29" s="3">
-        <v>-1056800</v>
+        <v>-83500</v>
       </c>
       <c r="I29" s="3">
-        <v>-19800</v>
+        <v>-1036600</v>
       </c>
       <c r="J29" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-7500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1574000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-142300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>60300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>46600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>23900</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2446,8 +2503,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>79800</v>
+        <v>-27900</v>
       </c>
       <c r="E32" s="3">
-        <v>38100</v>
+        <v>78300</v>
       </c>
       <c r="F32" s="3">
-        <v>-28100</v>
+        <v>37300</v>
       </c>
       <c r="G32" s="3">
-        <v>-62500</v>
+        <v>-27600</v>
       </c>
       <c r="H32" s="3">
-        <v>-34300</v>
+        <v>-61300</v>
       </c>
       <c r="I32" s="3">
-        <v>-14100</v>
+        <v>-33700</v>
       </c>
       <c r="J32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-17500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>23300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-76900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-109100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>24800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-19900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>33000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-231400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-77600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-25400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>36800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-47400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>820400</v>
+        <v>652500</v>
       </c>
       <c r="E33" s="3">
-        <v>704200</v>
+        <v>804800</v>
       </c>
       <c r="F33" s="3">
-        <v>287400</v>
+        <v>690700</v>
       </c>
       <c r="G33" s="3">
-        <v>395700</v>
+        <v>282000</v>
       </c>
       <c r="H33" s="3">
-        <v>-211800</v>
+        <v>388200</v>
       </c>
       <c r="I33" s="3">
-        <v>518400</v>
+        <v>-207700</v>
       </c>
       <c r="J33" s="3">
+        <v>508500</v>
+      </c>
+      <c r="K33" s="3">
         <v>493000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2022400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-354100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>171600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>469700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>825800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>393100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>536100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>681400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>788200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>647300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>576300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>818200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>596000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>656300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>525400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>731700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>820400</v>
+        <v>652500</v>
       </c>
       <c r="E35" s="3">
-        <v>704200</v>
+        <v>804800</v>
       </c>
       <c r="F35" s="3">
-        <v>287400</v>
+        <v>690700</v>
       </c>
       <c r="G35" s="3">
-        <v>395700</v>
+        <v>282000</v>
       </c>
       <c r="H35" s="3">
-        <v>-211800</v>
+        <v>388200</v>
       </c>
       <c r="I35" s="3">
-        <v>518400</v>
+        <v>-207700</v>
       </c>
       <c r="J35" s="3">
+        <v>508500</v>
+      </c>
+      <c r="K35" s="3">
         <v>493000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2022400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-354100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>171600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>469700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>825800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>393100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>536100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>681400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>788200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>647300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>576300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>818200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>596000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>656300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>525400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>731700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3176,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3814000</v>
+        <v>3727600</v>
       </c>
       <c r="E41" s="3">
-        <v>3855500</v>
+        <v>3741300</v>
       </c>
       <c r="F41" s="3">
-        <v>4560600</v>
+        <v>3782100</v>
       </c>
       <c r="G41" s="3">
-        <v>4988500</v>
+        <v>4473700</v>
       </c>
       <c r="H41" s="3">
-        <v>5788400</v>
+        <v>4893500</v>
       </c>
       <c r="I41" s="3">
-        <v>6249200</v>
+        <v>5678200</v>
       </c>
       <c r="J41" s="3">
+        <v>6130200</v>
+      </c>
+      <c r="K41" s="3">
         <v>7004500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8436200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5941300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5150000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5362800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3123800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3943900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2740700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3982700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3636300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4157200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3618500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3839700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3842000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4627500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3814400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4267500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3099000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4284300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>111000</v>
+        <v>61800</v>
       </c>
       <c r="E42" s="3">
-        <v>168400</v>
+        <v>108900</v>
       </c>
       <c r="F42" s="3">
-        <v>68700</v>
+        <v>165200</v>
       </c>
       <c r="G42" s="3">
-        <v>72800</v>
+        <v>67400</v>
       </c>
       <c r="H42" s="3">
-        <v>86500</v>
+        <v>71400</v>
       </c>
       <c r="I42" s="3">
-        <v>55200</v>
+        <v>84900</v>
       </c>
       <c r="J42" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K42" s="3">
         <v>51600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>53300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>51500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>86200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>155300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1369700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1356600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1323100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1240800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1452400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1538000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1440600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1170800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2004000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1762800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1563400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1328400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1487500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6957600</v>
+        <v>6780400</v>
       </c>
       <c r="E43" s="3">
-        <v>7182300</v>
+        <v>6825000</v>
       </c>
       <c r="F43" s="3">
-        <v>6479300</v>
+        <v>7045500</v>
       </c>
       <c r="G43" s="3">
-        <v>5858400</v>
+        <v>6355900</v>
       </c>
       <c r="H43" s="3">
-        <v>5450800</v>
+        <v>5746800</v>
       </c>
       <c r="I43" s="3">
-        <v>5119000</v>
+        <v>5347000</v>
       </c>
       <c r="J43" s="3">
+        <v>5021400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4848000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4560700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4894700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5247200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5166800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5957200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11999600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5330100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5120200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5535200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5472300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5235300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4915100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4979300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4396600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4227700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3849600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3759800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3894300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6507000</v>
+        <v>6651200</v>
       </c>
       <c r="E44" s="3">
-        <v>6931300</v>
+        <v>6383000</v>
       </c>
       <c r="F44" s="3">
-        <v>6245600</v>
+        <v>6799300</v>
       </c>
       <c r="G44" s="3">
-        <v>5321700</v>
+        <v>6126600</v>
       </c>
       <c r="H44" s="3">
-        <v>4631500</v>
+        <v>5220300</v>
       </c>
       <c r="I44" s="3">
-        <v>4574900</v>
+        <v>4543300</v>
       </c>
       <c r="J44" s="3">
+        <v>4487800</v>
+      </c>
+      <c r="K44" s="3">
         <v>4166700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3725300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4021000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5073500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5496700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11174200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5646400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5756300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6145500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5826700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6012000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5542800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5444800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5335200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5557500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5631700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5198100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4944200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1078400</v>
+        <v>986600</v>
       </c>
       <c r="E45" s="3">
-        <v>1186700</v>
+        <v>1057900</v>
       </c>
       <c r="F45" s="3">
-        <v>1343800</v>
+        <v>1164100</v>
       </c>
       <c r="G45" s="3">
-        <v>1008900</v>
+        <v>1318200</v>
       </c>
       <c r="H45" s="3">
-        <v>895300</v>
+        <v>989600</v>
       </c>
       <c r="I45" s="3">
-        <v>648000</v>
+        <v>878200</v>
       </c>
       <c r="J45" s="3">
+        <v>635600</v>
+      </c>
+      <c r="K45" s="3">
         <v>649000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>587400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>569600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>679500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>648300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>643800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>780500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1290500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1233600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1217000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1145000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1780200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1605900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1554400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1599400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1782100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1801500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1521500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1552300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18468000</v>
+        <v>18207500</v>
       </c>
       <c r="E46" s="3">
-        <v>19324300</v>
+        <v>18116200</v>
       </c>
       <c r="F46" s="3">
-        <v>18698000</v>
+        <v>18956200</v>
       </c>
       <c r="G46" s="3">
-        <v>17250100</v>
+        <v>18341900</v>
       </c>
       <c r="H46" s="3">
-        <v>16852600</v>
+        <v>16921600</v>
       </c>
       <c r="I46" s="3">
-        <v>16646200</v>
+        <v>16531600</v>
       </c>
       <c r="J46" s="3">
+        <v>16329200</v>
+      </c>
+      <c r="K46" s="3">
         <v>16719800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17354700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15059700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15149100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16337500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15376800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17476700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16364300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17415900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17774800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18053400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18184000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17344100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16991400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17962800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17144600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17113800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>14906800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16162500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1054000</v>
+        <v>1086900</v>
       </c>
       <c r="E47" s="3">
-        <v>1142200</v>
+        <v>1033900</v>
       </c>
       <c r="F47" s="3">
-        <v>1208100</v>
+        <v>1120400</v>
       </c>
       <c r="G47" s="3">
-        <v>1179600</v>
+        <v>1185100</v>
       </c>
       <c r="H47" s="3">
-        <v>1216500</v>
+        <v>1157100</v>
       </c>
       <c r="I47" s="3">
-        <v>1167400</v>
+        <v>1193300</v>
       </c>
       <c r="J47" s="3">
+        <v>1145100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1145500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1050000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1009800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1054200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1276800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1505300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2990000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1752500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1842600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2137000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2062100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2715400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2197500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2397300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2506000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2589900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2498300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2378500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2322300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13655900</v>
+        <v>13415800</v>
       </c>
       <c r="E48" s="3">
-        <v>13755000</v>
+        <v>13395800</v>
       </c>
       <c r="F48" s="3">
-        <v>13551500</v>
+        <v>13493000</v>
       </c>
       <c r="G48" s="3">
-        <v>12923200</v>
+        <v>13293400</v>
       </c>
       <c r="H48" s="3">
-        <v>12656500</v>
+        <v>12677000</v>
       </c>
       <c r="I48" s="3">
-        <v>12269600</v>
+        <v>12415400</v>
       </c>
       <c r="J48" s="3">
+        <v>12035900</v>
+      </c>
+      <c r="K48" s="3">
         <v>12457000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12007200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12331000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13384700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15078000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15667800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31118800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13721000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13711500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14610900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13861400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13471900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12947700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12817300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13316300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12869100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12797900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12444100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12853700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2178000</v>
+        <v>2199700</v>
       </c>
       <c r="E49" s="3">
-        <v>2244500</v>
+        <v>2136500</v>
       </c>
       <c r="F49" s="3">
-        <v>2150900</v>
+        <v>2201700</v>
       </c>
       <c r="G49" s="3">
-        <v>2021300</v>
+        <v>2109900</v>
       </c>
       <c r="H49" s="3">
-        <v>1911800</v>
+        <v>1982800</v>
       </c>
       <c r="I49" s="3">
-        <v>1842900</v>
+        <v>1875400</v>
       </c>
       <c r="J49" s="3">
+        <v>1807800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1487700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1428300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1576900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1642100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1787900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1829400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3799400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1743200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1768700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>861500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>957700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>954200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>903400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>891800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>949500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>992600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>988400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>656000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>657700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1113500</v>
+        <v>1103600</v>
       </c>
       <c r="E52" s="3">
-        <v>1249900</v>
+        <v>1095100</v>
       </c>
       <c r="F52" s="3">
-        <v>1211500</v>
+        <v>1226100</v>
       </c>
       <c r="G52" s="3">
-        <v>1101200</v>
+        <v>1188400</v>
       </c>
       <c r="H52" s="3">
-        <v>988100</v>
+        <v>1080200</v>
       </c>
       <c r="I52" s="3">
-        <v>800900</v>
+        <v>969300</v>
       </c>
       <c r="J52" s="3">
+        <v>785600</v>
+      </c>
+      <c r="K52" s="3">
         <v>797700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>746000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>730400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>798900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>893400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>901800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1805500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1353500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1388500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1458400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1317400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1118100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1054100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1038900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1055100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1022800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>998600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>934800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>965000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36469400</v>
+        <v>36013600</v>
       </c>
       <c r="E54" s="3">
-        <v>37715700</v>
+        <v>35777500</v>
       </c>
       <c r="F54" s="3">
-        <v>36820000</v>
+        <v>36997400</v>
       </c>
       <c r="G54" s="3">
-        <v>34475400</v>
+        <v>36118700</v>
       </c>
       <c r="H54" s="3">
-        <v>33625500</v>
+        <v>33818700</v>
       </c>
       <c r="I54" s="3">
-        <v>32727100</v>
+        <v>32985000</v>
       </c>
       <c r="J54" s="3">
+        <v>32103700</v>
+      </c>
+      <c r="K54" s="3">
         <v>32607800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32586200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30707800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32029000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35373500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35281000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38963600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34934500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36127200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36842700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36252100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36443600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>34446800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>34136600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>35789700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>34619000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>34397000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>31320200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>32961200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4465100</v>
+        <v>3704400</v>
       </c>
       <c r="E57" s="3">
-        <v>4178800</v>
+        <v>4380100</v>
       </c>
       <c r="F57" s="3">
-        <v>3986700</v>
+        <v>4099200</v>
       </c>
       <c r="G57" s="3">
-        <v>3604100</v>
+        <v>3910800</v>
       </c>
       <c r="H57" s="3">
-        <v>3800000</v>
+        <v>3535400</v>
       </c>
       <c r="I57" s="3">
-        <v>3091300</v>
+        <v>3727600</v>
       </c>
       <c r="J57" s="3">
+        <v>3032400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3076400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2733400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3079600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2599700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2589600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3128200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5968100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1835100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2026300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2185100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2208700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2243400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2116200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1950300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2103600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2025600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2021500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1854200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1735000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1204700</v>
+        <v>1570100</v>
       </c>
       <c r="E58" s="3">
-        <v>1312900</v>
+        <v>1959400</v>
       </c>
       <c r="F58" s="3">
-        <v>1133600</v>
+        <v>1287900</v>
       </c>
       <c r="G58" s="3">
-        <v>1442000</v>
+        <v>1112000</v>
       </c>
       <c r="H58" s="3">
-        <v>1505500</v>
+        <v>1414600</v>
       </c>
       <c r="I58" s="3">
-        <v>1582800</v>
+        <v>1476800</v>
       </c>
       <c r="J58" s="3">
+        <v>1552700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1560400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2710100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2550400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2969700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3632300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1617000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2949000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1745500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2089300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2235600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2774400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2216500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1276800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1618000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1434900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1467800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1607300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1067600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3107800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2310900</v>
+        <v>2524300</v>
       </c>
       <c r="E59" s="3">
-        <v>2918000</v>
+        <v>2266800</v>
       </c>
       <c r="F59" s="3">
-        <v>2934200</v>
+        <v>2862400</v>
       </c>
       <c r="G59" s="3">
-        <v>2592600</v>
+        <v>2878300</v>
       </c>
       <c r="H59" s="3">
-        <v>2216500</v>
+        <v>2543200</v>
       </c>
       <c r="I59" s="3">
-        <v>2162600</v>
+        <v>2174300</v>
       </c>
       <c r="J59" s="3">
+        <v>2121400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2131300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2479300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2006000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2082500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1936300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2027200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6356000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3969500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4052700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4241900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4382200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3976300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3814200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3884900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4692900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4226900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3933500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3658000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4252700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7980600</v>
+        <v>7798800</v>
       </c>
       <c r="E60" s="3">
-        <v>8409700</v>
+        <v>7828600</v>
       </c>
       <c r="F60" s="3">
-        <v>8054500</v>
+        <v>8249500</v>
       </c>
       <c r="G60" s="3">
-        <v>7638700</v>
+        <v>7901100</v>
       </c>
       <c r="H60" s="3">
-        <v>7522000</v>
+        <v>7493200</v>
       </c>
       <c r="I60" s="3">
-        <v>6836600</v>
+        <v>7378700</v>
       </c>
       <c r="J60" s="3">
+        <v>6706400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6768200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7922700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7636000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7651900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8158200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6772400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8156500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7550100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8168300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8662700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8374400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8436100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7207200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7453300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8231300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7720400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7562300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6579800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>7538000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4434000</v>
+        <v>4214500</v>
       </c>
       <c r="E61" s="3">
-        <v>4559500</v>
+        <v>4349600</v>
       </c>
       <c r="F61" s="3">
-        <v>4552300</v>
+        <v>4472700</v>
       </c>
       <c r="G61" s="3">
-        <v>4437500</v>
+        <v>4465600</v>
       </c>
       <c r="H61" s="3">
-        <v>4456400</v>
+        <v>4353000</v>
       </c>
       <c r="I61" s="3">
-        <v>4405900</v>
+        <v>4371500</v>
       </c>
       <c r="J61" s="3">
+        <v>4321900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4445000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4555600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4825000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5152000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5627300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5787000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5978000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4133900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4137000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2442500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2031700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1989500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2684500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2665900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2714700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2646700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2640600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1438000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1481900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1913100</v>
+        <v>1831000</v>
       </c>
       <c r="E62" s="3">
-        <v>2020400</v>
+        <v>1879200</v>
       </c>
       <c r="F62" s="3">
-        <v>2129400</v>
+        <v>1981900</v>
       </c>
       <c r="G62" s="3">
-        <v>2045300</v>
+        <v>2088800</v>
       </c>
       <c r="H62" s="3">
-        <v>1983200</v>
+        <v>2006300</v>
       </c>
       <c r="I62" s="3">
-        <v>2088500</v>
+        <v>1945500</v>
       </c>
       <c r="J62" s="3">
+        <v>2048700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2108100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2041900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2155300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2277400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2570900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2755700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4777500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2594100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2650800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2918600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2848700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3083300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2898400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2955800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3122900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3026900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3025700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2934900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3133100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14670700</v>
+        <v>14199100</v>
       </c>
       <c r="E66" s="3">
-        <v>15346300</v>
+        <v>14393800</v>
       </c>
       <c r="F66" s="3">
-        <v>15092900</v>
+        <v>15054000</v>
       </c>
       <c r="G66" s="3">
-        <v>14469800</v>
+        <v>14805400</v>
       </c>
       <c r="H66" s="3">
-        <v>14295800</v>
+        <v>14194100</v>
       </c>
       <c r="I66" s="3">
-        <v>13639400</v>
+        <v>14023500</v>
       </c>
       <c r="J66" s="3">
+        <v>13379600</v>
+      </c>
+      <c r="K66" s="3">
         <v>13639700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14844900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14948600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15423000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16749200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15745300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17560800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14744100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15439800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14541300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13766400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13999700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13266900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13552900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14583900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13891000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13721500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11424400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12677000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18362000</v>
+        <v>18262200</v>
       </c>
       <c r="E72" s="3">
-        <v>17513600</v>
+        <v>18033000</v>
       </c>
       <c r="F72" s="3">
-        <v>17234300</v>
+        <v>17180000</v>
       </c>
       <c r="G72" s="3">
-        <v>16945700</v>
+        <v>16906100</v>
       </c>
       <c r="H72" s="3">
-        <v>16983400</v>
+        <v>16622900</v>
       </c>
       <c r="I72" s="3">
-        <v>17110700</v>
+        <v>16659900</v>
       </c>
       <c r="J72" s="3">
+        <v>16784800</v>
+      </c>
+      <c r="K72" s="3">
         <v>17007300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15925300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14682900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15438900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17177700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18111900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44028300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22532700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22193000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22722500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22336800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21311700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20630000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19983000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21211900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20394100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20283300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>19252000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>19213200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21798700</v>
+        <v>21814400</v>
       </c>
       <c r="E76" s="3">
-        <v>22369400</v>
+        <v>21383700</v>
       </c>
       <c r="F76" s="3">
-        <v>21727100</v>
+        <v>21943300</v>
       </c>
       <c r="G76" s="3">
-        <v>20005600</v>
+        <v>21313200</v>
       </c>
       <c r="H76" s="3">
-        <v>19329600</v>
+        <v>19624600</v>
       </c>
       <c r="I76" s="3">
-        <v>19087700</v>
+        <v>18961500</v>
       </c>
       <c r="J76" s="3">
+        <v>18724100</v>
+      </c>
+      <c r="K76" s="3">
         <v>18968100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17741300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15759200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16606100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18624400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19535800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21402800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20190400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20687400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22301400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22485700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22443800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21179900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20583800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21205800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20728000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20675500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>19895800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20284200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>820400</v>
+        <v>652500</v>
       </c>
       <c r="E81" s="3">
-        <v>704200</v>
+        <v>804800</v>
       </c>
       <c r="F81" s="3">
-        <v>287400</v>
+        <v>690700</v>
       </c>
       <c r="G81" s="3">
-        <v>395700</v>
+        <v>282000</v>
       </c>
       <c r="H81" s="3">
-        <v>-211800</v>
+        <v>388200</v>
       </c>
       <c r="I81" s="3">
-        <v>518400</v>
+        <v>-207700</v>
       </c>
       <c r="J81" s="3">
+        <v>508500</v>
+      </c>
+      <c r="K81" s="3">
         <v>493000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2022400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-354100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>171600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>469700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>825800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>393100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>536100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>681400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>788200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>647300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>576300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>818200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>596000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>656300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>525400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>731700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>533300</v>
+        <v>520900</v>
       </c>
       <c r="E83" s="3">
-        <v>555300</v>
+        <v>523200</v>
       </c>
       <c r="F83" s="3">
-        <v>502400</v>
+        <v>544800</v>
       </c>
       <c r="G83" s="3">
-        <v>482400</v>
+        <v>492800</v>
       </c>
       <c r="H83" s="3">
-        <v>475700</v>
+        <v>473200</v>
       </c>
       <c r="I83" s="3">
-        <v>470600</v>
+        <v>466600</v>
       </c>
       <c r="J83" s="3">
+        <v>461700</v>
+      </c>
+      <c r="K83" s="3">
         <v>442800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>435700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>498300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>516900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>565200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>589000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>627500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>642000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>648500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>644800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>479300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>503300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>444400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>465300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>489800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>473600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>440100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>440600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>428800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,67 +6919,70 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1061900</v>
+        <v>863100</v>
       </c>
       <c r="E89" s="3">
-        <v>1052500</v>
+        <v>1041700</v>
       </c>
       <c r="F89" s="3">
-        <v>150600</v>
+        <v>1032500</v>
       </c>
       <c r="G89" s="3">
-        <v>442100</v>
+        <v>147700</v>
       </c>
       <c r="H89" s="3">
-        <v>23700</v>
+        <v>433700</v>
       </c>
       <c r="I89" s="3">
-        <v>424100</v>
+        <v>23300</v>
       </c>
       <c r="J89" s="3">
+        <v>416000</v>
+      </c>
+      <c r="K89" s="3">
         <v>180000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>644200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1553400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1323100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>691700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>564600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1895100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>694900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>888100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
+      <c r="V89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -6792,8 +7005,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,67 +7039,68 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-549500</v>
+        <v>-92261000</v>
       </c>
       <c r="E91" s="3">
-        <v>-323900</v>
+        <v>-85398000</v>
       </c>
       <c r="F91" s="3">
-        <v>-270500</v>
+        <v>-55869000</v>
       </c>
       <c r="G91" s="3">
-        <v>-482600</v>
+        <v>-41907000</v>
       </c>
       <c r="H91" s="3">
-        <v>-341700</v>
+        <v>-71552000</v>
       </c>
       <c r="I91" s="3">
-        <v>-283500</v>
+        <v>-55048000</v>
       </c>
       <c r="J91" s="3">
+        <v>-45318000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-196600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-349000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-376900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-364000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-325900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-566700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-626200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-678600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-523100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6906,8 +7123,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,67 +7295,70 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-445900</v>
+        <v>-577900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1192700</v>
+        <v>-437400</v>
       </c>
       <c r="F94" s="3">
-        <v>-301600</v>
+        <v>-1169900</v>
       </c>
       <c r="G94" s="3">
-        <v>-544200</v>
+        <v>-295800</v>
       </c>
       <c r="H94" s="3">
-        <v>-377400</v>
+        <v>-533800</v>
       </c>
       <c r="I94" s="3">
-        <v>-609700</v>
+        <v>-370200</v>
       </c>
       <c r="J94" s="3">
+        <v>-598100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-175200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2055000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-292400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-382600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-522200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-44100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-358100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -7155,8 +7381,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,62 +7415,63 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-438400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-700</v>
       </c>
-      <c r="E96" s="3">
-        <v>-434300</v>
-      </c>
       <c r="F96" s="3">
-        <v>-4500</v>
+        <v>-426000</v>
       </c>
       <c r="G96" s="3">
-        <v>-435400</v>
+        <v>-4400</v>
       </c>
       <c r="H96" s="3">
+        <v>-427100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-800</v>
       </c>
-      <c r="I96" s="3">
-        <v>-439200</v>
-      </c>
       <c r="J96" s="3">
+        <v>-430900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-293600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-273700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-490000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-528100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-5400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-572200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7269,8 +7499,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,67 +7757,70 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-298500</v>
+        <v>-310500</v>
       </c>
       <c r="E100" s="3">
-        <v>-686300</v>
+        <v>-292800</v>
       </c>
       <c r="F100" s="3">
-        <v>-703500</v>
+        <v>-673200</v>
       </c>
       <c r="G100" s="3">
-        <v>-987800</v>
+        <v>-690100</v>
       </c>
       <c r="H100" s="3">
-        <v>-224700</v>
+        <v>-969000</v>
       </c>
       <c r="I100" s="3">
-        <v>-536600</v>
+        <v>-220500</v>
       </c>
       <c r="J100" s="3">
+        <v>-526400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1688400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-326200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-385600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-724900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1947000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-568400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-230900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1278300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -7601,67 +7843,70 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-359000</v>
+        <v>11600</v>
       </c>
       <c r="E101" s="3">
-        <v>121400</v>
+        <v>-352200</v>
       </c>
       <c r="F101" s="3">
-        <v>426600</v>
+        <v>119100</v>
       </c>
       <c r="G101" s="3">
-        <v>290000</v>
+        <v>418500</v>
       </c>
       <c r="H101" s="3">
-        <v>117700</v>
+        <v>284400</v>
       </c>
       <c r="I101" s="3">
-        <v>-33000</v>
+        <v>115400</v>
       </c>
       <c r="J101" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-57400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>316500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>28100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-53300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>82200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-164300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>102700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-89500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-56300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>67800</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -7684,67 +7929,70 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-41600</v>
+        <v>-13700</v>
       </c>
       <c r="E102" s="3">
-        <v>-705000</v>
+        <v>-40800</v>
       </c>
       <c r="F102" s="3">
-        <v>-427900</v>
+        <v>-691600</v>
       </c>
       <c r="G102" s="3">
-        <v>-800000</v>
+        <v>-419800</v>
       </c>
       <c r="H102" s="3">
-        <v>-460800</v>
+        <v>-784700</v>
       </c>
       <c r="I102" s="3">
-        <v>-755300</v>
+        <v>-452000</v>
       </c>
       <c r="J102" s="3">
+        <v>-740900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1741100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2689400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1095400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>252500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2338300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-690300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1329100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1274100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>564100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
+      <c r="V102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -7765,6 +8013,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,392 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7523900</v>
+        <v>7269600</v>
       </c>
       <c r="E8" s="3">
-        <v>8170000</v>
+        <v>7169100</v>
       </c>
       <c r="F8" s="3">
-        <v>7863100</v>
+        <v>7784700</v>
       </c>
       <c r="G8" s="3">
-        <v>7176300</v>
+        <v>7492300</v>
       </c>
       <c r="H8" s="3">
-        <v>6424200</v>
+        <v>6837900</v>
       </c>
       <c r="I8" s="3">
-        <v>6087400</v>
+        <v>6121200</v>
       </c>
       <c r="J8" s="3">
+        <v>5800300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5820400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5756600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5156000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5065500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5774300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4752500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6217800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8048800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8122100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8168200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8151300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9212700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8349700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8322400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7816100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8862300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8318900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8054200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7556300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7913900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4635400</v>
+        <v>4460900</v>
       </c>
       <c r="E9" s="3">
-        <v>5000300</v>
+        <v>4416900</v>
       </c>
       <c r="F9" s="3">
-        <v>4818900</v>
+        <v>4764500</v>
       </c>
       <c r="G9" s="3">
-        <v>4401800</v>
+        <v>4591700</v>
       </c>
       <c r="H9" s="3">
-        <v>3925300</v>
+        <v>4194200</v>
       </c>
       <c r="I9" s="3">
-        <v>3482600</v>
+        <v>3740200</v>
       </c>
       <c r="J9" s="3">
+        <v>3318300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3396300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3395600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3069100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2818700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3709400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3230500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3894700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5024300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4951200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5149100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5094700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5770100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5275700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5136800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4767700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5507100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5290700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4957100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4610500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4741000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2888500</v>
+        <v>2808700</v>
       </c>
       <c r="E10" s="3">
-        <v>3169700</v>
+        <v>2752300</v>
       </c>
       <c r="F10" s="3">
-        <v>3044200</v>
+        <v>3020300</v>
       </c>
       <c r="G10" s="3">
-        <v>2774600</v>
+        <v>2900600</v>
       </c>
       <c r="H10" s="3">
-        <v>2498900</v>
+        <v>2643700</v>
       </c>
       <c r="I10" s="3">
-        <v>2604800</v>
+        <v>2381000</v>
       </c>
       <c r="J10" s="3">
+        <v>2482000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2424100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2361000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2086900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2246800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2064900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1522000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2323200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3024500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3170900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3019100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3056600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3442500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3074000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3185600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3048400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3355200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3028200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3097100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2945800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3172900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,94 +1081,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>214000</v>
+        <v>203200</v>
       </c>
       <c r="E12" s="3">
-        <v>219600</v>
+        <v>203900</v>
       </c>
       <c r="F12" s="3">
-        <v>202200</v>
+        <v>209200</v>
       </c>
       <c r="G12" s="3">
-        <v>196900</v>
+        <v>192700</v>
       </c>
       <c r="H12" s="3">
-        <v>190200</v>
+        <v>187600</v>
       </c>
       <c r="I12" s="3">
-        <v>165100</v>
+        <v>181200</v>
       </c>
       <c r="J12" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K12" s="3">
         <v>163000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>168300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>159200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>126200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>173000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>186300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>229200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>252500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>235800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>252200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>243000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>269400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>238200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>228100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>220800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>241900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>216700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>232200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>207300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>215600</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,180 +1257,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>9500</v>
+        <v>-30700</v>
       </c>
       <c r="E14" s="3">
-        <v>47100</v>
+        <v>9100</v>
       </c>
       <c r="F14" s="3">
-        <v>14400</v>
+        <v>44900</v>
       </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>13700</v>
       </c>
       <c r="H14" s="3">
-        <v>93100</v>
+        <v>5700</v>
       </c>
       <c r="I14" s="3">
-        <v>52300</v>
+        <v>88700</v>
       </c>
       <c r="J14" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K14" s="3">
         <v>26900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>487000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>682000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>383400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>47500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>190200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>41600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-103500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-2100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3">
         <v>99800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>9300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>58400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>39200</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>189000</v>
+        <v>189600</v>
       </c>
       <c r="E15" s="3">
-        <v>190800</v>
+        <v>180000</v>
       </c>
       <c r="F15" s="3">
-        <v>195500</v>
+        <v>181800</v>
       </c>
       <c r="G15" s="3">
-        <v>177300</v>
+        <v>186300</v>
       </c>
       <c r="H15" s="3">
-        <v>167500</v>
+        <v>168900</v>
       </c>
       <c r="I15" s="3">
-        <v>166000</v>
+        <v>159600</v>
       </c>
       <c r="J15" s="3">
+        <v>158200</v>
+      </c>
+      <c r="K15" s="3">
         <v>161700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>161900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>156500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>159000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>171800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>179100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>193000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>312700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>310900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>200000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>203500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>85000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>84700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>79500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>78600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>80500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>76300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>73000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>72800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>71300</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6604600</v>
+        <v>6423800</v>
       </c>
       <c r="E17" s="3">
-        <v>7203400</v>
+        <v>6293200</v>
       </c>
       <c r="F17" s="3">
-        <v>6902500</v>
+        <v>6863700</v>
       </c>
       <c r="G17" s="3">
-        <v>6553700</v>
+        <v>6577000</v>
       </c>
       <c r="H17" s="3">
-        <v>5792400</v>
+        <v>6244600</v>
       </c>
       <c r="I17" s="3">
-        <v>5286900</v>
+        <v>5519200</v>
       </c>
       <c r="J17" s="3">
+        <v>5037600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5098300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5071600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4565000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4771800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5669200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5164900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5873400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7408900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6921500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7573700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7348300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8154600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7219900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7417600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6908000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7883500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7444900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7166000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6700500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6887600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>919300</v>
+        <v>845800</v>
       </c>
       <c r="E18" s="3">
-        <v>966600</v>
+        <v>875900</v>
       </c>
       <c r="F18" s="3">
-        <v>960600</v>
+        <v>921100</v>
       </c>
       <c r="G18" s="3">
-        <v>622600</v>
+        <v>915300</v>
       </c>
       <c r="H18" s="3">
-        <v>631800</v>
+        <v>593300</v>
       </c>
       <c r="I18" s="3">
-        <v>800500</v>
+        <v>602000</v>
       </c>
       <c r="J18" s="3">
+        <v>762800</v>
+      </c>
+      <c r="K18" s="3">
         <v>722100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>684900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>591000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>293700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>105100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-412500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>344400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>640000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1200600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>594400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>803000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1058100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1129800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>904800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>908100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>978800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>874100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>888200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>855800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1026300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,438 +1678,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27900</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>-78300</v>
+        <v>26500</v>
       </c>
       <c r="F20" s="3">
-        <v>-37300</v>
+        <v>-74600</v>
       </c>
       <c r="G20" s="3">
-        <v>27600</v>
+        <v>-35600</v>
       </c>
       <c r="H20" s="3">
-        <v>61300</v>
+        <v>26300</v>
       </c>
       <c r="I20" s="3">
-        <v>33700</v>
+        <v>58400</v>
       </c>
       <c r="J20" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K20" s="3">
         <v>13800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-23300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>76900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>109100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-24800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>19900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-33000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>231400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>77600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>25400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-36800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>47400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1468000</v>
+        <v>1355000</v>
       </c>
       <c r="E21" s="3">
-        <v>1411500</v>
+        <v>1398800</v>
       </c>
       <c r="F21" s="3">
-        <v>1468100</v>
+        <v>1344900</v>
       </c>
       <c r="G21" s="3">
-        <v>1143000</v>
+        <v>1398800</v>
       </c>
       <c r="H21" s="3">
-        <v>1166300</v>
+        <v>1089100</v>
       </c>
       <c r="I21" s="3">
-        <v>1300800</v>
+        <v>1111300</v>
       </c>
       <c r="J21" s="3">
+        <v>1239400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1197600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1145300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1050200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>795700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>631400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>129400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>909400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1339200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1831800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1238200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1442400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1646500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1608300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1369100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1340400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1700000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1425200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1353700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1259500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1502500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33400</v>
+        <v>34700</v>
       </c>
       <c r="E22" s="3">
-        <v>29300</v>
+        <v>31800</v>
       </c>
       <c r="F22" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="G22" s="3">
-        <v>22500</v>
+        <v>26900</v>
       </c>
       <c r="H22" s="3">
-        <v>21800</v>
+        <v>21500</v>
       </c>
       <c r="I22" s="3">
-        <v>22100</v>
+        <v>20800</v>
       </c>
       <c r="J22" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K22" s="3">
         <v>20900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>31800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>32800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>57400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>59900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>66700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>59900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>27700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>34100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>31600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>38200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>24500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>28500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>17900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>19500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>913700</v>
+        <v>808900</v>
       </c>
       <c r="E23" s="3">
-        <v>859100</v>
+        <v>870600</v>
       </c>
       <c r="F23" s="3">
-        <v>895100</v>
+        <v>818600</v>
       </c>
       <c r="G23" s="3">
-        <v>627700</v>
+        <v>852800</v>
       </c>
       <c r="H23" s="3">
-        <v>671300</v>
+        <v>598100</v>
       </c>
       <c r="I23" s="3">
-        <v>812100</v>
+        <v>639700</v>
       </c>
       <c r="J23" s="3">
+        <v>773800</v>
+      </c>
+      <c r="K23" s="3">
         <v>715000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>683500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>596000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>278300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>90600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-467600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>287500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>659500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1153400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>546500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>749100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1142600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1077300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>890600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>843500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1172000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>927100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>885100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>801000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1054200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>250300</v>
+        <v>161100</v>
       </c>
       <c r="E24" s="3">
-        <v>215700</v>
+        <v>238500</v>
       </c>
       <c r="F24" s="3">
-        <v>163400</v>
+        <v>205500</v>
       </c>
       <c r="G24" s="3">
-        <v>239700</v>
+        <v>155700</v>
       </c>
       <c r="H24" s="3">
+        <v>228400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>183000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>178100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>172500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>130600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>123500</v>
+      </c>
+      <c r="O24" s="3">
+        <v>154300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>117800</v>
+      </c>
+      <c r="R24" s="3">
+        <v>184000</v>
+      </c>
+      <c r="S24" s="3">
+        <v>311900</v>
+      </c>
+      <c r="T24" s="3">
+        <v>138400</v>
+      </c>
+      <c r="U24" s="3">
         <v>192000</v>
       </c>
-      <c r="I24" s="3">
-        <v>-27100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>178100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>172500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>130600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>123500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>154300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-54500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>117800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>184000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>311900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>138400</v>
-      </c>
-      <c r="T24" s="3">
-        <v>192000</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>447300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>269000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>226900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>242800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>331900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>307100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>212300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>255800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>298900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>663400</v>
+        <v>647800</v>
       </c>
       <c r="E26" s="3">
-        <v>643400</v>
+        <v>632100</v>
       </c>
       <c r="F26" s="3">
-        <v>731600</v>
+        <v>613100</v>
       </c>
       <c r="G26" s="3">
-        <v>388000</v>
+        <v>697100</v>
       </c>
       <c r="H26" s="3">
-        <v>479300</v>
+        <v>369700</v>
       </c>
       <c r="I26" s="3">
-        <v>839200</v>
+        <v>456700</v>
       </c>
       <c r="J26" s="3">
+        <v>799600</v>
+      </c>
+      <c r="K26" s="3">
         <v>536900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>511000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>465400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>154800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-63700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-413100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>169800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>475500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>841500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>408100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>557100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>695400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>808300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>663700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>600600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>840100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>620100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>672800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>545200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>755300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>653700</v>
+        <v>636400</v>
       </c>
       <c r="E27" s="3">
-        <v>636700</v>
+        <v>622800</v>
       </c>
       <c r="F27" s="3">
-        <v>718100</v>
+        <v>606700</v>
       </c>
       <c r="G27" s="3">
-        <v>376200</v>
+        <v>684200</v>
       </c>
       <c r="H27" s="3">
-        <v>471600</v>
+        <v>358500</v>
       </c>
       <c r="I27" s="3">
-        <v>828900</v>
+        <v>449400</v>
       </c>
       <c r="J27" s="3">
+        <v>789800</v>
+      </c>
+      <c r="K27" s="3">
         <v>527900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>448400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>148300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-76400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>147700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>469700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>825800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>393100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>536100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>681400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>788200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>647300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>576300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>818200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>596000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>656300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>525400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>731700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,58 +2477,61 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-1200</v>
+        <v>-3400</v>
       </c>
       <c r="E29" s="3">
-        <v>168100</v>
+        <v>-1100</v>
       </c>
       <c r="F29" s="3">
-        <v>-27300</v>
+        <v>160100</v>
       </c>
       <c r="G29" s="3">
-        <v>-94300</v>
+        <v>-26100</v>
       </c>
       <c r="H29" s="3">
-        <v>-83500</v>
+        <v>-89800</v>
       </c>
       <c r="I29" s="3">
-        <v>-1036600</v>
+        <v>-79600</v>
       </c>
       <c r="J29" s="3">
+        <v>-987700</v>
+      </c>
+      <c r="K29" s="3">
         <v>-19400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-7500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1574000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-142300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>60300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>46600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>23900</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2506,8 +2566,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27900</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>78300</v>
+        <v>-26500</v>
       </c>
       <c r="F32" s="3">
-        <v>37300</v>
+        <v>74600</v>
       </c>
       <c r="G32" s="3">
-        <v>-27600</v>
+        <v>35600</v>
       </c>
       <c r="H32" s="3">
-        <v>-61300</v>
+        <v>-26300</v>
       </c>
       <c r="I32" s="3">
-        <v>-33700</v>
+        <v>-58400</v>
       </c>
       <c r="J32" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>23300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-76900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-109100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>24800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-19900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>33000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-231400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-77600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-25400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>36800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-47400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>652500</v>
+        <v>633000</v>
       </c>
       <c r="E33" s="3">
-        <v>804800</v>
+        <v>621700</v>
       </c>
       <c r="F33" s="3">
-        <v>690700</v>
+        <v>766800</v>
       </c>
       <c r="G33" s="3">
-        <v>282000</v>
+        <v>658200</v>
       </c>
       <c r="H33" s="3">
-        <v>388200</v>
+        <v>268700</v>
       </c>
       <c r="I33" s="3">
-        <v>-207700</v>
+        <v>369900</v>
       </c>
       <c r="J33" s="3">
+        <v>-197900</v>
+      </c>
+      <c r="K33" s="3">
         <v>508500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>493000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2022400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-354100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>171600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>469700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>825800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>393100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>536100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>681400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>788200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>647300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>576300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>818200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>596000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>656300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>525400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>731700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>652500</v>
+        <v>633000</v>
       </c>
       <c r="E35" s="3">
-        <v>804800</v>
+        <v>621700</v>
       </c>
       <c r="F35" s="3">
-        <v>690700</v>
+        <v>766800</v>
       </c>
       <c r="G35" s="3">
-        <v>282000</v>
+        <v>658200</v>
       </c>
       <c r="H35" s="3">
-        <v>388200</v>
+        <v>268700</v>
       </c>
       <c r="I35" s="3">
-        <v>-207700</v>
+        <v>369900</v>
       </c>
       <c r="J35" s="3">
+        <v>-197900</v>
+      </c>
+      <c r="K35" s="3">
         <v>508500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>493000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2022400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-354100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>171600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>469700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>825800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>393100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>536100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>681400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>788200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>647300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>576300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>818200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>596000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>656300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>525400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>731700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,782 +3262,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3727600</v>
+        <v>4187400</v>
       </c>
       <c r="E41" s="3">
-        <v>3741300</v>
+        <v>3551900</v>
       </c>
       <c r="F41" s="3">
-        <v>3782100</v>
+        <v>3564900</v>
       </c>
       <c r="G41" s="3">
-        <v>4473700</v>
+        <v>3603700</v>
       </c>
       <c r="H41" s="3">
-        <v>4893500</v>
+        <v>4262700</v>
       </c>
       <c r="I41" s="3">
-        <v>5678200</v>
+        <v>4662700</v>
       </c>
       <c r="J41" s="3">
+        <v>5410400</v>
+      </c>
+      <c r="K41" s="3">
         <v>6130200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7004500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8436200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5941300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5150000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5362800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3123800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3943900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2740700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3982700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3636300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4157200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3618500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3839700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3842000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4627500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3814400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4267500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3099000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4284300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61800</v>
+        <v>112600</v>
       </c>
       <c r="E42" s="3">
-        <v>108900</v>
+        <v>58900</v>
       </c>
       <c r="F42" s="3">
-        <v>165200</v>
+        <v>103800</v>
       </c>
       <c r="G42" s="3">
-        <v>67400</v>
+        <v>157400</v>
       </c>
       <c r="H42" s="3">
-        <v>71400</v>
+        <v>64200</v>
       </c>
       <c r="I42" s="3">
-        <v>84900</v>
+        <v>68000</v>
       </c>
       <c r="J42" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K42" s="3">
         <v>54100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>51600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>53300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>51500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>86200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>155300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1369700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1356600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1323100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1240800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1452400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1538000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1440600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1170800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2004000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1762800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1563400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1328400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1487500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6780400</v>
+        <v>6890600</v>
       </c>
       <c r="E43" s="3">
-        <v>6825000</v>
+        <v>6460600</v>
       </c>
       <c r="F43" s="3">
-        <v>7045500</v>
+        <v>6503200</v>
       </c>
       <c r="G43" s="3">
-        <v>6355900</v>
+        <v>6713300</v>
       </c>
       <c r="H43" s="3">
-        <v>5746800</v>
+        <v>6056200</v>
       </c>
       <c r="I43" s="3">
-        <v>5347000</v>
+        <v>5475800</v>
       </c>
       <c r="J43" s="3">
+        <v>5094900</v>
+      </c>
+      <c r="K43" s="3">
         <v>5021400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4848000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4560700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4894700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5247200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5166800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5957200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11999600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5330100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5120200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5535200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5472300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5235300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4915100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4979300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4396600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4227700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3849600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3759800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3894300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6651200</v>
+        <v>6788100</v>
       </c>
       <c r="E44" s="3">
-        <v>6383000</v>
+        <v>6337500</v>
       </c>
       <c r="F44" s="3">
-        <v>6799300</v>
+        <v>6082000</v>
       </c>
       <c r="G44" s="3">
-        <v>6126600</v>
+        <v>6478600</v>
       </c>
       <c r="H44" s="3">
-        <v>5220300</v>
+        <v>5837700</v>
       </c>
       <c r="I44" s="3">
-        <v>4543300</v>
+        <v>4974100</v>
       </c>
       <c r="J44" s="3">
+        <v>4329100</v>
+      </c>
+      <c r="K44" s="3">
         <v>4487800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4166700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3725300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3600800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4021000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5073500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5496700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11174200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5646400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5756300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6145500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5826700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6012000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5542800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5444800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5335200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5557500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5631700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5198100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4944200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>986600</v>
+        <v>950900</v>
       </c>
       <c r="E45" s="3">
-        <v>1057900</v>
+        <v>940000</v>
       </c>
       <c r="F45" s="3">
-        <v>1164100</v>
+        <v>1008000</v>
       </c>
       <c r="G45" s="3">
-        <v>1318200</v>
+        <v>1109200</v>
       </c>
       <c r="H45" s="3">
-        <v>989600</v>
+        <v>1256100</v>
       </c>
       <c r="I45" s="3">
-        <v>878200</v>
+        <v>943000</v>
       </c>
       <c r="J45" s="3">
+        <v>836800</v>
+      </c>
+      <c r="K45" s="3">
         <v>635600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>649000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>587400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>569600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>679500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>648300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>643800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>780500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1290500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1233600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1217000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1145000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1780200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1605900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1554400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1599400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1782100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1801500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1521500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1552300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18207500</v>
+        <v>18929700</v>
       </c>
       <c r="E46" s="3">
-        <v>18116200</v>
+        <v>17348900</v>
       </c>
       <c r="F46" s="3">
-        <v>18956200</v>
+        <v>17261900</v>
       </c>
       <c r="G46" s="3">
-        <v>18341900</v>
+        <v>18062300</v>
       </c>
       <c r="H46" s="3">
-        <v>16921600</v>
+        <v>17476900</v>
       </c>
       <c r="I46" s="3">
-        <v>16531600</v>
+        <v>16123600</v>
       </c>
       <c r="J46" s="3">
+        <v>15752000</v>
+      </c>
+      <c r="K46" s="3">
         <v>16329200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16719800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17354700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15059700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15149100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16337500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15376800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17476700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16364300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17415900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17774800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18053400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18184000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17344100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16991400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17962800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17144600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17113800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>14906800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>16162500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1086900</v>
+        <v>1059600</v>
       </c>
       <c r="E47" s="3">
-        <v>1033900</v>
+        <v>1035600</v>
       </c>
       <c r="F47" s="3">
-        <v>1120400</v>
+        <v>985200</v>
       </c>
       <c r="G47" s="3">
-        <v>1185100</v>
+        <v>1067600</v>
       </c>
       <c r="H47" s="3">
-        <v>1157100</v>
+        <v>1129200</v>
       </c>
       <c r="I47" s="3">
-        <v>1193300</v>
+        <v>1102500</v>
       </c>
       <c r="J47" s="3">
+        <v>1137000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1145100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1145500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1050000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1009800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1054200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1276800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1505300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2990000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1752500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1842600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2137000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2062100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2715400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2197500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2397300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2506000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2589900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2498300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2378500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2322300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13415800</v>
+        <v>13684500</v>
       </c>
       <c r="E48" s="3">
-        <v>13395800</v>
+        <v>12783100</v>
       </c>
       <c r="F48" s="3">
-        <v>13493000</v>
+        <v>12764100</v>
       </c>
       <c r="G48" s="3">
-        <v>13293400</v>
+        <v>12856700</v>
       </c>
       <c r="H48" s="3">
-        <v>12677000</v>
+        <v>12666500</v>
       </c>
       <c r="I48" s="3">
-        <v>12415400</v>
+        <v>12079200</v>
       </c>
       <c r="J48" s="3">
+        <v>11829900</v>
+      </c>
+      <c r="K48" s="3">
         <v>12035900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12457000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12007200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12331000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13384700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15078000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15667800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31118800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13721000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13711500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14610900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13861400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13471900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12947700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12817300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13316300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12869100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12797900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12444100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12853700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2199700</v>
+        <v>2260800</v>
       </c>
       <c r="E49" s="3">
-        <v>2136500</v>
+        <v>2096000</v>
       </c>
       <c r="F49" s="3">
-        <v>2201700</v>
+        <v>2035800</v>
       </c>
       <c r="G49" s="3">
-        <v>2109900</v>
+        <v>2097900</v>
       </c>
       <c r="H49" s="3">
-        <v>1982800</v>
+        <v>2010400</v>
       </c>
       <c r="I49" s="3">
-        <v>1875400</v>
+        <v>1889300</v>
       </c>
       <c r="J49" s="3">
+        <v>1787000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1807800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1487700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1428300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1576900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1642100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1787900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1829400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3799400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1743200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1768700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>861500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>957700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>954200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>903400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>891800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>949500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>992600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>988400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>656000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>657700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4239,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1103600</v>
+        <v>1103900</v>
       </c>
       <c r="E52" s="3">
-        <v>1095100</v>
+        <v>1051600</v>
       </c>
       <c r="F52" s="3">
-        <v>1226100</v>
+        <v>1043400</v>
       </c>
       <c r="G52" s="3">
-        <v>1188400</v>
+        <v>1168200</v>
       </c>
       <c r="H52" s="3">
-        <v>1080200</v>
+        <v>1132300</v>
       </c>
       <c r="I52" s="3">
-        <v>969300</v>
+        <v>1029300</v>
       </c>
       <c r="J52" s="3">
+        <v>923600</v>
+      </c>
+      <c r="K52" s="3">
         <v>785600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>797700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>746000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>730400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>798900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>893400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>901800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1805500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1353500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1388500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1458400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1317400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1118100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1054100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1038900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1055100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1022800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>998600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>934800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>965000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36013600</v>
+        <v>37038500</v>
       </c>
       <c r="E54" s="3">
-        <v>35777500</v>
+        <v>34315300</v>
       </c>
       <c r="F54" s="3">
-        <v>36997400</v>
+        <v>34090300</v>
       </c>
       <c r="G54" s="3">
-        <v>36118700</v>
+        <v>35252700</v>
       </c>
       <c r="H54" s="3">
-        <v>33818700</v>
+        <v>34415400</v>
       </c>
       <c r="I54" s="3">
-        <v>32985000</v>
+        <v>32223900</v>
       </c>
       <c r="J54" s="3">
+        <v>31429500</v>
+      </c>
+      <c r="K54" s="3">
         <v>32103700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32607800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32586200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30707800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32029000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35373500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35281000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38963600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34934500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36127200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36842700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36252100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>36443600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>34446800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34136600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>35789700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>34619000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>34397000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>31320200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>32961200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4574,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3704400</v>
+        <v>3629400</v>
       </c>
       <c r="E57" s="3">
-        <v>4380100</v>
+        <v>3529700</v>
       </c>
       <c r="F57" s="3">
-        <v>4099200</v>
+        <v>4173500</v>
       </c>
       <c r="G57" s="3">
-        <v>3910800</v>
+        <v>3905900</v>
       </c>
       <c r="H57" s="3">
-        <v>3535400</v>
+        <v>3726400</v>
       </c>
       <c r="I57" s="3">
-        <v>3727600</v>
+        <v>3368700</v>
       </c>
       <c r="J57" s="3">
+        <v>3551900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3032400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3076400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2733400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3079600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2599700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2589600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3128200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5968100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1835100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2026300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2185100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2208700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2243400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2116200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1950300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2103600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2025600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2021500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1854200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1735000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1570100</v>
+        <v>2309000</v>
       </c>
       <c r="E58" s="3">
-        <v>1959400</v>
+        <v>1496100</v>
       </c>
       <c r="F58" s="3">
-        <v>1287900</v>
+        <v>1867000</v>
       </c>
       <c r="G58" s="3">
-        <v>1112000</v>
+        <v>1227100</v>
       </c>
       <c r="H58" s="3">
-        <v>1414600</v>
+        <v>1059600</v>
       </c>
       <c r="I58" s="3">
-        <v>1476800</v>
+        <v>1347900</v>
       </c>
       <c r="J58" s="3">
+        <v>1407200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1552700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1560400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2710100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2550400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2969700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3632300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1617000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2949000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1745500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2089300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2235600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2774400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2216500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1276800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1618000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1434900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1467800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1607300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1067600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3107800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2524300</v>
+        <v>2621100</v>
       </c>
       <c r="E59" s="3">
-        <v>2266800</v>
+        <v>2405300</v>
       </c>
       <c r="F59" s="3">
-        <v>2862400</v>
+        <v>2159900</v>
       </c>
       <c r="G59" s="3">
-        <v>2878300</v>
+        <v>2727400</v>
       </c>
       <c r="H59" s="3">
-        <v>2543200</v>
+        <v>2742600</v>
       </c>
       <c r="I59" s="3">
-        <v>2174300</v>
+        <v>2423300</v>
       </c>
       <c r="J59" s="3">
+        <v>2071700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2121400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2131300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2479300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2006000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2082500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1936300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2027200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6356000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3969500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4052700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4241900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4382200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3976300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3814200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3884900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4692900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4226900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3933500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3658000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4252700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7798800</v>
+        <v>8559600</v>
       </c>
       <c r="E60" s="3">
-        <v>7828600</v>
+        <v>7431000</v>
       </c>
       <c r="F60" s="3">
-        <v>8249500</v>
+        <v>7459400</v>
       </c>
       <c r="G60" s="3">
-        <v>7901100</v>
+        <v>7860500</v>
       </c>
       <c r="H60" s="3">
-        <v>7493200</v>
+        <v>7528500</v>
       </c>
       <c r="I60" s="3">
-        <v>7378700</v>
+        <v>7139900</v>
       </c>
       <c r="J60" s="3">
+        <v>7030800</v>
+      </c>
+      <c r="K60" s="3">
         <v>6706400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6768200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7922700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7636000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7651900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8158200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6772400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8156500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7550100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8168300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8662700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8374400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8436100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7207200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7453300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8231300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7720400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7562300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6579800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>7538000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4214500</v>
+        <v>3497200</v>
       </c>
       <c r="E61" s="3">
-        <v>4349600</v>
+        <v>4015700</v>
       </c>
       <c r="F61" s="3">
-        <v>4472700</v>
+        <v>4144500</v>
       </c>
       <c r="G61" s="3">
-        <v>4465600</v>
+        <v>4261800</v>
       </c>
       <c r="H61" s="3">
-        <v>4353000</v>
+        <v>4255000</v>
       </c>
       <c r="I61" s="3">
-        <v>4371500</v>
+        <v>4147700</v>
       </c>
       <c r="J61" s="3">
+        <v>4165300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4321900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4445000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4555600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4825000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5152000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5627300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5787000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5978000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4133900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4137000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2442500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2031700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1989500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2684500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2665900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2714700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2646700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2640600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1438000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1481900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1831000</v>
+        <v>1805200</v>
       </c>
       <c r="E62" s="3">
-        <v>1879200</v>
+        <v>1744600</v>
       </c>
       <c r="F62" s="3">
-        <v>1981900</v>
+        <v>1790500</v>
       </c>
       <c r="G62" s="3">
-        <v>2088800</v>
+        <v>1888500</v>
       </c>
       <c r="H62" s="3">
-        <v>2006300</v>
+        <v>1990300</v>
       </c>
       <c r="I62" s="3">
-        <v>1945500</v>
+        <v>1911700</v>
       </c>
       <c r="J62" s="3">
+        <v>1853700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2048700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2108100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2041900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2155300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2277400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2570900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2755700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4777500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2594100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2650800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2918600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2848700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3083300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2898400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2955800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3122900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3026900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3025700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2934900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3133100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14199100</v>
+        <v>14205000</v>
       </c>
       <c r="E66" s="3">
-        <v>14393800</v>
+        <v>13529500</v>
       </c>
       <c r="F66" s="3">
-        <v>15054000</v>
+        <v>13715000</v>
       </c>
       <c r="G66" s="3">
-        <v>14805400</v>
+        <v>14344100</v>
       </c>
       <c r="H66" s="3">
-        <v>14194100</v>
+        <v>14107200</v>
       </c>
       <c r="I66" s="3">
-        <v>14023500</v>
+        <v>13524800</v>
       </c>
       <c r="J66" s="3">
+        <v>13362200</v>
+      </c>
+      <c r="K66" s="3">
         <v>13379600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13639700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14844900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14948600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15423000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16749200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15745300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17560800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14744100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15439800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14541300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13766400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13999700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13266900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13552900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14583900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13891000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13721500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11424400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>12677000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18262200</v>
+        <v>18092500</v>
       </c>
       <c r="E72" s="3">
-        <v>18033000</v>
+        <v>17401000</v>
       </c>
       <c r="F72" s="3">
-        <v>17180000</v>
+        <v>17182700</v>
       </c>
       <c r="G72" s="3">
-        <v>16906100</v>
+        <v>16369900</v>
       </c>
       <c r="H72" s="3">
-        <v>16622900</v>
+        <v>16108800</v>
       </c>
       <c r="I72" s="3">
-        <v>16659900</v>
+        <v>15839000</v>
       </c>
       <c r="J72" s="3">
+        <v>15874300</v>
+      </c>
+      <c r="K72" s="3">
         <v>16784800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17007300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15925300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14682900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15438900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17177700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18111900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44028300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22532700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22193000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22722500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22336800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21311700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20630000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19983000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21211900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20394100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20283300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>19252000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>19213200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21814400</v>
+        <v>22833500</v>
       </c>
       <c r="E76" s="3">
-        <v>21383700</v>
+        <v>20785700</v>
       </c>
       <c r="F76" s="3">
-        <v>21943300</v>
+        <v>20375300</v>
       </c>
       <c r="G76" s="3">
-        <v>21313200</v>
+        <v>20908500</v>
       </c>
       <c r="H76" s="3">
-        <v>19624600</v>
+        <v>20308200</v>
       </c>
       <c r="I76" s="3">
-        <v>18961500</v>
+        <v>18699100</v>
       </c>
       <c r="J76" s="3">
+        <v>18067300</v>
+      </c>
+      <c r="K76" s="3">
         <v>18724100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18968100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17741300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15759200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16606100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18624400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19535800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21402800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20190400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20687400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22301400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22485700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22443800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21179900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20583800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21205800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20728000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20675500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>19895800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20284200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>652500</v>
+        <v>633000</v>
       </c>
       <c r="E81" s="3">
-        <v>804800</v>
+        <v>621700</v>
       </c>
       <c r="F81" s="3">
-        <v>690700</v>
+        <v>766800</v>
       </c>
       <c r="G81" s="3">
-        <v>282000</v>
+        <v>658200</v>
       </c>
       <c r="H81" s="3">
-        <v>388200</v>
+        <v>268700</v>
       </c>
       <c r="I81" s="3">
-        <v>-207700</v>
+        <v>369900</v>
       </c>
       <c r="J81" s="3">
+        <v>-197900</v>
+      </c>
+      <c r="K81" s="3">
         <v>508500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>493000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2022400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-354100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>171600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>469700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>825800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>393100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>536100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>681400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>788200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>647300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>576300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>818200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>596000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>656300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>525400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>731700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>520900</v>
+        <v>511400</v>
       </c>
       <c r="E83" s="3">
-        <v>523200</v>
+        <v>496300</v>
       </c>
       <c r="F83" s="3">
-        <v>544800</v>
+        <v>498500</v>
       </c>
       <c r="G83" s="3">
-        <v>492800</v>
+        <v>519100</v>
       </c>
       <c r="H83" s="3">
-        <v>473200</v>
+        <v>469600</v>
       </c>
       <c r="I83" s="3">
-        <v>466600</v>
+        <v>450900</v>
       </c>
       <c r="J83" s="3">
+        <v>444600</v>
+      </c>
+      <c r="K83" s="3">
         <v>461700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>442800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>435700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>498300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>516900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>565200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>589000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>627500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>642000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>648500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>644800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>479300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>503300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>444400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>465300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>489800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>473600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>440100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>440600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>428800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,70 +7135,73 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>863100</v>
+        <v>798800</v>
       </c>
       <c r="E89" s="3">
-        <v>1041700</v>
+        <v>822400</v>
       </c>
       <c r="F89" s="3">
-        <v>1032500</v>
+        <v>992600</v>
       </c>
       <c r="G89" s="3">
-        <v>147700</v>
+        <v>983800</v>
       </c>
       <c r="H89" s="3">
-        <v>433700</v>
+        <v>140800</v>
       </c>
       <c r="I89" s="3">
-        <v>23300</v>
+        <v>413200</v>
       </c>
       <c r="J89" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K89" s="3">
         <v>416000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>180000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>644200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1553400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1323100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>691700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>564600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1895100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>694900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>888100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
+      <c r="W89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -7008,8 +7224,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,70 +7259,71 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65299000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-92261000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-85398000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-55869000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-41907000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-71552000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-55048000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-45318000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-196600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-349000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-376900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-364000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-325900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-566700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-626200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-678600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-523100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -7126,8 +7346,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,70 +7524,73 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-577900</v>
+        <v>-332300</v>
       </c>
       <c r="E94" s="3">
-        <v>-437400</v>
+        <v>-550600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1169900</v>
+        <v>-416800</v>
       </c>
       <c r="G94" s="3">
-        <v>-295800</v>
+        <v>-1114800</v>
       </c>
       <c r="H94" s="3">
-        <v>-533800</v>
+        <v>-281900</v>
       </c>
       <c r="I94" s="3">
-        <v>-370200</v>
+        <v>-508600</v>
       </c>
       <c r="J94" s="3">
+        <v>-352700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-598100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-175200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2055000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-292400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-382600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-522200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-44100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-358100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -7384,8 +7613,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,65 +7648,66 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-438400</v>
+        <v>-5400</v>
       </c>
       <c r="E96" s="3">
-        <v>-700</v>
+        <v>-417700</v>
       </c>
       <c r="F96" s="3">
-        <v>-426000</v>
+        <v>-600</v>
       </c>
       <c r="G96" s="3">
-        <v>-4400</v>
+        <v>-405900</v>
       </c>
       <c r="H96" s="3">
-        <v>-427100</v>
+        <v>-4200</v>
       </c>
       <c r="I96" s="3">
+        <v>-407000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-430900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-293600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-273700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-490000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-528100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-572200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7502,8 +7735,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,70 +8002,73 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-310500</v>
+        <v>-128400</v>
       </c>
       <c r="E100" s="3">
-        <v>-292800</v>
+        <v>-295800</v>
       </c>
       <c r="F100" s="3">
-        <v>-673200</v>
+        <v>-279000</v>
       </c>
       <c r="G100" s="3">
-        <v>-690100</v>
+        <v>-641500</v>
       </c>
       <c r="H100" s="3">
-        <v>-969000</v>
+        <v>-657600</v>
       </c>
       <c r="I100" s="3">
-        <v>-220500</v>
+        <v>-923300</v>
       </c>
       <c r="J100" s="3">
+        <v>-210100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-526400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1688400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-326200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-385600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-724900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1947000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-568400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-230900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1278300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7846,70 +8091,73 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11600</v>
+        <v>297400</v>
       </c>
       <c r="E101" s="3">
-        <v>-352200</v>
+        <v>11000</v>
       </c>
       <c r="F101" s="3">
-        <v>119100</v>
+        <v>-335600</v>
       </c>
       <c r="G101" s="3">
-        <v>418500</v>
+        <v>113500</v>
       </c>
       <c r="H101" s="3">
-        <v>284400</v>
+        <v>398700</v>
       </c>
       <c r="I101" s="3">
-        <v>115400</v>
+        <v>271000</v>
       </c>
       <c r="J101" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-32400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-57400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>316500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>28100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-53300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>82200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-164300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>102700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-89500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-56300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>67800</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -7932,70 +8180,73 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13700</v>
+        <v>635600</v>
       </c>
       <c r="E102" s="3">
-        <v>-40800</v>
+        <v>-13000</v>
       </c>
       <c r="F102" s="3">
-        <v>-691600</v>
+        <v>-38800</v>
       </c>
       <c r="G102" s="3">
-        <v>-419800</v>
+        <v>-659000</v>
       </c>
       <c r="H102" s="3">
-        <v>-784700</v>
+        <v>-400000</v>
       </c>
       <c r="I102" s="3">
-        <v>-452000</v>
+        <v>-747700</v>
       </c>
       <c r="J102" s="3">
+        <v>-430700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-740900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1741100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2689400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1095400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>252500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2338300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-690300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1329100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1274100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>564100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
+      <c r="W102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -8016,6 +8267,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRDCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,404 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7269600</v>
+        <v>7280300</v>
       </c>
       <c r="E8" s="3">
-        <v>7169100</v>
+        <v>7026200</v>
       </c>
       <c r="F8" s="3">
-        <v>7784700</v>
+        <v>6929100</v>
       </c>
       <c r="G8" s="3">
-        <v>7492300</v>
+        <v>7524100</v>
       </c>
       <c r="H8" s="3">
-        <v>6837900</v>
+        <v>7241500</v>
       </c>
       <c r="I8" s="3">
-        <v>6121200</v>
+        <v>6609000</v>
       </c>
       <c r="J8" s="3">
+        <v>5916300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5800300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5820400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5756600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5156000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5065500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5774300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4752500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6217800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8048800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8122100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8168200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8151300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9212700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8349700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8322400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7816100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8862300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8318900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8054200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7556300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7913900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>7080300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4460900</v>
+        <v>4507000</v>
       </c>
       <c r="E9" s="3">
-        <v>4416900</v>
+        <v>4311600</v>
       </c>
       <c r="F9" s="3">
-        <v>4764500</v>
+        <v>4269000</v>
       </c>
       <c r="G9" s="3">
-        <v>4591700</v>
+        <v>4605000</v>
       </c>
       <c r="H9" s="3">
-        <v>4194200</v>
+        <v>4438000</v>
       </c>
       <c r="I9" s="3">
-        <v>3740200</v>
+        <v>4053800</v>
       </c>
       <c r="J9" s="3">
+        <v>3615000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3318300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3396300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3395600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3069100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2818700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3709400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3230500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3894700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5024300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4951200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5149100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5094700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5770100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5275700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5136800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4767700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5507100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5290700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4957100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4610500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>4741000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>4175500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2808700</v>
+        <v>2773300</v>
       </c>
       <c r="E10" s="3">
-        <v>2752300</v>
+        <v>2714600</v>
       </c>
       <c r="F10" s="3">
-        <v>3020300</v>
+        <v>2660100</v>
       </c>
       <c r="G10" s="3">
-        <v>2900600</v>
+        <v>2919100</v>
       </c>
       <c r="H10" s="3">
-        <v>2643700</v>
+        <v>2803500</v>
       </c>
       <c r="I10" s="3">
-        <v>2381000</v>
+        <v>2555200</v>
       </c>
       <c r="J10" s="3">
+        <v>2301300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2482000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2424100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2361000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2086900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2246800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2064900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1522000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2323200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3024500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3170900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3019100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3056600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3442500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3074000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3185600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3048400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3355200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3028200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3097100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2945800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3172900</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2904900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,97 +1094,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>203200</v>
+        <v>200400</v>
       </c>
       <c r="E12" s="3">
-        <v>203900</v>
+        <v>196400</v>
       </c>
       <c r="F12" s="3">
-        <v>209200</v>
+        <v>197100</v>
       </c>
       <c r="G12" s="3">
-        <v>192700</v>
+        <v>202200</v>
       </c>
       <c r="H12" s="3">
-        <v>187600</v>
+        <v>186300</v>
       </c>
       <c r="I12" s="3">
-        <v>181200</v>
+        <v>181300</v>
       </c>
       <c r="J12" s="3">
+        <v>175100</v>
+      </c>
+      <c r="K12" s="3">
         <v>157300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>163000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>168300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>159200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>126200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>173000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>186300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>229200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>252500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>235800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>252200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>243000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>269400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>238200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>228100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>220800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>241900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>216700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>232200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>207300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>215600</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1260,186 +1276,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-30700</v>
+        <v>-6000</v>
       </c>
       <c r="E14" s="3">
-        <v>9100</v>
+        <v>-29700</v>
       </c>
       <c r="F14" s="3">
-        <v>44900</v>
+        <v>8800</v>
       </c>
       <c r="G14" s="3">
-        <v>13700</v>
+        <v>43400</v>
       </c>
       <c r="H14" s="3">
-        <v>5700</v>
+        <v>13200</v>
       </c>
       <c r="I14" s="3">
-        <v>88700</v>
+        <v>5500</v>
       </c>
       <c r="J14" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K14" s="3">
         <v>49900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>487000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>682000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>383400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>47500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>190200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>41600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-103500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-2100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-280400</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3">
         <v>99800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>9300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>58400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>39200</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>189600</v>
+        <v>193400</v>
       </c>
       <c r="E15" s="3">
-        <v>180000</v>
+        <v>183300</v>
       </c>
       <c r="F15" s="3">
-        <v>181800</v>
+        <v>174000</v>
       </c>
       <c r="G15" s="3">
-        <v>186300</v>
+        <v>175700</v>
       </c>
       <c r="H15" s="3">
-        <v>168900</v>
+        <v>180100</v>
       </c>
       <c r="I15" s="3">
-        <v>159600</v>
+        <v>163300</v>
       </c>
       <c r="J15" s="3">
+        <v>154300</v>
+      </c>
+      <c r="K15" s="3">
         <v>158200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>161700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>161900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>156500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>159000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>171800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>179100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>193000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>312700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>310900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>200000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>203500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>85000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>84700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>79500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>78600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>80500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>76300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>73000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>72800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>71300</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6423800</v>
+        <v>6449200</v>
       </c>
       <c r="E17" s="3">
-        <v>6293200</v>
+        <v>6208700</v>
       </c>
       <c r="F17" s="3">
-        <v>6863700</v>
+        <v>6082500</v>
       </c>
       <c r="G17" s="3">
-        <v>6577000</v>
+        <v>6633900</v>
       </c>
       <c r="H17" s="3">
-        <v>6244600</v>
+        <v>6356800</v>
       </c>
       <c r="I17" s="3">
-        <v>5519200</v>
+        <v>6035600</v>
       </c>
       <c r="J17" s="3">
+        <v>5334400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5037600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5098300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5071600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4565000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4771800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5669200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5164900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5873400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7408900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6921500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7573700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7348300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8154600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7219900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7417600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6908000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7883500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7444900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7166000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6700500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>6887600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>6189800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>845800</v>
+        <v>831200</v>
       </c>
       <c r="E18" s="3">
-        <v>875900</v>
+        <v>817500</v>
       </c>
       <c r="F18" s="3">
-        <v>921100</v>
+        <v>846600</v>
       </c>
       <c r="G18" s="3">
-        <v>915300</v>
+        <v>890200</v>
       </c>
       <c r="H18" s="3">
-        <v>593300</v>
+        <v>884700</v>
       </c>
       <c r="I18" s="3">
-        <v>602000</v>
+        <v>573400</v>
       </c>
       <c r="J18" s="3">
+        <v>581900</v>
+      </c>
+      <c r="K18" s="3">
         <v>762800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>722100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>684900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>591000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>293700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>105100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-412500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>344400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>640000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1200600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>594400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>803000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1058100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1129800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>904800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>908100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>978800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>874100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>888200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>855800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1026300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>890500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,453 +1711,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-48200</v>
       </c>
       <c r="E20" s="3">
-        <v>26500</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>-74600</v>
+        <v>25700</v>
       </c>
       <c r="G20" s="3">
-        <v>-35600</v>
+        <v>-72100</v>
       </c>
       <c r="H20" s="3">
-        <v>26300</v>
+        <v>-34400</v>
       </c>
       <c r="I20" s="3">
-        <v>58400</v>
+        <v>25400</v>
       </c>
       <c r="J20" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K20" s="3">
         <v>32100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>23500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>76900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>18700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>109100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-24800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>19900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-33000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>231400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>77600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>25400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-36800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>47400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1355000</v>
+        <v>1319900</v>
       </c>
       <c r="E21" s="3">
-        <v>1398800</v>
+        <v>1309700</v>
       </c>
       <c r="F21" s="3">
-        <v>1344900</v>
+        <v>1351900</v>
       </c>
       <c r="G21" s="3">
-        <v>1398800</v>
+        <v>1299900</v>
       </c>
       <c r="H21" s="3">
-        <v>1089100</v>
+        <v>1352000</v>
       </c>
       <c r="I21" s="3">
-        <v>1111300</v>
+        <v>1052700</v>
       </c>
       <c r="J21" s="3">
+        <v>1074100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1239400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1197600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1145300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1050200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>795700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>631400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>129400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>909400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1339200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1831800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1238200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1442400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1646500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1608300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1369100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1340400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1700000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1425200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1353700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1259500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1502500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1297500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34700</v>
+        <v>35400</v>
       </c>
       <c r="E22" s="3">
-        <v>31800</v>
+        <v>33600</v>
       </c>
       <c r="F22" s="3">
-        <v>27900</v>
+        <v>30800</v>
       </c>
       <c r="G22" s="3">
         <v>26900</v>
       </c>
       <c r="H22" s="3">
-        <v>21500</v>
+        <v>26000</v>
       </c>
       <c r="I22" s="3">
         <v>20800</v>
       </c>
       <c r="J22" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K22" s="3">
         <v>21100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>31800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>32800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>57400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>59900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>66700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>59900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>24600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>27700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>34100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>31600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>38200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>24500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>28500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>17900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>19500</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>808900</v>
+        <v>747600</v>
       </c>
       <c r="E23" s="3">
-        <v>870600</v>
+        <v>781800</v>
       </c>
       <c r="F23" s="3">
-        <v>818600</v>
+        <v>841500</v>
       </c>
       <c r="G23" s="3">
-        <v>852800</v>
+        <v>791200</v>
       </c>
       <c r="H23" s="3">
-        <v>598100</v>
+        <v>824300</v>
       </c>
       <c r="I23" s="3">
-        <v>639700</v>
+        <v>578000</v>
       </c>
       <c r="J23" s="3">
+        <v>618200</v>
+      </c>
+      <c r="K23" s="3">
         <v>773800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>715000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>683500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>596000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>278300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>90600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-467600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>287500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>659500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1153400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>546500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>749100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1142600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1077300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>890600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>843500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1172000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>927100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>885100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>801000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1054200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>848500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>161100</v>
+        <v>185000</v>
       </c>
       <c r="E24" s="3">
-        <v>238500</v>
+        <v>155700</v>
       </c>
       <c r="F24" s="3">
-        <v>205500</v>
+        <v>230500</v>
       </c>
       <c r="G24" s="3">
-        <v>155700</v>
+        <v>198600</v>
       </c>
       <c r="H24" s="3">
-        <v>228400</v>
+        <v>150500</v>
       </c>
       <c r="I24" s="3">
-        <v>183000</v>
+        <v>220700</v>
       </c>
       <c r="J24" s="3">
+        <v>176800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-25800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>178100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>172500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>130600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>123500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>154300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>117800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>184000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>311900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>138400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>192000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>447300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>269000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>226900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>242800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>331900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>307100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>212300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>255800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>298900</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2213,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>647800</v>
+        <v>562600</v>
       </c>
       <c r="E26" s="3">
-        <v>632100</v>
+        <v>626100</v>
       </c>
       <c r="F26" s="3">
-        <v>613100</v>
+        <v>610900</v>
       </c>
       <c r="G26" s="3">
-        <v>697100</v>
+        <v>592600</v>
       </c>
       <c r="H26" s="3">
-        <v>369700</v>
+        <v>673800</v>
       </c>
       <c r="I26" s="3">
-        <v>456700</v>
+        <v>357300</v>
       </c>
       <c r="J26" s="3">
+        <v>441400</v>
+      </c>
+      <c r="K26" s="3">
         <v>799600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>536900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>511000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>465400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>154800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-63700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-413100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>169800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>475500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>841500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>408100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>557100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>695400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>808300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>663700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>600600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>840100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>620100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>672800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>545200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>755300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>549900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>636400</v>
+        <v>546900</v>
       </c>
       <c r="E27" s="3">
-        <v>622800</v>
+        <v>615100</v>
       </c>
       <c r="F27" s="3">
-        <v>606700</v>
+        <v>602000</v>
       </c>
       <c r="G27" s="3">
-        <v>684200</v>
+        <v>586400</v>
       </c>
       <c r="H27" s="3">
-        <v>358500</v>
+        <v>661300</v>
       </c>
       <c r="I27" s="3">
-        <v>449400</v>
+        <v>346500</v>
       </c>
       <c r="J27" s="3">
+        <v>434400</v>
+      </c>
+      <c r="K27" s="3">
         <v>789800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>527900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>448400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>148300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-76400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>147700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>469700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>825800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>393100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>536100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>681400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>788200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>647300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>576300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>818200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>596000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>656300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>525400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>731700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,61 +2537,64 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3400</v>
+        <v>11400</v>
       </c>
       <c r="E29" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1100</v>
       </c>
-      <c r="F29" s="3">
-        <v>160100</v>
-      </c>
       <c r="G29" s="3">
-        <v>-26100</v>
+        <v>154800</v>
       </c>
       <c r="H29" s="3">
-        <v>-89800</v>
+        <v>-25200</v>
       </c>
       <c r="I29" s="3">
-        <v>-79600</v>
+        <v>-86800</v>
       </c>
       <c r="J29" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-987700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-19400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-7500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1574000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-142300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>60300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>46600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>23900</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2569,8 +2629,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2658,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2747,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>48200</v>
       </c>
       <c r="E32" s="3">
-        <v>-26500</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>74600</v>
+        <v>-25700</v>
       </c>
       <c r="G32" s="3">
-        <v>35600</v>
+        <v>72100</v>
       </c>
       <c r="H32" s="3">
-        <v>-26300</v>
+        <v>34400</v>
       </c>
       <c r="I32" s="3">
-        <v>-58400</v>
+        <v>-25400</v>
       </c>
       <c r="J32" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-32100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-23500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>23300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-76900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-18700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-109100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>24800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-19900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>33000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-231400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-77600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-25400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>36800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-47400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>633000</v>
+        <v>558400</v>
       </c>
       <c r="E33" s="3">
-        <v>621700</v>
+        <v>611800</v>
       </c>
       <c r="F33" s="3">
-        <v>766800</v>
+        <v>600900</v>
       </c>
       <c r="G33" s="3">
-        <v>658200</v>
+        <v>741200</v>
       </c>
       <c r="H33" s="3">
-        <v>268700</v>
+        <v>636100</v>
       </c>
       <c r="I33" s="3">
-        <v>369900</v>
+        <v>259700</v>
       </c>
       <c r="J33" s="3">
+        <v>357500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-197900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>508500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>493000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2022400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-354100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>171600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>469700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>825800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>393100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>536100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>681400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>788200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>647300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>576300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>818200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>596000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>656300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>525400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>731700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>633000</v>
+        <v>558400</v>
       </c>
       <c r="E35" s="3">
-        <v>621700</v>
+        <v>611800</v>
       </c>
       <c r="F35" s="3">
-        <v>766800</v>
+        <v>600900</v>
       </c>
       <c r="G35" s="3">
-        <v>658200</v>
+        <v>741200</v>
       </c>
       <c r="H35" s="3">
-        <v>268700</v>
+        <v>636100</v>
       </c>
       <c r="I35" s="3">
-        <v>369900</v>
+        <v>259700</v>
       </c>
       <c r="J35" s="3">
+        <v>357500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-197900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>508500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>493000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2022400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-354100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>171600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>469700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>825800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>393100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>536100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>681400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>788200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>647300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>576300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>818200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>596000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>656300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>525400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>731700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3230,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3263,809 +3348,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4187400</v>
+        <v>4281200</v>
       </c>
       <c r="E41" s="3">
-        <v>3551900</v>
+        <v>4047200</v>
       </c>
       <c r="F41" s="3">
-        <v>3564900</v>
+        <v>3433000</v>
       </c>
       <c r="G41" s="3">
-        <v>3603700</v>
+        <v>3445500</v>
       </c>
       <c r="H41" s="3">
-        <v>4262700</v>
+        <v>3483100</v>
       </c>
       <c r="I41" s="3">
-        <v>4662700</v>
+        <v>4120000</v>
       </c>
       <c r="J41" s="3">
+        <v>4506600</v>
+      </c>
+      <c r="K41" s="3">
         <v>5410400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6130200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7004500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8436200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5941300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5150000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5362800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3123800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3943900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2740700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3982700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3636300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4157200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3618500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3839700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3842000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4627500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3814400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4267500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3099000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4284300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>3141800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>112600</v>
+        <v>56900</v>
       </c>
       <c r="E42" s="3">
-        <v>58900</v>
+        <v>108800</v>
       </c>
       <c r="F42" s="3">
-        <v>103800</v>
+        <v>56900</v>
       </c>
       <c r="G42" s="3">
-        <v>157400</v>
+        <v>100300</v>
       </c>
       <c r="H42" s="3">
-        <v>64200</v>
+        <v>152100</v>
       </c>
       <c r="I42" s="3">
-        <v>68000</v>
+        <v>62100</v>
       </c>
       <c r="J42" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K42" s="3">
         <v>80900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>54100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>51600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>45100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>53300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>51500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>86200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>155300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1369700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1356600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1323100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1240800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1452400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1538000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1440600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1170800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2004000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1762800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1563400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1328400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1487500</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>1346800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6890600</v>
+        <v>6886600</v>
       </c>
       <c r="E43" s="3">
-        <v>6460600</v>
+        <v>6660000</v>
       </c>
       <c r="F43" s="3">
-        <v>6503200</v>
+        <v>6244300</v>
       </c>
       <c r="G43" s="3">
-        <v>6713300</v>
+        <v>6285500</v>
       </c>
       <c r="H43" s="3">
-        <v>6056200</v>
+        <v>6488500</v>
       </c>
       <c r="I43" s="3">
-        <v>5475800</v>
+        <v>5853400</v>
       </c>
       <c r="J43" s="3">
+        <v>5292500</v>
+      </c>
+      <c r="K43" s="3">
         <v>5094900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5021400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4848000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4560700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4894700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5247200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5166800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5957200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11999600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5330100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5120200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5535200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5472300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5235300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4915100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4979300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4396600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4227700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3849600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3759800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3894300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3356000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6788100</v>
+        <v>6471500</v>
       </c>
       <c r="E44" s="3">
-        <v>6337500</v>
+        <v>6560800</v>
       </c>
       <c r="F44" s="3">
-        <v>6082000</v>
+        <v>6125300</v>
       </c>
       <c r="G44" s="3">
-        <v>6478600</v>
+        <v>5878400</v>
       </c>
       <c r="H44" s="3">
-        <v>5837700</v>
+        <v>6261700</v>
       </c>
       <c r="I44" s="3">
-        <v>4974100</v>
+        <v>5642300</v>
       </c>
       <c r="J44" s="3">
+        <v>4807600</v>
+      </c>
+      <c r="K44" s="3">
         <v>4329100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4487800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4166700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3725300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3600800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4021000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5073500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5496700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11174200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5646400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5756300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6145500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5826700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6012000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5542800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5444800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5335200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5557500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5631700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>5198100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4944200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>4617000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>950900</v>
+        <v>924800</v>
       </c>
       <c r="E45" s="3">
-        <v>940000</v>
+        <v>919000</v>
       </c>
       <c r="F45" s="3">
-        <v>1008000</v>
+        <v>908600</v>
       </c>
       <c r="G45" s="3">
-        <v>1109200</v>
+        <v>974300</v>
       </c>
       <c r="H45" s="3">
-        <v>1256100</v>
+        <v>1072100</v>
       </c>
       <c r="I45" s="3">
-        <v>943000</v>
+        <v>1214000</v>
       </c>
       <c r="J45" s="3">
+        <v>911400</v>
+      </c>
+      <c r="K45" s="3">
         <v>836800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>635600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>649000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>587400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>569600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>679500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>648300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>643800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>780500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1290500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1233600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1217000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1145000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1780200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1605900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1554400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1599400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1782100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1801500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1521500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1552300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1529300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18929700</v>
+        <v>18621100</v>
       </c>
       <c r="E46" s="3">
-        <v>17348900</v>
+        <v>18295900</v>
       </c>
       <c r="F46" s="3">
-        <v>17261900</v>
+        <v>16768100</v>
       </c>
       <c r="G46" s="3">
-        <v>18062300</v>
+        <v>16684000</v>
       </c>
       <c r="H46" s="3">
-        <v>17476900</v>
+        <v>17457600</v>
       </c>
       <c r="I46" s="3">
-        <v>16123600</v>
+        <v>16891800</v>
       </c>
       <c r="J46" s="3">
+        <v>15583800</v>
+      </c>
+      <c r="K46" s="3">
         <v>15752000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16329200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16719800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17354700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15059700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15149100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16337500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15376800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17476700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16364300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17415900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17774800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18053400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18184000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17344100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16991400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17962800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17144600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17113800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>14906800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>16162500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>13990900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1059600</v>
+        <v>1100900</v>
       </c>
       <c r="E47" s="3">
-        <v>1035600</v>
+        <v>1024100</v>
       </c>
       <c r="F47" s="3">
-        <v>985200</v>
+        <v>1000900</v>
       </c>
       <c r="G47" s="3">
-        <v>1067600</v>
+        <v>952200</v>
       </c>
       <c r="H47" s="3">
-        <v>1129200</v>
+        <v>1031800</v>
       </c>
       <c r="I47" s="3">
-        <v>1102500</v>
+        <v>1091400</v>
       </c>
       <c r="J47" s="3">
+        <v>1065600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1137000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1145100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1145500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1050000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1009800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1054200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1276800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1505300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2990000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1752500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1842600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2137000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2062100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2715400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2197500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2397300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2506000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2589900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2498300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2378500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2322300</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>2025500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13684500</v>
+        <v>13411500</v>
       </c>
       <c r="E48" s="3">
-        <v>12783100</v>
+        <v>13226400</v>
       </c>
       <c r="F48" s="3">
-        <v>12764100</v>
+        <v>12355200</v>
       </c>
       <c r="G48" s="3">
-        <v>12856700</v>
+        <v>12336700</v>
       </c>
       <c r="H48" s="3">
-        <v>12666500</v>
+        <v>12426300</v>
       </c>
       <c r="I48" s="3">
-        <v>12079200</v>
+        <v>12242400</v>
       </c>
       <c r="J48" s="3">
+        <v>11674800</v>
+      </c>
+      <c r="K48" s="3">
         <v>11829900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12035900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12457000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12007200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12331000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13384700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15078000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15667800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31118800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13721000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13711500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14610900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13861400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13471900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12947700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12817300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13316300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12869100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12797900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12444100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>12853700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>11547300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2260800</v>
+        <v>2339300</v>
       </c>
       <c r="E49" s="3">
-        <v>2096000</v>
+        <v>2185100</v>
       </c>
       <c r="F49" s="3">
-        <v>2035800</v>
+        <v>2025800</v>
       </c>
       <c r="G49" s="3">
-        <v>2097900</v>
+        <v>1967600</v>
       </c>
       <c r="H49" s="3">
-        <v>2010400</v>
+        <v>2027700</v>
       </c>
       <c r="I49" s="3">
-        <v>1889300</v>
+        <v>1943100</v>
       </c>
       <c r="J49" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1787000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1807800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1487700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1428300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1576900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1642100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1787900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1829400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3799400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1743200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1768700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>861500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>957700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>954200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>903400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>891800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>949500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>992600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>988400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>656000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>657700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>570300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4153,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4242,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1103900</v>
+        <v>1119000</v>
       </c>
       <c r="E52" s="3">
-        <v>1051600</v>
+        <v>1067000</v>
       </c>
       <c r="F52" s="3">
-        <v>1043400</v>
+        <v>1016400</v>
       </c>
       <c r="G52" s="3">
-        <v>1168200</v>
+        <v>1008500</v>
       </c>
       <c r="H52" s="3">
-        <v>1132300</v>
+        <v>1129100</v>
       </c>
       <c r="I52" s="3">
-        <v>1029300</v>
+        <v>1094400</v>
       </c>
       <c r="J52" s="3">
+        <v>994800</v>
+      </c>
+      <c r="K52" s="3">
         <v>923600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>785600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>797700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>746000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>730400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>798900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>893400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>901800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1805500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1353500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1388500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1458400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1317400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1118100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1054100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1038900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1055100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1022800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>998600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>934800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>965000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>942100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4420,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37038500</v>
+        <v>36591800</v>
       </c>
       <c r="E54" s="3">
-        <v>34315300</v>
+        <v>35798500</v>
       </c>
       <c r="F54" s="3">
-        <v>34090300</v>
+        <v>33166400</v>
       </c>
       <c r="G54" s="3">
-        <v>35252700</v>
+        <v>32949000</v>
       </c>
       <c r="H54" s="3">
-        <v>34415400</v>
+        <v>34072500</v>
       </c>
       <c r="I54" s="3">
-        <v>32223900</v>
+        <v>33263200</v>
       </c>
       <c r="J54" s="3">
+        <v>31145100</v>
+      </c>
+      <c r="K54" s="3">
         <v>31429500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32103700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32607800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32586200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30707800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32029000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35373500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35281000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38963600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34934500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36127200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36842700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>36252100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36443600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34446800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>34136600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>35789700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>34619000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>34397000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>31320200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>32961200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>29076100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4542,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4575,542 +4704,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3629400</v>
+        <v>3550900</v>
       </c>
       <c r="E57" s="3">
-        <v>3529700</v>
+        <v>3507900</v>
       </c>
       <c r="F57" s="3">
-        <v>4173500</v>
+        <v>3411500</v>
       </c>
       <c r="G57" s="3">
-        <v>3905900</v>
+        <v>4033800</v>
       </c>
       <c r="H57" s="3">
-        <v>3726400</v>
+        <v>3775100</v>
       </c>
       <c r="I57" s="3">
-        <v>3368700</v>
+        <v>3601600</v>
       </c>
       <c r="J57" s="3">
+        <v>3255900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3551900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3032400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3076400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2733400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3079600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2599700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2589600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3128200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5968100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1835100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2026300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2185100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2208700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2243400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2116200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1950300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2103600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2025600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2021500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1854200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1735000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1541900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2309000</v>
+        <v>2249100</v>
       </c>
       <c r="E58" s="3">
-        <v>1496100</v>
+        <v>2231700</v>
       </c>
       <c r="F58" s="3">
-        <v>1867000</v>
+        <v>1446000</v>
       </c>
       <c r="G58" s="3">
-        <v>1227100</v>
+        <v>1804500</v>
       </c>
       <c r="H58" s="3">
-        <v>1059600</v>
+        <v>1186000</v>
       </c>
       <c r="I58" s="3">
-        <v>1347900</v>
+        <v>1024100</v>
       </c>
       <c r="J58" s="3">
+        <v>1302700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1407200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1552700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1560400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2710100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2550400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2969700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3632300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1617000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2949000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1745500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2089300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2235600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2774400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2216500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1276800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1618000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1434900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1467800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1607300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1067600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3107800</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1596600</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2621100</v>
+        <v>2793500</v>
       </c>
       <c r="E59" s="3">
-        <v>2405300</v>
+        <v>2533400</v>
       </c>
       <c r="F59" s="3">
-        <v>2159900</v>
+        <v>2324800</v>
       </c>
       <c r="G59" s="3">
-        <v>2727400</v>
+        <v>2087600</v>
       </c>
       <c r="H59" s="3">
-        <v>2742600</v>
+        <v>2636100</v>
       </c>
       <c r="I59" s="3">
-        <v>2423300</v>
+        <v>2650800</v>
       </c>
       <c r="J59" s="3">
+        <v>2342100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2071700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2121400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2131300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2479300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2006000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2082500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1936300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2027200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6356000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3969500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4052700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4241900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4382200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3976300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3814200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3884900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4692900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4226900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3933500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3658000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4252700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3205600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8559600</v>
+        <v>8593500</v>
       </c>
       <c r="E60" s="3">
-        <v>7431000</v>
+        <v>8273000</v>
       </c>
       <c r="F60" s="3">
-        <v>7459400</v>
+        <v>7182300</v>
       </c>
       <c r="G60" s="3">
-        <v>7860500</v>
+        <v>7209700</v>
       </c>
       <c r="H60" s="3">
-        <v>7528500</v>
+        <v>7597300</v>
       </c>
       <c r="I60" s="3">
-        <v>7139900</v>
+        <v>7276500</v>
       </c>
       <c r="J60" s="3">
+        <v>6900800</v>
+      </c>
+      <c r="K60" s="3">
         <v>7030800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6706400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6768200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7922700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7636000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7651900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8158200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6772400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8156500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7550100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8168300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8662700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8374400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8436100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7207200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7453300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8231300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7720400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>7562300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6579800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>7538000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>6344100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3497200</v>
+        <v>3416900</v>
       </c>
       <c r="E61" s="3">
-        <v>4015700</v>
+        <v>3380200</v>
       </c>
       <c r="F61" s="3">
-        <v>4144500</v>
+        <v>3881300</v>
       </c>
       <c r="G61" s="3">
-        <v>4261800</v>
+        <v>4005700</v>
       </c>
       <c r="H61" s="3">
-        <v>4255000</v>
+        <v>4119100</v>
       </c>
       <c r="I61" s="3">
-        <v>4147700</v>
+        <v>4112500</v>
       </c>
       <c r="J61" s="3">
+        <v>4008900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4165300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4321900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4445000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4555600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4825000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5152000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5627300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5787000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5978000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4133900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4137000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2442500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2031700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1989500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2684500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2665900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2714700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2646700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2640600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1438000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1481900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1404300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1805200</v>
+        <v>1691800</v>
       </c>
       <c r="E62" s="3">
-        <v>1744600</v>
+        <v>1744700</v>
       </c>
       <c r="F62" s="3">
-        <v>1790500</v>
+        <v>1686200</v>
       </c>
       <c r="G62" s="3">
-        <v>1888500</v>
+        <v>1730600</v>
       </c>
       <c r="H62" s="3">
-        <v>1990300</v>
+        <v>1825200</v>
       </c>
       <c r="I62" s="3">
-        <v>1911700</v>
+        <v>1923700</v>
       </c>
       <c r="J62" s="3">
+        <v>1847700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1853700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2048700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2108100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2041900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2155300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2277400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2570900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2755700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4777500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2594100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2650800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2918600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2848700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3083300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2898400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2955800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3122900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3026900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3025700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2934900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>3133100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>2861500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5287,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5376,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14205000</v>
+        <v>14043500</v>
       </c>
       <c r="E66" s="3">
-        <v>13529500</v>
+        <v>13729400</v>
       </c>
       <c r="F66" s="3">
-        <v>13715000</v>
+        <v>13076600</v>
       </c>
       <c r="G66" s="3">
-        <v>14344100</v>
+        <v>13255900</v>
       </c>
       <c r="H66" s="3">
-        <v>14107200</v>
+        <v>13863900</v>
       </c>
       <c r="I66" s="3">
-        <v>13524800</v>
+        <v>13634900</v>
       </c>
       <c r="J66" s="3">
+        <v>13072000</v>
+      </c>
+      <c r="K66" s="3">
         <v>13362200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13379600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13639700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14844900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14948600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15423000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16749200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15745300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17560800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14744100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15439800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14541300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13766400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13999700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13266900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13552900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>14583900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13891000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>13721500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11424400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>12677000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>11064600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5498,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5587,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5765,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5854,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18092500</v>
+        <v>17590200</v>
       </c>
       <c r="E72" s="3">
-        <v>17401000</v>
+        <v>17486800</v>
       </c>
       <c r="F72" s="3">
-        <v>17182700</v>
+        <v>16818500</v>
       </c>
       <c r="G72" s="3">
-        <v>16369900</v>
+        <v>16607400</v>
       </c>
       <c r="H72" s="3">
-        <v>16108800</v>
+        <v>15821800</v>
       </c>
       <c r="I72" s="3">
-        <v>15839000</v>
+        <v>15569500</v>
       </c>
       <c r="J72" s="3">
+        <v>15308800</v>
+      </c>
+      <c r="K72" s="3">
         <v>15874300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16784800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17007300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15925300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14682900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15438900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17177700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18111900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44028300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22532700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22193000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22722500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22336800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21311700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20630000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19983000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21211900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20394100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>20283300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>19252000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>19213200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>18542900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6210,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22833500</v>
+        <v>22548300</v>
       </c>
       <c r="E76" s="3">
-        <v>20785700</v>
+        <v>22069000</v>
       </c>
       <c r="F76" s="3">
-        <v>20375300</v>
+        <v>20089800</v>
       </c>
       <c r="G76" s="3">
-        <v>20908500</v>
+        <v>19693100</v>
       </c>
       <c r="H76" s="3">
-        <v>20308200</v>
+        <v>20208600</v>
       </c>
       <c r="I76" s="3">
-        <v>18699100</v>
+        <v>19628300</v>
       </c>
       <c r="J76" s="3">
+        <v>18073100</v>
+      </c>
+      <c r="K76" s="3">
         <v>18067300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18724100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18968100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17741300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15759200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16606100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18624400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19535800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21402800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20190400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20687400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22301400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22485700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22443800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21179900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20583800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21205800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20728000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20675500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>19895800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>20284200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>18011600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6388,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>633000</v>
+        <v>558400</v>
       </c>
       <c r="E81" s="3">
-        <v>621700</v>
+        <v>611800</v>
       </c>
       <c r="F81" s="3">
-        <v>766800</v>
+        <v>600900</v>
       </c>
       <c r="G81" s="3">
-        <v>658200</v>
+        <v>741200</v>
       </c>
       <c r="H81" s="3">
-        <v>268700</v>
+        <v>636100</v>
       </c>
       <c r="I81" s="3">
-        <v>369900</v>
+        <v>259700</v>
       </c>
       <c r="J81" s="3">
+        <v>357500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-197900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>508500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>493000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2022400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-354100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>171600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>469700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>825800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>393100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>536100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>681400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>788200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>647300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>576300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>818200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>596000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>656300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>525400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>731700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>529600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6604,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>511400</v>
+        <v>536900</v>
       </c>
       <c r="E83" s="3">
-        <v>496300</v>
+        <v>494200</v>
       </c>
       <c r="F83" s="3">
-        <v>498500</v>
+        <v>479700</v>
       </c>
       <c r="G83" s="3">
-        <v>519100</v>
+        <v>481800</v>
       </c>
       <c r="H83" s="3">
-        <v>469600</v>
+        <v>501700</v>
       </c>
       <c r="I83" s="3">
-        <v>450900</v>
+        <v>453900</v>
       </c>
       <c r="J83" s="3">
+        <v>435800</v>
+      </c>
+      <c r="K83" s="3">
         <v>444600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>461700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>442800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>435700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>498300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>516900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>565200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>589000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>627500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>642000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>648500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>644800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>479300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>503300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>444400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>465300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>489800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>473600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>440100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>440600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>428800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>425200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6782,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6871,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6960,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7049,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7138,73 +7351,76 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>798800</v>
+        <v>1253800</v>
       </c>
       <c r="E89" s="3">
-        <v>822400</v>
+        <v>772100</v>
       </c>
       <c r="F89" s="3">
-        <v>992600</v>
+        <v>794900</v>
       </c>
       <c r="G89" s="3">
-        <v>983800</v>
+        <v>959300</v>
       </c>
       <c r="H89" s="3">
-        <v>140800</v>
+        <v>950900</v>
       </c>
       <c r="I89" s="3">
-        <v>413200</v>
+        <v>136100</v>
       </c>
       <c r="J89" s="3">
+        <v>399400</v>
+      </c>
+      <c r="K89" s="3">
         <v>22200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>416000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>180000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>644200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1553400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1323100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>691700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>564600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1895100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>694900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>888100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1172900</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
+      <c r="X89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -7227,8 +7443,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7260,73 +7479,74 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-82364000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-65299000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-92261000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-85398000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-55869000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-41907000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-71552000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55048000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45318000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-196600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-349000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-376900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-364000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-325900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-566700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-626200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-678600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-523100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-680800</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -7349,8 +7569,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7438,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7527,73 +7753,76 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-332300</v>
+        <v>-472200</v>
       </c>
       <c r="E94" s="3">
-        <v>-550600</v>
+        <v>-321200</v>
       </c>
       <c r="F94" s="3">
-        <v>-416800</v>
+        <v>-532200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1114800</v>
+        <v>-402800</v>
       </c>
       <c r="H94" s="3">
-        <v>-281900</v>
+        <v>-1077400</v>
       </c>
       <c r="I94" s="3">
-        <v>-508600</v>
+        <v>-272500</v>
       </c>
       <c r="J94" s="3">
+        <v>-491600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-352700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-598100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-175200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2055000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-292400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-382600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-522200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-44100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-358100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1335900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-694000</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -7616,8 +7845,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7649,68 +7881,69 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-453900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-403700</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-392300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-393400</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-430900</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-293600</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-273700</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-490000</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-528100</v>
+      </c>
+      <c r="U96" s="3">
         <v>-5400</v>
       </c>
-      <c r="E96" s="3">
-        <v>-417700</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-405900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-407000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-430900</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-293600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-273700</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-490000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-528100</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-572200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7738,8 +7971,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7827,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7916,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8005,73 +8247,76 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-128400</v>
+        <v>-568900</v>
       </c>
       <c r="E100" s="3">
-        <v>-295800</v>
+        <v>-124100</v>
       </c>
       <c r="F100" s="3">
-        <v>-279000</v>
+        <v>-285900</v>
       </c>
       <c r="G100" s="3">
-        <v>-641500</v>
+        <v>-269700</v>
       </c>
       <c r="H100" s="3">
-        <v>-657600</v>
+        <v>-620000</v>
       </c>
       <c r="I100" s="3">
-        <v>-923300</v>
+        <v>-635600</v>
       </c>
       <c r="J100" s="3">
+        <v>-892400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-210100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-526400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1688400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-326200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-385600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-724900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1947000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-568400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-230900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1278300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1194800</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="X100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -8094,73 +8339,76 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>297400</v>
+        <v>21300</v>
       </c>
       <c r="E101" s="3">
-        <v>11000</v>
+        <v>287500</v>
       </c>
       <c r="F101" s="3">
-        <v>-335600</v>
+        <v>10600</v>
       </c>
       <c r="G101" s="3">
-        <v>113500</v>
+        <v>-324400</v>
       </c>
       <c r="H101" s="3">
-        <v>398700</v>
+        <v>109700</v>
       </c>
       <c r="I101" s="3">
-        <v>271000</v>
+        <v>385400</v>
       </c>
       <c r="J101" s="3">
+        <v>262000</v>
+      </c>
+      <c r="K101" s="3">
         <v>110000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-32400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-57400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>316500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>28100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-53300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>82200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-164300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>102700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-89500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-56300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>67800</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -8183,73 +8431,76 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>635600</v>
+        <v>234000</v>
       </c>
       <c r="E102" s="3">
-        <v>-13000</v>
+        <v>614300</v>
       </c>
       <c r="F102" s="3">
-        <v>-38800</v>
+        <v>-12600</v>
       </c>
       <c r="G102" s="3">
-        <v>-659000</v>
+        <v>-37500</v>
       </c>
       <c r="H102" s="3">
-        <v>-400000</v>
+        <v>-636900</v>
       </c>
       <c r="I102" s="3">
-        <v>-747700</v>
+        <v>-386600</v>
       </c>
       <c r="J102" s="3">
+        <v>-722700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-430700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-740900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1741100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2689400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1095400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>252500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2338300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-690300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1329100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1274100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>564100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-648100</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
+      <c r="X102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -8270,6 +8521,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
